--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2661A4-5381-4557-9FA7-8AEDE849980D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F42E796-03DD-4953-9287-8A1B63FC80EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="1858">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -5604,6 +5604,9 @@
   </si>
   <si>
     <t>2020.5.14(self)</t>
+  </si>
+  <si>
+    <t>2020.5.18</t>
   </si>
 </sst>
 </file>
@@ -6076,7 +6079,7 @@
   <dimension ref="A1:E1656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1467" sqref="I1467"/>
+      <selection activeCell="D1190" sqref="D1190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8386,7 +8389,9 @@
       <c r="C190" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D190" s="3"/>
+      <c r="D190" s="3" t="s">
+        <v>1857</v>
+      </c>
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F42E796-03DD-4953-9287-8A1B63FC80EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0A1321-0BBD-4542-B1C6-A75B67468EB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="1859">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -5607,6 +5607,9 @@
   </si>
   <si>
     <t>2020.5.18</t>
+  </si>
+  <si>
+    <t>2020.5.19</t>
   </si>
 </sst>
 </file>
@@ -6078,8 +6081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36439EE-948F-4B95-AA31-6B4987F28A76}">
   <dimension ref="A1:E1656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1190" sqref="D1190"/>
+    <sheetView tabSelected="1" topLeftCell="A1443" workbookViewId="0">
+      <selection activeCell="A1463" sqref="A1447:XFD1463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7543,7 +7546,9 @@
       <c r="C120" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D120" s="3"/>
+      <c r="D120" s="3" t="s">
+        <v>1858</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0A1321-0BBD-4542-B1C6-A75B67468EB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E949FC-CDBA-4262-AE35-C75DEC93317E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="1860">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -5610,6 +5610,9 @@
   </si>
   <si>
     <t>2020.5.19</t>
+  </si>
+  <si>
+    <t>2020.5.20</t>
   </si>
 </sst>
 </file>
@@ -6081,8 +6084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36439EE-948F-4B95-AA31-6B4987F28A76}">
   <dimension ref="A1:E1656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1443" workbookViewId="0">
-      <selection activeCell="A1463" sqref="A1447:XFD1463"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7936,7 +7939,9 @@
       <c r="C152" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D152" s="3"/>
+      <c r="D152" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EBD575-B2C7-414A-BBE9-CB4255B68F9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2CF9BC-0EA0-4C63-A58B-D4E31F0CFE0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="3465" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2625" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="2192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="2193">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6610,6 +6610,9 @@
   </si>
   <si>
     <t>2010.05.21</t>
+  </si>
+  <si>
+    <t>2020.5.22</t>
   </si>
 </sst>
 </file>
@@ -7221,7 +7224,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1474" sqref="B1474"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7555,7 +7558,9 @@
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>2192</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2CF9BC-0EA0-4C63-A58B-D4E31F0CFE0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655510C4-0A35-40BC-8F74-02DBFD84CE0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2625" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="2193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="2194">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6613,6 +6613,9 @@
   </si>
   <si>
     <t>2020.5.22</t>
+  </si>
+  <si>
+    <t>2020.5.23</t>
   </si>
 </sst>
 </file>
@@ -7224,7 +7227,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="H1472" sqref="H1472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10672,7 +10675,9 @@
       <c r="C284" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D284" s="3"/>
+      <c r="D284" s="3" t="s">
+        <v>2193</v>
+      </c>
     </row>
     <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="19">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655510C4-0A35-40BC-8F74-02DBFD84CE0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8F8F5-EF7D-4F90-84DA-A512896E4B13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="2194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="2195">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6609,13 +6609,16 @@
     <t>Apples &amp; Oranges  </t>
   </si>
   <si>
-    <t>2010.05.21</t>
-  </si>
-  <si>
     <t>2020.5.22</t>
   </si>
   <si>
     <t>2020.5.23</t>
+  </si>
+  <si>
+    <t>2020.5.21</t>
+  </si>
+  <si>
+    <t>2020.5.25</t>
   </si>
 </sst>
 </file>
@@ -7227,7 +7230,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1472" sqref="H1472"/>
+      <selection pane="bottomLeft" activeCell="D1471" sqref="D1471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7562,7 +7565,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10676,7 +10679,7 @@
         <v>5</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13972,7 +13975,7 @@
         <v>5</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15775,7 +15778,9 @@
       <c r="C708" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D708" s="3"/>
+      <c r="D708" s="3" t="s">
+        <v>2194</v>
+      </c>
     </row>
     <row r="709" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="20" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8F8F5-EF7D-4F90-84DA-A512896E4B13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF7AAE4-2E75-4FA5-A6AD-0974DCEC63CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="2195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="2196">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6619,6 +6619,9 @@
   </si>
   <si>
     <t>2020.5.25</t>
+  </si>
+  <si>
+    <t>2020.5.26</t>
   </si>
 </sst>
 </file>
@@ -7229,8 +7232,8 @@
   <dimension ref="A1:E1655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1471" sqref="D1471"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8962,7 +8965,9 @@
       <c r="C142" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="3"/>
+      <c r="D142" s="3" t="s">
+        <v>2195</v>
+      </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF7AAE4-2E75-4FA5-A6AD-0974DCEC63CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3714798-CE3A-4514-B515-E58ED2915E5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="2196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3885" uniqueCount="2197">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6622,6 +6622,9 @@
   </si>
   <si>
     <t>2020.5.26</t>
+  </si>
+  <si>
+    <t>2020.5.27</t>
   </si>
 </sst>
 </file>
@@ -7233,7 +7236,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
+      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8979,7 +8982,9 @@
       <c r="C143" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="4"/>
+      <c r="D143" s="4" t="s">
+        <v>2196</v>
+      </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="18">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3714798-CE3A-4514-B515-E58ED2915E5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF100579-471F-4787-8A63-A0260EE76BB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3885" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="2197">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7235,8 +7235,8 @@
   <dimension ref="A1:E1655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7280,7 +7280,9 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>2196</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF100579-471F-4787-8A63-A0260EE76BB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF205697-3E9E-4362-A00B-A82972F25C85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="2198">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6625,6 +6625,9 @@
   </si>
   <si>
     <t>2020.5.27</t>
+  </si>
+  <si>
+    <t>2020.5.28</t>
   </si>
 </sst>
 </file>
@@ -7236,7 +7239,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9208,7 +9211,9 @@
       <c r="C161" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D161" s="4"/>
+      <c r="D161" s="4" t="s">
+        <v>2197</v>
+      </c>
     </row>
     <row r="162" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="20" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF205697-3E9E-4362-A00B-A82972F25C85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7CEC36-76D2-48D9-ACA1-7689CDEFD694}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="2198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="2199">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -5601,9 +5601,6 @@
     <t>2020.5.16</t>
   </si>
   <si>
-    <t>2020.5.17（self)</t>
-  </si>
-  <si>
     <t>2020.5.14(self)</t>
   </si>
   <si>
@@ -6628,6 +6625,12 @@
   </si>
   <si>
     <t>2020.5.28</t>
+  </si>
+  <si>
+    <t>2020.5.17(self)</t>
+  </si>
+  <si>
+    <t>2020.5.29(self)</t>
   </si>
 </sst>
 </file>
@@ -7239,7 +7242,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7284,7 +7287,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7503,7 +7506,9 @@
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>2198</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
@@ -7576,7 +7581,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8708,7 +8713,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8974,7 +8979,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8988,7 +8993,7 @@
         <v>7</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9102,7 +9107,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9155,7 +9160,7 @@
     </row>
     <row r="157" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>171</v>
@@ -9167,7 +9172,7 @@
     </row>
     <row r="158" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="20" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>172</v>
@@ -9179,7 +9184,7 @@
     </row>
     <row r="159" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="20" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>173</v>
@@ -9191,7 +9196,7 @@
     </row>
     <row r="160" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="20" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B160" s="13" t="s">
         <v>174</v>
@@ -9212,12 +9217,12 @@
         <v>5</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="20" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>176</v>
@@ -9241,7 +9246,7 @@
     </row>
     <row r="164" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="20" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B164" s="13" t="s">
         <v>178</v>
@@ -9298,7 +9303,7 @@
         <v>5</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9327,7 +9332,7 @@
     </row>
     <row r="171" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="20" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>185</v>
@@ -9519,7 +9524,7 @@
     </row>
     <row r="187" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="20" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>201</v>
@@ -9564,7 +9569,7 @@
         <v>5</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9806,7 +9811,7 @@
         <v>7</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>1855</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10207,7 +10212,7 @@
     </row>
     <row r="244" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B244" s="13" t="s">
         <v>258</v>
@@ -10219,7 +10224,7 @@
     </row>
     <row r="245" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B245" s="14" t="s">
         <v>259</v>
@@ -10231,7 +10236,7 @@
     </row>
     <row r="246" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B246" s="13" t="s">
         <v>260</v>
@@ -10243,7 +10248,7 @@
     </row>
     <row r="247" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B247" s="14" t="s">
         <v>261</v>
@@ -10255,7 +10260,7 @@
     </row>
     <row r="248" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B248" s="13" t="s">
         <v>262</v>
@@ -10267,7 +10272,7 @@
     </row>
     <row r="249" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B249" s="14" t="s">
         <v>263</v>
@@ -10279,7 +10284,7 @@
     </row>
     <row r="250" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B250" s="13" t="s">
         <v>264</v>
@@ -10291,7 +10296,7 @@
     </row>
     <row r="251" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B251" s="14" t="s">
         <v>265</v>
@@ -10303,7 +10308,7 @@
     </row>
     <row r="252" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="20" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B252" s="13" t="s">
         <v>266</v>
@@ -10315,7 +10320,7 @@
     </row>
     <row r="253" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="20" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B253" s="14" t="s">
         <v>267</v>
@@ -10327,7 +10332,7 @@
     </row>
     <row r="254" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="20" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B254" s="13" t="s">
         <v>268</v>
@@ -10339,7 +10344,7 @@
     </row>
     <row r="255" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="20" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B255" s="14" t="s">
         <v>269</v>
@@ -10351,7 +10356,7 @@
     </row>
     <row r="256" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="20" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B256" s="13" t="s">
         <v>270</v>
@@ -10363,7 +10368,7 @@
     </row>
     <row r="257" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B257" s="14" t="s">
         <v>271</v>
@@ -10399,7 +10404,7 @@
     </row>
     <row r="260" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B260" s="13" t="s">
         <v>274</v>
@@ -10423,7 +10428,7 @@
     </row>
     <row r="262" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B262" s="13" t="s">
         <v>276</v>
@@ -10471,7 +10476,7 @@
     </row>
     <row r="266" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B266" s="13" t="s">
         <v>280</v>
@@ -10483,7 +10488,7 @@
     </row>
     <row r="267" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="20" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B267" s="14" t="s">
         <v>281</v>
@@ -10495,7 +10500,7 @@
     </row>
     <row r="268" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="20" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B268" s="13" t="s">
         <v>282</v>
@@ -10507,7 +10512,7 @@
     </row>
     <row r="269" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="18" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B269" s="14" t="s">
         <v>283</v>
@@ -10519,7 +10524,7 @@
     </row>
     <row r="270" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="20" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B270" s="13" t="s">
         <v>284</v>
@@ -10531,7 +10536,7 @@
     </row>
     <row r="271" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="20" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B271" s="14" t="s">
         <v>285</v>
@@ -10543,7 +10548,7 @@
     </row>
     <row r="272" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="20" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B272" s="13" t="s">
         <v>286</v>
@@ -10555,7 +10560,7 @@
     </row>
     <row r="273" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="20" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B273" s="14" t="s">
         <v>287</v>
@@ -10603,7 +10608,7 @@
     </row>
     <row r="277" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="20" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B277" s="14" t="s">
         <v>291</v>
@@ -10615,7 +10620,7 @@
     </row>
     <row r="278" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="20" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B278" s="13" t="s">
         <v>292</v>
@@ -10651,7 +10656,7 @@
     </row>
     <row r="281" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="20" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B281" s="14" t="s">
         <v>295</v>
@@ -10663,7 +10668,7 @@
     </row>
     <row r="282" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="20" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B282" s="13" t="s">
         <v>296</v>
@@ -10696,7 +10701,7 @@
         <v>5</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10713,7 +10718,7 @@
     </row>
     <row r="286" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="20" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B286" s="13" t="s">
         <v>300</v>
@@ -10725,7 +10730,7 @@
     </row>
     <row r="287" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="20" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B287" s="14" t="s">
         <v>301</v>
@@ -10749,7 +10754,7 @@
     </row>
     <row r="289" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="20" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B289" s="14" t="s">
         <v>303</v>
@@ -10785,7 +10790,7 @@
     </row>
     <row r="292" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B292" s="13" t="s">
         <v>306</v>
@@ -10809,7 +10814,7 @@
     </row>
     <row r="294" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="20" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B294" s="13" t="s">
         <v>308</v>
@@ -10821,7 +10826,7 @@
     </row>
     <row r="295" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="20" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B295" s="14" t="s">
         <v>309</v>
@@ -10833,7 +10838,7 @@
     </row>
     <row r="296" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="18" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B296" s="13" t="s">
         <v>310</v>
@@ -10845,7 +10850,7 @@
     </row>
     <row r="297" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="20" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B297" s="14" t="s">
         <v>311</v>
@@ -10869,7 +10874,7 @@
     </row>
     <row r="299" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="20" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B299" s="14" t="s">
         <v>313</v>
@@ -10917,7 +10922,7 @@
     </row>
     <row r="303" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="20" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B303" s="14" t="s">
         <v>317</v>
@@ -10953,7 +10958,7 @@
     </row>
     <row r="306" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="20" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B306" s="13" t="s">
         <v>320</v>
@@ -10989,7 +10994,7 @@
     </row>
     <row r="309" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="20" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B309" s="14" t="s">
         <v>323</v>
@@ -11025,7 +11030,7 @@
     </row>
     <row r="312" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="20" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B312" s="13" t="s">
         <v>326</v>
@@ -11061,7 +11066,7 @@
     </row>
     <row r="315" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="20" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B315" s="14" t="s">
         <v>329</v>
@@ -11097,7 +11102,7 @@
     </row>
     <row r="318" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="20" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B318" s="13" t="s">
         <v>332</v>
@@ -11133,7 +11138,7 @@
     </row>
     <row r="321" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="20" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B321" s="14" t="s">
         <v>335</v>
@@ -11169,7 +11174,7 @@
     </row>
     <row r="324" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="20" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B324" s="13" t="s">
         <v>338</v>
@@ -11193,7 +11198,7 @@
     </row>
     <row r="326" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="20" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B326" s="13" t="s">
         <v>340</v>
@@ -11289,7 +11294,7 @@
     </row>
     <row r="334" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="20" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B334" s="13" t="s">
         <v>348</v>
@@ -11361,7 +11366,7 @@
     </row>
     <row r="340" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="20" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B340" s="13" t="s">
         <v>354</v>
@@ -11373,7 +11378,7 @@
     </row>
     <row r="341" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="20" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B341" s="14" t="s">
         <v>355</v>
@@ -11447,7 +11452,7 @@
     </row>
     <row r="347" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="20" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B347" s="14" t="s">
         <v>362</v>
@@ -11471,7 +11476,7 @@
     </row>
     <row r="349" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="20" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B349" s="14" t="s">
         <v>364</v>
@@ -11507,7 +11512,7 @@
     </row>
     <row r="352" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="20" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B352" s="13" t="s">
         <v>367</v>
@@ -11531,7 +11536,7 @@
     </row>
     <row r="354" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="20" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B354" s="13" t="s">
         <v>369</v>
@@ -11567,7 +11572,7 @@
     </row>
     <row r="357" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="20" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B357" s="14" t="s">
         <v>372</v>
@@ -11591,7 +11596,7 @@
     </row>
     <row r="359" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="20" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B359" s="14" t="s">
         <v>374</v>
@@ -11603,7 +11608,7 @@
     </row>
     <row r="360" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="20" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B360" s="13" t="s">
         <v>375</v>
@@ -11615,7 +11620,7 @@
     </row>
     <row r="361" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="20" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B361" s="14" t="s">
         <v>376</v>
@@ -11627,7 +11632,7 @@
     </row>
     <row r="362" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="20" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B362" s="13" t="s">
         <v>377</v>
@@ -11639,7 +11644,7 @@
     </row>
     <row r="363" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="20" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B363" s="14" t="s">
         <v>378</v>
@@ -11651,7 +11656,7 @@
     </row>
     <row r="364" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="19" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B364" s="13" t="s">
         <v>379</v>
@@ -11663,7 +11668,7 @@
     </row>
     <row r="365" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="20" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B365" s="14" t="s">
         <v>380</v>
@@ -11675,7 +11680,7 @@
     </row>
     <row r="366" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="19" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B366" s="13" t="s">
         <v>381</v>
@@ -11687,7 +11692,7 @@
     </row>
     <row r="367" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="20" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B367" s="14" t="s">
         <v>382</v>
@@ -11723,7 +11728,7 @@
     </row>
     <row r="370" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="20" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B370" s="13" t="s">
         <v>385</v>
@@ -11735,7 +11740,7 @@
     </row>
     <row r="371" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="20" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B371" s="14" t="s">
         <v>386</v>
@@ -11843,7 +11848,7 @@
     </row>
     <row r="380" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="20" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B380" s="13" t="s">
         <v>395</v>
@@ -12191,7 +12196,7 @@
     </row>
     <row r="409" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="20" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B409" s="14" t="s">
         <v>424</v>
@@ -12227,7 +12232,7 @@
     </row>
     <row r="412" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="20" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B412" s="13" t="s">
         <v>427</v>
@@ -12311,7 +12316,7 @@
     </row>
     <row r="419" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="20" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B419" s="14" t="s">
         <v>434</v>
@@ -12359,7 +12364,7 @@
     </row>
     <row r="423" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="20" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B423" s="14" t="s">
         <v>438</v>
@@ -12395,7 +12400,7 @@
     </row>
     <row r="426" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="20" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B426" s="13" t="s">
         <v>441</v>
@@ -12407,7 +12412,7 @@
     </row>
     <row r="427" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="20" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B427" s="14" t="s">
         <v>442</v>
@@ -12419,7 +12424,7 @@
     </row>
     <row r="428" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="18" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B428" s="13" t="s">
         <v>443</v>
@@ -12431,7 +12436,7 @@
     </row>
     <row r="429" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="20" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B429" s="14" t="s">
         <v>444</v>
@@ -12467,7 +12472,7 @@
     </row>
     <row r="432" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="20" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B432" s="13" t="s">
         <v>447</v>
@@ -12563,7 +12568,7 @@
     </row>
     <row r="440" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="20" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B440" s="13" t="s">
         <v>455</v>
@@ -12623,7 +12628,7 @@
     </row>
     <row r="445" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="20" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B445" s="14" t="s">
         <v>460</v>
@@ -12875,7 +12880,7 @@
     </row>
     <row r="466" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="20" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B466" s="13" t="s">
         <v>481</v>
@@ -12923,7 +12928,7 @@
     </row>
     <row r="470" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="20" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B470" s="13" t="s">
         <v>485</v>
@@ -12947,7 +12952,7 @@
     </row>
     <row r="472" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="20" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B472" s="13" t="s">
         <v>487</v>
@@ -13103,7 +13108,7 @@
     </row>
     <row r="485" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="20" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B485" s="14" t="s">
         <v>500</v>
@@ -13141,7 +13146,7 @@
     </row>
     <row r="488" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="20" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B488" s="13" t="s">
         <v>503</v>
@@ -13165,7 +13170,7 @@
     </row>
     <row r="490" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="20" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B490" s="13" t="s">
         <v>505</v>
@@ -13177,7 +13182,7 @@
     </row>
     <row r="491" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="20" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B491" s="14" t="s">
         <v>506</v>
@@ -13287,7 +13292,7 @@
     </row>
     <row r="500" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="20" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B500" s="13" t="s">
         <v>516</v>
@@ -13359,7 +13364,7 @@
     </row>
     <row r="506" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="20" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B506" s="13" t="s">
         <v>522</v>
@@ -13419,7 +13424,7 @@
     </row>
     <row r="511" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="20" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B511" s="14" t="s">
         <v>527</v>
@@ -13431,7 +13436,7 @@
     </row>
     <row r="512" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="20" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B512" s="13" t="s">
         <v>528</v>
@@ -13443,7 +13448,7 @@
     </row>
     <row r="513" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="20" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B513" s="14" t="s">
         <v>529</v>
@@ -13623,7 +13628,7 @@
     </row>
     <row r="528" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="20" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B528" s="13" t="s">
         <v>544</v>
@@ -13671,7 +13676,7 @@
     </row>
     <row r="532" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="20" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B532" s="13" t="s">
         <v>548</v>
@@ -13695,7 +13700,7 @@
     </row>
     <row r="534" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="20" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B534" s="13" t="s">
         <v>550</v>
@@ -13707,7 +13712,7 @@
     </row>
     <row r="535" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="20" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B535" s="14" t="s">
         <v>551</v>
@@ -13731,7 +13736,7 @@
     </row>
     <row r="537" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="20" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B537" s="14" t="s">
         <v>553</v>
@@ -13827,7 +13832,7 @@
     </row>
     <row r="545" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="20" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B545" s="14" t="s">
         <v>561</v>
@@ -13839,7 +13844,7 @@
     </row>
     <row r="546" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="20" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B546" s="13" t="s">
         <v>562</v>
@@ -13875,7 +13880,7 @@
     </row>
     <row r="549" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="20" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B549" s="14" t="s">
         <v>565</v>
@@ -13887,7 +13892,7 @@
     </row>
     <row r="550" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="20" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B550" s="13" t="s">
         <v>566</v>
@@ -13899,7 +13904,7 @@
     </row>
     <row r="551" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="20" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B551" s="14" t="s">
         <v>567</v>
@@ -13959,7 +13964,7 @@
     </row>
     <row r="556" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="20" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B556" s="13" t="s">
         <v>572</v>
@@ -13992,7 +13997,7 @@
         <v>5</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14047,7 +14052,7 @@
     </row>
     <row r="563" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="20" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B563" s="14" t="s">
         <v>580</v>
@@ -14119,7 +14124,7 @@
     </row>
     <row r="569" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="20" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B569" s="14" t="s">
         <v>586</v>
@@ -14131,7 +14136,7 @@
     </row>
     <row r="570" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="20" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B570" s="13" t="s">
         <v>587</v>
@@ -14143,7 +14148,7 @@
     </row>
     <row r="571" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="20" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B571" s="14" t="s">
         <v>588</v>
@@ -14155,7 +14160,7 @@
     </row>
     <row r="572" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="20" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B572" s="13" t="s">
         <v>589</v>
@@ -14167,7 +14172,7 @@
     </row>
     <row r="573" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="19" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B573" s="14" t="s">
         <v>590</v>
@@ -14179,7 +14184,7 @@
     </row>
     <row r="574" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="20" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B574" s="13" t="s">
         <v>591</v>
@@ -14191,7 +14196,7 @@
     </row>
     <row r="575" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="20" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B575" s="14" t="s">
         <v>592</v>
@@ -14203,7 +14208,7 @@
     </row>
     <row r="576" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="18" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B576" s="13" t="s">
         <v>593</v>
@@ -14227,7 +14232,7 @@
     </row>
     <row r="578" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="20" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B578" s="13" t="s">
         <v>595</v>
@@ -14239,7 +14244,7 @@
     </row>
     <row r="579" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="20" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B579" s="14" t="s">
         <v>596</v>
@@ -14251,7 +14256,7 @@
     </row>
     <row r="580" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="20" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B580" s="13" t="s">
         <v>597</v>
@@ -14263,7 +14268,7 @@
     </row>
     <row r="581" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="20" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B581" s="14" t="s">
         <v>598</v>
@@ -14275,7 +14280,7 @@
     </row>
     <row r="582" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="18" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B582" s="13" t="s">
         <v>599</v>
@@ -14287,7 +14292,7 @@
     </row>
     <row r="583" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="20" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B583" s="14" t="s">
         <v>600</v>
@@ -14299,7 +14304,7 @@
     </row>
     <row r="584" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="18" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B584" s="13" t="s">
         <v>601</v>
@@ -14311,7 +14316,7 @@
     </row>
     <row r="585" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="20" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B585" s="14" t="s">
         <v>602</v>
@@ -14323,7 +14328,7 @@
     </row>
     <row r="586" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="20" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B586" s="13" t="s">
         <v>603</v>
@@ -14335,7 +14340,7 @@
     </row>
     <row r="587" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="20" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B587" s="14" t="s">
         <v>604</v>
@@ -14347,7 +14352,7 @@
     </row>
     <row r="588" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="18" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B588" s="13" t="s">
         <v>605</v>
@@ -14359,7 +14364,7 @@
     </row>
     <row r="589" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="20" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B589" s="14" t="s">
         <v>606</v>
@@ -14467,7 +14472,7 @@
     </row>
     <row r="598" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="20" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B598" s="13" t="s">
         <v>615</v>
@@ -14527,7 +14532,7 @@
     </row>
     <row r="603" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="20" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B603" s="14" t="s">
         <v>620</v>
@@ -14539,7 +14544,7 @@
     </row>
     <row r="604" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="20" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B604" s="13" t="s">
         <v>621</v>
@@ -14551,7 +14556,7 @@
     </row>
     <row r="605" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="20" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B605" s="14" t="s">
         <v>622</v>
@@ -14587,7 +14592,7 @@
     </row>
     <row r="608" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="20" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B608" s="13" t="s">
         <v>625</v>
@@ -14599,7 +14604,7 @@
     </row>
     <row r="609" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="20" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B609" s="14" t="s">
         <v>626</v>
@@ -14623,7 +14628,7 @@
     </row>
     <row r="611" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="20" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B611" s="14" t="s">
         <v>628</v>
@@ -14635,7 +14640,7 @@
     </row>
     <row r="612" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B612" s="13" t="s">
         <v>629</v>
@@ -14647,7 +14652,7 @@
     </row>
     <row r="613" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="20" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B613" s="14" t="s">
         <v>630</v>
@@ -14659,7 +14664,7 @@
     </row>
     <row r="614" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="20" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B614" s="13" t="s">
         <v>631</v>
@@ -14671,7 +14676,7 @@
     </row>
     <row r="615" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="20" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B615" s="14" t="s">
         <v>632</v>
@@ -14683,7 +14688,7 @@
     </row>
     <row r="616" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="20" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B616" s="13" t="s">
         <v>633</v>
@@ -14695,7 +14700,7 @@
     </row>
     <row r="617" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="20" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B617" s="14" t="s">
         <v>634</v>
@@ -14707,7 +14712,7 @@
     </row>
     <row r="618" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="19" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B618" s="13" t="s">
         <v>635</v>
@@ -14719,7 +14724,7 @@
     </row>
     <row r="619" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="20" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B619" s="14" t="s">
         <v>636</v>
@@ -14731,7 +14736,7 @@
     </row>
     <row r="620" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="20" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B620" s="13" t="s">
         <v>637</v>
@@ -14791,7 +14796,7 @@
     </row>
     <row r="625" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="20" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B625" s="14" t="s">
         <v>642</v>
@@ -14803,7 +14808,7 @@
     </row>
     <row r="626" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="20" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B626" s="13" t="s">
         <v>643</v>
@@ -14875,7 +14880,7 @@
     </row>
     <row r="632" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="20" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B632" s="13" t="s">
         <v>649</v>
@@ -14911,7 +14916,7 @@
     </row>
     <row r="635" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="20" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B635" s="14" t="s">
         <v>652</v>
@@ -14923,7 +14928,7 @@
     </row>
     <row r="636" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="20" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B636" s="13" t="s">
         <v>653</v>
@@ -15007,7 +15012,7 @@
     </row>
     <row r="643" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="20" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B643" s="14" t="s">
         <v>660</v>
@@ -15019,7 +15024,7 @@
     </row>
     <row r="644" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="19" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B644" s="13" t="s">
         <v>661</v>
@@ -15031,7 +15036,7 @@
     </row>
     <row r="645" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="20" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B645" s="14" t="s">
         <v>662</v>
@@ -15115,7 +15120,7 @@
     </row>
     <row r="652" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="20" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B652" s="13" t="s">
         <v>669</v>
@@ -15175,7 +15180,7 @@
     </row>
     <row r="657" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="20" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B657" s="14" t="s">
         <v>674</v>
@@ -15223,7 +15228,7 @@
     </row>
     <row r="661" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="20" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B661" s="14" t="s">
         <v>678</v>
@@ -15259,7 +15264,7 @@
     </row>
     <row r="664" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="20" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B664" s="13" t="s">
         <v>681</v>
@@ -15295,7 +15300,7 @@
     </row>
     <row r="667" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="20" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B667" s="14" t="s">
         <v>684</v>
@@ -15475,7 +15480,7 @@
     </row>
     <row r="682" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="20" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B682" s="13" t="s">
         <v>699</v>
@@ -15487,7 +15492,7 @@
     </row>
     <row r="683" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="18" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B683" s="14" t="s">
         <v>700</v>
@@ -15499,7 +15504,7 @@
     </row>
     <row r="684" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="20" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B684" s="13" t="s">
         <v>701</v>
@@ -15631,7 +15636,7 @@
     </row>
     <row r="695" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="20" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B695" s="14" t="s">
         <v>712</v>
@@ -15727,7 +15732,7 @@
     </row>
     <row r="703" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="20" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B703" s="14" t="s">
         <v>720</v>
@@ -15796,12 +15801,12 @@
         <v>7</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="709" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="20" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B709" s="14" t="s">
         <v>726</v>
@@ -15837,7 +15842,7 @@
     </row>
     <row r="712" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="20" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B712" s="13" t="s">
         <v>729</v>
@@ -15897,7 +15902,7 @@
     </row>
     <row r="717" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="20" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B717" s="14" t="s">
         <v>734</v>
@@ -15981,7 +15986,7 @@
     </row>
     <row r="724" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="20" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B724" s="13" t="s">
         <v>741</v>
@@ -16031,7 +16036,7 @@
     </row>
     <row r="728" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="20" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B728" s="13" t="s">
         <v>744</v>
@@ -16115,7 +16120,7 @@
     </row>
     <row r="735" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="20" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B735" s="14" t="s">
         <v>751</v>
@@ -16151,7 +16156,7 @@
     </row>
     <row r="738" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="20" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B738" s="13" t="s">
         <v>754</v>
@@ -16211,7 +16216,7 @@
     </row>
     <row r="743" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="20" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B743" s="14" t="s">
         <v>759</v>
@@ -16309,7 +16314,7 @@
     </row>
     <row r="751" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A751" s="20" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B751" s="14" t="s">
         <v>767</v>
@@ -16321,7 +16326,7 @@
     </row>
     <row r="752" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A752" s="20" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B752" s="13" t="s">
         <v>768</v>
@@ -16369,7 +16374,7 @@
     </row>
     <row r="756" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A756" s="20" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B756" s="13" t="s">
         <v>772</v>
@@ -16405,7 +16410,7 @@
     </row>
     <row r="759" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A759" s="20" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B759" s="14" t="s">
         <v>775</v>
@@ -16417,7 +16422,7 @@
     </row>
     <row r="760" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="20" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B760" s="13" t="s">
         <v>776</v>
@@ -16429,7 +16434,7 @@
     </row>
     <row r="761" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A761" s="20" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B761" s="14" t="s">
         <v>777</v>
@@ -16573,7 +16578,7 @@
     </row>
     <row r="773" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A773" s="20" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B773" s="14" t="s">
         <v>789</v>
@@ -16597,7 +16602,7 @@
     </row>
     <row r="775" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A775" s="20" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B775" s="14" t="s">
         <v>791</v>
@@ -16621,7 +16626,7 @@
     </row>
     <row r="777" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A777" s="20" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B777" s="14" t="s">
         <v>793</v>
@@ -16909,7 +16914,7 @@
     </row>
     <row r="801" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A801" s="20" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B801" s="14" t="s">
         <v>817</v>
@@ -19849,7 +19854,7 @@
     </row>
     <row r="1046" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1046" s="20" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1046" s="13" t="s">
         <v>1062</v>
@@ -19909,7 +19914,7 @@
     </row>
     <row r="1051" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1051" s="20" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B1051" s="14" t="s">
         <v>1067</v>
@@ -19969,7 +19974,7 @@
     </row>
     <row r="1056" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1056" s="20" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1056" s="13" t="s">
         <v>1072</v>
@@ -19981,7 +19986,7 @@
     </row>
     <row r="1057" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1057" s="20" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B1057" s="14" t="s">
         <v>1073</v>
@@ -19993,7 +19998,7 @@
     </row>
     <row r="1058" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1058" s="20" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B1058" s="13" t="s">
         <v>1074</v>
@@ -20005,7 +20010,7 @@
     </row>
     <row r="1059" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1059" s="20" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B1059" s="14" t="s">
         <v>1075</v>
@@ -20017,7 +20022,7 @@
     </row>
     <row r="1060" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1060" s="20" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B1060" s="13" t="s">
         <v>1076</v>
@@ -20029,7 +20034,7 @@
     </row>
     <row r="1061" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1061" s="20" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B1061" s="14" t="s">
         <v>1077</v>
@@ -20041,7 +20046,7 @@
     </row>
     <row r="1062" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1062" s="20" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B1062" s="13" t="s">
         <v>1078</v>
@@ -20053,7 +20058,7 @@
     </row>
     <row r="1063" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1063" s="20" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B1063" s="14" t="s">
         <v>1061</v>
@@ -20065,7 +20070,7 @@
     </row>
     <row r="1064" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1064" s="20" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B1064" s="13" t="s">
         <v>1079</v>
@@ -20077,7 +20082,7 @@
     </row>
     <row r="1065" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1065" s="20" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B1065" s="14" t="s">
         <v>1080</v>
@@ -20089,7 +20094,7 @@
     </row>
     <row r="1066" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1066" s="20" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B1066" s="13" t="s">
         <v>1081</v>
@@ -20101,7 +20106,7 @@
     </row>
     <row r="1067" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1067" s="20" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B1067" s="14" t="s">
         <v>1082</v>
@@ -20113,7 +20118,7 @@
     </row>
     <row r="1068" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1068" s="20" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B1068" s="13" t="s">
         <v>1083</v>
@@ -20125,7 +20130,7 @@
     </row>
     <row r="1069" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1069" s="20" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B1069" s="14" t="s">
         <v>1084</v>
@@ -20137,7 +20142,7 @@
     </row>
     <row r="1070" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1070" s="20" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B1070" s="13" t="s">
         <v>1085</v>
@@ -20149,7 +20154,7 @@
     </row>
     <row r="1071" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1071" s="20" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B1071" s="14" t="s">
         <v>1086</v>
@@ -20209,7 +20214,7 @@
     </row>
     <row r="1076" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1076" s="20" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B1076" s="13" t="s">
         <v>1091</v>
@@ -20221,7 +20226,7 @@
     </row>
     <row r="1077" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1077" s="20" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B1077" s="14" t="s">
         <v>1092</v>
@@ -20233,7 +20238,7 @@
     </row>
     <row r="1078" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1078" s="20" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B1078" s="13" t="s">
         <v>1093</v>
@@ -20293,7 +20298,7 @@
     </row>
     <row r="1083" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1083" s="20" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B1083" s="14" t="s">
         <v>1098</v>
@@ -20305,7 +20310,7 @@
     </row>
     <row r="1084" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1084" s="20" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1084" s="13" t="s">
         <v>1099</v>
@@ -20317,7 +20322,7 @@
     </row>
     <row r="1085" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1085" s="20" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B1085" s="14" t="s">
         <v>1100</v>
@@ -20329,7 +20334,7 @@
     </row>
     <row r="1086" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1086" s="20" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B1086" s="13" t="s">
         <v>1101</v>
@@ -20341,7 +20346,7 @@
     </row>
     <row r="1087" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1087" s="20" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B1087" s="14" t="s">
         <v>1102</v>
@@ -20353,7 +20358,7 @@
     </row>
     <row r="1088" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1088" s="20" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B1088" s="13" t="s">
         <v>1103</v>
@@ -20365,7 +20370,7 @@
     </row>
     <row r="1089" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1089" s="20" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B1089" s="14" t="s">
         <v>1104</v>
@@ -20473,7 +20478,7 @@
     </row>
     <row r="1098" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1098" s="20" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1098" s="13" t="s">
         <v>1113</v>
@@ -20485,7 +20490,7 @@
     </row>
     <row r="1099" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1099" s="20" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1099" s="14" t="s">
         <v>1114</v>
@@ -20497,7 +20502,7 @@
     </row>
     <row r="1100" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1100" s="20" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1100" s="13" t="s">
         <v>1115</v>
@@ -20509,7 +20514,7 @@
     </row>
     <row r="1101" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1101" s="20" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1101" s="14" t="s">
         <v>1116</v>
@@ -20521,7 +20526,7 @@
     </row>
     <row r="1102" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1102" s="20" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B1102" s="13" t="s">
         <v>1117</v>
@@ -20533,7 +20538,7 @@
     </row>
     <row r="1103" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1103" s="20" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1103" s="14" t="s">
         <v>1118</v>
@@ -20593,7 +20598,7 @@
     </row>
     <row r="1108" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1108" s="20" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1108" s="13" t="s">
         <v>1123</v>
@@ -20653,7 +20658,7 @@
     </row>
     <row r="1113" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1113" s="20" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1113" s="14" t="s">
         <v>1128</v>
@@ -20665,7 +20670,7 @@
     </row>
     <row r="1114" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1114" s="20" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1114" s="13" t="s">
         <v>1129</v>
@@ -20725,7 +20730,7 @@
     </row>
     <row r="1119" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1119" s="20" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1119" s="14" t="s">
         <v>1134</v>
@@ -20737,7 +20742,7 @@
     </row>
     <row r="1120" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1120" s="20" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1120" s="13" t="s">
         <v>1135</v>
@@ -20749,7 +20754,7 @@
     </row>
     <row r="1121" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1121" s="20" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B1121" s="14" t="s">
         <v>1136</v>
@@ -20761,7 +20766,7 @@
     </row>
     <row r="1122" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1122" s="20" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B1122" s="13" t="s">
         <v>1137</v>
@@ -20821,7 +20826,7 @@
     </row>
     <row r="1127" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1127" s="20" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B1127" s="14" t="s">
         <v>1142</v>
@@ -20833,7 +20838,7 @@
     </row>
     <row r="1128" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1128" s="20" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B1128" s="13" t="s">
         <v>1143</v>
@@ -20893,7 +20898,7 @@
     </row>
     <row r="1133" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1133" s="20" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1133" s="14" t="s">
         <v>1148</v>
@@ -20905,7 +20910,7 @@
     </row>
     <row r="1134" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1134" s="20" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B1134" s="13" t="s">
         <v>1149</v>
@@ -20917,7 +20922,7 @@
     </row>
     <row r="1135" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1135" s="20" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B1135" s="14" t="s">
         <v>1150</v>
@@ -20929,7 +20934,7 @@
     </row>
     <row r="1136" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1136" s="20" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B1136" s="13" t="s">
         <v>1151</v>
@@ -20941,7 +20946,7 @@
     </row>
     <row r="1137" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1137" s="20" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B1137" s="14" t="s">
         <v>1152</v>
@@ -21001,7 +21006,7 @@
     </row>
     <row r="1142" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1142" s="20" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B1142" s="13" t="s">
         <v>1157</v>
@@ -21013,7 +21018,7 @@
     </row>
     <row r="1143" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1143" s="20" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1143" s="14" t="s">
         <v>1158</v>
@@ -21085,7 +21090,7 @@
     </row>
     <row r="1149" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1149" s="20" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B1149" s="14" t="s">
         <v>1164</v>
@@ -21097,7 +21102,7 @@
     </row>
     <row r="1150" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1150" s="20" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B1150" s="13" t="s">
         <v>1165</v>
@@ -21109,7 +21114,7 @@
     </row>
     <row r="1151" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1151" s="20" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1151" s="14" t="s">
         <v>1166</v>
@@ -21121,7 +21126,7 @@
     </row>
     <row r="1152" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1152" s="20" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B1152" s="13" t="s">
         <v>1167</v>
@@ -21133,7 +21138,7 @@
     </row>
     <row r="1153" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1153" s="20" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B1153" s="14" t="s">
         <v>1168</v>
@@ -21145,7 +21150,7 @@
     </row>
     <row r="1154" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1154" s="20" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1154" s="13" t="s">
         <v>1169</v>
@@ -21205,7 +21210,7 @@
     </row>
     <row r="1159" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1159" s="20" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B1159" s="14" t="s">
         <v>1174</v>
@@ -21217,7 +21222,7 @@
     </row>
     <row r="1160" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1160" s="20" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B1160" s="13" t="s">
         <v>1175</v>
@@ -21277,7 +21282,7 @@
     </row>
     <row r="1165" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1165" s="20" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1165" s="14" t="s">
         <v>1180</v>
@@ -21289,7 +21294,7 @@
     </row>
     <row r="1166" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1166" s="20" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B1166" s="13" t="s">
         <v>1181</v>
@@ -21301,7 +21306,7 @@
     </row>
     <row r="1167" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1167" s="20" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1167" s="14" t="s">
         <v>1182</v>
@@ -21313,7 +21318,7 @@
     </row>
     <row r="1168" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1168" s="20" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B1168" s="13" t="s">
         <v>1183</v>
@@ -21325,7 +21330,7 @@
     </row>
     <row r="1169" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1169" s="20" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B1169" s="14" t="s">
         <v>1184</v>
@@ -21385,7 +21390,7 @@
     </row>
     <row r="1174" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1174" s="20" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B1174" s="13" t="s">
         <v>1189</v>
@@ -21397,7 +21402,7 @@
     </row>
     <row r="1175" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1175" s="20" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1175" s="14" t="s">
         <v>1190</v>
@@ -21409,7 +21414,7 @@
     </row>
     <row r="1176" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1176" s="18" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1176" s="13" t="s">
         <v>1191</v>
@@ -21421,7 +21426,7 @@
     </row>
     <row r="1177" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1177" s="20" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B1177" s="14" t="s">
         <v>1192</v>
@@ -21469,7 +21474,7 @@
     </row>
     <row r="1181" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1181" s="20" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1181" s="14" t="s">
         <v>1196</v>
@@ -21481,7 +21486,7 @@
     </row>
     <row r="1182" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1182" s="20" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B1182" s="13" t="s">
         <v>1197</v>
@@ -21493,7 +21498,7 @@
     </row>
     <row r="1183" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1183" s="20" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1183" s="14" t="s">
         <v>1198</v>
@@ -21505,7 +21510,7 @@
     </row>
     <row r="1184" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1184" s="20" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B1184" s="13" t="s">
         <v>1199</v>
@@ -21565,7 +21570,7 @@
     </row>
     <row r="1189" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1189" s="20" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B1189" s="14" t="s">
         <v>1204</v>
@@ -21625,7 +21630,7 @@
     </row>
     <row r="1194" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1194" s="20" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1194" s="13" t="s">
         <v>1209</v>
@@ -21637,7 +21642,7 @@
     </row>
     <row r="1195" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1195" s="20" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B1195" s="14" t="s">
         <v>1210</v>
@@ -21649,7 +21654,7 @@
     </row>
     <row r="1196" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1196" s="18" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B1196" s="13" t="s">
         <v>1211</v>
@@ -21661,7 +21666,7 @@
     </row>
     <row r="1197" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1197" s="20" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B1197" s="14" t="s">
         <v>1212</v>
@@ -21673,7 +21678,7 @@
     </row>
     <row r="1198" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1198" s="20" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B1198" s="13" t="s">
         <v>1213</v>
@@ -21685,7 +21690,7 @@
     </row>
     <row r="1199" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1199" s="20" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B1199" s="14" t="s">
         <v>1214</v>
@@ -21697,7 +21702,7 @@
     </row>
     <row r="1200" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1200" s="20" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B1200" s="13" t="s">
         <v>1215</v>
@@ -21757,7 +21762,7 @@
     </row>
     <row r="1205" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1205" s="20" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B1205" s="14" t="s">
         <v>1220</v>
@@ -21769,7 +21774,7 @@
     </row>
     <row r="1206" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1206" s="20" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B1206" s="13" t="s">
         <v>1221</v>
@@ -21841,7 +21846,7 @@
     </row>
     <row r="1212" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1212" s="20" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B1212" s="13" t="s">
         <v>1227</v>
@@ -21853,7 +21858,7 @@
     </row>
     <row r="1213" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1213" s="20" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B1213" s="14" t="s">
         <v>1228</v>
@@ -21865,7 +21870,7 @@
     </row>
     <row r="1214" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1214" s="20" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B1214" s="13" t="s">
         <v>1229</v>
@@ -21877,7 +21882,7 @@
     </row>
     <row r="1215" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1215" s="20" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B1215" s="14" t="s">
         <v>1230</v>
@@ -21889,7 +21894,7 @@
     </row>
     <row r="1216" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1216" s="20" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B1216" s="13" t="s">
         <v>1231</v>
@@ -21901,7 +21906,7 @@
     </row>
     <row r="1217" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1217" s="20" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B1217" s="14" t="s">
         <v>1232</v>
@@ -22009,7 +22014,7 @@
     </row>
     <row r="1226" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1226" s="20" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B1226" s="13" t="s">
         <v>1241</v>
@@ -22045,7 +22050,7 @@
     </row>
     <row r="1229" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1229" s="20" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B1229" s="14" t="s">
         <v>1244</v>
@@ -22057,7 +22062,7 @@
     </row>
     <row r="1230" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1230" s="20" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B1230" s="13" t="s">
         <v>1245</v>
@@ -22069,7 +22074,7 @@
     </row>
     <row r="1231" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1231" s="20" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B1231" s="14" t="s">
         <v>1246</v>
@@ -22081,7 +22086,7 @@
     </row>
     <row r="1232" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1232" s="20" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1232" s="13" t="s">
         <v>1247</v>
@@ -22141,7 +22146,7 @@
     </row>
     <row r="1237" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1237" s="20" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B1237" s="14" t="s">
         <v>1252</v>
@@ -22201,7 +22206,7 @@
     </row>
     <row r="1242" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1242" s="20" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B1242" s="13" t="s">
         <v>1257</v>
@@ -22213,7 +22218,7 @@
     </row>
     <row r="1243" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1243" s="20" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1243" s="14" t="s">
         <v>1258</v>
@@ -22225,7 +22230,7 @@
     </row>
     <row r="1244" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1244" s="20" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B1244" s="13" t="s">
         <v>1259</v>
@@ -22237,7 +22242,7 @@
     </row>
     <row r="1245" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1245" s="20" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B1245" s="14" t="s">
         <v>1260</v>
@@ -22249,7 +22254,7 @@
     </row>
     <row r="1246" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1246" s="20" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B1246" s="13" t="s">
         <v>1261</v>
@@ -22261,7 +22266,7 @@
     </row>
     <row r="1247" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1247" s="20" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B1247" s="14" t="s">
         <v>1262</v>
@@ -22321,7 +22326,7 @@
     </row>
     <row r="1252" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1252" s="20" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B1252" s="13" t="s">
         <v>1267</v>
@@ -22381,7 +22386,7 @@
     </row>
     <row r="1257" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1257" s="20" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B1257" s="14" t="s">
         <v>1272</v>
@@ -22393,7 +22398,7 @@
     </row>
     <row r="1258" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1258" s="20" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B1258" s="13" t="s">
         <v>1273</v>
@@ -22405,7 +22410,7 @@
     </row>
     <row r="1259" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1259" s="20" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B1259" s="14" t="s">
         <v>1274</v>
@@ -22417,7 +22422,7 @@
     </row>
     <row r="1260" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1260" s="20" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B1260" s="13" t="s">
         <v>1275</v>
@@ -22477,7 +22482,7 @@
     </row>
     <row r="1265" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1265" s="20" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B1265" s="14" t="s">
         <v>1280</v>
@@ -22489,7 +22494,7 @@
     </row>
     <row r="1266" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1266" s="20" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B1266" s="13" t="s">
         <v>1281</v>
@@ -22549,7 +22554,7 @@
     </row>
     <row r="1271" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1271" s="20" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1271" s="14" t="s">
         <v>1286</v>
@@ -22561,7 +22566,7 @@
     </row>
     <row r="1272" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1272" s="20" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B1272" s="13" t="s">
         <v>1287</v>
@@ -22573,7 +22578,7 @@
     </row>
     <row r="1273" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1273" s="20" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B1273" s="14" t="s">
         <v>1288</v>
@@ -22585,7 +22590,7 @@
     </row>
     <row r="1274" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1274" s="20" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B1274" s="13" t="s">
         <v>1289</v>
@@ -22597,7 +22602,7 @@
     </row>
     <row r="1275" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1275" s="20" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B1275" s="14" t="s">
         <v>1290</v>
@@ -22657,7 +22662,7 @@
     </row>
     <row r="1280" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1280" s="20" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B1280" s="13" t="s">
         <v>1295</v>
@@ -22669,7 +22674,7 @@
     </row>
     <row r="1281" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1281" s="20" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B1281" s="14" t="s">
         <v>1296</v>
@@ -22729,7 +22734,7 @@
     </row>
     <row r="1286" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1286" s="20" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B1286" s="13" t="s">
         <v>1301</v>
@@ -22837,7 +22842,7 @@
     </row>
     <row r="1295" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1295" s="20" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B1295" s="14" t="s">
         <v>1310</v>
@@ -22945,7 +22950,7 @@
     </row>
     <row r="1304" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1304" s="20" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B1304" s="13" t="s">
         <v>1319</v>
@@ -23005,7 +23010,7 @@
     </row>
     <row r="1309" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1309" s="20" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B1309" s="14" t="s">
         <v>1324</v>
@@ -23161,7 +23166,7 @@
     </row>
     <row r="1322" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1322" s="20" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B1322" s="13" t="s">
         <v>1337</v>
@@ -23173,7 +23178,7 @@
     </row>
     <row r="1323" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1323" s="20" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B1323" s="14" t="s">
         <v>1338</v>
@@ -23233,7 +23238,7 @@
     </row>
     <row r="1328" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1328" s="20" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B1328" s="13" t="s">
         <v>1343</v>
@@ -23341,7 +23346,7 @@
     </row>
     <row r="1337" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1337" s="20" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B1337" s="14" t="s">
         <v>1352</v>
@@ -23401,7 +23406,7 @@
     </row>
     <row r="1342" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1342" s="20" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B1342" s="13" t="s">
         <v>1357</v>
@@ -23509,7 +23514,7 @@
     </row>
     <row r="1351" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1351" s="20" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B1351" s="14" t="s">
         <v>1366</v>
@@ -23569,7 +23574,7 @@
     </row>
     <row r="1356" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1356" s="20" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B1356" s="13" t="s">
         <v>1371</v>
@@ -23677,7 +23682,7 @@
     </row>
     <row r="1365" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1365" s="20" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B1365" s="14" t="s">
         <v>1380</v>
@@ -23737,7 +23742,7 @@
     </row>
     <row r="1370" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1370" s="20" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B1370" s="13" t="s">
         <v>1385</v>
@@ -23845,7 +23850,7 @@
     </row>
     <row r="1379" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1379" s="20" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B1379" s="14" t="s">
         <v>1394</v>
@@ -23917,7 +23922,7 @@
     </row>
     <row r="1385" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1385" s="20" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B1385" s="14" t="s">
         <v>1400</v>
@@ -24025,7 +24030,7 @@
     </row>
     <row r="1394" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1394" s="20" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B1394" s="13" t="s">
         <v>1409</v>
@@ -24085,7 +24090,7 @@
     </row>
     <row r="1399" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1399" s="20" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B1399" s="14" t="s">
         <v>1414</v>
@@ -24193,7 +24198,7 @@
     </row>
     <row r="1408" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1408" s="20" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B1408" s="13" t="s">
         <v>1423</v>
@@ -24253,7 +24258,7 @@
     </row>
     <row r="1413" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1413" s="20" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B1413" s="14" t="s">
         <v>1428</v>
@@ -24361,7 +24366,7 @@
     </row>
     <row r="1422" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1422" s="20" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B1422" s="13" t="s">
         <v>1437</v>
@@ -24421,7 +24426,7 @@
     </row>
     <row r="1427" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1427" s="20" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B1427" s="14" t="s">
         <v>1442</v>
@@ -24433,7 +24438,7 @@
     </row>
     <row r="1428" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1428" s="20" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B1428" s="13" t="s">
         <v>1443</v>
@@ -24445,7 +24450,7 @@
     </row>
     <row r="1429" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1429" s="20" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B1429" s="14" t="s">
         <v>1444</v>
@@ -24457,7 +24462,7 @@
     </row>
     <row r="1430" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1430" s="20" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B1430" s="13" t="s">
         <v>1445</v>
@@ -24469,7 +24474,7 @@
     </row>
     <row r="1431" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1431" s="20" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1431" s="14" t="s">
         <v>1446</v>
@@ -24529,7 +24534,7 @@
     </row>
     <row r="1436" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1436" s="20" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1436" s="13" t="s">
         <v>1451</v>
@@ -24589,7 +24594,7 @@
     </row>
     <row r="1441" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1441" s="20" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1441" s="14" t="s">
         <v>1456</v>
@@ -24649,7 +24654,7 @@
     </row>
     <row r="1446" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1446" s="20" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1446" s="13" t="s">
         <v>1461</v>
@@ -24664,7 +24669,7 @@
         <v>1446</v>
       </c>
       <c r="B1447" s="14" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C1447" s="3" t="s">
         <v>5</v>
@@ -24676,7 +24681,7 @@
         <v>1447</v>
       </c>
       <c r="B1448" s="14" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C1448" s="3" t="s">
         <v>7</v>
@@ -24688,7 +24693,7 @@
         <v>1448</v>
       </c>
       <c r="B1449" s="14" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C1449" s="3" t="s">
         <v>7</v>
@@ -24700,7 +24705,7 @@
         <v>1449</v>
       </c>
       <c r="B1450" s="14" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C1450" s="3" t="s">
         <v>10</v>
@@ -24712,7 +24717,7 @@
         <v>1450</v>
       </c>
       <c r="B1451" s="14" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C1451" s="3" t="s">
         <v>5</v>
@@ -24724,7 +24729,7 @@
         <v>1451</v>
       </c>
       <c r="B1452" s="14" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C1452" s="3" t="s">
         <v>7</v>
@@ -24736,7 +24741,7 @@
         <v>1452</v>
       </c>
       <c r="B1453" s="14" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C1453" s="3" t="s">
         <v>7</v>
@@ -24748,7 +24753,7 @@
         <v>1453</v>
       </c>
       <c r="B1454" s="14" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C1454" s="3" t="s">
         <v>10</v>
@@ -26994,7 +26999,7 @@
         <v>1445</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>7</v>
@@ -27007,7 +27012,7 @@
         <v>1446</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="30"/>
@@ -27018,7 +27023,7 @@
         <v>1447</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>7</v>
@@ -27031,7 +27036,7 @@
         <v>1448</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>7</v>
@@ -27044,7 +27049,7 @@
         <v>1449</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>10</v>
@@ -27057,7 +27062,7 @@
         <v>1450</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>5</v>
@@ -27070,7 +27075,7 @@
         <v>1451</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>7</v>
@@ -27083,7 +27088,7 @@
         <v>1452</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>7</v>
@@ -27096,7 +27101,7 @@
         <v>1453</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>10</v>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7CEC36-76D2-48D9-ACA1-7689CDEFD694}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B5090-46F1-4EE8-A4BB-B1F83C76C45A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="2200">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6631,6 +6631,9 @@
   </si>
   <si>
     <t>2020.5.29(self)</t>
+  </si>
+  <si>
+    <t>2020.6.1</t>
   </si>
 </sst>
 </file>
@@ -7242,7 +7245,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="G1476" sqref="G1476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9774,7 +9777,9 @@
       <c r="C207" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D207" s="4"/>
+      <c r="D207" s="4" t="s">
+        <v>2199</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="18">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B5090-46F1-4EE8-A4BB-B1F83C76C45A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F28A1E-70D7-49C7-A706-FF89B4381659}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="2200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="2201">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6634,6 +6634,9 @@
   </si>
   <si>
     <t>2020.6.1</t>
+  </si>
+  <si>
+    <t>2020.6.1(self)</t>
   </si>
 </sst>
 </file>
@@ -7244,8 +7247,8 @@
   <dimension ref="A1:E1655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1476" sqref="G1476"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9741,7 +9744,9 @@
       <c r="C204" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="3"/>
+      <c r="D204" s="3" t="s">
+        <v>2200</v>
+      </c>
     </row>
     <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="19">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F28A1E-70D7-49C7-A706-FF89B4381659}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B8EBA3-C5E2-4B57-A5ED-5705E700333B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="2201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="2202">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6637,6 +6637,9 @@
   </si>
   <si>
     <t>2020.6.1(self)</t>
+  </si>
+  <si>
+    <t>2020.6.2</t>
   </si>
 </sst>
 </file>
@@ -7247,8 +7250,8 @@
   <dimension ref="A1:E1655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I338" sqref="I338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11252,7 +11255,9 @@
       <c r="C329" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D329" s="4"/>
+      <c r="D329" s="4" t="s">
+        <v>2201</v>
+      </c>
     </row>
     <row r="330" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="18">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B8EBA3-C5E2-4B57-A5ED-5705E700333B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A79309-D223-4A93-A50F-66459F16A288}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="2202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="2203">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6640,6 +6640,9 @@
   </si>
   <si>
     <t>2020.6.2</t>
+  </si>
+  <si>
+    <t>2020.6.3</t>
   </si>
 </sst>
 </file>
@@ -7250,8 +7253,8 @@
   <dimension ref="A1:E1655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I338" sqref="I338"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I238" sqref="I238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10125,7 +10128,9 @@
       <c r="C235" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D235" s="4"/>
+      <c r="D235" s="4" t="s">
+        <v>2202</v>
+      </c>
     </row>
     <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="18">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A79309-D223-4A93-A50F-66459F16A288}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94437E-22F5-4133-9D7C-F3C4FF73DAF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="剑指Offer" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode 题目'!$A$2:$D$1470</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode 题目'!$A$2:$D$1486</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">剑指Offer!$A$3:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">程序员面试题金典!$A$3:$D$3</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="2203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="2223">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6603,9 +6603,6 @@
     <t>圆形靶内的最大飞镖数量  </t>
   </si>
   <si>
-    <t>Apples &amp; Oranges  </t>
-  </si>
-  <si>
     <t>2020.5.22</t>
   </si>
   <si>
@@ -6643,13 +6640,79 @@
   </si>
   <si>
     <t>2020.6.3</t>
+  </si>
+  <si>
+    <t> 活跃用户  </t>
+  </si>
+  <si>
+    <t>检查单词是否为句中其他单词的前缀  </t>
+  </si>
+  <si>
+    <t>定长子串中元音的最大数目  </t>
+  </si>
+  <si>
+    <t>二叉树中的伪回文路径  </t>
+  </si>
+  <si>
+    <t>两个子序列的最大点积  </t>
+  </si>
+  <si>
+    <t>矩形面积  新</t>
+  </si>
+  <si>
+    <t>通过翻转子数组使两个数组相等  </t>
+  </si>
+  <si>
+    <t>检查一个字符串是否包含所有长度为 K 的二进制子串  </t>
+  </si>
+  <si>
+    <t>课程安排 IV  </t>
+  </si>
+  <si>
+    <t>摘樱桃 II  </t>
+  </si>
+  <si>
+    <t>数组中两元素的最大乘积  </t>
+  </si>
+  <si>
+    <t>切割后面积最大的蛋糕  </t>
+  </si>
+  <si>
+    <t>重新规划路线  </t>
+  </si>
+  <si>
+    <t>两个盒子中球的颜色数相同的概率  </t>
+  </si>
+  <si>
+    <t>Calculate Salaries  新</t>
+  </si>
+  <si>
+    <t>Find All the Lonely Nodes  新</t>
+  </si>
+  <si>
+    <t>$1469</t>
+  </si>
+  <si>
+    <t>$1468</t>
+  </si>
+  <si>
+    <t>$1459</t>
+  </si>
+  <si>
+    <t>$1454</t>
+  </si>
+  <si>
+    <t>2020.6.5(slef5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6710,27 +6773,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFED7336"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF009975"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEC4C47"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -6849,7 +6894,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6917,9 +6962,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6931,20 +6973,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6955,14 +6988,29 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7249,12 +7297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36439EE-948F-4B95-AA31-6B4987F28A76}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E1655"/>
+  <dimension ref="A1:E1653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I238" sqref="I238"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7262,17 +7309,17 @@
     <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -7299,7 +7346,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7326,7 +7373,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>4</v>
       </c>
@@ -7398,7 +7445,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -7519,7 +7566,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7544,7 +7591,9 @@
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>2222</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
@@ -7558,7 +7607,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -7593,7 +7642,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7636,7 +7685,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -7660,7 +7709,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -7720,7 +7769,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -7768,7 +7817,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -7780,7 +7829,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -7804,7 +7853,7 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -7816,7 +7865,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -7888,7 +7937,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -7900,7 +7949,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -7962,7 +8011,7 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -8058,7 +8107,7 @@
       </c>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -8098,7 +8147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -8146,7 +8195,7 @@
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -8194,7 +8243,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -8290,7 +8339,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -8302,7 +8351,7 @@
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -8326,7 +8375,7 @@
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -8448,7 +8497,7 @@
       </c>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>97</v>
       </c>
@@ -8472,7 +8521,7 @@
       </c>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -8664,7 +8713,7 @@
       </c>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -8764,7 +8813,7 @@
       </c>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>123</v>
       </c>
@@ -8776,7 +8825,7 @@
       </c>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
         <v>124</v>
       </c>
@@ -8800,7 +8849,7 @@
       </c>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
         <v>126</v>
       </c>
@@ -8824,7 +8873,7 @@
       </c>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19">
         <v>128</v>
       </c>
@@ -8872,7 +8921,7 @@
       </c>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19">
         <v>132</v>
       </c>
@@ -8908,7 +8957,7 @@
       </c>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18">
         <v>135</v>
       </c>
@@ -8968,7 +9017,7 @@
       </c>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="19">
         <v>140</v>
       </c>
@@ -8991,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9005,7 +9054,7 @@
         <v>7</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9034,7 +9083,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="18">
         <v>145</v>
       </c>
@@ -9084,7 +9133,7 @@
       </c>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="18">
         <v>149</v>
       </c>
@@ -9146,7 +9195,7 @@
       </c>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19">
         <v>154</v>
       </c>
@@ -9194,7 +9243,7 @@
       </c>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="20" t="s">
         <v>1861</v>
       </c>
@@ -9229,7 +9278,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9268,7 +9317,7 @@
       </c>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19">
         <v>164</v>
       </c>
@@ -9280,7 +9329,7 @@
       </c>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="18">
         <v>165</v>
       </c>
@@ -9390,7 +9439,7 @@
       </c>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19">
         <v>174</v>
       </c>
@@ -9522,7 +9571,7 @@
       </c>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="18">
         <v>185</v>
       </c>
@@ -9558,7 +9607,7 @@
       </c>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19">
         <v>188</v>
       </c>
@@ -9751,7 +9800,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9789,7 +9838,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9827,7 +9876,7 @@
         <v>7</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9854,7 +9903,7 @@
       </c>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19">
         <v>212</v>
       </c>
@@ -9878,7 +9927,7 @@
       </c>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="19">
         <v>214</v>
       </c>
@@ -9926,7 +9975,7 @@
       </c>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="19">
         <v>218</v>
       </c>
@@ -9998,7 +10047,7 @@
       </c>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="19">
         <v>224</v>
       </c>
@@ -10106,7 +10155,7 @@
       </c>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="18">
         <v>233</v>
       </c>
@@ -10129,7 +10178,7 @@
         <v>5</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10180,7 +10229,7 @@
       </c>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="18">
         <v>239</v>
       </c>
@@ -10288,7 +10337,7 @@
       </c>
       <c r="D248" s="3"/>
     </row>
-    <row r="249" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20" t="s">
         <v>1872</v>
       </c>
@@ -10456,7 +10505,7 @@
       </c>
       <c r="D262" s="3"/>
     </row>
-    <row r="263" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="19">
         <v>262</v>
       </c>
@@ -10468,7 +10517,7 @@
       </c>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="18">
         <v>263</v>
       </c>
@@ -10492,7 +10541,7 @@
       </c>
       <c r="D265" s="4"/>
     </row>
-    <row r="266" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="20" t="s">
         <v>1883</v>
       </c>
@@ -10540,7 +10589,7 @@
       </c>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="20" t="s">
         <v>1886</v>
       </c>
@@ -10576,7 +10625,7 @@
       </c>
       <c r="D272" s="3"/>
     </row>
-    <row r="273" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="20" t="s">
         <v>1889</v>
       </c>
@@ -10588,7 +10637,7 @@
       </c>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="18">
         <v>273</v>
       </c>
@@ -10600,7 +10649,7 @@
       </c>
       <c r="D274" s="3"/>
     </row>
-    <row r="275" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="19">
         <v>274</v>
       </c>
@@ -10696,7 +10745,7 @@
       </c>
       <c r="D282" s="3"/>
     </row>
-    <row r="283" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="19">
         <v>282</v>
       </c>
@@ -10708,7 +10757,7 @@
       </c>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="18">
         <v>283</v>
       </c>
@@ -10719,7 +10768,7 @@
         <v>5</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10806,7 +10855,7 @@
       </c>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="s">
         <v>1898</v>
       </c>
@@ -10818,7 +10867,7 @@
       </c>
       <c r="D292" s="3"/>
     </row>
-    <row r="293" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="19">
         <v>292</v>
       </c>
@@ -10854,7 +10903,7 @@
       </c>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="18" t="s">
         <v>1902</v>
       </c>
@@ -10866,7 +10915,7 @@
       </c>
       <c r="D296" s="3"/>
     </row>
-    <row r="297" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="20" t="s">
         <v>1901</v>
       </c>
@@ -10878,7 +10927,7 @@
       </c>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="18">
         <v>297</v>
       </c>
@@ -10926,7 +10975,7 @@
       </c>
       <c r="D301" s="4"/>
     </row>
-    <row r="302" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="18">
         <v>301</v>
       </c>
@@ -10938,7 +10987,7 @@
       </c>
       <c r="D302" s="3"/>
     </row>
-    <row r="303" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="20" t="s">
         <v>1904</v>
       </c>
@@ -10950,7 +10999,7 @@
       </c>
       <c r="D303" s="4"/>
     </row>
-    <row r="304" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="18">
         <v>303</v>
       </c>
@@ -10974,7 +11023,7 @@
       </c>
       <c r="D305" s="4"/>
     </row>
-    <row r="306" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="20" t="s">
         <v>1905</v>
       </c>
@@ -10986,7 +11035,7 @@
       </c>
       <c r="D306" s="3"/>
     </row>
-    <row r="307" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="19">
         <v>306</v>
       </c>
@@ -11010,7 +11059,7 @@
       </c>
       <c r="D308" s="3"/>
     </row>
-    <row r="309" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="20" t="s">
         <v>1906</v>
       </c>
@@ -11022,7 +11071,7 @@
       </c>
       <c r="D309" s="4"/>
     </row>
-    <row r="310" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="18">
         <v>309</v>
       </c>
@@ -11058,7 +11107,7 @@
       </c>
       <c r="D312" s="3"/>
     </row>
-    <row r="313" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="19">
         <v>312</v>
       </c>
@@ -11070,7 +11119,7 @@
       </c>
       <c r="D313" s="4"/>
     </row>
-    <row r="314" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="18">
         <v>313</v>
       </c>
@@ -11094,7 +11143,7 @@
       </c>
       <c r="D315" s="4"/>
     </row>
-    <row r="316" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="18">
         <v>315</v>
       </c>
@@ -11106,7 +11155,7 @@
       </c>
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="19">
         <v>316</v>
       </c>
@@ -11118,7 +11167,7 @@
       </c>
       <c r="D317" s="4"/>
     </row>
-    <row r="318" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="20" t="s">
         <v>1909</v>
       </c>
@@ -11166,7 +11215,7 @@
       </c>
       <c r="D321" s="4"/>
     </row>
-    <row r="322" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="18">
         <v>321</v>
       </c>
@@ -11178,7 +11227,7 @@
       </c>
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="19">
         <v>322</v>
       </c>
@@ -11238,7 +11287,7 @@
       </c>
       <c r="D327" s="4"/>
     </row>
-    <row r="328" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="18">
         <v>327</v>
       </c>
@@ -11261,10 +11310,10 @@
         <v>7</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="18">
         <v>329</v>
       </c>
@@ -11276,7 +11325,7 @@
       </c>
       <c r="D330" s="3"/>
     </row>
-    <row r="331" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="19">
         <v>330</v>
       </c>
@@ -11336,7 +11385,7 @@
       </c>
       <c r="D335" s="4"/>
     </row>
-    <row r="336" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="18">
         <v>335</v>
       </c>
@@ -11348,7 +11397,7 @@
       </c>
       <c r="D336" s="3"/>
     </row>
-    <row r="337" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="19">
         <v>336</v>
       </c>
@@ -11396,7 +11445,7 @@
       </c>
       <c r="D340" s="3"/>
     </row>
-    <row r="341" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="20" t="s">
         <v>1915</v>
       </c>
@@ -11542,7 +11591,7 @@
       </c>
       <c r="D352" s="3"/>
     </row>
-    <row r="353" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="19">
         <v>352</v>
       </c>
@@ -11566,7 +11615,7 @@
       </c>
       <c r="D354" s="3"/>
     </row>
-    <row r="355" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="19">
         <v>354</v>
       </c>
@@ -11578,7 +11627,7 @@
       </c>
       <c r="D355" s="4"/>
     </row>
-    <row r="356" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="18">
         <v>355</v>
       </c>
@@ -11614,7 +11663,7 @@
       </c>
       <c r="D358" s="3"/>
     </row>
-    <row r="359" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="20" t="s">
         <v>1921</v>
       </c>
@@ -11674,7 +11723,7 @@
       </c>
       <c r="D363" s="4"/>
     </row>
-    <row r="364" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="19" t="s">
         <v>1929</v>
       </c>
@@ -11890,7 +11939,7 @@
       </c>
       <c r="D381" s="4"/>
     </row>
-    <row r="382" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="18">
         <v>381</v>
       </c>
@@ -12010,7 +12059,7 @@
       </c>
       <c r="D391" s="4"/>
     </row>
-    <row r="392" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="18">
         <v>391</v>
       </c>
@@ -12154,7 +12203,7 @@
       </c>
       <c r="D403" s="4"/>
     </row>
-    <row r="404" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="18">
         <v>403</v>
       </c>
@@ -12202,7 +12251,7 @@
       </c>
       <c r="D407" s="4"/>
     </row>
-    <row r="408" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="18">
         <v>407</v>
       </c>
@@ -12238,7 +12287,7 @@
       </c>
       <c r="D410" s="3"/>
     </row>
-    <row r="411" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="19">
         <v>410</v>
       </c>
@@ -12250,7 +12299,7 @@
       </c>
       <c r="D411" s="4"/>
     </row>
-    <row r="412" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="20" t="s">
         <v>1934</v>
       </c>
@@ -12262,7 +12311,7 @@
       </c>
       <c r="D412" s="3"/>
     </row>
-    <row r="413" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="19">
         <v>412</v>
       </c>
@@ -12358,7 +12407,7 @@
       </c>
       <c r="D420" s="3"/>
     </row>
-    <row r="421" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -12418,7 +12467,7 @@
       </c>
       <c r="D425" s="4"/>
     </row>
-    <row r="426" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="20" t="s">
         <v>1937</v>
       </c>
@@ -12454,7 +12503,7 @@
       </c>
       <c r="D428" s="3"/>
     </row>
-    <row r="429" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="20" t="s">
         <v>1939</v>
       </c>
@@ -12466,7 +12515,7 @@
       </c>
       <c r="D429" s="4"/>
     </row>
-    <row r="430" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="18">
         <v>429</v>
       </c>
@@ -12490,7 +12539,7 @@
       </c>
       <c r="D431" s="4"/>
     </row>
-    <row r="432" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="20" t="s">
         <v>1941</v>
       </c>
@@ -12502,7 +12551,7 @@
       </c>
       <c r="D432" s="3"/>
     </row>
-    <row r="433" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19">
         <v>432</v>
       </c>
@@ -12598,7 +12647,7 @@
       </c>
       <c r="D440" s="3"/>
     </row>
-    <row r="441" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="19">
         <v>440</v>
       </c>
@@ -12610,7 +12659,7 @@
       </c>
       <c r="D441" s="4"/>
     </row>
-    <row r="442" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="18">
         <v>441</v>
       </c>
@@ -12670,7 +12719,7 @@
       </c>
       <c r="D446" s="3"/>
     </row>
-    <row r="447" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19">
         <v>446</v>
       </c>
@@ -12814,7 +12863,7 @@
       </c>
       <c r="D458" s="3"/>
     </row>
-    <row r="459" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="19">
         <v>458</v>
       </c>
@@ -12838,7 +12887,7 @@
       </c>
       <c r="D460" s="3"/>
     </row>
-    <row r="461" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="19">
         <v>460</v>
       </c>
@@ -12898,7 +12947,7 @@
       </c>
       <c r="D465" s="4"/>
     </row>
-    <row r="466" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="20" t="s">
         <v>1944</v>
       </c>
@@ -12910,7 +12959,7 @@
       </c>
       <c r="D466" s="3"/>
     </row>
-    <row r="467" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="19">
         <v>466</v>
       </c>
@@ -12970,7 +13019,7 @@
       </c>
       <c r="D471" s="4"/>
     </row>
-    <row r="472" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="20" t="s">
         <v>1946</v>
       </c>
@@ -12982,7 +13031,7 @@
       </c>
       <c r="D472" s="3"/>
     </row>
-    <row r="473" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="19">
         <v>472</v>
       </c>
@@ -13066,7 +13115,7 @@
       </c>
       <c r="D479" s="4"/>
     </row>
-    <row r="480" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="18">
         <v>479</v>
       </c>
@@ -13078,7 +13127,7 @@
       </c>
       <c r="D480" s="3"/>
     </row>
-    <row r="481" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="19">
         <v>480</v>
       </c>
@@ -13114,7 +13163,7 @@
       </c>
       <c r="D483" s="4"/>
     </row>
-    <row r="484" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="18">
         <v>483</v>
       </c>
@@ -13176,7 +13225,7 @@
       </c>
       <c r="D488" s="3"/>
     </row>
-    <row r="489" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="19">
         <v>488</v>
       </c>
@@ -13188,7 +13237,7 @@
       </c>
       <c r="D489" s="4"/>
     </row>
-    <row r="490" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="20" t="s">
         <v>1949</v>
       </c>
@@ -13236,7 +13285,7 @@
       </c>
       <c r="D493" s="4"/>
     </row>
-    <row r="494" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="18">
         <v>493</v>
       </c>
@@ -13310,7 +13359,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="20" t="s">
         <v>1951</v>
       </c>
@@ -13322,7 +13371,7 @@
       </c>
       <c r="D500" s="3"/>
     </row>
-    <row r="501" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="19">
         <v>500</v>
       </c>
@@ -13346,7 +13395,7 @@
       </c>
       <c r="D502" s="3"/>
     </row>
-    <row r="503" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="19">
         <v>502</v>
       </c>
@@ -13490,7 +13539,7 @@
       </c>
       <c r="D514" s="3"/>
     </row>
-    <row r="515" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="19">
         <v>514</v>
       </c>
@@ -13526,7 +13575,7 @@
       </c>
       <c r="D517" s="4"/>
     </row>
-    <row r="518" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="18">
         <v>517</v>
       </c>
@@ -13646,7 +13695,7 @@
       </c>
       <c r="D527" s="4"/>
     </row>
-    <row r="528" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="20" t="s">
         <v>1956</v>
       </c>
@@ -13658,7 +13707,7 @@
       </c>
       <c r="D528" s="3"/>
     </row>
-    <row r="529" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="19">
         <v>528</v>
       </c>
@@ -13874,7 +13923,7 @@
       </c>
       <c r="D546" s="3"/>
     </row>
-    <row r="547" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="19">
         <v>546</v>
       </c>
@@ -13886,7 +13935,7 @@
       </c>
       <c r="D547" s="4"/>
     </row>
-    <row r="548" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="18">
         <v>547</v>
       </c>
@@ -13946,7 +13995,7 @@
       </c>
       <c r="D552" s="3"/>
     </row>
-    <row r="553" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="19">
         <v>552</v>
       </c>
@@ -14017,7 +14066,7 @@
         <v>5</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14094,7 +14143,7 @@
       </c>
       <c r="D564" s="3"/>
     </row>
-    <row r="565" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="19">
         <v>564</v>
       </c>
@@ -14142,7 +14191,7 @@
       </c>
       <c r="D568" s="3"/>
     </row>
-    <row r="569" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="20" t="s">
         <v>1968</v>
       </c>
@@ -14154,7 +14203,7 @@
       </c>
       <c r="D569" s="4"/>
     </row>
-    <row r="570" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="20" t="s">
         <v>1969</v>
       </c>
@@ -14178,7 +14227,7 @@
       </c>
       <c r="D571" s="4"/>
     </row>
-    <row r="572" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="20" t="s">
         <v>1971</v>
       </c>
@@ -14274,7 +14323,7 @@
       </c>
       <c r="D579" s="4"/>
     </row>
-    <row r="580" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="20" t="s">
         <v>1978</v>
       </c>
@@ -14370,7 +14419,7 @@
       </c>
       <c r="D587" s="4"/>
     </row>
-    <row r="588" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="18" t="s">
         <v>1985</v>
       </c>
@@ -14382,7 +14431,7 @@
       </c>
       <c r="D588" s="3"/>
     </row>
-    <row r="589" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="20" t="s">
         <v>1984</v>
       </c>
@@ -14418,7 +14467,7 @@
       </c>
       <c r="D591" s="4"/>
     </row>
-    <row r="592" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="18">
         <v>591</v>
       </c>
@@ -14526,7 +14575,7 @@
       </c>
       <c r="D600" s="3"/>
     </row>
-    <row r="601" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="19">
         <v>600</v>
       </c>
@@ -14538,7 +14587,7 @@
       </c>
       <c r="D601" s="4"/>
     </row>
-    <row r="602" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="18">
         <v>601</v>
       </c>
@@ -14706,7 +14755,7 @@
       </c>
       <c r="D615" s="4"/>
     </row>
-    <row r="616" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="20" t="s">
         <v>1998</v>
       </c>
@@ -14742,7 +14791,7 @@
       </c>
       <c r="D618" s="3"/>
     </row>
-    <row r="619" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="20" t="s">
         <v>2000</v>
       </c>
@@ -14874,7 +14923,7 @@
       </c>
       <c r="D629" s="4"/>
     </row>
-    <row r="630" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="18">
         <v>629</v>
       </c>
@@ -14886,7 +14935,7 @@
       </c>
       <c r="D630" s="3"/>
     </row>
-    <row r="631" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="19">
         <v>630</v>
       </c>
@@ -14898,7 +14947,7 @@
       </c>
       <c r="D631" s="4"/>
     </row>
-    <row r="632" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="20" t="s">
         <v>2006</v>
       </c>
@@ -14910,7 +14959,7 @@
       </c>
       <c r="D632" s="3"/>
     </row>
-    <row r="633" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="19">
         <v>632</v>
       </c>
@@ -14994,7 +15043,7 @@
       </c>
       <c r="D639" s="4"/>
     </row>
-    <row r="640" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="18">
         <v>639</v>
       </c>
@@ -15030,7 +15079,7 @@
       </c>
       <c r="D642" s="3"/>
     </row>
-    <row r="643" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="20" t="s">
         <v>2009</v>
       </c>
@@ -15042,7 +15091,7 @@
       </c>
       <c r="D643" s="4"/>
     </row>
-    <row r="644" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="19" t="s">
         <v>2011</v>
       </c>
@@ -15054,7 +15103,7 @@
       </c>
       <c r="D644" s="3"/>
     </row>
-    <row r="645" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="20" t="s">
         <v>2010</v>
       </c>
@@ -15066,7 +15115,7 @@
       </c>
       <c r="D645" s="4"/>
     </row>
-    <row r="646" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="18">
         <v>645</v>
       </c>
@@ -15198,7 +15247,7 @@
       </c>
       <c r="D656" s="3"/>
     </row>
-    <row r="657" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="20" t="s">
         <v>2013</v>
       </c>
@@ -15210,7 +15259,7 @@
       </c>
       <c r="D657" s="4"/>
     </row>
-    <row r="658" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="18">
         <v>657</v>
       </c>
@@ -15246,7 +15295,7 @@
       </c>
       <c r="D660" s="3"/>
     </row>
-    <row r="661" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="20" t="s">
         <v>2014</v>
       </c>
@@ -15258,7 +15307,7 @@
       </c>
       <c r="D661" s="4"/>
     </row>
-    <row r="662" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="18">
         <v>661</v>
       </c>
@@ -15294,7 +15343,7 @@
       </c>
       <c r="D664" s="3"/>
     </row>
-    <row r="665" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="19">
         <v>664</v>
       </c>
@@ -15306,7 +15355,7 @@
       </c>
       <c r="D665" s="4"/>
     </row>
-    <row r="666" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="18">
         <v>665</v>
       </c>
@@ -15342,7 +15391,7 @@
       </c>
       <c r="D668" s="3"/>
     </row>
-    <row r="669" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="19">
         <v>668</v>
       </c>
@@ -15426,7 +15475,7 @@
       </c>
       <c r="D675" s="4"/>
     </row>
-    <row r="676" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="18">
         <v>675</v>
       </c>
@@ -15474,7 +15523,7 @@
       </c>
       <c r="D679" s="4"/>
     </row>
-    <row r="680" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="18">
         <v>679</v>
       </c>
@@ -15522,7 +15571,7 @@
       </c>
       <c r="D683" s="4"/>
     </row>
-    <row r="684" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="20" t="s">
         <v>2018</v>
       </c>
@@ -15534,7 +15583,7 @@
       </c>
       <c r="D684" s="3"/>
     </row>
-    <row r="685" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="19">
         <v>684</v>
       </c>
@@ -15546,7 +15595,7 @@
       </c>
       <c r="D685" s="4"/>
     </row>
-    <row r="686" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="18">
         <v>685</v>
       </c>
@@ -15594,7 +15643,7 @@
       </c>
       <c r="D689" s="4"/>
     </row>
-    <row r="690" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="18">
         <v>689</v>
       </c>
@@ -15618,7 +15667,7 @@
       </c>
       <c r="D691" s="4"/>
     </row>
-    <row r="692" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="18">
         <v>691</v>
       </c>
@@ -15714,7 +15763,7 @@
       </c>
       <c r="D699" s="4"/>
     </row>
-    <row r="700" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="18">
         <v>699</v>
       </c>
@@ -15821,7 +15870,7 @@
         <v>7</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="709" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15848,7 +15897,7 @@
       </c>
       <c r="D710" s="3"/>
     </row>
-    <row r="711" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="19">
         <v>710</v>
       </c>
@@ -15860,7 +15909,7 @@
       </c>
       <c r="D711" s="4"/>
     </row>
-    <row r="712" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="20" t="s">
         <v>2023</v>
       </c>
@@ -15872,7 +15921,7 @@
       </c>
       <c r="D712" s="3"/>
     </row>
-    <row r="713" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="19">
         <v>712</v>
       </c>
@@ -15908,7 +15957,7 @@
       </c>
       <c r="D715" s="4"/>
     </row>
-    <row r="716" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A716" s="18">
         <v>715</v>
       </c>
@@ -15956,7 +16005,7 @@
       </c>
       <c r="D719" s="4"/>
     </row>
-    <row r="720" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="18">
         <v>719</v>
       </c>
@@ -16042,7 +16091,7 @@
       </c>
       <c r="D726" s="3"/>
     </row>
-    <row r="727" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="19">
         <v>726</v>
       </c>
@@ -16054,7 +16103,7 @@
       </c>
       <c r="D727" s="4"/>
     </row>
-    <row r="728" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="20" t="s">
         <v>2026</v>
       </c>
@@ -16066,7 +16115,7 @@
       </c>
       <c r="D728" s="3"/>
     </row>
-    <row r="729" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="19">
         <v>728</v>
       </c>
@@ -16090,7 +16139,7 @@
       </c>
       <c r="D730" s="3"/>
     </row>
-    <row r="731" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="19">
         <v>730</v>
       </c>
@@ -16114,7 +16163,7 @@
       </c>
       <c r="D732" s="3"/>
     </row>
-    <row r="733" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="19">
         <v>732</v>
       </c>
@@ -16162,7 +16211,7 @@
       </c>
       <c r="D736" s="3"/>
     </row>
-    <row r="737" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="19">
         <v>736</v>
       </c>
@@ -16222,7 +16271,7 @@
       </c>
       <c r="D741" s="4"/>
     </row>
-    <row r="742" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A742" s="18">
         <v>741</v>
       </c>
@@ -16270,7 +16319,7 @@
       </c>
       <c r="D745" s="4"/>
     </row>
-    <row r="746" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A746" s="18">
         <v>745</v>
       </c>
@@ -16320,7 +16369,7 @@
       </c>
       <c r="D749" s="4"/>
     </row>
-    <row r="750" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A750" s="18">
         <v>749</v>
       </c>
@@ -16368,7 +16417,7 @@
       </c>
       <c r="D753" s="4"/>
     </row>
-    <row r="754" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="18">
         <v>753</v>
       </c>
@@ -16416,7 +16465,7 @@
       </c>
       <c r="D757" s="4"/>
     </row>
-    <row r="758" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A758" s="18">
         <v>757</v>
       </c>
@@ -16440,7 +16489,7 @@
       </c>
       <c r="D759" s="4"/>
     </row>
-    <row r="760" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="20" t="s">
         <v>2034</v>
       </c>
@@ -16464,7 +16513,7 @@
       </c>
       <c r="D761" s="4"/>
     </row>
-    <row r="762" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A762" s="18">
         <v>761</v>
       </c>
@@ -16476,7 +16525,7 @@
       </c>
       <c r="D762" s="3"/>
     </row>
-    <row r="763" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A763" s="19">
         <v>762</v>
       </c>
@@ -16512,7 +16561,7 @@
       </c>
       <c r="D765" s="4"/>
     </row>
-    <row r="766" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A766" s="18">
         <v>765</v>
       </c>
@@ -16548,7 +16597,7 @@
       </c>
       <c r="D768" s="3"/>
     </row>
-    <row r="769" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A769" s="19">
         <v>768</v>
       </c>
@@ -16572,7 +16621,7 @@
       </c>
       <c r="D770" s="3"/>
     </row>
-    <row r="771" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A771" s="19">
         <v>770</v>
       </c>
@@ -16596,7 +16645,7 @@
       </c>
       <c r="D772" s="3"/>
     </row>
-    <row r="773" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A773" s="20" t="s">
         <v>2036</v>
       </c>
@@ -16608,7 +16657,7 @@
       </c>
       <c r="D773" s="4"/>
     </row>
-    <row r="774" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A774" s="18">
         <v>773</v>
       </c>
@@ -16620,7 +16669,7 @@
       </c>
       <c r="D774" s="3"/>
     </row>
-    <row r="775" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A775" s="20" t="s">
         <v>2037</v>
       </c>
@@ -16632,7 +16681,7 @@
       </c>
       <c r="D775" s="4"/>
     </row>
-    <row r="776" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A776" s="18">
         <v>775</v>
       </c>
@@ -16668,7 +16717,7 @@
       </c>
       <c r="D778" s="3"/>
     </row>
-    <row r="779" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A779" s="19">
         <v>778</v>
       </c>
@@ -16692,7 +16741,7 @@
       </c>
       <c r="D780" s="3"/>
     </row>
-    <row r="781" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A781" s="19">
         <v>780</v>
       </c>
@@ -16716,7 +16765,7 @@
       </c>
       <c r="D782" s="3"/>
     </row>
-    <row r="783" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A783" s="19">
         <v>782</v>
       </c>
@@ -16764,7 +16813,7 @@
       </c>
       <c r="D786" s="3"/>
     </row>
-    <row r="787" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A787" s="19">
         <v>786</v>
       </c>
@@ -16848,7 +16897,7 @@
       </c>
       <c r="D793" s="4"/>
     </row>
-    <row r="794" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A794" s="18">
         <v>793</v>
       </c>
@@ -16908,7 +16957,7 @@
       </c>
       <c r="D798" s="3"/>
     </row>
-    <row r="799" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A799" s="19">
         <v>798</v>
       </c>
@@ -16968,7 +17017,7 @@
       </c>
       <c r="D803" s="4"/>
     </row>
-    <row r="804" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A804" s="18">
         <v>803</v>
       </c>
@@ -16992,7 +17041,7 @@
       </c>
       <c r="D805" s="4"/>
     </row>
-    <row r="806" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A806" s="18">
         <v>805</v>
       </c>
@@ -17052,7 +17101,7 @@
       </c>
       <c r="D810" s="3"/>
     </row>
-    <row r="811" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A811" s="19">
         <v>810</v>
       </c>
@@ -17112,7 +17161,7 @@
       </c>
       <c r="D815" s="4"/>
     </row>
-    <row r="816" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A816" s="18">
         <v>815</v>
       </c>
@@ -17148,7 +17197,7 @@
       </c>
       <c r="D818" s="3"/>
     </row>
-    <row r="819" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A819" s="19">
         <v>818</v>
       </c>
@@ -17256,7 +17305,7 @@
       </c>
       <c r="D827" s="4"/>
     </row>
-    <row r="828" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A828" s="18">
         <v>827</v>
       </c>
@@ -17268,7 +17317,7 @@
       </c>
       <c r="D828" s="3"/>
     </row>
-    <row r="829" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A829" s="19">
         <v>828</v>
       </c>
@@ -17280,7 +17329,7 @@
       </c>
       <c r="D829" s="4"/>
     </row>
-    <row r="830" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A830" s="18">
         <v>829</v>
       </c>
@@ -17340,7 +17389,7 @@
       </c>
       <c r="D834" s="3"/>
     </row>
-    <row r="835" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A835" s="19">
         <v>834</v>
       </c>
@@ -17400,7 +17449,7 @@
       </c>
       <c r="D839" s="4"/>
     </row>
-    <row r="840" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A840" s="18">
         <v>839</v>
       </c>
@@ -17448,7 +17497,7 @@
       </c>
       <c r="D843" s="4"/>
     </row>
-    <row r="844" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A844" s="18">
         <v>843</v>
       </c>
@@ -17496,7 +17545,7 @@
       </c>
       <c r="D847" s="4"/>
     </row>
-    <row r="848" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A848" s="18">
         <v>847</v>
       </c>
@@ -17532,7 +17581,7 @@
       </c>
       <c r="D850" s="3"/>
     </row>
-    <row r="851" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A851" s="19">
         <v>850</v>
       </c>
@@ -17580,7 +17629,7 @@
       </c>
       <c r="D854" s="3"/>
     </row>
-    <row r="855" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A855" s="19">
         <v>854</v>
       </c>
@@ -17616,7 +17665,7 @@
       </c>
       <c r="D857" s="4"/>
     </row>
-    <row r="858" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A858" s="18">
         <v>857</v>
       </c>
@@ -17676,7 +17725,7 @@
       </c>
       <c r="D862" s="3"/>
     </row>
-    <row r="863" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A863" s="19">
         <v>862</v>
       </c>
@@ -17700,7 +17749,7 @@
       </c>
       <c r="D864" s="3"/>
     </row>
-    <row r="865" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A865" s="19">
         <v>864</v>
       </c>
@@ -17784,7 +17833,7 @@
       </c>
       <c r="D871" s="4"/>
     </row>
-    <row r="872" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A872" s="18">
         <v>871</v>
       </c>
@@ -17868,7 +17917,7 @@
       </c>
       <c r="D878" s="3"/>
     </row>
-    <row r="879" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A879" s="19">
         <v>878</v>
       </c>
@@ -17880,7 +17929,7 @@
       </c>
       <c r="D879" s="4"/>
     </row>
-    <row r="880" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A880" s="18">
         <v>879</v>
       </c>
@@ -17916,7 +17965,7 @@
       </c>
       <c r="D882" s="3"/>
     </row>
-    <row r="883" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A883" s="19">
         <v>882</v>
       </c>
@@ -17976,7 +18025,7 @@
       </c>
       <c r="D887" s="4"/>
     </row>
-    <row r="888" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A888" s="18">
         <v>887</v>
       </c>
@@ -18024,7 +18073,7 @@
       </c>
       <c r="D891" s="4"/>
     </row>
-    <row r="892" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A892" s="18">
         <v>891</v>
       </c>
@@ -18072,7 +18121,7 @@
       </c>
       <c r="D895" s="4"/>
     </row>
-    <row r="896" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A896" s="18">
         <v>895</v>
       </c>
@@ -18120,7 +18169,7 @@
       </c>
       <c r="D899" s="4"/>
     </row>
-    <row r="900" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A900" s="18">
         <v>899</v>
       </c>
@@ -18156,7 +18205,7 @@
       </c>
       <c r="D902" s="3"/>
     </row>
-    <row r="903" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A903" s="19">
         <v>902</v>
       </c>
@@ -18168,7 +18217,7 @@
       </c>
       <c r="D903" s="4"/>
     </row>
-    <row r="904" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A904" s="18">
         <v>903</v>
       </c>
@@ -18204,7 +18253,7 @@
       </c>
       <c r="D906" s="3"/>
     </row>
-    <row r="907" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A907" s="19">
         <v>906</v>
       </c>
@@ -18288,7 +18337,7 @@
       </c>
       <c r="D913" s="4"/>
     </row>
-    <row r="914" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A914" s="18">
         <v>913</v>
       </c>
@@ -18372,7 +18421,7 @@
       </c>
       <c r="D920" s="3"/>
     </row>
-    <row r="921" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A921" s="19">
         <v>920</v>
       </c>
@@ -18420,7 +18469,7 @@
       </c>
       <c r="D924" s="3"/>
     </row>
-    <row r="925" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A925" s="19">
         <v>924</v>
       </c>
@@ -18456,7 +18505,7 @@
       </c>
       <c r="D927" s="4"/>
     </row>
-    <row r="928" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A928" s="18">
         <v>927</v>
       </c>
@@ -18468,7 +18517,7 @@
       </c>
       <c r="D928" s="3"/>
     </row>
-    <row r="929" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A929" s="19">
         <v>928</v>
       </c>
@@ -18564,7 +18613,7 @@
       </c>
       <c r="D936" s="3"/>
     </row>
-    <row r="937" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A937" s="19">
         <v>936</v>
       </c>
@@ -18612,7 +18661,7 @@
       </c>
       <c r="D940" s="3"/>
     </row>
-    <row r="941" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A941" s="19">
         <v>940</v>
       </c>
@@ -18648,7 +18697,7 @@
       </c>
       <c r="D943" s="4"/>
     </row>
-    <row r="944" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A944" s="18">
         <v>943</v>
       </c>
@@ -18756,7 +18805,7 @@
       </c>
       <c r="D952" s="3"/>
     </row>
-    <row r="953" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A953" s="19">
         <v>952</v>
       </c>
@@ -18804,7 +18853,7 @@
       </c>
       <c r="D956" s="3"/>
     </row>
-    <row r="957" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A957" s="19">
         <v>956</v>
       </c>
@@ -18852,7 +18901,7 @@
       </c>
       <c r="D960" s="3"/>
     </row>
-    <row r="961" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A961" s="19">
         <v>960</v>
       </c>
@@ -18900,7 +18949,7 @@
       </c>
       <c r="D964" s="3"/>
     </row>
-    <row r="965" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A965" s="19">
         <v>964</v>
       </c>
@@ -18948,7 +18997,7 @@
       </c>
       <c r="D968" s="3"/>
     </row>
-    <row r="969" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A969" s="19">
         <v>968</v>
       </c>
@@ -18996,7 +19045,7 @@
       </c>
       <c r="D972" s="3"/>
     </row>
-    <row r="973" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A973" s="19">
         <v>972</v>
       </c>
@@ -19032,7 +19081,7 @@
       </c>
       <c r="D975" s="4"/>
     </row>
-    <row r="976" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A976" s="18">
         <v>975</v>
       </c>
@@ -19092,7 +19141,7 @@
       </c>
       <c r="D980" s="3"/>
     </row>
-    <row r="981" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A981" s="19">
         <v>980</v>
       </c>
@@ -19116,7 +19165,7 @@
       </c>
       <c r="D982" s="3"/>
     </row>
-    <row r="983" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A983" s="19">
         <v>982</v>
       </c>
@@ -19236,7 +19285,7 @@
       </c>
       <c r="D992" s="3"/>
     </row>
-    <row r="993" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A993" s="19">
         <v>992</v>
       </c>
@@ -19272,7 +19321,7 @@
       </c>
       <c r="D995" s="4"/>
     </row>
-    <row r="996" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A996" s="18">
         <v>995</v>
       </c>
@@ -19284,7 +19333,7 @@
       </c>
       <c r="D996" s="3"/>
     </row>
-    <row r="997" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A997" s="19">
         <v>996</v>
       </c>
@@ -19332,7 +19381,7 @@
       </c>
       <c r="D1000" s="3"/>
     </row>
-    <row r="1001" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="19">
         <v>1000</v>
       </c>
@@ -19344,7 +19393,7 @@
       </c>
       <c r="D1001" s="4"/>
     </row>
-    <row r="1002" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="18">
         <v>1001</v>
       </c>
@@ -19476,7 +19525,7 @@
       </c>
       <c r="D1012" s="3"/>
     </row>
-    <row r="1013" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1013" s="19">
         <v>1012</v>
       </c>
@@ -19668,7 +19717,7 @@
       </c>
       <c r="D1028" s="3"/>
     </row>
-    <row r="1029" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1029" s="19">
         <v>1028</v>
       </c>
@@ -19716,7 +19765,7 @@
       </c>
       <c r="D1032" s="3"/>
     </row>
-    <row r="1033" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1033" s="19">
         <v>1032</v>
       </c>
@@ -19764,7 +19813,7 @@
       </c>
       <c r="D1036" s="3"/>
     </row>
-    <row r="1037" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1037" s="19">
         <v>1036</v>
       </c>
@@ -19860,7 +19909,7 @@
       </c>
       <c r="D1044" s="3"/>
     </row>
-    <row r="1045" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1045" s="19">
         <v>1044</v>
       </c>
@@ -20088,7 +20137,7 @@
       </c>
       <c r="D1063" s="4"/>
     </row>
-    <row r="1064" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1064" s="20" t="s">
         <v>2050</v>
       </c>
@@ -20136,7 +20185,7 @@
       </c>
       <c r="D1067" s="4"/>
     </row>
-    <row r="1068" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1068" s="20" t="s">
         <v>2054</v>
       </c>
@@ -20220,7 +20269,7 @@
       </c>
       <c r="D1074" s="3"/>
     </row>
-    <row r="1075" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1075" s="19">
         <v>1074</v>
       </c>
@@ -20388,7 +20437,7 @@
       </c>
       <c r="D1088" s="3"/>
     </row>
-    <row r="1089" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1089" s="20" t="s">
         <v>2067</v>
       </c>
@@ -20436,7 +20485,7 @@
       </c>
       <c r="D1092" s="3"/>
     </row>
-    <row r="1093" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1093" s="19">
         <v>1092</v>
       </c>
@@ -20472,7 +20521,7 @@
       </c>
       <c r="D1095" s="4"/>
     </row>
-    <row r="1096" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1096" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1096" s="18">
         <v>1095</v>
       </c>
@@ -20484,7 +20533,7 @@
       </c>
       <c r="D1096" s="3"/>
     </row>
-    <row r="1097" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1097" s="19">
         <v>1096</v>
       </c>
@@ -20496,7 +20545,7 @@
       </c>
       <c r="D1097" s="4"/>
     </row>
-    <row r="1098" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1098" s="20" t="s">
         <v>2068</v>
       </c>
@@ -20604,7 +20653,7 @@
       </c>
       <c r="D1106" s="3"/>
     </row>
-    <row r="1107" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1107" s="19">
         <v>1106</v>
       </c>
@@ -20784,7 +20833,7 @@
       </c>
       <c r="D1121" s="4"/>
     </row>
-    <row r="1122" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1122" s="20" t="s">
         <v>2080</v>
       </c>
@@ -20832,7 +20881,7 @@
       </c>
       <c r="D1125" s="4"/>
     </row>
-    <row r="1126" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1126" s="18">
         <v>1125</v>
       </c>
@@ -20856,7 +20905,7 @@
       </c>
       <c r="D1127" s="4"/>
     </row>
-    <row r="1128" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1128" s="20" t="s">
         <v>2082</v>
       </c>
@@ -20964,7 +21013,7 @@
       </c>
       <c r="D1136" s="3"/>
     </row>
-    <row r="1137" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1137" s="20" t="s">
         <v>2087</v>
       </c>
@@ -21096,7 +21145,7 @@
       </c>
       <c r="D1147" s="4"/>
     </row>
-    <row r="1148" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1148" s="18">
         <v>1147</v>
       </c>
@@ -21168,7 +21217,7 @@
       </c>
       <c r="D1153" s="4"/>
     </row>
-    <row r="1154" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1154" s="20" t="s">
         <v>2095</v>
       </c>
@@ -21216,7 +21265,7 @@
       </c>
       <c r="D1157" s="4"/>
     </row>
-    <row r="1158" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1158" s="18">
         <v>1157</v>
       </c>
@@ -21240,7 +21289,7 @@
       </c>
       <c r="D1159" s="4"/>
     </row>
-    <row r="1160" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1160" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1160" s="20" t="s">
         <v>2097</v>
       </c>
@@ -21288,7 +21337,7 @@
       </c>
       <c r="D1163" s="4"/>
     </row>
-    <row r="1164" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1164" s="18">
         <v>1163</v>
       </c>
@@ -21348,7 +21397,7 @@
       </c>
       <c r="D1168" s="3"/>
     </row>
-    <row r="1169" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1169" s="20" t="s">
         <v>2102</v>
       </c>
@@ -21396,7 +21445,7 @@
       </c>
       <c r="D1172" s="3"/>
     </row>
-    <row r="1173" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1173" s="19">
         <v>1172</v>
       </c>
@@ -21468,7 +21517,7 @@
       </c>
       <c r="D1178" s="3"/>
     </row>
-    <row r="1179" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1179" s="19">
         <v>1178</v>
       </c>
@@ -21528,7 +21577,7 @@
       </c>
       <c r="D1183" s="4"/>
     </row>
-    <row r="1184" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1184" s="20" t="s">
         <v>2110</v>
       </c>
@@ -21576,7 +21625,7 @@
       </c>
       <c r="D1187" s="4"/>
     </row>
-    <row r="1188" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1188" s="18">
         <v>1187</v>
       </c>
@@ -21636,7 +21685,7 @@
       </c>
       <c r="D1192" s="3"/>
     </row>
-    <row r="1193" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1193" s="19">
         <v>1192</v>
       </c>
@@ -21660,7 +21709,7 @@
       </c>
       <c r="D1194" s="3"/>
     </row>
-    <row r="1195" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1195" s="20" t="s">
         <v>2113</v>
       </c>
@@ -21720,7 +21769,7 @@
       </c>
       <c r="D1199" s="4"/>
     </row>
-    <row r="1200" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1200" s="20" t="s">
         <v>2117</v>
       </c>
@@ -21768,7 +21817,7 @@
       </c>
       <c r="D1203" s="4"/>
     </row>
-    <row r="1204" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1204" s="18">
         <v>1203</v>
       </c>
@@ -21804,7 +21853,7 @@
       </c>
       <c r="D1206" s="3"/>
     </row>
-    <row r="1207" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1207" s="19">
         <v>1206</v>
       </c>
@@ -21816,7 +21865,7 @@
       </c>
       <c r="D1207" s="4"/>
     </row>
-    <row r="1208" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1208" s="18">
         <v>1207</v>
       </c>
@@ -21852,7 +21901,7 @@
       </c>
       <c r="D1210" s="3"/>
     </row>
-    <row r="1211" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1211" s="19">
         <v>1210</v>
       </c>
@@ -21924,7 +21973,7 @@
       </c>
       <c r="D1216" s="3"/>
     </row>
-    <row r="1217" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1217" s="20" t="s">
         <v>2126</v>
       </c>
@@ -21972,7 +22021,7 @@
       </c>
       <c r="D1220" s="3"/>
     </row>
-    <row r="1221" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1221" s="19">
         <v>1220</v>
       </c>
@@ -22020,7 +22069,7 @@
       </c>
       <c r="D1224" s="3"/>
     </row>
-    <row r="1225" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1225" s="19">
         <v>1224</v>
       </c>
@@ -22032,7 +22081,7 @@
       </c>
       <c r="D1225" s="4"/>
     </row>
-    <row r="1226" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1226" s="20" t="s">
         <v>2127</v>
       </c>
@@ -22044,7 +22093,7 @@
       </c>
       <c r="D1226" s="3"/>
     </row>
-    <row r="1227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1227" s="19">
         <v>1226</v>
       </c>
@@ -22104,7 +22153,7 @@
       </c>
       <c r="D1231" s="4"/>
     </row>
-    <row r="1232" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1232" s="20" t="s">
         <v>2131</v>
       </c>
@@ -22152,7 +22201,7 @@
       </c>
       <c r="D1235" s="4"/>
     </row>
-    <row r="1236" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1236" s="18">
         <v>1235</v>
       </c>
@@ -22212,7 +22261,7 @@
       </c>
       <c r="D1240" s="3"/>
     </row>
-    <row r="1241" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1241" s="19">
         <v>1240</v>
       </c>
@@ -22284,7 +22333,7 @@
       </c>
       <c r="D1246" s="3"/>
     </row>
-    <row r="1247" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1247" s="20" t="s">
         <v>2138</v>
       </c>
@@ -22332,7 +22381,7 @@
       </c>
       <c r="D1250" s="3"/>
     </row>
-    <row r="1251" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1251" s="19">
         <v>1250</v>
       </c>
@@ -22392,7 +22441,7 @@
       </c>
       <c r="D1255" s="4"/>
     </row>
-    <row r="1256" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1256" s="18">
         <v>1255</v>
       </c>
@@ -22440,7 +22489,7 @@
       </c>
       <c r="D1259" s="4"/>
     </row>
-    <row r="1260" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1260" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1260" s="20" t="s">
         <v>2143</v>
       </c>
@@ -22488,7 +22537,7 @@
       </c>
       <c r="D1263" s="4"/>
     </row>
-    <row r="1264" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1264" s="18">
         <v>1263</v>
       </c>
@@ -22560,7 +22609,7 @@
       </c>
       <c r="D1269" s="4"/>
     </row>
-    <row r="1270" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1270" s="18">
         <v>1269</v>
       </c>
@@ -22620,7 +22669,7 @@
       </c>
       <c r="D1274" s="3"/>
     </row>
-    <row r="1275" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1275" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1275" s="20" t="s">
         <v>2150</v>
       </c>
@@ -22668,7 +22717,7 @@
       </c>
       <c r="D1278" s="3"/>
     </row>
-    <row r="1279" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1279" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1279" s="19">
         <v>1278</v>
       </c>
@@ -22740,7 +22789,7 @@
       </c>
       <c r="D1284" s="3"/>
     </row>
-    <row r="1285" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1285" s="19">
         <v>1284</v>
       </c>
@@ -22800,7 +22849,7 @@
       </c>
       <c r="D1289" s="4"/>
     </row>
-    <row r="1290" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1290" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1290" s="18">
         <v>1289</v>
       </c>
@@ -22848,7 +22897,7 @@
       </c>
       <c r="D1293" s="4"/>
     </row>
-    <row r="1294" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1294" s="18">
         <v>1293</v>
       </c>
@@ -22908,7 +22957,7 @@
       </c>
       <c r="D1298" s="3"/>
     </row>
-    <row r="1299" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1299" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1299" s="19">
         <v>1298</v>
       </c>
@@ -22944,7 +22993,7 @@
       </c>
       <c r="D1301" s="4"/>
     </row>
-    <row r="1302" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1302" s="18">
         <v>1301</v>
       </c>
@@ -23016,7 +23065,7 @@
       </c>
       <c r="D1307" s="4"/>
     </row>
-    <row r="1308" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1308" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1308" s="18">
         <v>1307</v>
       </c>
@@ -23076,7 +23125,7 @@
       </c>
       <c r="D1312" s="3"/>
     </row>
-    <row r="1313" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1313" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1313" s="19">
         <v>1312</v>
       </c>
@@ -23124,7 +23173,7 @@
       </c>
       <c r="D1316" s="3"/>
     </row>
-    <row r="1317" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1317" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1317" s="19">
         <v>1316</v>
       </c>
@@ -23172,7 +23221,7 @@
       </c>
       <c r="D1320" s="3"/>
     </row>
-    <row r="1321" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1321" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1321" s="19">
         <v>1320</v>
       </c>
@@ -23244,7 +23293,7 @@
       </c>
       <c r="D1326" s="3"/>
     </row>
-    <row r="1327" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1327" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1327" s="19">
         <v>1326</v>
       </c>
@@ -23292,7 +23341,7 @@
       </c>
       <c r="D1330" s="3"/>
     </row>
-    <row r="1331" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1331" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1331" s="19">
         <v>1330</v>
       </c>
@@ -23352,7 +23401,7 @@
       </c>
       <c r="D1335" s="4"/>
     </row>
-    <row r="1336" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1336" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1336" s="18">
         <v>1335</v>
       </c>
@@ -23364,7 +23413,7 @@
       </c>
       <c r="D1336" s="3"/>
     </row>
-    <row r="1337" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1337" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1337" s="20" t="s">
         <v>2160</v>
       </c>
@@ -23376,7 +23425,7 @@
       </c>
       <c r="D1337" s="4"/>
     </row>
-    <row r="1338" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1338" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1338" s="18">
         <v>1337</v>
       </c>
@@ -23412,7 +23461,7 @@
       </c>
       <c r="D1340" s="3"/>
     </row>
-    <row r="1341" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1341" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1341" s="19">
         <v>1340</v>
       </c>
@@ -23472,7 +23521,7 @@
       </c>
       <c r="D1345" s="4"/>
     </row>
-    <row r="1346" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1346" s="18">
         <v>1345</v>
       </c>
@@ -23520,7 +23569,7 @@
       </c>
       <c r="D1349" s="4"/>
     </row>
-    <row r="1350" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1350" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1350" s="18">
         <v>1349</v>
       </c>
@@ -23580,7 +23629,7 @@
       </c>
       <c r="D1354" s="3"/>
     </row>
-    <row r="1355" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1355" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1355" s="19">
         <v>1354</v>
       </c>
@@ -23640,7 +23689,7 @@
       </c>
       <c r="D1359" s="4"/>
     </row>
-    <row r="1360" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1360" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1360" s="18">
         <v>1359</v>
       </c>
@@ -23688,7 +23737,7 @@
       </c>
       <c r="D1363" s="4"/>
     </row>
-    <row r="1364" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1364" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1364" s="18">
         <v>1363</v>
       </c>
@@ -23748,7 +23797,7 @@
       </c>
       <c r="D1368" s="3"/>
     </row>
-    <row r="1369" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1369" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1369" s="19">
         <v>1368</v>
       </c>
@@ -23760,7 +23809,7 @@
       </c>
       <c r="D1369" s="4"/>
     </row>
-    <row r="1370" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1370" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1370" s="20" t="s">
         <v>2165</v>
       </c>
@@ -23772,7 +23821,7 @@
       </c>
       <c r="D1370" s="3"/>
     </row>
-    <row r="1371" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1371" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1371" s="19">
         <v>1370</v>
       </c>
@@ -23808,7 +23857,7 @@
       </c>
       <c r="D1373" s="4"/>
     </row>
-    <row r="1374" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1374" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1374" s="18">
         <v>1373</v>
       </c>
@@ -23856,7 +23905,7 @@
       </c>
       <c r="D1377" s="4"/>
     </row>
-    <row r="1378" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1378" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1378" s="18">
         <v>1377</v>
       </c>
@@ -23928,7 +23977,7 @@
       </c>
       <c r="D1383" s="4"/>
     </row>
-    <row r="1384" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1384" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1384" s="18">
         <v>1383</v>
       </c>
@@ -23940,7 +23989,7 @@
       </c>
       <c r="D1384" s="3"/>
     </row>
-    <row r="1385" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1385" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1385" s="20" t="s">
         <v>2167</v>
       </c>
@@ -23952,7 +24001,7 @@
       </c>
       <c r="D1385" s="4"/>
     </row>
-    <row r="1386" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1386" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1386" s="18">
         <v>1385</v>
       </c>
@@ -23988,7 +24037,7 @@
       </c>
       <c r="D1388" s="3"/>
     </row>
-    <row r="1389" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1389" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1389" s="19">
         <v>1388</v>
       </c>
@@ -24036,7 +24085,7 @@
       </c>
       <c r="D1392" s="3"/>
     </row>
-    <row r="1393" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1393" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1393" s="19">
         <v>1392</v>
       </c>
@@ -24096,7 +24145,7 @@
       </c>
       <c r="D1397" s="4"/>
     </row>
-    <row r="1398" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1398" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1398" s="18">
         <v>1397</v>
       </c>
@@ -24156,7 +24205,7 @@
       </c>
       <c r="D1402" s="3"/>
     </row>
-    <row r="1403" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1403" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1403" s="19">
         <v>1402</v>
       </c>
@@ -24204,7 +24253,7 @@
       </c>
       <c r="D1406" s="3"/>
     </row>
-    <row r="1407" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1407" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1407" s="19">
         <v>1406</v>
       </c>
@@ -24264,7 +24313,7 @@
       </c>
       <c r="D1411" s="4"/>
     </row>
-    <row r="1412" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1412" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1412" s="18">
         <v>1411</v>
       </c>
@@ -24276,7 +24325,7 @@
       </c>
       <c r="D1412" s="3"/>
     </row>
-    <row r="1413" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1413" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1413" s="20" t="s">
         <v>2171</v>
       </c>
@@ -24288,7 +24337,7 @@
       </c>
       <c r="D1413" s="4"/>
     </row>
-    <row r="1414" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1414" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1414" s="18">
         <v>1413</v>
       </c>
@@ -24324,7 +24373,7 @@
       </c>
       <c r="D1416" s="3"/>
     </row>
-    <row r="1417" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1417" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1417" s="19">
         <v>1416</v>
       </c>
@@ -24372,7 +24421,7 @@
       </c>
       <c r="D1420" s="3"/>
     </row>
-    <row r="1421" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1421" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1421" s="19">
         <v>1420</v>
       </c>
@@ -24432,7 +24481,7 @@
       </c>
       <c r="D1425" s="4"/>
     </row>
-    <row r="1426" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1426" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1426" s="18">
         <v>1425</v>
       </c>
@@ -24540,7 +24589,7 @@
       </c>
       <c r="D1434" s="3"/>
     </row>
-    <row r="1435" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1435" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1435" s="19">
         <v>1434</v>
       </c>
@@ -24600,7 +24649,7 @@
       </c>
       <c r="D1439" s="4"/>
     </row>
-    <row r="1440" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1440" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1440" s="18">
         <v>1439</v>
       </c>
@@ -24660,7 +24709,7 @@
       </c>
       <c r="D1444" s="3"/>
     </row>
-    <row r="1445" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1445" s="19">
         <v>1444</v>
       </c>
@@ -24720,7 +24769,7 @@
       </c>
       <c r="D1449" s="3"/>
     </row>
-    <row r="1450" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1450" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1450" s="18">
         <v>1449</v>
       </c>
@@ -24768,7 +24817,7 @@
       </c>
       <c r="D1453" s="3"/>
     </row>
-    <row r="1454" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1454" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1454" s="18">
         <v>1453</v>
       </c>
@@ -24781,245 +24830,389 @@
       <c r="D1454" s="4"/>
     </row>
     <row r="1455" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1455" s="19" t="s">
-        <v>1462</v>
+      <c r="A1455" s="18" t="s">
+        <v>2221</v>
       </c>
       <c r="B1455" s="14" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C1455" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1455" s="3"/>
+        <v>2202</v>
+      </c>
+      <c r="C1455" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1455" s="4"/>
     </row>
     <row r="1456" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1456" s="18" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B1456" s="13" t="s">
-        <v>1465</v>
+      <c r="A1456" s="18">
+        <v>1455</v>
+      </c>
+      <c r="B1456" s="14" t="s">
+        <v>2203</v>
       </c>
       <c r="C1456" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1456" s="4"/>
+      <c r="D1456" s="3"/>
     </row>
     <row r="1457" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1457" s="19" t="s">
-        <v>1466</v>
+      <c r="A1457" s="18">
+        <v>1456</v>
       </c>
       <c r="B1457" s="14" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C1457" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1457" s="3"/>
-    </row>
-    <row r="1458" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1458" s="18" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B1458" s="13" t="s">
-        <v>1469</v>
+        <v>2204</v>
+      </c>
+      <c r="C1457" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1457" s="4"/>
+    </row>
+    <row r="1458" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1458" s="18">
+        <v>1457</v>
+      </c>
+      <c r="B1458" s="14" t="s">
+        <v>2205</v>
       </c>
       <c r="C1458" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1458" s="4"/>
-    </row>
-    <row r="1459" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1459" s="19" t="s">
-        <v>1470</v>
+        <v>7</v>
+      </c>
+      <c r="D1458" s="3"/>
+    </row>
+    <row r="1459" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1459" s="18">
+        <v>1458</v>
       </c>
       <c r="B1459" s="14" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C1459" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1459" s="3"/>
+        <v>2206</v>
+      </c>
+      <c r="C1459" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1459" s="4"/>
     </row>
     <row r="1460" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1460" s="18" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1460" s="14" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1460" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1460" s="3"/>
+    </row>
+    <row r="1461" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1461" s="18">
+        <v>1460</v>
+      </c>
+      <c r="B1461" s="14" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C1461" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1462" s="18">
+        <v>1461</v>
+      </c>
+      <c r="B1462" s="14" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1462" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1463" s="18">
+        <v>1462</v>
+      </c>
+      <c r="B1463" s="14" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1463" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1464" s="18">
+        <v>1463</v>
+      </c>
+      <c r="B1464" s="14" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1464" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1465" s="18">
+        <v>1464</v>
+      </c>
+      <c r="B1465" s="14" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1465" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1465" s="2"/>
+    </row>
+    <row r="1466" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1466" s="18">
+        <v>1465</v>
+      </c>
+      <c r="B1466" s="14" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C1466" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1466" s="3"/>
+    </row>
+    <row r="1467" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1467" s="18">
+        <v>1466</v>
+      </c>
+      <c r="B1467" s="14" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1467" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1467" s="4"/>
+    </row>
+    <row r="1468" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1468" s="18">
+        <v>1467</v>
+      </c>
+      <c r="B1468" s="14" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1468" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1468" s="3"/>
+    </row>
+    <row r="1469" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1469" s="18" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1469" s="14" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1469" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1469" s="3"/>
+    </row>
+    <row r="1470" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1470" s="18" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1470" s="14" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1470" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1470" s="4"/>
+    </row>
+    <row r="1471" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1471" s="19" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1471" s="14" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C1471" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1471" s="3"/>
+    </row>
+    <row r="1472" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1472" s="18" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1472" s="13" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C1472" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1472" s="4"/>
+    </row>
+    <row r="1473" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1473" s="19" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1473" s="14" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C1473" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1473" s="3"/>
+    </row>
+    <row r="1474" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1474" s="18" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1474" s="13" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C1474" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1474" s="4"/>
+    </row>
+    <row r="1475" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1475" s="19" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1475" s="14" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1475" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1475" s="3"/>
+    </row>
+    <row r="1476" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1476" s="18" t="s">
         <v>1472</v>
       </c>
-      <c r="B1460" s="13" t="s">
+      <c r="B1476" s="13" t="s">
         <v>1473</v>
       </c>
-      <c r="C1460" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1460" s="4"/>
-    </row>
-    <row r="1461" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1461" s="19" t="s">
+      <c r="C1476" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1476" s="4"/>
+    </row>
+    <row r="1477" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1477" s="19" t="s">
         <v>1474</v>
       </c>
-      <c r="B1461" s="14" t="s">
+      <c r="B1477" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="C1461" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1461" s="3"/>
-    </row>
-    <row r="1462" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1462" s="18" t="s">
+      <c r="C1477" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1477" s="3"/>
+    </row>
+    <row r="1478" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1478" s="18" t="s">
         <v>1476</v>
       </c>
-      <c r="B1462" s="13" t="s">
+      <c r="B1478" s="13" t="s">
         <v>1477</v>
       </c>
-      <c r="C1462" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1463" s="19" t="s">
+      <c r="C1478" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1478" s="4"/>
+    </row>
+    <row r="1479" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1479" s="19" t="s">
         <v>1478</v>
       </c>
-      <c r="B1463" s="14" t="s">
+      <c r="B1479" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="C1463" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1464" s="18" t="s">
+      <c r="C1479" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1479" s="3"/>
+    </row>
+    <row r="1480" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1480" s="18" t="s">
         <v>1480</v>
       </c>
-      <c r="B1464" s="13" t="s">
+      <c r="B1480" s="13" t="s">
         <v>1481</v>
       </c>
-      <c r="C1464" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1465" s="19" t="s">
+      <c r="C1480" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1480" s="4"/>
+    </row>
+    <row r="1481" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1481" s="19" t="s">
         <v>1482</v>
       </c>
-      <c r="B1465" s="14" t="s">
+      <c r="B1481" s="14" t="s">
         <v>1483</v>
       </c>
-      <c r="C1465" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1466" s="18" t="s">
+      <c r="C1481" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1481" s="3"/>
+    </row>
+    <row r="1482" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1482" s="18" t="s">
         <v>1484</v>
       </c>
-      <c r="B1466" s="13" t="s">
+      <c r="B1482" s="13" t="s">
         <v>1485</v>
       </c>
-      <c r="C1466" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1466" s="2"/>
-    </row>
-    <row r="1467" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1467" s="19" t="s">
+      <c r="C1482" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1482" s="4"/>
+    </row>
+    <row r="1483" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1483" s="19" t="s">
         <v>1486</v>
       </c>
-      <c r="B1467" s="14" t="s">
+      <c r="B1483" s="14" t="s">
         <v>1487</v>
       </c>
-      <c r="C1467" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1467" s="3"/>
-    </row>
-    <row r="1468" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1468" s="18" t="s">
+      <c r="C1483" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1483" s="3"/>
+    </row>
+    <row r="1484" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1484" s="18" t="s">
         <v>1488</v>
       </c>
-      <c r="B1468" s="13" t="s">
+      <c r="B1484" s="13" t="s">
         <v>1489</v>
       </c>
-      <c r="C1468" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1468" s="4"/>
-    </row>
-    <row r="1469" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1469" s="19" t="s">
+      <c r="C1484" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1484" s="4"/>
+    </row>
+    <row r="1485" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1485" s="19" t="s">
         <v>1490</v>
       </c>
-      <c r="B1469" s="14" t="s">
+      <c r="B1485" s="14" t="s">
         <v>1491</v>
       </c>
-      <c r="C1469" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1469" s="3"/>
-    </row>
-    <row r="1470" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1470" s="18" t="s">
+      <c r="C1485" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1485" s="3"/>
+    </row>
+    <row r="1486" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1486" s="18" t="s">
         <v>1492</v>
       </c>
-      <c r="B1470" s="13" t="s">
+      <c r="B1486" s="13" t="s">
         <v>1493</v>
       </c>
-      <c r="C1470" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1470" s="4"/>
-    </row>
-    <row r="1471" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1471" s="3"/>
-    </row>
-    <row r="1472" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1472" s="4"/>
-    </row>
-    <row r="1473" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1473" s="3"/>
-    </row>
-    <row r="1474" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1474" s="4"/>
-    </row>
-    <row r="1475" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1475" s="3"/>
-    </row>
-    <row r="1476" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1476" s="4"/>
-    </row>
-    <row r="1477" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1477" s="3"/>
-    </row>
-    <row r="1478" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1478" s="4"/>
-    </row>
-    <row r="1479" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1479" s="3"/>
-    </row>
-    <row r="1480" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1480" s="4"/>
-    </row>
-    <row r="1481" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1481" s="3"/>
-    </row>
-    <row r="1482" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1482" s="4"/>
-    </row>
-    <row r="1483" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1483" s="3"/>
-    </row>
-    <row r="1484" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1484" s="4"/>
-    </row>
-    <row r="1485" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1485" s="3"/>
-    </row>
-    <row r="1486" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1486" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E1486" s="4"/>
     </row>
-    <row r="1487" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1487" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1487" s="3"/>
     </row>
-    <row r="1488" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1488" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1488" s="4"/>
     </row>
     <row r="1489" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25277,15 +25470,15 @@
     <row r="1573" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1573" s="3"/>
     </row>
-    <row r="1574" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1574" s="4"/>
-    </row>
-    <row r="1575" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1575" s="3"/>
-    </row>
-    <row r="1579" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1577" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1578" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1578" s="2"/>
+    </row>
+    <row r="1579" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1579" s="3"/>
+    </row>
     <row r="1580" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1580" s="2"/>
+      <c r="E1580" s="4"/>
     </row>
     <row r="1581" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1581" s="3"/>
@@ -25503,24 +25696,11 @@
     <row r="1652" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1652" s="4"/>
     </row>
-    <row r="1653" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1653" s="3"/>
-    </row>
-    <row r="1654" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1654" s="4"/>
-    </row>
-    <row r="1655" spans="5:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1655" s="7"/>
+    <row r="1653" spans="5:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1653" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D1470" xr:uid="{AA2808F7-94D6-4788-B7C2-AA20F53DB078}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="中等"/>
-        <filter val="简单"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D1486" xr:uid="{AA2808F7-94D6-4788-B7C2-AA20F53DB078}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -26969,22 +27149,22 @@
     <hyperlink ref="B1444" r:id="rId1442" display="https://leetcode-cn.com/problems/minimum-time-to-collect-all-apples-in-a-tree" xr:uid="{26C99996-EF95-41E0-AC28-7ACC44E27D73}"/>
     <hyperlink ref="B1445" r:id="rId1443" display="https://leetcode-cn.com/problems/number-of-ways-of-cutting-a-pizza" xr:uid="{399F5F11-C4D3-4E4E-B284-B30210CDDC71}"/>
     <hyperlink ref="B1446" r:id="rId1444" display="https://leetcode-cn.com/problems/apples-oranges" xr:uid="{4EA7D115-D121-4BCC-99F9-CD083ECA09C8}"/>
-    <hyperlink ref="B1455" r:id="rId1445" display="https://leetcode-cn.com/problems/guess-numbers" xr:uid="{69087C18-FA9C-40B3-AF17-043A96496574}"/>
-    <hyperlink ref="B1456" r:id="rId1446" display="https://leetcode-cn.com/problems/deep-dark-fraction" xr:uid="{114BD6E4-01F4-4B7F-A39C-5F005CAF496A}"/>
-    <hyperlink ref="B1457" r:id="rId1447" display="https://leetcode-cn.com/problems/programmable-robot" xr:uid="{5AB364F8-5855-443C-BF25-0AAD6261A637}"/>
-    <hyperlink ref="B1458" r:id="rId1448" display="https://leetcode-cn.com/problems/broken-board-dominoes" xr:uid="{F4A53F44-AA5A-483F-9C5B-6D3834B9E37D}"/>
-    <hyperlink ref="B1459" r:id="rId1449" display="https://leetcode-cn.com/problems/coin-bonus" xr:uid="{F83EFE64-1C11-462B-BAED-11146005F3A9}"/>
-    <hyperlink ref="B1460" r:id="rId1450" display="https://leetcode-cn.com/problems/na-ying-bi" xr:uid="{A76A66F5-E848-44C7-B3DA-9E7DD8A8C044}"/>
-    <hyperlink ref="B1461" r:id="rId1451" display="https://leetcode-cn.com/problems/chuan-di-xin-xi" xr:uid="{92733632-EA18-4A8A-8FF7-FF778E2296C5}"/>
-    <hyperlink ref="B1462" r:id="rId1452" display="https://leetcode-cn.com/problems/ju-qing-hong-fa-shi-jian" xr:uid="{180831C5-B17B-47C8-96E5-BD6168FE5F93}"/>
-    <hyperlink ref="B1463" r:id="rId1453" display="https://leetcode-cn.com/problems/zui-xiao-tiao-yue-ci-shu" xr:uid="{43E72EB8-A0E0-4323-A2F1-445E96866D3B}"/>
-    <hyperlink ref="B1464" r:id="rId1454" display="https://leetcode-cn.com/problems/er-cha-shu-ren-wu-diao-du" xr:uid="{362A3653-8A6F-4C30-AC3C-F3F60DB66B09}"/>
-    <hyperlink ref="B1465" r:id="rId1455" display="https://leetcode-cn.com/problems/qi-wang-ge-shu-tong-ji" xr:uid="{9CA6765F-77AE-48E9-96CE-211D96171ADE}"/>
-    <hyperlink ref="B1466" r:id="rId1456" display="https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua" xr:uid="{64E0E543-DA06-49F5-ABA0-93AFBC6AE494}"/>
-    <hyperlink ref="B1467" r:id="rId1457" display="https://leetcode-cn.com/problems/xun-bao" xr:uid="{D7038CDA-E564-465B-9BE5-F87650501858}"/>
-    <hyperlink ref="B1468" r:id="rId1458" display="https://leetcode-cn.com/problems/qie-fen-shu-zu" xr:uid="{9812E229-7AF3-488C-A910-903A3CEB1C27}"/>
-    <hyperlink ref="B1469" r:id="rId1459" display="https://leetcode-cn.com/problems/you-le-yuan-de-mi-gong" xr:uid="{83653B12-D1CB-40CE-85A9-7080941CA862}"/>
-    <hyperlink ref="B1470" r:id="rId1460" display="https://leetcode-cn.com/problems/you-le-yuan-de-you-lan-ji-hua" xr:uid="{FEFCF74B-B5BC-42D7-88BE-EFDE007579B8}"/>
+    <hyperlink ref="B1471" r:id="rId1445" display="https://leetcode-cn.com/problems/guess-numbers" xr:uid="{69087C18-FA9C-40B3-AF17-043A96496574}"/>
+    <hyperlink ref="B1472" r:id="rId1446" display="https://leetcode-cn.com/problems/deep-dark-fraction" xr:uid="{114BD6E4-01F4-4B7F-A39C-5F005CAF496A}"/>
+    <hyperlink ref="B1473" r:id="rId1447" display="https://leetcode-cn.com/problems/programmable-robot" xr:uid="{5AB364F8-5855-443C-BF25-0AAD6261A637}"/>
+    <hyperlink ref="B1474" r:id="rId1448" display="https://leetcode-cn.com/problems/broken-board-dominoes" xr:uid="{F4A53F44-AA5A-483F-9C5B-6D3834B9E37D}"/>
+    <hyperlink ref="B1475" r:id="rId1449" display="https://leetcode-cn.com/problems/coin-bonus" xr:uid="{F83EFE64-1C11-462B-BAED-11146005F3A9}"/>
+    <hyperlink ref="B1476" r:id="rId1450" display="https://leetcode-cn.com/problems/na-ying-bi" xr:uid="{A76A66F5-E848-44C7-B3DA-9E7DD8A8C044}"/>
+    <hyperlink ref="B1477" r:id="rId1451" display="https://leetcode-cn.com/problems/chuan-di-xin-xi" xr:uid="{92733632-EA18-4A8A-8FF7-FF778E2296C5}"/>
+    <hyperlink ref="B1478" r:id="rId1452" display="https://leetcode-cn.com/problems/ju-qing-hong-fa-shi-jian" xr:uid="{180831C5-B17B-47C8-96E5-BD6168FE5F93}"/>
+    <hyperlink ref="B1479" r:id="rId1453" display="https://leetcode-cn.com/problems/zui-xiao-tiao-yue-ci-shu" xr:uid="{43E72EB8-A0E0-4323-A2F1-445E96866D3B}"/>
+    <hyperlink ref="B1480" r:id="rId1454" display="https://leetcode-cn.com/problems/er-cha-shu-ren-wu-diao-du" xr:uid="{362A3653-8A6F-4C30-AC3C-F3F60DB66B09}"/>
+    <hyperlink ref="B1481" r:id="rId1455" display="https://leetcode-cn.com/problems/qi-wang-ge-shu-tong-ji" xr:uid="{9CA6765F-77AE-48E9-96CE-211D96171ADE}"/>
+    <hyperlink ref="B1482" r:id="rId1456" display="https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua" xr:uid="{64E0E543-DA06-49F5-ABA0-93AFBC6AE494}"/>
+    <hyperlink ref="B1483" r:id="rId1457" display="https://leetcode-cn.com/problems/xun-bao" xr:uid="{D7038CDA-E564-465B-9BE5-F87650501858}"/>
+    <hyperlink ref="B1484" r:id="rId1458" display="https://leetcode-cn.com/problems/qie-fen-shu-zu" xr:uid="{9812E229-7AF3-488C-A910-903A3CEB1C27}"/>
+    <hyperlink ref="B1485" r:id="rId1459" display="https://leetcode-cn.com/problems/you-le-yuan-de-mi-gong" xr:uid="{83653B12-D1CB-40CE-85A9-7080941CA862}"/>
+    <hyperlink ref="B1486" r:id="rId1460" display="https://leetcode-cn.com/problems/you-le-yuan-de-you-lan-ji-hua" xr:uid="{FEFCF74B-B5BC-42D7-88BE-EFDE007579B8}"/>
     <hyperlink ref="B1447" r:id="rId1461" display="https://leetcode-cn.com/problems/consecutive-characters" xr:uid="{CF4321A1-6252-461C-9B12-23ED59AABFE8}"/>
     <hyperlink ref="B1448" r:id="rId1462" display="https://leetcode-cn.com/problems/simplified-fractions" xr:uid="{A5D3E664-F486-4799-AA04-2AE2496E698E}"/>
     <hyperlink ref="B1449" r:id="rId1463" display="https://leetcode-cn.com/problems/count-good-nodes-in-binary-tree" xr:uid="{EA7C1C01-25CB-4B93-B7B6-2D71007B3607}"/>
@@ -26993,158 +27173,296 @@
     <hyperlink ref="B1452" r:id="rId1466" display="https://leetcode-cn.com/problems/rearrange-words-in-a-sentence" xr:uid="{5664D24C-330E-46B0-B92C-81004FA950EF}"/>
     <hyperlink ref="B1453" r:id="rId1467" display="https://leetcode-cn.com/problems/people-whose-list-of-favorite-companies-is-not-a-subset-of-another-list" xr:uid="{A93AD622-DE4C-48B0-9FBA-7146E9A9BB19}"/>
     <hyperlink ref="B1454" r:id="rId1468" display="https://leetcode-cn.com/problems/maximum-number-of-darts-inside-of-a-circular-dartboard" xr:uid="{41DC97E6-01F8-4124-A47D-578AEAFFE838}"/>
+    <hyperlink ref="B1455" r:id="rId1469" display="https://leetcode-cn.com/problems/active-users" xr:uid="{54F5D417-1CA6-4BD5-A396-87B16007D290}"/>
+    <hyperlink ref="B1456" r:id="rId1470" display="https://leetcode-cn.com/problems/check-if-a-word-occurs-as-a-prefix-of-any-word-in-a-sentence" xr:uid="{C53CC06E-5412-4C68-AC73-28C3E8E6811A}"/>
+    <hyperlink ref="B1457" r:id="rId1471" display="https://leetcode-cn.com/problems/maximum-number-of-vowels-in-a-substring-of-given-length" xr:uid="{D16EA7AF-F62F-4095-9E46-B304570910FF}"/>
+    <hyperlink ref="B1458" r:id="rId1472" display="https://leetcode-cn.com/problems/pseudo-palindromic-paths-in-a-binary-tree" xr:uid="{72DF2597-9992-42E8-9FA6-3B635D878B2F}"/>
+    <hyperlink ref="B1459" r:id="rId1473" display="https://leetcode-cn.com/problems/max-dot-product-of-two-subsequences" xr:uid="{B25D4947-BA87-44E1-BE52-6D5DC4A6264D}"/>
+    <hyperlink ref="B1460" r:id="rId1474" display="https://leetcode-cn.com/problems/rectangles-area" xr:uid="{BCB05ED1-19F6-42BF-9474-3FFE55B33428}"/>
+    <hyperlink ref="B1461" r:id="rId1475" display="https://leetcode-cn.com/problems/make-two-arrays-equal-by-reversing-sub-arrays" xr:uid="{2CB7D8D4-9B1E-412F-AE31-B3D65678E710}"/>
+    <hyperlink ref="B1462" r:id="rId1476" display="https://leetcode-cn.com/problems/check-if-a-string-contains-all-binary-codes-of-size-k" xr:uid="{A152DB91-DEF2-49BE-A210-E56A69E56BCA}"/>
+    <hyperlink ref="B1463" r:id="rId1477" display="https://leetcode-cn.com/problems/course-schedule-iv" xr:uid="{7984C0B0-857D-4D2B-A546-AFA1E92EC9C5}"/>
+    <hyperlink ref="B1464" r:id="rId1478" display="https://leetcode-cn.com/problems/cherry-pickup-ii" xr:uid="{7327CB5B-E649-46A8-B1B9-B9C713F9AD4A}"/>
+    <hyperlink ref="B1465" r:id="rId1479" display="https://leetcode-cn.com/problems/maximum-product-of-two-elements-in-an-array" xr:uid="{554DC431-84AC-4AF4-AD13-DDE3813173AD}"/>
+    <hyperlink ref="B1466" r:id="rId1480" display="https://leetcode-cn.com/problems/maximum-area-of-a-piece-of-cake-after-horizontal-and-vertical-cuts" xr:uid="{582333F7-CC54-47DB-A752-354790FF47CF}"/>
+    <hyperlink ref="B1467" r:id="rId1481" display="https://leetcode-cn.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero" xr:uid="{1E0E5379-73FC-466B-AEBE-663D2324F1EE}"/>
+    <hyperlink ref="B1468" r:id="rId1482" display="https://leetcode-cn.com/problems/probability-of-a-two-boxes-having-the-same-number-of-distinct-balls" xr:uid="{A1E9C98B-76C7-4D4C-B60A-739959D5E001}"/>
+    <hyperlink ref="B1470" r:id="rId1483" display="https://leetcode-cn.com/problems/find-all-the-lonely-nodes" xr:uid="{028A4BFB-CBB9-4EB3-8262-5F5D20D3ABFE}"/>
+    <hyperlink ref="B1469" r:id="rId1484" display="https://leetcode-cn.com/problems/calculate-salaries" xr:uid="{9038CFCF-8600-427F-8E5D-CCF1CB281983}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1469"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1485"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD289D6F-A9EC-4855-93D2-FF7CAFD43BD4}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="27">
-        <v>1445</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>7</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27">
-        <v>1446</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="30"/>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23">
+        <v>1453</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="23">
-        <v>1447</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>2182</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="25"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="36">
+        <v>1454</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27">
-        <v>1448</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>2183</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="23">
+        <v>1455</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="23">
-        <v>1449</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>2184</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="25"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26">
+        <v>1456</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27">
-        <v>1450</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>2185</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="30"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="23">
+        <v>1457</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="23">
-        <v>1451</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>2186</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="25"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26">
+        <v>1458</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27">
-        <v>1452</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="30"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="37">
+        <v>1459</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35">
-        <v>1453</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>2188</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="21"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26">
+        <v>1460</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="23">
+        <v>1461</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26">
+        <v>1462</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="23">
+        <v>1463</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26">
+        <v>1464</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="23">
+        <v>1465</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26">
+        <v>1466</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31">
+        <v>1467</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="36">
+        <v>1468</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39">
+        <v>1469</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:D2"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://leetcode-cn.com/problems/consecutive-characters" xr:uid="{B73FBE0D-DA7F-436B-9AB8-9481198B04B4}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://leetcode-cn.com/problems/simplified-fractions" xr:uid="{638D7FEE-4EE4-4A76-94E8-1E50DDF25FDE}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://leetcode-cn.com/problems/count-good-nodes-in-binary-tree" xr:uid="{990C7B67-64BE-414A-A005-664BD738A5AF}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://leetcode-cn.com/problems/form-largest-integer-with-digits-that-add-up-to-target" xr:uid="{A4569765-BBBB-4D94-BC70-7AD1404E2384}"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://leetcode-cn.com/problems/number-of-students-doing-homework-at-a-given-time" xr:uid="{6734DDEC-1AB4-4F0E-B6BB-D057BF4FC803}"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://leetcode-cn.com/problems/rearrange-words-in-a-sentence" xr:uid="{BA63C63B-AA70-4BBF-AADB-437202138CA2}"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://leetcode-cn.com/problems/people-whose-list-of-favorite-companies-is-not-a-subset-of-another-list" xr:uid="{664FA6E3-AE26-4641-89E6-803C3FC4539A}"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://leetcode-cn.com/problems/maximum-number-of-darts-inside-of-a-circular-dartboard" xr:uid="{45C4C5FD-E0E6-4A1F-B042-E6F4929F3297}"/>
-    <hyperlink ref="C1" r:id="rId9" display="https://leetcode-cn.com/problems/apples-oranges" xr:uid="{97FB82E2-EDB0-4C25-B00C-2045AAE46BBD}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://leetcode-cn.com/problems/active-users" xr:uid="{8AAFF00E-F6D5-447B-95E8-12B63F9FE39D}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://leetcode-cn.com/problems/check-if-a-word-occurs-as-a-prefix-of-any-word-in-a-sentence" xr:uid="{21B714EA-1196-40F4-A6EC-A62FA950C8EC}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://leetcode-cn.com/problems/maximum-number-of-vowels-in-a-substring-of-given-length" xr:uid="{9913D8DB-788C-4056-AFE5-E55E9B32A7F4}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://leetcode-cn.com/problems/pseudo-palindromic-paths-in-a-binary-tree" xr:uid="{80C42D78-6277-413C-B37A-9E8A2C712DA2}"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://leetcode-cn.com/problems/max-dot-product-of-two-subsequences" xr:uid="{C5AE739B-8470-45E2-8AD5-DF9B41129184}"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://leetcode-cn.com/problems/rectangles-area" xr:uid="{3B2A8BD9-3AF7-40E4-BB9D-0D496713CF2D}"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://leetcode-cn.com/problems/make-two-arrays-equal-by-reversing-sub-arrays" xr:uid="{103177AF-CD75-443C-9968-C4D6FCC384AD}"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://leetcode-cn.com/problems/check-if-a-string-contains-all-binary-codes-of-size-k" xr:uid="{6435EEDD-4669-4F26-B013-A979FB3DDD3B}"/>
+    <hyperlink ref="C11" r:id="rId9" display="https://leetcode-cn.com/problems/course-schedule-iv" xr:uid="{9679AF77-2612-4F0E-A516-0EF8735CDD61}"/>
+    <hyperlink ref="C12" r:id="rId10" display="https://leetcode-cn.com/problems/cherry-pickup-ii" xr:uid="{7284B984-6B9D-45BB-819C-4E86591A390F}"/>
+    <hyperlink ref="C13" r:id="rId11" display="https://leetcode-cn.com/problems/maximum-product-of-two-elements-in-an-array" xr:uid="{CFD2C20F-E055-4926-96CF-F94DC5FD5E9B}"/>
+    <hyperlink ref="C14" r:id="rId12" display="https://leetcode-cn.com/problems/maximum-area-of-a-piece-of-cake-after-horizontal-and-vertical-cuts" xr:uid="{E2F1F5A7-6A3C-48E5-A67B-63B5FC2A9234}"/>
+    <hyperlink ref="C15" r:id="rId13" display="https://leetcode-cn.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero" xr:uid="{C1521F76-AC5C-4792-A9BF-1C64372FF864}"/>
+    <hyperlink ref="C16" r:id="rId14" display="https://leetcode-cn.com/problems/probability-of-a-two-boxes-having-the-same-number-of-distinct-balls" xr:uid="{AFAFD077-657D-47ED-BD4B-D37327D99FBF}"/>
+    <hyperlink ref="C2" r:id="rId15" display="https://leetcode-cn.com/problems/maximum-number-of-darts-inside-of-a-circular-dartboard" xr:uid="{77EFA145-2850-4ECB-85A6-6DFF9A25C79C}"/>
+    <hyperlink ref="C19" r:id="rId16" display="https://leetcode-cn.com/problems/find-all-the-lonely-nodes" xr:uid="{C02EA5AA-BE78-4F15-85DE-E667526F2E75}"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://leetcode-cn.com/problems/calculate-salaries" xr:uid="{47E9AFA0-347B-40C5-B8FD-BDD3802F9310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -27165,11 +27483,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>1494</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -28525,7 +28843,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28537,11 +28855,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>1710</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94437E-22F5-4133-9D7C-F3C4FF73DAF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AA8F62-7BD3-47CD-B354-FAD519343A19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="2223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3947" uniqueCount="2224">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -6703,6 +6703,9 @@
   </si>
   <si>
     <t>2020.6.5(slef5)</t>
+  </si>
+  <si>
+    <t>2020.6.6(self6)</t>
   </si>
 </sst>
 </file>
@@ -7301,7 +7304,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7359,7 +7362,9 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>2223</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF06F67-A18E-4921-8AB3-D440CCC04BB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D659B32E-3BBD-4879-976E-13DDA53B469D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1650" windowWidth="28800" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1650" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4321" uniqueCount="2498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="2499">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7529,6 +7529,9 @@
   </si>
   <si>
     <t>2020.6.9</t>
+  </si>
+  <si>
+    <t>2020.6.10</t>
   </si>
 </sst>
 </file>
@@ -8129,9 +8132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36439EE-948F-4B95-AA31-6B4987F28A76}">
   <dimension ref="A1:E1653"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8843,7 +8846,9 @@
       <c r="C57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>2498</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
@@ -31333,7 +31338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3974A999-81B9-4707-8EBA-5693F79999D0}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D659B32E-3BBD-4879-976E-13DDA53B469D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0DD263-5922-408E-B54B-5D765E6CBB46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1650" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="4575" windowWidth="28800" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="2499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="2500">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7532,6 +7532,9 @@
   </si>
   <si>
     <t>2020.6.10</t>
+  </si>
+  <si>
+    <t>2020.6.11(self)</t>
   </si>
 </sst>
 </file>
@@ -8132,7 +8135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36439EE-948F-4B95-AA31-6B4987F28A76}">
   <dimension ref="A1:E1653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
@@ -29966,8 +29969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A56D5E7-551D-4DA8-94DC-D98ED60B1AEE}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30080,6 +30083,9 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -30090,6 +30096,9 @@
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2499</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0DD263-5922-408E-B54B-5D765E6CBB46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C8891-FA72-4034-97CF-BE9D5397D3BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="4575" windowWidth="28800" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2625" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="2500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4328" uniqueCount="2502">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7535,6 +7535,12 @@
   </si>
   <si>
     <t>2020.6.11(self)</t>
+  </si>
+  <si>
+    <t>2020.6.12</t>
+  </si>
+  <si>
+    <t>2020.5.10</t>
   </si>
 </sst>
 </file>
@@ -8135,9 +8141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36439EE-948F-4B95-AA31-6B4987F28A76}">
   <dimension ref="A1:E1653"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8233,7 +8239,9 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>2500</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
@@ -8355,7 +8363,9 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>2500</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
@@ -8467,7 +8477,9 @@
       <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>2501</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
@@ -10039,7 +10051,9 @@
       <c r="C154" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D154" s="3"/>
+      <c r="D154" s="3" t="s">
+        <v>2499</v>
+      </c>
     </row>
     <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19">
@@ -29969,7 +29983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A56D5E7-551D-4DA8-94DC-D98ED60B1AEE}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C8891-FA72-4034-97CF-BE9D5397D3BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50AC856-303D-4162-BF61-0E78A7AD2FC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14250" yWindow="945" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4328" uniqueCount="2502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="2504">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7541,6 +7541,12 @@
   </si>
   <si>
     <t>2020.5.10</t>
+  </si>
+  <si>
+    <t>2020.6.13</t>
+  </si>
+  <si>
+    <t>2020.6.14</t>
   </si>
 </sst>
 </file>
@@ -8143,7 +8149,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8427,7 +8433,9 @@
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>2503</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
@@ -9037,7 +9045,9 @@
       <c r="C71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>2502</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
@@ -10013,7 +10023,9 @@
       <c r="C151" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D151" s="4"/>
+      <c r="D151" s="4" t="s">
+        <v>2503</v>
+      </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="18">
@@ -10077,7 +10089,9 @@
       <c r="C156" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D156" s="3"/>
+      <c r="D156" s="3" t="s">
+        <v>2503</v>
+      </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20" t="s">
@@ -10623,7 +10637,9 @@
       <c r="C201" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D201" s="4"/>
+      <c r="D201" s="4" t="s">
+        <v>2502</v>
+      </c>
     </row>
     <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="18">
@@ -11579,7 +11595,9 @@
       <c r="C280" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D280" s="3"/>
+      <c r="D280" s="3" t="s">
+        <v>2502</v>
+      </c>
     </row>
     <row r="281" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="20" t="s">
@@ -15711,7 +15729,9 @@
       <c r="C623" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D623" s="4"/>
+      <c r="D623" s="4" t="s">
+        <v>2502</v>
+      </c>
     </row>
     <row r="624" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="18">
@@ -17119,7 +17139,9 @@
       <c r="C740" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D740" s="3"/>
+      <c r="D740" s="3" t="s">
+        <v>2503</v>
+      </c>
     </row>
     <row r="741" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A741" s="19">
@@ -17277,7 +17299,9 @@
       <c r="C753" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D753" s="4"/>
+      <c r="D753" s="4" t="s">
+        <v>2502</v>
+      </c>
     </row>
     <row r="754" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="18">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50AC856-303D-4162-BF61-0E78A7AD2FC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B39DA8-FA3C-4E9F-AE11-7444F7E2DA69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="945" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="450" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -16,8 +16,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode 题目'!$A$2:$D$1486</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$4:$D$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">剑指Offer!$A$3:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">程序员面试题金典!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">剑指Offer!$A$2:$D$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">程序员面试题金典!$A$2:$D$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="2504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4341" uniqueCount="2505">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7547,6 +7547,9 @@
   </si>
   <si>
     <t>2020.6.14</t>
+  </si>
+  <si>
+    <t>2020.6.15</t>
   </si>
 </sst>
 </file>
@@ -8145,11 +8148,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36439EE-948F-4B95-AA31-6B4987F28A76}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E1653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8183,7 +8187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -8197,7 +8201,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -8235,7 +8239,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -8345,7 +8349,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>14</v>
       </c>
@@ -8359,7 +8363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -8409,7 +8413,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -8423,7 +8427,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>20</v>
       </c>
@@ -8437,7 +8441,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -8475,7 +8479,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>24</v>
       </c>
@@ -8489,7 +8493,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -8503,7 +8507,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -8517,7 +8521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -8603,7 +8607,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -8833,7 +8837,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -8859,7 +8863,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -8921,7 +8925,7 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -8983,7 +8987,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -8997,7 +9001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -9035,7 +9039,7 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -9325,7 +9329,7 @@
       </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -9615,7 +9619,7 @@
       </c>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
         <v>118</v>
       </c>
@@ -9629,7 +9633,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
         <v>119</v>
       </c>
@@ -9799,7 +9803,7 @@
       </c>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="18">
         <v>133</v>
       </c>
@@ -9809,7 +9813,9 @@
       <c r="C134" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>2504</v>
+      </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19">
@@ -9859,7 +9865,7 @@
       </c>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19">
         <v>138</v>
       </c>
@@ -9897,7 +9903,7 @@
       </c>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="18">
         <v>141</v>
       </c>
@@ -9911,7 +9917,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19">
         <v>142</v>
       </c>
@@ -9937,7 +9943,7 @@
       </c>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19">
         <v>144</v>
       </c>
@@ -9951,7 +9957,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="18">
         <v>145</v>
       </c>
@@ -10013,7 +10019,7 @@
       </c>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19">
         <v>150</v>
       </c>
@@ -10027,7 +10033,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="18">
         <v>151</v>
       </c>
@@ -10053,7 +10059,7 @@
       </c>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="18">
         <v>153</v>
       </c>
@@ -10079,7 +10085,7 @@
       </c>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="18">
         <v>155</v>
       </c>
@@ -10141,7 +10147,7 @@
       </c>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="19">
         <v>160</v>
       </c>
@@ -10227,7 +10233,7 @@
       </c>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="18">
         <v>167</v>
       </c>
@@ -10493,7 +10499,7 @@
       </c>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="18">
         <v>189</v>
       </c>
@@ -10627,7 +10633,7 @@
       </c>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19">
         <v>200</v>
       </c>
@@ -10665,7 +10671,7 @@
       </c>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="18">
         <v>203</v>
       </c>
@@ -10703,7 +10709,7 @@
       </c>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="19">
         <v>206</v>
       </c>
@@ -10741,7 +10747,7 @@
       </c>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="18">
         <v>209</v>
       </c>
@@ -10945,7 +10951,9 @@
       <c r="C226" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D226" s="3"/>
+      <c r="D226" s="3" t="s">
+        <v>2504</v>
+      </c>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="19">
@@ -11029,7 +11037,9 @@
       <c r="C233" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D233" s="4"/>
+      <c r="D233" s="4" t="s">
+        <v>2504</v>
+      </c>
     </row>
     <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="18">
@@ -11043,7 +11053,7 @@
       </c>
       <c r="D234" s="3"/>
     </row>
-    <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="19">
         <v>234</v>
       </c>
@@ -11585,7 +11595,7 @@
       </c>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="18">
         <v>279</v>
       </c>
@@ -11635,7 +11645,7 @@
       </c>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="18">
         <v>283</v>
       </c>
@@ -12177,7 +12187,7 @@
       </c>
       <c r="D328" s="3"/>
     </row>
-    <row r="329" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="19">
         <v>328</v>
       </c>
@@ -12371,7 +12381,7 @@
       </c>
       <c r="D344" s="3"/>
     </row>
-    <row r="345" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="19">
         <v>344</v>
       </c>
@@ -13405,7 +13415,7 @@
       </c>
       <c r="D430" s="3"/>
     </row>
-    <row r="431" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19">
         <v>430</v>
       </c>
@@ -14067,7 +14077,7 @@
       </c>
       <c r="D485" s="4"/>
     </row>
-    <row r="486" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="18">
         <v>485</v>
       </c>
@@ -14081,7 +14091,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="19">
         <v>486</v>
       </c>
@@ -14177,7 +14187,7 @@
       </c>
       <c r="D494" s="3"/>
     </row>
-    <row r="495" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="19">
         <v>494</v>
       </c>
@@ -14187,7 +14197,9 @@
       <c r="C495" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D495" s="4"/>
+      <c r="D495" s="4" t="s">
+        <v>2504</v>
+      </c>
     </row>
     <row r="496" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="18">
@@ -14225,7 +14237,7 @@
       </c>
       <c r="D498" s="3"/>
     </row>
-    <row r="499" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19">
         <v>498</v>
       </c>
@@ -14935,7 +14947,7 @@
       </c>
       <c r="D557" s="4"/>
     </row>
-    <row r="558" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="18">
         <v>557</v>
       </c>
@@ -14985,7 +14997,7 @@
       </c>
       <c r="D561" s="4"/>
     </row>
-    <row r="562" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="18">
         <v>561</v>
       </c>
@@ -15719,7 +15731,7 @@
       </c>
       <c r="D622" s="3"/>
     </row>
-    <row r="623" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="19">
         <v>622</v>
       </c>
@@ -16741,7 +16753,7 @@
       </c>
       <c r="D707" s="4"/>
     </row>
-    <row r="708" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="18">
         <v>707</v>
       </c>
@@ -16947,7 +16959,7 @@
       </c>
       <c r="D724" s="3"/>
     </row>
-    <row r="725" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="19">
         <v>724</v>
       </c>
@@ -16961,7 +16973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A726" s="18">
         <v>725</v>
       </c>
@@ -17129,7 +17141,7 @@
       </c>
       <c r="D739" s="4"/>
     </row>
-    <row r="740" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A740" s="18">
         <v>739</v>
       </c>
@@ -17227,7 +17239,7 @@
       </c>
       <c r="D747" s="4"/>
     </row>
-    <row r="748" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A748" s="18">
         <v>747</v>
       </c>
@@ -17289,7 +17301,7 @@
       </c>
       <c r="D752" s="3"/>
     </row>
-    <row r="753" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A753" s="19">
         <v>752</v>
       </c>
@@ -17303,7 +17315,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="18">
         <v>753</v>
       </c>
@@ -26586,7 +26598,11 @@
       <c r="E1653" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D1486" xr:uid="{AA2808F7-94D6-4788-B7C2-AA20F53DB078}"/>
+  <autoFilter ref="A2:D1486" xr:uid="{AA2808F7-94D6-4788-B7C2-AA20F53DB078}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -30005,10 +30021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A56D5E7-551D-4DA8-94DC-D98ED60B1AEE}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30019,7 +30035,7 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>1494</v>
       </c>
@@ -30027,98 +30043,107 @@
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>3</v>
+      <c r="A3" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
+      <c r="A7" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
+      <c r="A8" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
+      <c r="A9" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2499</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -30126,1255 +30151,1241 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2499</v>
+      <c r="A11" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
+      <c r="A15" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
+      <c r="A17" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
+      <c r="A19" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
+      <c r="A20" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
+      <c r="A22" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
+      <c r="A23" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>5</v>
+      <c r="A24" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
+      <c r="A25" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
+      <c r="A26" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>7</v>
+      <c r="A27" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>5</v>
+      <c r="A28" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
+      <c r="A29" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>5</v>
+      <c r="A30" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="A32" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>7</v>
+      <c r="A33" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>10</v>
+      <c r="A34" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>7</v>
+      <c r="A36" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>5</v>
+      <c r="A37" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>7</v>
+      <c r="A38" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>5</v>
+      <c r="A39" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>7</v>
+      <c r="A40" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="A41" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>5</v>
+      <c r="A42" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>7</v>
+      <c r="A43" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>5</v>
+      <c r="A44" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>7</v>
+      <c r="A45" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>5</v>
+      <c r="A46" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="A47" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>7</v>
+      <c r="A48" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>5</v>
+      <c r="A49" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="A50" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="A51" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>7</v>
+      <c r="A52" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>5</v>
+      <c r="A53" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
+      <c r="A54" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="A55" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>10</v>
+      <c r="A56" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>7</v>
+      <c r="A57" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>5</v>
+      <c r="A58" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="A59" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>7</v>
+      <c r="A60" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>5</v>
+      <c r="A61" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="A62" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="A63" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="A64" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="A65" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>7</v>
+      <c r="A66" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>10</v>
+      <c r="A67" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>7</v>
+      <c r="A68" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>5</v>
+      <c r="A69" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>7</v>
+      <c r="A70" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>5</v>
+      <c r="A71" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>10</v>
+      <c r="A72" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="A73" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>7</v>
+      <c r="A74" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>5</v>
+      <c r="A75" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="A76" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>7</v>
+      <c r="A77" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>5</v>
+      <c r="A78" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>7</v>
+      <c r="A79" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>5</v>
+      <c r="A80" s="4" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C81" s="4" t="s">
+      <c r="A81" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="A82" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C83" s="4" t="s">
+      <c r="A83" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="A84" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C85" s="4" t="s">
+      <c r="A85" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="A86" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="A87" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>7</v>
+      <c r="A88" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C89" s="4" t="s">
+      <c r="A89" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>5</v>
+      <c r="A90" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="A91" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="A92" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C93" s="4" t="s">
+      <c r="A93" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="A94" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>7</v>
+      <c r="A95" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>5</v>
+      <c r="A96" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>7</v>
+      <c r="A97" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>5</v>
+      <c r="A98" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="A99" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="A100" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>7</v>
+      <c r="A101" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>5</v>
+      <c r="A102" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C103" s="4" t="s">
+      <c r="A103" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>7</v>
+      <c r="A104" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C105" s="4" t="s">
+      <c r="A105" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="A106" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>10</v>
+      <c r="A107" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="A108" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>7</v>
+      <c r="A109" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="A110" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="A111" s="3" t="s">
         <v>1708</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B111" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C111" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="15"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{80F38252-6BCC-4A33-87B6-D592758D0927}"/>
+  <autoFilter ref="A2:D111" xr:uid="{80F38252-6BCC-4A33-87B6-D592758D0927}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://leetcode-cn.com/problems/is-unique-lcci" xr:uid="{65988DF1-DDBD-46D8-BCC3-D068AE11422C}"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://leetcode-cn.com/problems/check-permutation-lcci" xr:uid="{0F986469-D424-4433-A305-0707C512BE27}"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://leetcode-cn.com/problems/string-to-url-lcci" xr:uid="{2F3400F8-7380-4798-9149-265A7BB1A510}"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://leetcode-cn.com/problems/palindrome-permutation-lcci" xr:uid="{AF8B9FE0-CB83-43BA-BD8D-34539B7B3D3F}"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://leetcode-cn.com/problems/one-away-lcci" xr:uid="{233DA28C-8530-4F86-BB02-147DF97D05FF}"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://leetcode-cn.com/problems/compress-string-lcci" xr:uid="{CA2FBC9D-4720-468C-971C-6C8500655155}"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://leetcode-cn.com/problems/rotate-matrix-lcci" xr:uid="{DB282451-E4EE-4BC9-BB2E-3E4BA8A4F634}"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://leetcode-cn.com/problems/zero-matrix-lcci" xr:uid="{FC91657D-C8C8-4B82-A3F5-00E874E63D20}"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://leetcode-cn.com/problems/string-rotation-lcci" xr:uid="{75E626F9-C1B4-4ACC-8FC0-84C6CD3CF23D}"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://leetcode-cn.com/problems/remove-duplicate-node-lcci" xr:uid="{B6DF184B-08EA-411E-91E0-83C90D97098B}"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://leetcode-cn.com/problems/kth-node-from-end-of-list-lcci" xr:uid="{2D335B55-C4F4-4EC2-AA0E-84245FA91EA6}"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://leetcode-cn.com/problems/delete-middle-node-lcci" xr:uid="{32932FCA-A4B6-4926-A277-2DBF968FB66F}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://leetcode-cn.com/problems/partition-list-lcci" xr:uid="{B3BB5593-453D-4B9A-ACD7-796A5A68895F}"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://leetcode-cn.com/problems/sum-lists-lcci" xr:uid="{FF9325D2-355A-4B6A-99C1-A1507D7AA8C6}"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://leetcode-cn.com/problems/palindrome-linked-list-lcci" xr:uid="{9D69124C-8275-48C5-89C6-47C06A7A226B}"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://leetcode-cn.com/problems/intersection-of-two-linked-lists-lcci" xr:uid="{B2077538-5DC1-4718-ACD3-3CD39677C311}"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://leetcode-cn.com/problems/linked-list-cycle-lcci" xr:uid="{8683A9A3-D47D-4ECD-A89C-30DB4235B322}"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://leetcode-cn.com/problems/three-in-one-lcci" xr:uid="{16A71F7A-0E5E-4A2F-9519-F1DCF8AE0A9C}"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://leetcode-cn.com/problems/min-stack-lcci" xr:uid="{41B71FE5-16D7-4D2F-B01B-46203567C258}"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://leetcode-cn.com/problems/stack-of-plates-lcci" xr:uid="{EA85FEC0-0658-46E8-AA7B-3A73A42E9CD0}"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://leetcode-cn.com/problems/implement-queue-using-stacks-lcci" xr:uid="{7C364CD7-B3C4-44D2-A286-BC975B86E112}"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://leetcode-cn.com/problems/sort-of-stacks-lcci" xr:uid="{91BF0172-A7F3-42AC-9962-8401A3E37B5B}"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://leetcode-cn.com/problems/animal-shelter-lcci" xr:uid="{BE33DA3D-66F5-4848-B175-AC6D044ACFE2}"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://leetcode-cn.com/problems/route-between-nodes-lcci" xr:uid="{C28C6B2C-3E5F-4DA3-9E4E-DF9536475314}"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://leetcode-cn.com/problems/minimum-height-tree-lcci" xr:uid="{67D13540-FF3C-4489-BAED-66DA7709317D}"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://leetcode-cn.com/problems/list-of-depth-lcci" xr:uid="{7036EF6D-E728-4AEA-B879-F0C023C884B6}"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://leetcode-cn.com/problems/check-balance-lcci" xr:uid="{7FEE5AC8-7FBD-4D6E-9E53-9E1B19BFC3D7}"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://leetcode-cn.com/problems/legal-binary-search-tree-lcci" xr:uid="{FB83AADB-12BE-4B14-AA18-72EB3F224ECC}"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://leetcode-cn.com/problems/successor-lcci" xr:uid="{3A79340E-7A7F-4104-A79C-2B88D339BE1D}"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://leetcode-cn.com/problems/first-common-ancestor-lcci" xr:uid="{7B105FA3-0BDA-402D-A47E-84E208984D86}"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://leetcode-cn.com/problems/bst-sequences-lcci" xr:uid="{1E6C4BFF-3E92-4CE1-B9DA-67CD7D5FA8DB}"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://leetcode-cn.com/problems/check-subtree-lcci" xr:uid="{5654310E-07E7-40C0-92A2-C1D32D014928}"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://leetcode-cn.com/problems/paths-with-sum-lcci" xr:uid="{38839549-B0D3-459B-A535-D5E776555AD9}"/>
-    <hyperlink ref="B37" r:id="rId34" display="https://leetcode-cn.com/problems/insert-into-bits-lcci" xr:uid="{BBD266AD-2B1F-44AC-90B5-4719FAD4FC0A}"/>
-    <hyperlink ref="B38" r:id="rId35" display="https://leetcode-cn.com/problems/bianry-number-to-string-lcci" xr:uid="{326A058F-888D-49BC-8047-C7E90975BF8F}"/>
-    <hyperlink ref="B39" r:id="rId36" display="https://leetcode-cn.com/problems/reverse-bits-lcci" xr:uid="{EF74E6F3-82B2-4E0F-9DAE-9AEE2C919B59}"/>
-    <hyperlink ref="B40" r:id="rId37" display="https://leetcode-cn.com/problems/closed-number-lcci" xr:uid="{25D60044-C22A-4B7F-8C47-BACC6E36E49E}"/>
-    <hyperlink ref="B41" r:id="rId38" display="https://leetcode-cn.com/problems/convert-integer-lcci" xr:uid="{93B8B2FA-5B00-44C7-9CE7-AF4AA3058F0E}"/>
-    <hyperlink ref="B42" r:id="rId39" display="https://leetcode-cn.com/problems/exchange-lcci" xr:uid="{B075CBBE-02CE-41A2-96E8-82EF927A6D97}"/>
-    <hyperlink ref="B43" r:id="rId40" display="https://leetcode-cn.com/problems/draw-line-lcci" xr:uid="{E357632D-8E06-4853-8F86-A00DDEDAA067}"/>
-    <hyperlink ref="B44" r:id="rId41" display="https://leetcode-cn.com/problems/three-steps-problem-lcci" xr:uid="{92C63BFC-5378-42E5-98DB-EFF6CD2765F0}"/>
-    <hyperlink ref="B45" r:id="rId42" display="https://leetcode-cn.com/problems/robot-in-a-grid-lcci" xr:uid="{F9245D50-E6E9-4F27-B456-3B6F5A2B9B6D}"/>
-    <hyperlink ref="B46" r:id="rId43" display="https://leetcode-cn.com/problems/magic-index-lcci" xr:uid="{9D174FE5-BE18-4D10-8ACA-68AF645CED25}"/>
-    <hyperlink ref="B47" r:id="rId44" display="https://leetcode-cn.com/problems/power-set-lcci" xr:uid="{B4C5B35A-A4D3-4148-89C7-5BB0134E1A2C}"/>
-    <hyperlink ref="B48" r:id="rId45" display="https://leetcode-cn.com/problems/recursive-mulitply-lcci" xr:uid="{B7954E82-1AE1-46F6-B6E8-4E87236B0FB9}"/>
-    <hyperlink ref="B49" r:id="rId46" display="https://leetcode-cn.com/problems/hanota-lcci" xr:uid="{02C845D3-C541-43C6-8126-53596B4FE97C}"/>
-    <hyperlink ref="B50" r:id="rId47" display="https://leetcode-cn.com/problems/permutation-i-lcci" xr:uid="{F6DFAD70-604A-42B0-97A3-97F30C83ABDE}"/>
-    <hyperlink ref="B51" r:id="rId48" display="https://leetcode-cn.com/problems/permutation-ii-lcci" xr:uid="{8B64FD2C-A5AD-4EA1-8357-A9ADF2CF7A0E}"/>
-    <hyperlink ref="B52" r:id="rId49" display="https://leetcode-cn.com/problems/bracket-lcci" xr:uid="{151C1933-2408-4E04-8A9D-2C60CA2AED5F}"/>
-    <hyperlink ref="B53" r:id="rId50" display="https://leetcode-cn.com/problems/color-fill-lcci" xr:uid="{3D4A0143-5B32-4F5E-A7FD-958F4D7F20BC}"/>
-    <hyperlink ref="B54" r:id="rId51" display="https://leetcode-cn.com/problems/coin-lcci" xr:uid="{60620454-AA8A-4C73-BB5E-4651D5B4BF5D}"/>
-    <hyperlink ref="B55" r:id="rId52" display="https://leetcode-cn.com/problems/eight-queens-lcci" xr:uid="{EC46D030-DA0B-4F43-BC9D-782183396DF1}"/>
-    <hyperlink ref="B56" r:id="rId53" display="https://leetcode-cn.com/problems/pile-box-lcci" xr:uid="{B31CE329-5304-466A-B6BD-23B3B1C76D5C}"/>
-    <hyperlink ref="B57" r:id="rId54" display="https://leetcode-cn.com/problems/boolean-evaluation-lcci" xr:uid="{D1FC6764-ADB1-4188-87D0-1FC32AF8FCFB}"/>
-    <hyperlink ref="B58" r:id="rId55" display="https://leetcode-cn.com/problems/sorted-merge-lcci" xr:uid="{A26EB65E-AE99-487C-B30F-9DF54CB454C7}"/>
-    <hyperlink ref="B59" r:id="rId56" display="https://leetcode-cn.com/problems/group-anagrams-lcci" xr:uid="{8E72392C-CFA7-4D83-A95F-DCF988B9370D}"/>
-    <hyperlink ref="B60" r:id="rId57" display="https://leetcode-cn.com/problems/search-rotate-array-lcci" xr:uid="{CF8FE950-2200-48BB-BDB1-8429544AC371}"/>
-    <hyperlink ref="B61" r:id="rId58" display="https://leetcode-cn.com/problems/sparse-array-search-lcci" xr:uid="{A3280143-773F-48A5-BCAF-31B3103289F5}"/>
-    <hyperlink ref="B62" r:id="rId59" display="https://leetcode-cn.com/problems/sorted-matrix-search-lcci" xr:uid="{4679EDB6-17C7-4ADF-BD73-A4943A974E74}"/>
-    <hyperlink ref="B63" r:id="rId60" display="https://leetcode-cn.com/problems/rank-from-stream-lcci" xr:uid="{D0BA52FE-FA62-4DC5-B9DD-AB05974C8483}"/>
-    <hyperlink ref="B64" r:id="rId61" display="https://leetcode-cn.com/problems/peaks-and-valleys-lcci" xr:uid="{469F2ADA-EB5A-4C69-BF09-521D8FCE7060}"/>
-    <hyperlink ref="B65" r:id="rId62" display="https://leetcode-cn.com/problems/swap-numbers-lcci" xr:uid="{43FC9D7D-A5D1-4E1F-B654-14AF3FD61F69}"/>
-    <hyperlink ref="B66" r:id="rId63" display="https://leetcode-cn.com/problems/words-frequency-lcci" xr:uid="{FB1F45E1-EB24-4064-BC6C-A04EC9D58D40}"/>
-    <hyperlink ref="B67" r:id="rId64" display="https://leetcode-cn.com/problems/intersection-lcci" xr:uid="{6DB0B8DB-8B20-478C-AA61-6B3CABB16787}"/>
-    <hyperlink ref="B68" r:id="rId65" display="https://leetcode-cn.com/problems/tic-tac-toe-lcci" xr:uid="{6631C6D9-697A-4FB9-8F67-6381ABC8BBC1}"/>
-    <hyperlink ref="B69" r:id="rId66" display="https://leetcode-cn.com/problems/factorial-zeros-lcci" xr:uid="{EB2E2991-D43C-4F21-B3A4-5C8C70A44D2A}"/>
-    <hyperlink ref="B70" r:id="rId67" display="https://leetcode-cn.com/problems/smallest-difference-lcci" xr:uid="{4189AD0E-F488-4C87-906F-F7E0678D9632}"/>
-    <hyperlink ref="B71" r:id="rId68" display="https://leetcode-cn.com/problems/maximum-lcci" xr:uid="{D37124E5-F65C-402D-860B-617C0C80B687}"/>
-    <hyperlink ref="B72" r:id="rId69" display="https://leetcode-cn.com/problems/english-int-lcci" xr:uid="{5AF82742-D0B5-4F04-B2E9-D79264BE2D96}"/>
-    <hyperlink ref="B73" r:id="rId70" display="https://leetcode-cn.com/problems/operations-lcci" xr:uid="{63E0AF68-9AA1-47F8-B2CC-6130D2EDDE29}"/>
-    <hyperlink ref="B74" r:id="rId71" display="https://leetcode-cn.com/problems/living-people-lcci" xr:uid="{D710BEEB-FB7C-4B55-A6E8-F574781430AA}"/>
-    <hyperlink ref="B75" r:id="rId72" display="https://leetcode-cn.com/problems/diving-board-lcci" xr:uid="{7CB20116-A843-4EC9-AAE4-B576B510ECA8}"/>
-    <hyperlink ref="B76" r:id="rId73" display="https://leetcode-cn.com/problems/bisect-squares-lcci" xr:uid="{4B5489CA-A20B-41A4-8CA1-BBDB8B5A28CB}"/>
-    <hyperlink ref="B77" r:id="rId74" display="https://leetcode-cn.com/problems/best-line-lcci" xr:uid="{9698873B-AD9B-417C-915F-C118B01B1159}"/>
-    <hyperlink ref="B78" r:id="rId75" display="https://leetcode-cn.com/problems/master-mind-lcci" xr:uid="{4BE4B5F6-73B6-4B5E-975F-161F89B54708}"/>
-    <hyperlink ref="B79" r:id="rId76" display="https://leetcode-cn.com/problems/sub-sort-lcci" xr:uid="{89A4E8B0-D02D-4557-858E-DD3CA9165580}"/>
-    <hyperlink ref="B80" r:id="rId77" display="https://leetcode-cn.com/problems/contiguous-sequence-lcci" xr:uid="{5CCF6FBA-7DE4-45AF-9231-D9313C972AEA}"/>
-    <hyperlink ref="B81" r:id="rId78" display="https://leetcode-cn.com/problems/pattern-matching-lcci" xr:uid="{395FB40F-7682-4B89-AEDA-C5880E81AD5E}"/>
-    <hyperlink ref="B82" r:id="rId79" display="https://leetcode-cn.com/problems/pond-sizes-lcci" xr:uid="{6E2D58F4-D254-4928-A168-3B6EEA3B6E4D}"/>
-    <hyperlink ref="B83" r:id="rId80" display="https://leetcode-cn.com/problems/t9-lcci" xr:uid="{DA07B267-F7DB-46F6-979B-C2F883DE0454}"/>
-    <hyperlink ref="B84" r:id="rId81" display="https://leetcode-cn.com/problems/sum-swap-lcci" xr:uid="{7EB17C26-38AE-418F-9D65-DF4B6619444A}"/>
-    <hyperlink ref="B85" r:id="rId82" display="https://leetcode-cn.com/problems/langtons-ant-lcci" xr:uid="{F78BCB39-1E5D-4C24-ADEC-56316998B9B2}"/>
-    <hyperlink ref="B86" r:id="rId83" display="https://leetcode-cn.com/problems/pairs-with-sum-lcci" xr:uid="{1B9D93C6-2EE2-41B0-8B1E-47FE60D5A298}"/>
-    <hyperlink ref="B87" r:id="rId84" display="https://leetcode-cn.com/problems/lru-cache-lcci" xr:uid="{9B414F26-99FC-4B25-B02B-CCC508647EDE}"/>
-    <hyperlink ref="B88" r:id="rId85" display="https://leetcode-cn.com/problems/calculator-lcci" xr:uid="{E4BDC078-247B-42FC-84C3-19F1FAD929F7}"/>
-    <hyperlink ref="B89" r:id="rId86" display="https://leetcode-cn.com/problems/add-without-plus-lcci" xr:uid="{02C8DD3E-CB7A-415C-9D06-2A9B165A4A07}"/>
-    <hyperlink ref="B90" r:id="rId87" display="https://leetcode-cn.com/problems/missing-number-lcci" xr:uid="{5871C071-93D4-4CAA-8E0F-BF1BCE8CCC0D}"/>
-    <hyperlink ref="B91" r:id="rId88" display="https://leetcode-cn.com/problems/find-longest-subarray-lcci" xr:uid="{EE75AA24-AD4E-4B33-A69C-4DB5E2E6D6C3}"/>
-    <hyperlink ref="B92" r:id="rId89" display="https://leetcode-cn.com/problems/number-of-2s-in-range-lcci" xr:uid="{41E555F7-15F0-4930-98AC-AF53E453C55D}"/>
-    <hyperlink ref="B93" r:id="rId90" display="https://leetcode-cn.com/problems/baby-names-lcci" xr:uid="{0BF45C72-3F8F-4641-B10F-191B26DB63FF}"/>
-    <hyperlink ref="B94" r:id="rId91" display="https://leetcode-cn.com/problems/circus-tower-lcci" xr:uid="{A9E4A819-2C01-4E8F-BFED-1E8795E508DA}"/>
-    <hyperlink ref="B95" r:id="rId92" display="https://leetcode-cn.com/problems/get-kth-magic-number-lcci" xr:uid="{2A0EFA7D-F744-49CF-9CAA-DD0E5BF0387E}"/>
-    <hyperlink ref="B96" r:id="rId93" display="https://leetcode-cn.com/problems/find-majority-element-lcci" xr:uid="{1B8336E6-8051-4819-83A3-2C3628559D40}"/>
-    <hyperlink ref="B97" r:id="rId94" display="https://leetcode-cn.com/problems/find-closest-lcci" xr:uid="{BC76320B-12C4-48C8-A009-EBB55EF1933D}"/>
-    <hyperlink ref="B98" r:id="rId95" display="https://leetcode-cn.com/problems/binode-lcci" xr:uid="{F1BCB2F9-33D4-4584-9892-902E43D9A644}"/>
-    <hyperlink ref="B99" r:id="rId96" display="https://leetcode-cn.com/problems/re-space-lcci" xr:uid="{980A4797-78D5-4516-B2C4-1E4A32C814A2}"/>
-    <hyperlink ref="B100" r:id="rId97" display="https://leetcode-cn.com/problems/smallest-k-lcci" xr:uid="{9420EDED-D3B9-43A2-A100-D989CBB1604B}"/>
-    <hyperlink ref="B101" r:id="rId98" display="https://leetcode-cn.com/problems/longest-word-lcci" xr:uid="{8F2B59A7-6ADC-47E4-BAD1-13AFC3C0D7E0}"/>
-    <hyperlink ref="B102" r:id="rId99" display="https://leetcode-cn.com/problems/the-masseuse-lcci" xr:uid="{86A5A113-96E1-48BF-84A9-50A7B0748F89}"/>
-    <hyperlink ref="B103" r:id="rId100" display="https://leetcode-cn.com/problems/multi-search-lcci" xr:uid="{8B72DECA-92B4-4DF8-8591-D4B93237730A}"/>
-    <hyperlink ref="B104" r:id="rId101" display="https://leetcode-cn.com/problems/shortest-supersequence-lcci" xr:uid="{ECF4C719-7A41-4BAA-AE6A-38AD845FED2A}"/>
-    <hyperlink ref="B105" r:id="rId102" display="https://leetcode-cn.com/problems/missing-two-lcci" xr:uid="{589EF060-DDBE-42F7-999A-718452DDB0A6}"/>
-    <hyperlink ref="B106" r:id="rId103" display="https://leetcode-cn.com/problems/continuous-median-lcci" xr:uid="{A1A67E99-E8D5-4A1C-8299-EEBA924AA77F}"/>
-    <hyperlink ref="B107" r:id="rId104" display="https://leetcode-cn.com/problems/volume-of-histogram-lcci" xr:uid="{877FD415-8962-4351-A26B-E79F40846A2A}"/>
-    <hyperlink ref="B108" r:id="rId105" display="https://leetcode-cn.com/problems/word-transformer-lcci" xr:uid="{93500134-4C38-487D-AF8B-A453EF6A5F41}"/>
-    <hyperlink ref="B109" r:id="rId106" display="https://leetcode-cn.com/problems/max-black-square-lcci" xr:uid="{4CB8B84B-0434-4289-864E-2B8F6EB05BE9}"/>
-    <hyperlink ref="B110" r:id="rId107" display="https://leetcode-cn.com/problems/max-submatrix-lcci" xr:uid="{6CB09E9D-2A22-486F-BBBD-30285F51277B}"/>
-    <hyperlink ref="B111" r:id="rId108" display="https://leetcode-cn.com/problems/word-rectangle-lcci" xr:uid="{FBBA00A7-D7D2-4365-AB95-5568A0451AB3}"/>
-    <hyperlink ref="B112" r:id="rId109" display="https://leetcode-cn.com/problems/sparse-similarity-lcci" xr:uid="{A3B1D418-E51B-47DF-8F1D-86BABB239D06}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode-cn.com/problems/is-unique-lcci" xr:uid="{65988DF1-DDBD-46D8-BCC3-D068AE11422C}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode-cn.com/problems/check-permutation-lcci" xr:uid="{0F986469-D424-4433-A305-0707C512BE27}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://leetcode-cn.com/problems/string-to-url-lcci" xr:uid="{2F3400F8-7380-4798-9149-265A7BB1A510}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://leetcode-cn.com/problems/palindrome-permutation-lcci" xr:uid="{AF8B9FE0-CB83-43BA-BD8D-34539B7B3D3F}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://leetcode-cn.com/problems/one-away-lcci" xr:uid="{233DA28C-8530-4F86-BB02-147DF97D05FF}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://leetcode-cn.com/problems/compress-string-lcci" xr:uid="{CA2FBC9D-4720-468C-971C-6C8500655155}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://leetcode-cn.com/problems/rotate-matrix-lcci" xr:uid="{DB282451-E4EE-4BC9-BB2E-3E4BA8A4F634}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://leetcode-cn.com/problems/zero-matrix-lcci" xr:uid="{FC91657D-C8C8-4B82-A3F5-00E874E63D20}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://leetcode-cn.com/problems/string-rotation-lcci" xr:uid="{75E626F9-C1B4-4ACC-8FC0-84C6CD3CF23D}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://leetcode-cn.com/problems/remove-duplicate-node-lcci" xr:uid="{B6DF184B-08EA-411E-91E0-83C90D97098B}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://leetcode-cn.com/problems/kth-node-from-end-of-list-lcci" xr:uid="{2D335B55-C4F4-4EC2-AA0E-84245FA91EA6}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://leetcode-cn.com/problems/delete-middle-node-lcci" xr:uid="{32932FCA-A4B6-4926-A277-2DBF968FB66F}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://leetcode-cn.com/problems/partition-list-lcci" xr:uid="{B3BB5593-453D-4B9A-ACD7-796A5A68895F}"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://leetcode-cn.com/problems/sum-lists-lcci" xr:uid="{FF9325D2-355A-4B6A-99C1-A1507D7AA8C6}"/>
+    <hyperlink ref="B17" r:id="rId15" display="https://leetcode-cn.com/problems/palindrome-linked-list-lcci" xr:uid="{9D69124C-8275-48C5-89C6-47C06A7A226B}"/>
+    <hyperlink ref="B18" r:id="rId16" display="https://leetcode-cn.com/problems/intersection-of-two-linked-lists-lcci" xr:uid="{B2077538-5DC1-4718-ACD3-3CD39677C311}"/>
+    <hyperlink ref="B19" r:id="rId17" display="https://leetcode-cn.com/problems/linked-list-cycle-lcci" xr:uid="{8683A9A3-D47D-4ECD-A89C-30DB4235B322}"/>
+    <hyperlink ref="B20" r:id="rId18" display="https://leetcode-cn.com/problems/three-in-one-lcci" xr:uid="{16A71F7A-0E5E-4A2F-9519-F1DCF8AE0A9C}"/>
+    <hyperlink ref="B21" r:id="rId19" display="https://leetcode-cn.com/problems/min-stack-lcci" xr:uid="{41B71FE5-16D7-4D2F-B01B-46203567C258}"/>
+    <hyperlink ref="B22" r:id="rId20" display="https://leetcode-cn.com/problems/stack-of-plates-lcci" xr:uid="{EA85FEC0-0658-46E8-AA7B-3A73A42E9CD0}"/>
+    <hyperlink ref="B23" r:id="rId21" display="https://leetcode-cn.com/problems/implement-queue-using-stacks-lcci" xr:uid="{7C364CD7-B3C4-44D2-A286-BC975B86E112}"/>
+    <hyperlink ref="B24" r:id="rId22" display="https://leetcode-cn.com/problems/sort-of-stacks-lcci" xr:uid="{91BF0172-A7F3-42AC-9962-8401A3E37B5B}"/>
+    <hyperlink ref="B25" r:id="rId23" display="https://leetcode-cn.com/problems/animal-shelter-lcci" xr:uid="{BE33DA3D-66F5-4848-B175-AC6D044ACFE2}"/>
+    <hyperlink ref="B26" r:id="rId24" display="https://leetcode-cn.com/problems/route-between-nodes-lcci" xr:uid="{C28C6B2C-3E5F-4DA3-9E4E-DF9536475314}"/>
+    <hyperlink ref="B27" r:id="rId25" display="https://leetcode-cn.com/problems/minimum-height-tree-lcci" xr:uid="{67D13540-FF3C-4489-BAED-66DA7709317D}"/>
+    <hyperlink ref="B28" r:id="rId26" display="https://leetcode-cn.com/problems/list-of-depth-lcci" xr:uid="{7036EF6D-E728-4AEA-B879-F0C023C884B6}"/>
+    <hyperlink ref="B29" r:id="rId27" display="https://leetcode-cn.com/problems/check-balance-lcci" xr:uid="{7FEE5AC8-7FBD-4D6E-9E53-9E1B19BFC3D7}"/>
+    <hyperlink ref="B30" r:id="rId28" display="https://leetcode-cn.com/problems/legal-binary-search-tree-lcci" xr:uid="{FB83AADB-12BE-4B14-AA18-72EB3F224ECC}"/>
+    <hyperlink ref="B31" r:id="rId29" display="https://leetcode-cn.com/problems/successor-lcci" xr:uid="{3A79340E-7A7F-4104-A79C-2B88D339BE1D}"/>
+    <hyperlink ref="B32" r:id="rId30" display="https://leetcode-cn.com/problems/first-common-ancestor-lcci" xr:uid="{7B105FA3-0BDA-402D-A47E-84E208984D86}"/>
+    <hyperlink ref="B33" r:id="rId31" display="https://leetcode-cn.com/problems/bst-sequences-lcci" xr:uid="{1E6C4BFF-3E92-4CE1-B9DA-67CD7D5FA8DB}"/>
+    <hyperlink ref="B34" r:id="rId32" display="https://leetcode-cn.com/problems/check-subtree-lcci" xr:uid="{5654310E-07E7-40C0-92A2-C1D32D014928}"/>
+    <hyperlink ref="B35" r:id="rId33" display="https://leetcode-cn.com/problems/paths-with-sum-lcci" xr:uid="{38839549-B0D3-459B-A535-D5E776555AD9}"/>
+    <hyperlink ref="B36" r:id="rId34" display="https://leetcode-cn.com/problems/insert-into-bits-lcci" xr:uid="{BBD266AD-2B1F-44AC-90B5-4719FAD4FC0A}"/>
+    <hyperlink ref="B37" r:id="rId35" display="https://leetcode-cn.com/problems/bianry-number-to-string-lcci" xr:uid="{326A058F-888D-49BC-8047-C7E90975BF8F}"/>
+    <hyperlink ref="B38" r:id="rId36" display="https://leetcode-cn.com/problems/reverse-bits-lcci" xr:uid="{EF74E6F3-82B2-4E0F-9DAE-9AEE2C919B59}"/>
+    <hyperlink ref="B39" r:id="rId37" display="https://leetcode-cn.com/problems/closed-number-lcci" xr:uid="{25D60044-C22A-4B7F-8C47-BACC6E36E49E}"/>
+    <hyperlink ref="B40" r:id="rId38" display="https://leetcode-cn.com/problems/convert-integer-lcci" xr:uid="{93B8B2FA-5B00-44C7-9CE7-AF4AA3058F0E}"/>
+    <hyperlink ref="B41" r:id="rId39" display="https://leetcode-cn.com/problems/exchange-lcci" xr:uid="{B075CBBE-02CE-41A2-96E8-82EF927A6D97}"/>
+    <hyperlink ref="B42" r:id="rId40" display="https://leetcode-cn.com/problems/draw-line-lcci" xr:uid="{E357632D-8E06-4853-8F86-A00DDEDAA067}"/>
+    <hyperlink ref="B43" r:id="rId41" display="https://leetcode-cn.com/problems/three-steps-problem-lcci" xr:uid="{92C63BFC-5378-42E5-98DB-EFF6CD2765F0}"/>
+    <hyperlink ref="B44" r:id="rId42" display="https://leetcode-cn.com/problems/robot-in-a-grid-lcci" xr:uid="{F9245D50-E6E9-4F27-B456-3B6F5A2B9B6D}"/>
+    <hyperlink ref="B45" r:id="rId43" display="https://leetcode-cn.com/problems/magic-index-lcci" xr:uid="{9D174FE5-BE18-4D10-8ACA-68AF645CED25}"/>
+    <hyperlink ref="B46" r:id="rId44" display="https://leetcode-cn.com/problems/power-set-lcci" xr:uid="{B4C5B35A-A4D3-4148-89C7-5BB0134E1A2C}"/>
+    <hyperlink ref="B47" r:id="rId45" display="https://leetcode-cn.com/problems/recursive-mulitply-lcci" xr:uid="{B7954E82-1AE1-46F6-B6E8-4E87236B0FB9}"/>
+    <hyperlink ref="B48" r:id="rId46" display="https://leetcode-cn.com/problems/hanota-lcci" xr:uid="{02C845D3-C541-43C6-8126-53596B4FE97C}"/>
+    <hyperlink ref="B49" r:id="rId47" display="https://leetcode-cn.com/problems/permutation-i-lcci" xr:uid="{F6DFAD70-604A-42B0-97A3-97F30C83ABDE}"/>
+    <hyperlink ref="B50" r:id="rId48" display="https://leetcode-cn.com/problems/permutation-ii-lcci" xr:uid="{8B64FD2C-A5AD-4EA1-8357-A9ADF2CF7A0E}"/>
+    <hyperlink ref="B51" r:id="rId49" display="https://leetcode-cn.com/problems/bracket-lcci" xr:uid="{151C1933-2408-4E04-8A9D-2C60CA2AED5F}"/>
+    <hyperlink ref="B52" r:id="rId50" display="https://leetcode-cn.com/problems/color-fill-lcci" xr:uid="{3D4A0143-5B32-4F5E-A7FD-958F4D7F20BC}"/>
+    <hyperlink ref="B53" r:id="rId51" display="https://leetcode-cn.com/problems/coin-lcci" xr:uid="{60620454-AA8A-4C73-BB5E-4651D5B4BF5D}"/>
+    <hyperlink ref="B54" r:id="rId52" display="https://leetcode-cn.com/problems/eight-queens-lcci" xr:uid="{EC46D030-DA0B-4F43-BC9D-782183396DF1}"/>
+    <hyperlink ref="B55" r:id="rId53" display="https://leetcode-cn.com/problems/pile-box-lcci" xr:uid="{B31CE329-5304-466A-B6BD-23B3B1C76D5C}"/>
+    <hyperlink ref="B56" r:id="rId54" display="https://leetcode-cn.com/problems/boolean-evaluation-lcci" xr:uid="{D1FC6764-ADB1-4188-87D0-1FC32AF8FCFB}"/>
+    <hyperlink ref="B57" r:id="rId55" display="https://leetcode-cn.com/problems/sorted-merge-lcci" xr:uid="{A26EB65E-AE99-487C-B30F-9DF54CB454C7}"/>
+    <hyperlink ref="B58" r:id="rId56" display="https://leetcode-cn.com/problems/group-anagrams-lcci" xr:uid="{8E72392C-CFA7-4D83-A95F-DCF988B9370D}"/>
+    <hyperlink ref="B59" r:id="rId57" display="https://leetcode-cn.com/problems/search-rotate-array-lcci" xr:uid="{CF8FE950-2200-48BB-BDB1-8429544AC371}"/>
+    <hyperlink ref="B60" r:id="rId58" display="https://leetcode-cn.com/problems/sparse-array-search-lcci" xr:uid="{A3280143-773F-48A5-BCAF-31B3103289F5}"/>
+    <hyperlink ref="B61" r:id="rId59" display="https://leetcode-cn.com/problems/sorted-matrix-search-lcci" xr:uid="{4679EDB6-17C7-4ADF-BD73-A4943A974E74}"/>
+    <hyperlink ref="B62" r:id="rId60" display="https://leetcode-cn.com/problems/rank-from-stream-lcci" xr:uid="{D0BA52FE-FA62-4DC5-B9DD-AB05974C8483}"/>
+    <hyperlink ref="B63" r:id="rId61" display="https://leetcode-cn.com/problems/peaks-and-valleys-lcci" xr:uid="{469F2ADA-EB5A-4C69-BF09-521D8FCE7060}"/>
+    <hyperlink ref="B64" r:id="rId62" display="https://leetcode-cn.com/problems/swap-numbers-lcci" xr:uid="{43FC9D7D-A5D1-4E1F-B654-14AF3FD61F69}"/>
+    <hyperlink ref="B65" r:id="rId63" display="https://leetcode-cn.com/problems/words-frequency-lcci" xr:uid="{FB1F45E1-EB24-4064-BC6C-A04EC9D58D40}"/>
+    <hyperlink ref="B66" r:id="rId64" display="https://leetcode-cn.com/problems/intersection-lcci" xr:uid="{6DB0B8DB-8B20-478C-AA61-6B3CABB16787}"/>
+    <hyperlink ref="B67" r:id="rId65" display="https://leetcode-cn.com/problems/tic-tac-toe-lcci" xr:uid="{6631C6D9-697A-4FB9-8F67-6381ABC8BBC1}"/>
+    <hyperlink ref="B68" r:id="rId66" display="https://leetcode-cn.com/problems/factorial-zeros-lcci" xr:uid="{EB2E2991-D43C-4F21-B3A4-5C8C70A44D2A}"/>
+    <hyperlink ref="B69" r:id="rId67" display="https://leetcode-cn.com/problems/smallest-difference-lcci" xr:uid="{4189AD0E-F488-4C87-906F-F7E0678D9632}"/>
+    <hyperlink ref="B70" r:id="rId68" display="https://leetcode-cn.com/problems/maximum-lcci" xr:uid="{D37124E5-F65C-402D-860B-617C0C80B687}"/>
+    <hyperlink ref="B71" r:id="rId69" display="https://leetcode-cn.com/problems/english-int-lcci" xr:uid="{5AF82742-D0B5-4F04-B2E9-D79264BE2D96}"/>
+    <hyperlink ref="B72" r:id="rId70" display="https://leetcode-cn.com/problems/operations-lcci" xr:uid="{63E0AF68-9AA1-47F8-B2CC-6130D2EDDE29}"/>
+    <hyperlink ref="B73" r:id="rId71" display="https://leetcode-cn.com/problems/living-people-lcci" xr:uid="{D710BEEB-FB7C-4B55-A6E8-F574781430AA}"/>
+    <hyperlink ref="B74" r:id="rId72" display="https://leetcode-cn.com/problems/diving-board-lcci" xr:uid="{7CB20116-A843-4EC9-AAE4-B576B510ECA8}"/>
+    <hyperlink ref="B75" r:id="rId73" display="https://leetcode-cn.com/problems/bisect-squares-lcci" xr:uid="{4B5489CA-A20B-41A4-8CA1-BBDB8B5A28CB}"/>
+    <hyperlink ref="B76" r:id="rId74" display="https://leetcode-cn.com/problems/best-line-lcci" xr:uid="{9698873B-AD9B-417C-915F-C118B01B1159}"/>
+    <hyperlink ref="B77" r:id="rId75" display="https://leetcode-cn.com/problems/master-mind-lcci" xr:uid="{4BE4B5F6-73B6-4B5E-975F-161F89B54708}"/>
+    <hyperlink ref="B78" r:id="rId76" display="https://leetcode-cn.com/problems/sub-sort-lcci" xr:uid="{89A4E8B0-D02D-4557-858E-DD3CA9165580}"/>
+    <hyperlink ref="B79" r:id="rId77" display="https://leetcode-cn.com/problems/contiguous-sequence-lcci" xr:uid="{5CCF6FBA-7DE4-45AF-9231-D9313C972AEA}"/>
+    <hyperlink ref="B80" r:id="rId78" display="https://leetcode-cn.com/problems/pattern-matching-lcci" xr:uid="{395FB40F-7682-4B89-AEDA-C5880E81AD5E}"/>
+    <hyperlink ref="B81" r:id="rId79" display="https://leetcode-cn.com/problems/pond-sizes-lcci" xr:uid="{6E2D58F4-D254-4928-A168-3B6EEA3B6E4D}"/>
+    <hyperlink ref="B82" r:id="rId80" display="https://leetcode-cn.com/problems/t9-lcci" xr:uid="{DA07B267-F7DB-46F6-979B-C2F883DE0454}"/>
+    <hyperlink ref="B83" r:id="rId81" display="https://leetcode-cn.com/problems/sum-swap-lcci" xr:uid="{7EB17C26-38AE-418F-9D65-DF4B6619444A}"/>
+    <hyperlink ref="B84" r:id="rId82" display="https://leetcode-cn.com/problems/langtons-ant-lcci" xr:uid="{F78BCB39-1E5D-4C24-ADEC-56316998B9B2}"/>
+    <hyperlink ref="B85" r:id="rId83" display="https://leetcode-cn.com/problems/pairs-with-sum-lcci" xr:uid="{1B9D93C6-2EE2-41B0-8B1E-47FE60D5A298}"/>
+    <hyperlink ref="B86" r:id="rId84" display="https://leetcode-cn.com/problems/lru-cache-lcci" xr:uid="{9B414F26-99FC-4B25-B02B-CCC508647EDE}"/>
+    <hyperlink ref="B87" r:id="rId85" display="https://leetcode-cn.com/problems/calculator-lcci" xr:uid="{E4BDC078-247B-42FC-84C3-19F1FAD929F7}"/>
+    <hyperlink ref="B88" r:id="rId86" display="https://leetcode-cn.com/problems/add-without-plus-lcci" xr:uid="{02C8DD3E-CB7A-415C-9D06-2A9B165A4A07}"/>
+    <hyperlink ref="B89" r:id="rId87" display="https://leetcode-cn.com/problems/missing-number-lcci" xr:uid="{5871C071-93D4-4CAA-8E0F-BF1BCE8CCC0D}"/>
+    <hyperlink ref="B90" r:id="rId88" display="https://leetcode-cn.com/problems/find-longest-subarray-lcci" xr:uid="{EE75AA24-AD4E-4B33-A69C-4DB5E2E6D6C3}"/>
+    <hyperlink ref="B91" r:id="rId89" display="https://leetcode-cn.com/problems/number-of-2s-in-range-lcci" xr:uid="{41E555F7-15F0-4930-98AC-AF53E453C55D}"/>
+    <hyperlink ref="B92" r:id="rId90" display="https://leetcode-cn.com/problems/baby-names-lcci" xr:uid="{0BF45C72-3F8F-4641-B10F-191B26DB63FF}"/>
+    <hyperlink ref="B93" r:id="rId91" display="https://leetcode-cn.com/problems/circus-tower-lcci" xr:uid="{A9E4A819-2C01-4E8F-BFED-1E8795E508DA}"/>
+    <hyperlink ref="B94" r:id="rId92" display="https://leetcode-cn.com/problems/get-kth-magic-number-lcci" xr:uid="{2A0EFA7D-F744-49CF-9CAA-DD0E5BF0387E}"/>
+    <hyperlink ref="B95" r:id="rId93" display="https://leetcode-cn.com/problems/find-majority-element-lcci" xr:uid="{1B8336E6-8051-4819-83A3-2C3628559D40}"/>
+    <hyperlink ref="B96" r:id="rId94" display="https://leetcode-cn.com/problems/find-closest-lcci" xr:uid="{BC76320B-12C4-48C8-A009-EBB55EF1933D}"/>
+    <hyperlink ref="B97" r:id="rId95" display="https://leetcode-cn.com/problems/binode-lcci" xr:uid="{F1BCB2F9-33D4-4584-9892-902E43D9A644}"/>
+    <hyperlink ref="B98" r:id="rId96" display="https://leetcode-cn.com/problems/re-space-lcci" xr:uid="{980A4797-78D5-4516-B2C4-1E4A32C814A2}"/>
+    <hyperlink ref="B99" r:id="rId97" display="https://leetcode-cn.com/problems/smallest-k-lcci" xr:uid="{9420EDED-D3B9-43A2-A100-D989CBB1604B}"/>
+    <hyperlink ref="B100" r:id="rId98" display="https://leetcode-cn.com/problems/longest-word-lcci" xr:uid="{8F2B59A7-6ADC-47E4-BAD1-13AFC3C0D7E0}"/>
+    <hyperlink ref="B101" r:id="rId99" display="https://leetcode-cn.com/problems/the-masseuse-lcci" xr:uid="{86A5A113-96E1-48BF-84A9-50A7B0748F89}"/>
+    <hyperlink ref="B102" r:id="rId100" display="https://leetcode-cn.com/problems/multi-search-lcci" xr:uid="{8B72DECA-92B4-4DF8-8591-D4B93237730A}"/>
+    <hyperlink ref="B103" r:id="rId101" display="https://leetcode-cn.com/problems/shortest-supersequence-lcci" xr:uid="{ECF4C719-7A41-4BAA-AE6A-38AD845FED2A}"/>
+    <hyperlink ref="B104" r:id="rId102" display="https://leetcode-cn.com/problems/missing-two-lcci" xr:uid="{589EF060-DDBE-42F7-999A-718452DDB0A6}"/>
+    <hyperlink ref="B105" r:id="rId103" display="https://leetcode-cn.com/problems/continuous-median-lcci" xr:uid="{A1A67E99-E8D5-4A1C-8299-EEBA924AA77F}"/>
+    <hyperlink ref="B106" r:id="rId104" display="https://leetcode-cn.com/problems/volume-of-histogram-lcci" xr:uid="{877FD415-8962-4351-A26B-E79F40846A2A}"/>
+    <hyperlink ref="B107" r:id="rId105" display="https://leetcode-cn.com/problems/word-transformer-lcci" xr:uid="{93500134-4C38-487D-AF8B-A453EF6A5F41}"/>
+    <hyperlink ref="B108" r:id="rId106" display="https://leetcode-cn.com/problems/max-black-square-lcci" xr:uid="{4CB8B84B-0434-4289-864E-2B8F6EB05BE9}"/>
+    <hyperlink ref="B109" r:id="rId107" display="https://leetcode-cn.com/problems/max-submatrix-lcci" xr:uid="{6CB09E9D-2A22-486F-BBBD-30285F51277B}"/>
+    <hyperlink ref="B110" r:id="rId108" display="https://leetcode-cn.com/problems/word-rectangle-lcci" xr:uid="{FBBA00A7-D7D2-4365-AB95-5568A0451AB3}"/>
+    <hyperlink ref="B111" r:id="rId109" display="https://leetcode-cn.com/problems/sparse-similarity-lcci" xr:uid="{A3B1D418-E51B-47DF-8F1D-86BABB239D06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId110"/>
@@ -31383,10 +31394,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3974A999-81B9-4707-8EBA-5693F79999D0}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31397,7 +31408,7 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>1710</v>
       </c>
@@ -31405,933 +31416,928 @@
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
+      <c r="A3" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2497</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2497</v>
+      <c r="A4" s="4" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
+      <c r="A7" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
+      <c r="A8" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
+      <c r="A12" s="4" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>1729</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
+      <c r="A16" s="4" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
+      <c r="A17" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
+      <c r="A18" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
+      <c r="A20" s="4" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>10</v>
+      <c r="A21" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
+      <c r="A22" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
+      <c r="A26" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>7</v>
+      <c r="A27" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="A29" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="A30" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>5</v>
+      <c r="A31" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="A32" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>7</v>
+      <c r="A33" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>1770</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>5</v>
+      <c r="A34" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="A36" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="A37" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="A38" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>7</v>
+      <c r="A39" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
+      <c r="A40" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>7</v>
+      <c r="A41" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="A42" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>5</v>
+      <c r="A43" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>10</v>
+      <c r="A44" s="4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>5</v>
+      <c r="A45" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="A46" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>1795</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="A47" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>1797</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="A48" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>1799</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="A49" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>1801</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="A50" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>1803</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="A51" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>7</v>
+      <c r="A52" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>5</v>
+      <c r="A53" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>10</v>
+      <c r="A54" s="4" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="A55" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="A56" s="4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="A57" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="A58" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="A59" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>5</v>
+      <c r="A60" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="A61" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>7</v>
+      <c r="A62" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="A63" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="A64" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="A65" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="A66" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>5</v>
+      <c r="A67" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>7</v>
+      <c r="A68" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="A69" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>1838</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="A70" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>5</v>
+      <c r="A71" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="A72" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>7</v>
+      <c r="A73" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>1846</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="A74" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>1848</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>5</v>
+      <c r="A75" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="A76" s="4" t="s">
         <v>1852</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+      <c r="C76" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
         <v>1853</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B77" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D3" xr:uid="{EC5A4BF5-830B-4D96-9F63-CD23D514A0FC}"/>
+  <autoFilter ref="A2:D77" xr:uid="{EC5A4BF5-830B-4D96-9F63-CD23D514A0FC}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://leetcode-cn.com/problems/shu-zu-zhong-zhong-fu-de-shu-zi-lcof" xr:uid="{72D31594-4607-407E-9D7A-8FCEFD3AF5D0}"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://leetcode-cn.com/problems/er-wei-shu-zu-zhong-de-cha-zhao-lcof" xr:uid="{FEF58301-241B-4A62-B190-DDB7942731FE}"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://leetcode-cn.com/problems/ti-huan-kong-ge-lcof" xr:uid="{5CF4076E-720A-4EEF-A405-97626B91CEE4}"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://leetcode-cn.com/problems/cong-wei-dao-tou-da-yin-lian-biao-lcof" xr:uid="{4E1999BD-EC6A-40A5-A38B-93A63D1C7DF2}"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://leetcode-cn.com/problems/zhong-jian-er-cha-shu-lcof" xr:uid="{D661990F-C1B4-4B88-8704-75A2C6313DA9}"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof" xr:uid="{0802D550-03EB-4920-8A59-2C4A91C6C43A}"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://leetcode-cn.com/problems/fei-bo-na-qi-shu-lie-lcof" xr:uid="{FF2BA3C6-18C5-4C18-9EE4-0EC0DFAC97E2}"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://leetcode-cn.com/problems/qing-wa-tiao-tai-jie-wen-ti-lcof" xr:uid="{B25E8A91-981A-461F-82F2-94AE68E9BA5A}"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof" xr:uid="{F8CBFE42-4D9E-43E6-9ACF-3176EE8A1B9E}"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://leetcode-cn.com/problems/ju-zhen-zhong-de-lu-jing-lcof" xr:uid="{6BD212E3-F970-4F77-9DBD-CB1473B26574}"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://leetcode-cn.com/problems/ji-qi-ren-de-yun-dong-fan-wei-lcof" xr:uid="{E14969FE-545A-466F-A3DD-A71785F35CBC}"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://leetcode-cn.com/problems/jian-sheng-zi-lcof" xr:uid="{F89CBD3C-3D82-4199-ACBB-6859B8C9AF44}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://leetcode-cn.com/problems/jian-sheng-zi-ii-lcof" xr:uid="{2FEC314D-469D-4552-9B1E-C9A4E57409D1}"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://leetcode-cn.com/problems/er-jin-zhi-zhong-1de-ge-shu-lcof" xr:uid="{B8E21C0A-E74A-4B6C-BDCF-8395FA3DC6E2}"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://leetcode-cn.com/problems/shu-zhi-de-zheng-shu-ci-fang-lcof" xr:uid="{8A8781F1-9368-40E7-BBE3-82A283154FA7}"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://leetcode-cn.com/problems/da-yin-cong-1dao-zui-da-de-nwei-shu-lcof" xr:uid="{60831753-1E8D-43C0-9434-AA317BDE53F1}"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://leetcode-cn.com/problems/shan-chu-lian-biao-de-jie-dian-lcof" xr:uid="{DAF41D0C-ED86-43D4-8EE4-868508FF7962}"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://leetcode-cn.com/problems/zheng-ze-biao-da-shi-pi-pei-lcof" xr:uid="{6D0901B2-76F3-4FEF-8D66-FA02C43F0FF5}"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://leetcode-cn.com/problems/biao-shi-shu-zhi-de-zi-fu-chuan-lcof" xr:uid="{742BE26B-4F22-4951-A68F-726DD427185D}"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://leetcode-cn.com/problems/diao-zheng-shu-zu-shun-xu-shi-qi-shu-wei-yu-ou-shu-qian-mian-lcof" xr:uid="{50F7C033-54C8-4AC1-ADAD-10C8111C8DBF}"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://leetcode-cn.com/problems/lian-biao-zhong-dao-shu-di-kge-jie-dian-lcof" xr:uid="{BEFF6510-D937-4321-AFC4-75ED7A96C623}"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://leetcode-cn.com/problems/fan-zhuan-lian-biao-lcof" xr:uid="{CC0EFFFC-DE4D-4C21-AF35-C5439A079C1B}"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://leetcode-cn.com/problems/he-bing-liang-ge-pai-xu-de-lian-biao-lcof" xr:uid="{465986D0-E756-48BA-A12A-87FB66BF60BD}"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://leetcode-cn.com/problems/shu-de-zi-jie-gou-lcof" xr:uid="{AA3DC36F-39AB-4A44-BEDF-DAA8CDB41FF8}"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://leetcode-cn.com/problems/er-cha-shu-de-jing-xiang-lcof" xr:uid="{D825747A-3DC7-4290-967D-8472B710C899}"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://leetcode-cn.com/problems/dui-cheng-de-er-cha-shu-lcof" xr:uid="{2745C15A-56BD-46D0-AF19-8B26DAA0B4DF}"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof" xr:uid="{6C5D5BEE-BA35-49F2-9636-AD4AEC903B17}"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://leetcode-cn.com/problems/bao-han-minhan-shu-de-zhan-lcof" xr:uid="{DBD30F17-C2E8-4701-B465-5A2DEEF24956}"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://leetcode-cn.com/problems/zhan-de-ya-ru-dan-chu-xu-lie-lcof" xr:uid="{27531A6F-5866-48DF-8139-013DC23CEC4F}"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-lcof" xr:uid="{3FBC6143-46A6-4875-A26C-D7774B935CEB}"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-ii-lcof" xr:uid="{456E6F4B-2CFE-4FE0-9278-78EB353CBC59}"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-iii-lcof" xr:uid="{F0D404ED-91F9-4CE5-BA10-E3AF6C8656AC}"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-hou-xu-bian-li-xu-lie-lcof" xr:uid="{9056E135-065B-479E-864B-3A3340415442}"/>
-    <hyperlink ref="B37" r:id="rId34" display="https://leetcode-cn.com/problems/er-cha-shu-zhong-he-wei-mou-yi-zhi-de-lu-jing-lcof" xr:uid="{08E9089C-EE30-4D81-9F92-5C475B27094C}"/>
-    <hyperlink ref="B38" r:id="rId35" display="https://leetcode-cn.com/problems/fu-za-lian-biao-de-fu-zhi-lcof" xr:uid="{14FDD468-B9C2-496E-AD6A-A3ACB538D3D4}"/>
-    <hyperlink ref="B39" r:id="rId36" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-yu-shuang-xiang-lian-biao-lcof" xr:uid="{AF63E0B3-5D94-4E6F-9B09-D00637A83A45}"/>
-    <hyperlink ref="B40" r:id="rId37" display="https://leetcode-cn.com/problems/xu-lie-hua-er-cha-shu-lcof" xr:uid="{B3B9C22B-84E3-4580-A684-E871F3284EAD}"/>
-    <hyperlink ref="B41" r:id="rId38" display="https://leetcode-cn.com/problems/zi-fu-chuan-de-pai-lie-lcof" xr:uid="{AEA41E3D-AE80-418C-B46E-F41A50890E30}"/>
-    <hyperlink ref="B42" r:id="rId39" display="https://leetcode-cn.com/problems/shu-zu-zhong-chu-xian-ci-shu-chao-guo-yi-ban-de-shu-zi-lcof" xr:uid="{359D1099-8C8A-40C6-A25B-23450F07CD15}"/>
-    <hyperlink ref="B43" r:id="rId40" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof" xr:uid="{E7C7A5AD-B859-4E5E-86B1-359F00FEDDAD}"/>
-    <hyperlink ref="B44" r:id="rId41" display="https://leetcode-cn.com/problems/shu-ju-liu-zhong-de-zhong-wei-shu-lcof" xr:uid="{54A861A7-11B0-42E9-BA02-722EF6C3E8D7}"/>
-    <hyperlink ref="B45" r:id="rId42" display="https://leetcode-cn.com/problems/lian-xu-zi-shu-zu-de-zui-da-he-lcof" xr:uid="{8ECEA71D-F430-4E18-8C69-093B138157A1}"/>
-    <hyperlink ref="B46" r:id="rId43" display="https://leetcode-cn.com/problems/1nzheng-shu-zhong-1chu-xian-de-ci-shu-lcof" xr:uid="{6291261D-51DC-4CB0-B1F5-A2F918901A54}"/>
-    <hyperlink ref="B47" r:id="rId44" display="https://leetcode-cn.com/problems/shu-zi-xu-lie-zhong-mou-yi-wei-de-shu-zi-lcof" xr:uid="{D5F4EC7E-9AA3-4067-81A0-89D9ADDA376D}"/>
-    <hyperlink ref="B48" r:id="rId45" display="https://leetcode-cn.com/problems/ba-shu-zu-pai-cheng-zui-xiao-de-shu-lcof" xr:uid="{E2E38022-6009-4E33-A8D4-8848F5FD81C1}"/>
-    <hyperlink ref="B49" r:id="rId46" display="https://leetcode-cn.com/problems/ba-shu-zi-fan-yi-cheng-zi-fu-chuan-lcof" xr:uid="{46F8BEEF-FB20-4612-8D81-4292365F93A1}"/>
-    <hyperlink ref="B50" r:id="rId47" display="https://leetcode-cn.com/problems/li-wu-de-zui-da-jie-zhi-lcof" xr:uid="{0715D293-5E59-4C33-BB53-97995774BAC5}"/>
-    <hyperlink ref="B51" r:id="rId48" display="https://leetcode-cn.com/problems/zui-chang-bu-han-zhong-fu-zi-fu-de-zi-zi-fu-chuan-lcof" xr:uid="{D538A808-29AB-4805-8914-0CE89A5539F9}"/>
-    <hyperlink ref="B52" r:id="rId49" display="https://leetcode-cn.com/problems/chou-shu-lcof" xr:uid="{8D401D28-FDA4-4247-B064-127A605F4647}"/>
-    <hyperlink ref="B53" r:id="rId50" display="https://leetcode-cn.com/problems/di-yi-ge-zhi-chu-xian-yi-ci-de-zi-fu-lcof" xr:uid="{22F879CD-9FB8-4A5B-BCAE-890A1D84C614}"/>
-    <hyperlink ref="B54" r:id="rId51" display="https://leetcode-cn.com/problems/shu-zu-zhong-de-ni-xu-dui-lcof" xr:uid="{D942AB72-33C5-4DD0-9B55-809609CBA4A3}"/>
-    <hyperlink ref="B55" r:id="rId52" display="https://leetcode-cn.com/problems/liang-ge-lian-biao-de-di-yi-ge-gong-gong-jie-dian-lcof" xr:uid="{AA841958-C6AE-4439-9DF5-C4E53EE53185}"/>
-    <hyperlink ref="B56" r:id="rId53" display="https://leetcode-cn.com/problems/zai-pai-xu-shu-zu-zhong-cha-zhao-shu-zi-lcof" xr:uid="{8A7B0C49-A4C2-4B08-9CB0-406638957798}"/>
-    <hyperlink ref="B57" r:id="rId54" display="https://leetcode-cn.com/problems/que-shi-de-shu-zi-lcof" xr:uid="{A3C968F8-61B3-4B11-94C1-3C6D9FB4F076}"/>
-    <hyperlink ref="B58" r:id="rId55" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-di-kda-jie-dian-lcof" xr:uid="{127771CE-A1B1-4D07-A0AC-69CEB5A5DC43}"/>
-    <hyperlink ref="B59" r:id="rId56" display="https://leetcode-cn.com/problems/er-cha-shu-de-shen-du-lcof" xr:uid="{8B2DFFB3-ACAD-4D95-A5FE-559ADAA9F2C7}"/>
-    <hyperlink ref="B60" r:id="rId57" display="https://leetcode-cn.com/problems/ping-heng-er-cha-shu-lcof" xr:uid="{4A846F3B-1DAD-4069-9FC8-93548969D7BC}"/>
-    <hyperlink ref="B61" r:id="rId58" display="https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-lcof" xr:uid="{3086BEA4-94EA-49D1-97EF-90C6DE5A7241}"/>
-    <hyperlink ref="B62" r:id="rId59" display="https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-ii-lcof" xr:uid="{102EB7B3-0D9A-4CA8-91FE-8F201D225D14}"/>
-    <hyperlink ref="B63" r:id="rId60" display="https://leetcode-cn.com/problems/he-wei-sde-liang-ge-shu-zi-lcof" xr:uid="{FBB52087-47FE-4DF7-8D20-FE8818CB989A}"/>
-    <hyperlink ref="B64" r:id="rId61" display="https://leetcode-cn.com/problems/he-wei-sde-lian-xu-zheng-shu-xu-lie-lcof" xr:uid="{410772D6-40B7-4D4D-98C3-6C0540682497}"/>
-    <hyperlink ref="B65" r:id="rId62" display="https://leetcode-cn.com/problems/fan-zhuan-dan-ci-shun-xu-lcof" xr:uid="{AB0A3147-6B7A-4899-BF91-A348D6E32A05}"/>
-    <hyperlink ref="B66" r:id="rId63" display="https://leetcode-cn.com/problems/zuo-xuan-zhuan-zi-fu-chuan-lcof" xr:uid="{BF20F806-3587-4F64-BB27-5AB3CC250706}"/>
-    <hyperlink ref="B67" r:id="rId64" display="https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof" xr:uid="{6B9961D5-54F2-49DF-A8EC-BE3A5685C50C}"/>
-    <hyperlink ref="B68" r:id="rId65" display="https://leetcode-cn.com/problems/dui-lie-de-zui-da-zhi-lcof" xr:uid="{CE7D320D-7BC6-4A76-A2B9-583E218A18FA}"/>
-    <hyperlink ref="B69" r:id="rId66" display="https://leetcode-cn.com/problems/nge-tou-zi-de-dian-shu-lcof" xr:uid="{D94C929E-2157-47CC-A48E-A4C23FCDC2FE}"/>
-    <hyperlink ref="B70" r:id="rId67" display="https://leetcode-cn.com/problems/bu-ke-pai-zhong-de-shun-zi-lcof" xr:uid="{FE7D2019-A779-4473-AB88-9B4B39641957}"/>
-    <hyperlink ref="B71" r:id="rId68" display="https://leetcode-cn.com/problems/yuan-quan-zhong-zui-hou-sheng-xia-de-shu-zi-lcof" xr:uid="{F319127C-F0E2-43D7-A9BD-0730BBF25976}"/>
-    <hyperlink ref="B72" r:id="rId69" display="https://leetcode-cn.com/problems/gu-piao-de-zui-da-li-run-lcof" xr:uid="{A8CBF796-20AA-4D4A-B1EC-7C40DE03AD8B}"/>
-    <hyperlink ref="B73" r:id="rId70" display="https://leetcode-cn.com/problems/qiu-12n-lcof" xr:uid="{C1E0137A-BA46-45E7-B6B1-6B719AB179D0}"/>
-    <hyperlink ref="B74" r:id="rId71" display="https://leetcode-cn.com/problems/bu-yong-jia-jian-cheng-chu-zuo-jia-fa-lcof" xr:uid="{70868E24-A8A9-4E58-8FC7-F673AFD16A77}"/>
-    <hyperlink ref="B75" r:id="rId72" display="https://leetcode-cn.com/problems/gou-jian-cheng-ji-shu-zu-lcof" xr:uid="{528E1A99-21AB-4BC2-ACDE-F38962C08BD3}"/>
-    <hyperlink ref="B76" r:id="rId73" display="https://leetcode-cn.com/problems/ba-zi-fu-chuan-zhuan-huan-cheng-zheng-shu-lcof" xr:uid="{C28D6499-074A-4298-B56B-4B1A8AA4916B}"/>
-    <hyperlink ref="B77" r:id="rId74" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-zui-jin-gong-gong-zu-xian-lcof" xr:uid="{24DE338F-690B-420B-913B-C6D99FBE592E}"/>
-    <hyperlink ref="B78" r:id="rId75" display="https://leetcode-cn.com/problems/er-cha-shu-de-zui-jin-gong-gong-zu-xian-lcof" xr:uid="{35FF0319-BBA2-492F-8458-45AAEEA67F96}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode-cn.com/problems/shu-zu-zhong-zhong-fu-de-shu-zi-lcof" xr:uid="{72D31594-4607-407E-9D7A-8FCEFD3AF5D0}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode-cn.com/problems/er-wei-shu-zu-zhong-de-cha-zhao-lcof" xr:uid="{FEF58301-241B-4A62-B190-DDB7942731FE}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://leetcode-cn.com/problems/ti-huan-kong-ge-lcof" xr:uid="{5CF4076E-720A-4EEF-A405-97626B91CEE4}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://leetcode-cn.com/problems/cong-wei-dao-tou-da-yin-lian-biao-lcof" xr:uid="{4E1999BD-EC6A-40A5-A38B-93A63D1C7DF2}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://leetcode-cn.com/problems/zhong-jian-er-cha-shu-lcof" xr:uid="{D661990F-C1B4-4B88-8704-75A2C6313DA9}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof" xr:uid="{0802D550-03EB-4920-8A59-2C4A91C6C43A}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://leetcode-cn.com/problems/fei-bo-na-qi-shu-lie-lcof" xr:uid="{FF2BA3C6-18C5-4C18-9EE4-0EC0DFAC97E2}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://leetcode-cn.com/problems/qing-wa-tiao-tai-jie-wen-ti-lcof" xr:uid="{B25E8A91-981A-461F-82F2-94AE68E9BA5A}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof" xr:uid="{F8CBFE42-4D9E-43E6-9ACF-3176EE8A1B9E}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://leetcode-cn.com/problems/ju-zhen-zhong-de-lu-jing-lcof" xr:uid="{6BD212E3-F970-4F77-9DBD-CB1473B26574}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://leetcode-cn.com/problems/ji-qi-ren-de-yun-dong-fan-wei-lcof" xr:uid="{E14969FE-545A-466F-A3DD-A71785F35CBC}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://leetcode-cn.com/problems/jian-sheng-zi-lcof" xr:uid="{F89CBD3C-3D82-4199-ACBB-6859B8C9AF44}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://leetcode-cn.com/problems/jian-sheng-zi-ii-lcof" xr:uid="{2FEC314D-469D-4552-9B1E-C9A4E57409D1}"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://leetcode-cn.com/problems/er-jin-zhi-zhong-1de-ge-shu-lcof" xr:uid="{B8E21C0A-E74A-4B6C-BDCF-8395FA3DC6E2}"/>
+    <hyperlink ref="B17" r:id="rId15" display="https://leetcode-cn.com/problems/shu-zhi-de-zheng-shu-ci-fang-lcof" xr:uid="{8A8781F1-9368-40E7-BBE3-82A283154FA7}"/>
+    <hyperlink ref="B18" r:id="rId16" display="https://leetcode-cn.com/problems/da-yin-cong-1dao-zui-da-de-nwei-shu-lcof" xr:uid="{60831753-1E8D-43C0-9434-AA317BDE53F1}"/>
+    <hyperlink ref="B19" r:id="rId17" display="https://leetcode-cn.com/problems/shan-chu-lian-biao-de-jie-dian-lcof" xr:uid="{DAF41D0C-ED86-43D4-8EE4-868508FF7962}"/>
+    <hyperlink ref="B20" r:id="rId18" display="https://leetcode-cn.com/problems/zheng-ze-biao-da-shi-pi-pei-lcof" xr:uid="{6D0901B2-76F3-4FEF-8D66-FA02C43F0FF5}"/>
+    <hyperlink ref="B21" r:id="rId19" display="https://leetcode-cn.com/problems/biao-shi-shu-zhi-de-zi-fu-chuan-lcof" xr:uid="{742BE26B-4F22-4951-A68F-726DD427185D}"/>
+    <hyperlink ref="B22" r:id="rId20" display="https://leetcode-cn.com/problems/diao-zheng-shu-zu-shun-xu-shi-qi-shu-wei-yu-ou-shu-qian-mian-lcof" xr:uid="{50F7C033-54C8-4AC1-ADAD-10C8111C8DBF}"/>
+    <hyperlink ref="B23" r:id="rId21" display="https://leetcode-cn.com/problems/lian-biao-zhong-dao-shu-di-kge-jie-dian-lcof" xr:uid="{BEFF6510-D937-4321-AFC4-75ED7A96C623}"/>
+    <hyperlink ref="B24" r:id="rId22" display="https://leetcode-cn.com/problems/fan-zhuan-lian-biao-lcof" xr:uid="{CC0EFFFC-DE4D-4C21-AF35-C5439A079C1B}"/>
+    <hyperlink ref="B25" r:id="rId23" display="https://leetcode-cn.com/problems/he-bing-liang-ge-pai-xu-de-lian-biao-lcof" xr:uid="{465986D0-E756-48BA-A12A-87FB66BF60BD}"/>
+    <hyperlink ref="B26" r:id="rId24" display="https://leetcode-cn.com/problems/shu-de-zi-jie-gou-lcof" xr:uid="{AA3DC36F-39AB-4A44-BEDF-DAA8CDB41FF8}"/>
+    <hyperlink ref="B27" r:id="rId25" display="https://leetcode-cn.com/problems/er-cha-shu-de-jing-xiang-lcof" xr:uid="{D825747A-3DC7-4290-967D-8472B710C899}"/>
+    <hyperlink ref="B28" r:id="rId26" display="https://leetcode-cn.com/problems/dui-cheng-de-er-cha-shu-lcof" xr:uid="{2745C15A-56BD-46D0-AF19-8B26DAA0B4DF}"/>
+    <hyperlink ref="B29" r:id="rId27" display="https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof" xr:uid="{6C5D5BEE-BA35-49F2-9636-AD4AEC903B17}"/>
+    <hyperlink ref="B30" r:id="rId28" display="https://leetcode-cn.com/problems/bao-han-minhan-shu-de-zhan-lcof" xr:uid="{DBD30F17-C2E8-4701-B465-5A2DEEF24956}"/>
+    <hyperlink ref="B31" r:id="rId29" display="https://leetcode-cn.com/problems/zhan-de-ya-ru-dan-chu-xu-lie-lcof" xr:uid="{27531A6F-5866-48DF-8139-013DC23CEC4F}"/>
+    <hyperlink ref="B32" r:id="rId30" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-lcof" xr:uid="{3FBC6143-46A6-4875-A26C-D7774B935CEB}"/>
+    <hyperlink ref="B33" r:id="rId31" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-ii-lcof" xr:uid="{456E6F4B-2CFE-4FE0-9278-78EB353CBC59}"/>
+    <hyperlink ref="B34" r:id="rId32" display="https://leetcode-cn.com/problems/cong-shang-dao-xia-da-yin-er-cha-shu-iii-lcof" xr:uid="{F0D404ED-91F9-4CE5-BA10-E3AF6C8656AC}"/>
+    <hyperlink ref="B35" r:id="rId33" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-hou-xu-bian-li-xu-lie-lcof" xr:uid="{9056E135-065B-479E-864B-3A3340415442}"/>
+    <hyperlink ref="B36" r:id="rId34" display="https://leetcode-cn.com/problems/er-cha-shu-zhong-he-wei-mou-yi-zhi-de-lu-jing-lcof" xr:uid="{08E9089C-EE30-4D81-9F92-5C475B27094C}"/>
+    <hyperlink ref="B37" r:id="rId35" display="https://leetcode-cn.com/problems/fu-za-lian-biao-de-fu-zhi-lcof" xr:uid="{14FDD468-B9C2-496E-AD6A-A3ACB538D3D4}"/>
+    <hyperlink ref="B38" r:id="rId36" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-yu-shuang-xiang-lian-biao-lcof" xr:uid="{AF63E0B3-5D94-4E6F-9B09-D00637A83A45}"/>
+    <hyperlink ref="B39" r:id="rId37" display="https://leetcode-cn.com/problems/xu-lie-hua-er-cha-shu-lcof" xr:uid="{B3B9C22B-84E3-4580-A684-E871F3284EAD}"/>
+    <hyperlink ref="B40" r:id="rId38" display="https://leetcode-cn.com/problems/zi-fu-chuan-de-pai-lie-lcof" xr:uid="{AEA41E3D-AE80-418C-B46E-F41A50890E30}"/>
+    <hyperlink ref="B41" r:id="rId39" display="https://leetcode-cn.com/problems/shu-zu-zhong-chu-xian-ci-shu-chao-guo-yi-ban-de-shu-zi-lcof" xr:uid="{359D1099-8C8A-40C6-A25B-23450F07CD15}"/>
+    <hyperlink ref="B42" r:id="rId40" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof" xr:uid="{E7C7A5AD-B859-4E5E-86B1-359F00FEDDAD}"/>
+    <hyperlink ref="B43" r:id="rId41" display="https://leetcode-cn.com/problems/shu-ju-liu-zhong-de-zhong-wei-shu-lcof" xr:uid="{54A861A7-11B0-42E9-BA02-722EF6C3E8D7}"/>
+    <hyperlink ref="B44" r:id="rId42" display="https://leetcode-cn.com/problems/lian-xu-zi-shu-zu-de-zui-da-he-lcof" xr:uid="{8ECEA71D-F430-4E18-8C69-093B138157A1}"/>
+    <hyperlink ref="B45" r:id="rId43" display="https://leetcode-cn.com/problems/1nzheng-shu-zhong-1chu-xian-de-ci-shu-lcof" xr:uid="{6291261D-51DC-4CB0-B1F5-A2F918901A54}"/>
+    <hyperlink ref="B46" r:id="rId44" display="https://leetcode-cn.com/problems/shu-zi-xu-lie-zhong-mou-yi-wei-de-shu-zi-lcof" xr:uid="{D5F4EC7E-9AA3-4067-81A0-89D9ADDA376D}"/>
+    <hyperlink ref="B47" r:id="rId45" display="https://leetcode-cn.com/problems/ba-shu-zu-pai-cheng-zui-xiao-de-shu-lcof" xr:uid="{E2E38022-6009-4E33-A8D4-8848F5FD81C1}"/>
+    <hyperlink ref="B48" r:id="rId46" display="https://leetcode-cn.com/problems/ba-shu-zi-fan-yi-cheng-zi-fu-chuan-lcof" xr:uid="{46F8BEEF-FB20-4612-8D81-4292365F93A1}"/>
+    <hyperlink ref="B49" r:id="rId47" display="https://leetcode-cn.com/problems/li-wu-de-zui-da-jie-zhi-lcof" xr:uid="{0715D293-5E59-4C33-BB53-97995774BAC5}"/>
+    <hyperlink ref="B50" r:id="rId48" display="https://leetcode-cn.com/problems/zui-chang-bu-han-zhong-fu-zi-fu-de-zi-zi-fu-chuan-lcof" xr:uid="{D538A808-29AB-4805-8914-0CE89A5539F9}"/>
+    <hyperlink ref="B51" r:id="rId49" display="https://leetcode-cn.com/problems/chou-shu-lcof" xr:uid="{8D401D28-FDA4-4247-B064-127A605F4647}"/>
+    <hyperlink ref="B52" r:id="rId50" display="https://leetcode-cn.com/problems/di-yi-ge-zhi-chu-xian-yi-ci-de-zi-fu-lcof" xr:uid="{22F879CD-9FB8-4A5B-BCAE-890A1D84C614}"/>
+    <hyperlink ref="B53" r:id="rId51" display="https://leetcode-cn.com/problems/shu-zu-zhong-de-ni-xu-dui-lcof" xr:uid="{D942AB72-33C5-4DD0-9B55-809609CBA4A3}"/>
+    <hyperlink ref="B54" r:id="rId52" display="https://leetcode-cn.com/problems/liang-ge-lian-biao-de-di-yi-ge-gong-gong-jie-dian-lcof" xr:uid="{AA841958-C6AE-4439-9DF5-C4E53EE53185}"/>
+    <hyperlink ref="B55" r:id="rId53" display="https://leetcode-cn.com/problems/zai-pai-xu-shu-zu-zhong-cha-zhao-shu-zi-lcof" xr:uid="{8A7B0C49-A4C2-4B08-9CB0-406638957798}"/>
+    <hyperlink ref="B56" r:id="rId54" display="https://leetcode-cn.com/problems/que-shi-de-shu-zi-lcof" xr:uid="{A3C968F8-61B3-4B11-94C1-3C6D9FB4F076}"/>
+    <hyperlink ref="B57" r:id="rId55" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-di-kda-jie-dian-lcof" xr:uid="{127771CE-A1B1-4D07-A0AC-69CEB5A5DC43}"/>
+    <hyperlink ref="B58" r:id="rId56" display="https://leetcode-cn.com/problems/er-cha-shu-de-shen-du-lcof" xr:uid="{8B2DFFB3-ACAD-4D95-A5FE-559ADAA9F2C7}"/>
+    <hyperlink ref="B59" r:id="rId57" display="https://leetcode-cn.com/problems/ping-heng-er-cha-shu-lcof" xr:uid="{4A846F3B-1DAD-4069-9FC8-93548969D7BC}"/>
+    <hyperlink ref="B60" r:id="rId58" display="https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-lcof" xr:uid="{3086BEA4-94EA-49D1-97EF-90C6DE5A7241}"/>
+    <hyperlink ref="B61" r:id="rId59" display="https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-ii-lcof" xr:uid="{102EB7B3-0D9A-4CA8-91FE-8F201D225D14}"/>
+    <hyperlink ref="B62" r:id="rId60" display="https://leetcode-cn.com/problems/he-wei-sde-liang-ge-shu-zi-lcof" xr:uid="{FBB52087-47FE-4DF7-8D20-FE8818CB989A}"/>
+    <hyperlink ref="B63" r:id="rId61" display="https://leetcode-cn.com/problems/he-wei-sde-lian-xu-zheng-shu-xu-lie-lcof" xr:uid="{410772D6-40B7-4D4D-98C3-6C0540682497}"/>
+    <hyperlink ref="B64" r:id="rId62" display="https://leetcode-cn.com/problems/fan-zhuan-dan-ci-shun-xu-lcof" xr:uid="{AB0A3147-6B7A-4899-BF91-A348D6E32A05}"/>
+    <hyperlink ref="B65" r:id="rId63" display="https://leetcode-cn.com/problems/zuo-xuan-zhuan-zi-fu-chuan-lcof" xr:uid="{BF20F806-3587-4F64-BB27-5AB3CC250706}"/>
+    <hyperlink ref="B66" r:id="rId64" display="https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof" xr:uid="{6B9961D5-54F2-49DF-A8EC-BE3A5685C50C}"/>
+    <hyperlink ref="B67" r:id="rId65" display="https://leetcode-cn.com/problems/dui-lie-de-zui-da-zhi-lcof" xr:uid="{CE7D320D-7BC6-4A76-A2B9-583E218A18FA}"/>
+    <hyperlink ref="B68" r:id="rId66" display="https://leetcode-cn.com/problems/nge-tou-zi-de-dian-shu-lcof" xr:uid="{D94C929E-2157-47CC-A48E-A4C23FCDC2FE}"/>
+    <hyperlink ref="B69" r:id="rId67" display="https://leetcode-cn.com/problems/bu-ke-pai-zhong-de-shun-zi-lcof" xr:uid="{FE7D2019-A779-4473-AB88-9B4B39641957}"/>
+    <hyperlink ref="B70" r:id="rId68" display="https://leetcode-cn.com/problems/yuan-quan-zhong-zui-hou-sheng-xia-de-shu-zi-lcof" xr:uid="{F319127C-F0E2-43D7-A9BD-0730BBF25976}"/>
+    <hyperlink ref="B71" r:id="rId69" display="https://leetcode-cn.com/problems/gu-piao-de-zui-da-li-run-lcof" xr:uid="{A8CBF796-20AA-4D4A-B1EC-7C40DE03AD8B}"/>
+    <hyperlink ref="B72" r:id="rId70" display="https://leetcode-cn.com/problems/qiu-12n-lcof" xr:uid="{C1E0137A-BA46-45E7-B6B1-6B719AB179D0}"/>
+    <hyperlink ref="B73" r:id="rId71" display="https://leetcode-cn.com/problems/bu-yong-jia-jian-cheng-chu-zuo-jia-fa-lcof" xr:uid="{70868E24-A8A9-4E58-8FC7-F673AFD16A77}"/>
+    <hyperlink ref="B74" r:id="rId72" display="https://leetcode-cn.com/problems/gou-jian-cheng-ji-shu-zu-lcof" xr:uid="{528E1A99-21AB-4BC2-ACDE-F38962C08BD3}"/>
+    <hyperlink ref="B75" r:id="rId73" display="https://leetcode-cn.com/problems/ba-zi-fu-chuan-zhuan-huan-cheng-zheng-shu-lcof" xr:uid="{C28D6499-074A-4298-B56B-4B1A8AA4916B}"/>
+    <hyperlink ref="B76" r:id="rId74" display="https://leetcode-cn.com/problems/er-cha-sou-suo-shu-de-zui-jin-gong-gong-zu-xian-lcof" xr:uid="{24DE338F-690B-420B-913B-C6D99FBE592E}"/>
+    <hyperlink ref="B77" r:id="rId75" display="https://leetcode-cn.com/problems/er-cha-shu-de-zui-jin-gong-gong-zu-xian-lcof" xr:uid="{35FF0319-BBA2-492F-8458-45AAEEA67F96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId76"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF648F-3D8E-4F62-AB2A-7C5B22B0716D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A17E5-3DBC-4542-AD8F-024FCB9F3754}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5325" yWindow="915" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4349" uniqueCount="2508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4351" uniqueCount="2510">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7559,6 +7559,12 @@
   </si>
   <si>
     <t>2020.6.17</t>
+  </si>
+  <si>
+    <t>2020.6.18(self)</t>
+  </si>
+  <si>
+    <t>2020.6.18</t>
   </si>
 </sst>
 </file>
@@ -8160,8 +8166,8 @@
   <dimension ref="A1:E1653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10195,7 +10201,9 @@
       <c r="C163" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D163" s="4"/>
+      <c r="D163" s="4" t="s">
+        <v>2509</v>
+      </c>
     </row>
     <row r="164" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="20" t="s">
@@ -11605,7 +11613,9 @@
       <c r="C279" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D279" s="4"/>
+      <c r="D279" s="4" t="s">
+        <v>2508</v>
+      </c>
     </row>
     <row r="280" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="18">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A17E5-3DBC-4542-AD8F-024FCB9F3754}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650A0F2D-60C8-4A75-AC9D-B87EE95BCB3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5325" yWindow="915" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4351" uniqueCount="2510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="2514">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7565,6 +7565,18 @@
   </si>
   <si>
     <t>2020.6.18</t>
+  </si>
+  <si>
+    <t>2020.6.19</t>
+  </si>
+  <si>
+    <t>2020.6.20(self)</t>
+  </si>
+  <si>
+    <t>2020.6.20</t>
+  </si>
+  <si>
+    <t>2020,.6.20</t>
   </si>
 </sst>
 </file>
@@ -8165,9 +8177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36439EE-948F-4B95-AA31-6B4987F28A76}">
   <dimension ref="A1:E1653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
+      <selection pane="bottomLeft" activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8621,7 +8633,9 @@
       <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>2510</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
@@ -8815,7 +8829,9 @@
       <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>2513</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -10101,7 +10117,9 @@
       <c r="C155" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D155" s="4"/>
+      <c r="D155" s="4" t="s">
+        <v>2512</v>
+      </c>
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="18">
@@ -12475,7 +12493,9 @@
       <c r="C350" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D350" s="3"/>
+      <c r="D350" s="3" t="s">
+        <v>2511</v>
+      </c>
     </row>
     <row r="351" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="19">
@@ -12487,7 +12507,9 @@
       <c r="C351" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D351" s="4"/>
+      <c r="D351" s="4" t="s">
+        <v>2512</v>
+      </c>
     </row>
     <row r="352" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="20" t="s">
@@ -12691,7 +12713,9 @@
       <c r="C368" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D368" s="3"/>
+      <c r="D368" s="3" t="s">
+        <v>2511</v>
+      </c>
     </row>
     <row r="369" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="19">
@@ -16203,7 +16227,9 @@
       <c r="C659" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D659" s="4"/>
+      <c r="D659" s="4" t="s">
+        <v>2510</v>
+      </c>
     </row>
     <row r="660" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="18">
@@ -17245,7 +17271,9 @@
       <c r="C745" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D745" s="4"/>
+      <c r="D745" s="4" t="s">
+        <v>2512</v>
+      </c>
     </row>
     <row r="746" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A746" s="18">
@@ -30053,8 +30081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A56D5E7-551D-4DA8-94DC-D98ED60B1AEE}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31426,8 +31454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3974A999-81B9-4707-8EBA-5693F79999D0}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32266,7 +32294,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>1852</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -32276,14 +32304,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>1853</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650A0F2D-60C8-4A75-AC9D-B87EE95BCB3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678177D3-C8E4-4D70-95BF-0D6A18286869}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11325" yWindow="1410" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4359" uniqueCount="2514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4363" uniqueCount="2515">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7577,6 +7577,9 @@
   </si>
   <si>
     <t>2020,.6.20</t>
+  </si>
+  <si>
+    <t>2020.6.22</t>
   </si>
 </sst>
 </file>
@@ -8177,9 +8180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36439EE-948F-4B95-AA31-6B4987F28A76}">
   <dimension ref="A1:E1653"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D351" sqref="D351"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8263,7 +8266,9 @@
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>2514</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -11745,7 +11750,9 @@
       <c r="C288" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D288" s="3"/>
+      <c r="D288" s="3" t="s">
+        <v>2514</v>
+      </c>
     </row>
     <row r="289" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="20" t="s">
@@ -13235,7 +13242,9 @@
       <c r="C411" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D411" s="4"/>
+      <c r="D411" s="4" t="s">
+        <v>2514</v>
+      </c>
     </row>
     <row r="412" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="20" t="s">
@@ -16965,7 +16974,9 @@
       <c r="C720" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D720" s="3"/>
+      <c r="D720" s="3" t="s">
+        <v>2514</v>
+      </c>
     </row>
     <row r="721" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="19">
@@ -31454,7 +31465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3974A999-81B9-4707-8EBA-5693F79999D0}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20:C53"/>
     </sheetView>
   </sheetViews>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678177D3-C8E4-4D70-95BF-0D6A18286869}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DE408C-29A7-465B-B41E-ECB795C8573A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11325" yWindow="1410" windowWidth="28800" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="795" windowWidth="28800" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4363" uniqueCount="2515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="2519">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7580,13 +7580,25 @@
   </si>
   <si>
     <t>2020.6.22</t>
+  </si>
+  <si>
+    <t>2020.6.23</t>
+  </si>
+  <si>
+    <t>2020.6.25(self)</t>
+  </si>
+  <si>
+    <t>2020.6.26(self)</t>
+  </si>
+  <si>
+    <t>2020.6.26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7657,6 +7669,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -8181,8 +8199,8 @@
   <dimension ref="A1:E1653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9890,7 +9908,9 @@
       <c r="C137" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="4"/>
+      <c r="D137" s="4" t="s">
+        <v>2517</v>
+      </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="18">
@@ -10712,7 +10732,9 @@
       <c r="C203" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D203" s="4"/>
+      <c r="D203" s="4" t="s">
+        <v>2518</v>
+      </c>
     </row>
     <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="18">
@@ -10750,7 +10772,9 @@
       <c r="C206" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D206" s="3"/>
+      <c r="D206" s="3" t="s">
+        <v>2518</v>
+      </c>
     </row>
     <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="19">
@@ -10898,7 +10922,9 @@
       <c r="C218" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="3"/>
+      <c r="D218" s="3" t="s">
+        <v>2516</v>
+      </c>
     </row>
     <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="19">
@@ -16804,7 +16830,9 @@
       <c r="C706" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D706" s="3"/>
+      <c r="D706" s="3" t="s">
+        <v>2515</v>
+      </c>
     </row>
     <row r="707" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="19">
@@ -16816,7 +16844,9 @@
       <c r="C707" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D707" s="4"/>
+      <c r="D707" s="3" t="s">
+        <v>2515</v>
+      </c>
     </row>
     <row r="708" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="18">
@@ -26675,6 +26705,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://leetcode-cn.com/problems/two-sum" xr:uid="{2060F107-A6CB-46BE-9E48-54FD82EC2C67}"/>
     <hyperlink ref="B4" r:id="rId2" display="https://leetcode-cn.com/problems/add-two-numbers" xr:uid="{97F06EA8-D662-42EF-B874-EAA4838D89CA}"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA6C787-B953-4E43-A96C-89B244ECB331}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB24886-A03D-45EB-94C3-A2082915A36D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1710" windowWidth="28800" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="1080" windowWidth="28800" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="2543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="2544">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7658,6 +7658,9 @@
   </si>
   <si>
     <t>2020.6.27</t>
+  </si>
+  <si>
+    <t>2020.6.28</t>
   </si>
 </sst>
 </file>
@@ -8210,8 +8213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="D600" sqref="D600"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8221,7 +8224,7 @@
     <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -8693,7 +8696,9 @@
       <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>2543</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
@@ -8849,7 +8854,9 @@
       <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>2543</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
@@ -16205,7 +16212,9 @@
       <c r="C653" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D653" s="4"/>
+      <c r="D653" s="4" t="s">
+        <v>2543</v>
+      </c>
     </row>
     <row r="654" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="16">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB24886-A03D-45EB-94C3-A2082915A36D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E36151-62B8-44C1-B158-8FEF6FE09D2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8685" yWindow="1080" windowWidth="28800" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="1080" windowWidth="28800" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="2544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4422" uniqueCount="2546">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7661,6 +7661,12 @@
   </si>
   <si>
     <t>2020.6.28</t>
+  </si>
+  <si>
+    <t>2020.6.29</t>
+  </si>
+  <si>
+    <t>2020.6.29(self)</t>
   </si>
 </sst>
 </file>
@@ -8213,8 +8219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A754" workbookViewId="0">
+      <selection activeCell="D772" sqref="D772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8284,7 +8290,9 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>2544</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
@@ -13820,7 +13828,9 @@
       <c r="C455" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D455" s="4"/>
+      <c r="D455" s="4" t="s">
+        <v>2544</v>
+      </c>
     </row>
     <row r="456" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="16">
@@ -17666,7 +17676,9 @@
       <c r="C772" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D772" s="3"/>
+      <c r="D772" s="3" t="s">
+        <v>2545</v>
+      </c>
     </row>
     <row r="773" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A773" s="16" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E36151-62B8-44C1-B158-8FEF6FE09D2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20CEE77-F4CE-4B97-9457-4653B5DB8DAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1080" windowWidth="28800" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="1140" windowWidth="28800" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4422" uniqueCount="2546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4445" uniqueCount="2556">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7667,6 +7667,36 @@
   </si>
   <si>
     <t>2020.6.29(self)</t>
+  </si>
+  <si>
+    <t>2020.6.30</t>
+  </si>
+  <si>
+    <t>去掉最低工资和最高工资后的工资平均值  </t>
+  </si>
+  <si>
+    <t>n 的第 k 个因子  </t>
+  </si>
+  <si>
+    <t>删掉一个元素以后全为 1 的最长子数组  </t>
+  </si>
+  <si>
+    <t>并行课程 II  </t>
+  </si>
+  <si>
+    <t>Friendly Movies Streamed Last Month  新</t>
+  </si>
+  <si>
+    <t>判断路径是否相交  </t>
+  </si>
+  <si>
+    <t>检查数组对是否可以被 k 整除  </t>
+  </si>
+  <si>
+    <t>满足条件的子序列数目  </t>
+  </si>
+  <si>
+    <t>满足不等式的最大值  </t>
   </si>
 </sst>
 </file>
@@ -8217,10 +8247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1674"/>
+  <dimension ref="A1:E1689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A754" workbookViewId="0">
-      <selection activeCell="D772" sqref="D772"/>
+    <sheetView tabSelected="1" topLeftCell="A1483" workbookViewId="0">
+      <selection activeCell="I1500" sqref="I1500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12528,7 +12558,9 @@
       <c r="C348" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D348" s="3"/>
+      <c r="D348" s="3" t="s">
+        <v>2546</v>
+      </c>
     </row>
     <row r="349" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="16" t="s">
@@ -12932,7 +12964,9 @@
       <c r="C381" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D381" s="4"/>
+      <c r="D381" s="4" t="s">
+        <v>2546</v>
+      </c>
     </row>
     <row r="382" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
@@ -26297,222 +26331,355 @@
     </row>
     <row r="1491" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1491" s="16">
+        <v>1491</v>
+      </c>
+      <c r="B1491" s="13" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1491" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1491" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E1491"/>
+    </row>
+    <row r="1492" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1492" s="16">
+        <v>1492</v>
+      </c>
+      <c r="B1492" s="13" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1492" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1492" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E1492"/>
+    </row>
+    <row r="1493" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1493" s="16">
+        <v>1493</v>
+      </c>
+      <c r="B1493" s="13" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1493" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1493" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="E1493"/>
+    </row>
+    <row r="1494" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1494" s="16">
+        <v>1494</v>
+      </c>
+      <c r="B1494" s="13" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1494" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1494"/>
+    </row>
+    <row r="1495" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1495" s="16">
+        <v>1495</v>
+      </c>
+      <c r="B1495" s="13" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C1495" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1496" s="16">
+        <v>1496</v>
+      </c>
+      <c r="B1496" s="13" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1496" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1497" s="16">
+        <v>1497</v>
+      </c>
+      <c r="B1497" s="13" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1497" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1498" s="16">
+        <v>1498</v>
+      </c>
+      <c r="B1498" s="13" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1498" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1499" s="16">
+        <v>1499</v>
+      </c>
+      <c r="B1499" s="13" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1499" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1500" s="16"/>
+      <c r="B1500" s="13"/>
+      <c r="C1500" s="3"/>
+      <c r="E1500"/>
+    </row>
+    <row r="1501" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1501" s="16"/>
+      <c r="B1501" s="13"/>
+      <c r="C1501" s="3"/>
+      <c r="E1501"/>
+    </row>
+    <row r="1502" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1502" s="16"/>
+      <c r="B1502" s="13"/>
+      <c r="C1502" s="3"/>
+      <c r="E1502"/>
+    </row>
+    <row r="1503" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1503" s="16"/>
+      <c r="B1503" s="13"/>
+      <c r="C1503" s="3"/>
+      <c r="E1503"/>
+    </row>
+    <row r="1504" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1504" s="16"/>
+      <c r="B1504" s="13"/>
+      <c r="C1504" s="3"/>
+      <c r="E1504"/>
+    </row>
+    <row r="1505" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1505" s="16"/>
+      <c r="B1505" s="13"/>
+      <c r="C1505" s="3"/>
+      <c r="E1505"/>
+    </row>
+    <row r="1506" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1506" s="16">
         <v>5452</v>
       </c>
-      <c r="B1491" s="13" t="s">
+      <c r="B1506" s="13" t="s">
         <v>2539</v>
       </c>
-      <c r="C1491" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1491"/>
-    </row>
-    <row r="1492" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1492" s="16" t="s">
+      <c r="C1506" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1506"/>
+    </row>
+    <row r="1507" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1507" s="16" t="s">
         <v>1462</v>
       </c>
-      <c r="B1492" s="13" t="s">
+      <c r="B1507" s="13" t="s">
         <v>1463</v>
       </c>
-      <c r="C1492" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1492"/>
-    </row>
-    <row r="1493" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1493" s="16" t="s">
+      <c r="C1507" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1507"/>
+    </row>
+    <row r="1508" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1508" s="16" t="s">
         <v>1464</v>
       </c>
-      <c r="B1493" s="12" t="s">
+      <c r="B1508" s="12" t="s">
         <v>1465</v>
       </c>
-      <c r="C1493" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1494" s="16" t="s">
+      <c r="C1508" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1509" s="16" t="s">
         <v>1466</v>
       </c>
-      <c r="B1494" s="13" t="s">
+      <c r="B1509" s="13" t="s">
         <v>1467</v>
       </c>
-      <c r="C1494" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1495" s="16" t="s">
+      <c r="C1509" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1510" s="16" t="s">
         <v>1468</v>
       </c>
-      <c r="B1495" s="12" t="s">
+      <c r="B1510" s="12" t="s">
         <v>1469</v>
       </c>
-      <c r="C1495" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1496" s="16" t="s">
+      <c r="C1510" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1511" s="16" t="s">
         <v>1470</v>
       </c>
-      <c r="B1496" s="13" t="s">
+      <c r="B1511" s="13" t="s">
         <v>1471</v>
       </c>
-      <c r="C1496" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1497" s="16" t="s">
+      <c r="C1511" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1512" s="16" t="s">
         <v>1472</v>
       </c>
-      <c r="B1497" s="12" t="s">
+      <c r="B1512" s="12" t="s">
         <v>1473</v>
       </c>
-      <c r="C1497" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1498" s="16" t="s">
+      <c r="C1512" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1513" s="16" t="s">
         <v>1474</v>
       </c>
-      <c r="B1498" s="13" t="s">
+      <c r="B1513" s="13" t="s">
         <v>1475</v>
       </c>
-      <c r="C1498" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1499" s="16" t="s">
+      <c r="C1513" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1514" s="16" t="s">
         <v>1476</v>
       </c>
-      <c r="B1499" s="12" t="s">
+      <c r="B1514" s="12" t="s">
         <v>1477</v>
       </c>
-      <c r="C1499" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1500" s="16" t="s">
+      <c r="C1514" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1515" s="16" t="s">
         <v>1478</v>
       </c>
-      <c r="B1500" s="13" t="s">
+      <c r="B1515" s="13" t="s">
         <v>1479</v>
       </c>
-      <c r="C1500" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1501" s="16" t="s">
+      <c r="C1515" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1516" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="B1501" s="12" t="s">
+      <c r="B1516" s="12" t="s">
         <v>1481</v>
       </c>
-      <c r="C1501" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1502" s="16" t="s">
+      <c r="C1516" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1517" s="16" t="s">
         <v>1482</v>
       </c>
-      <c r="B1502" s="13" t="s">
+      <c r="B1517" s="13" t="s">
         <v>1483</v>
       </c>
-      <c r="C1502" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1503" s="16" t="s">
+      <c r="C1517" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1518" s="16" t="s">
         <v>1484</v>
       </c>
-      <c r="B1503" s="12" t="s">
+      <c r="B1518" s="12" t="s">
         <v>1485</v>
       </c>
-      <c r="C1503" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1504" s="16" t="s">
+      <c r="C1518" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1519" s="16" t="s">
         <v>1486</v>
       </c>
-      <c r="B1504" s="13" t="s">
+      <c r="B1519" s="13" t="s">
         <v>1487</v>
       </c>
-      <c r="C1504" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1505" s="16" t="s">
+      <c r="C1519" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1520" s="16" t="s">
         <v>1488</v>
       </c>
-      <c r="B1505" s="12" t="s">
+      <c r="B1520" s="12" t="s">
         <v>1489</v>
       </c>
-      <c r="C1505" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1506" s="16" t="s">
+      <c r="C1520" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1521" s="16" t="s">
         <v>1490</v>
       </c>
-      <c r="B1506" s="13" t="s">
+      <c r="B1521" s="13" t="s">
         <v>1491</v>
       </c>
-      <c r="C1506" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1507" s="16" t="s">
+      <c r="C1521" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1522" s="16" t="s">
         <v>1492</v>
       </c>
-      <c r="B1507" s="12" t="s">
+      <c r="B1522" s="12" t="s">
         <v>1493</v>
       </c>
-      <c r="C1507" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1509" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1510" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1511" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1512" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1513" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1514" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1515" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1516" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1517" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1518" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1519" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1520" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1521" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1522" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1523" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1524" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1525" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1526" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1527" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1528" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1529" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1530" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1531" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1532" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1533" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1534" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1535" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1536" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C1522" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1524" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1525" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1526" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1527" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1528" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1529" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1530" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1531" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1532" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1533" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1534" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1535" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1536" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1537" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1538" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1539" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -26651,6 +26818,21 @@
     <row r="1672" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1673" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1674" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1675" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1676" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1677" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1678" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1679" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1680" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1681" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1682" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1683" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1684" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1685" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1686" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1687" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1688" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1689" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{5165F1EF-78E9-4966-B538-E9E3BC66CD1B}"/>
   <mergeCells count="1">
@@ -28101,22 +28283,22 @@
     <hyperlink ref="B1444" r:id="rId1442" display="https://leetcode-cn.com/problems/minimum-time-to-collect-all-apples-in-a-tree" xr:uid="{26C99996-EF95-41E0-AC28-7ACC44E27D73}"/>
     <hyperlink ref="B1445" r:id="rId1443" display="https://leetcode-cn.com/problems/number-of-ways-of-cutting-a-pizza" xr:uid="{399F5F11-C4D3-4E4E-B284-B30210CDDC71}"/>
     <hyperlink ref="B1446" r:id="rId1444" display="https://leetcode-cn.com/problems/apples-oranges" xr:uid="{4EA7D115-D121-4BCC-99F9-CD083ECA09C8}"/>
-    <hyperlink ref="B1492" r:id="rId1445" display="https://leetcode-cn.com/problems/guess-numbers" xr:uid="{69087C18-FA9C-40B3-AF17-043A96496574}"/>
-    <hyperlink ref="B1493" r:id="rId1446" display="https://leetcode-cn.com/problems/deep-dark-fraction" xr:uid="{114BD6E4-01F4-4B7F-A39C-5F005CAF496A}"/>
-    <hyperlink ref="B1494" r:id="rId1447" display="https://leetcode-cn.com/problems/programmable-robot" xr:uid="{5AB364F8-5855-443C-BF25-0AAD6261A637}"/>
-    <hyperlink ref="B1495" r:id="rId1448" display="https://leetcode-cn.com/problems/broken-board-dominoes" xr:uid="{F4A53F44-AA5A-483F-9C5B-6D3834B9E37D}"/>
-    <hyperlink ref="B1496" r:id="rId1449" display="https://leetcode-cn.com/problems/coin-bonus" xr:uid="{F83EFE64-1C11-462B-BAED-11146005F3A9}"/>
-    <hyperlink ref="B1497" r:id="rId1450" display="https://leetcode-cn.com/problems/na-ying-bi" xr:uid="{A76A66F5-E848-44C7-B3DA-9E7DD8A8C044}"/>
-    <hyperlink ref="B1498" r:id="rId1451" display="https://leetcode-cn.com/problems/chuan-di-xin-xi" xr:uid="{92733632-EA18-4A8A-8FF7-FF778E2296C5}"/>
-    <hyperlink ref="B1499" r:id="rId1452" display="https://leetcode-cn.com/problems/ju-qing-hong-fa-shi-jian" xr:uid="{180831C5-B17B-47C8-96E5-BD6168FE5F93}"/>
-    <hyperlink ref="B1500" r:id="rId1453" display="https://leetcode-cn.com/problems/zui-xiao-tiao-yue-ci-shu" xr:uid="{43E72EB8-A0E0-4323-A2F1-445E96866D3B}"/>
-    <hyperlink ref="B1501" r:id="rId1454" display="https://leetcode-cn.com/problems/er-cha-shu-ren-wu-diao-du" xr:uid="{362A3653-8A6F-4C30-AC3C-F3F60DB66B09}"/>
-    <hyperlink ref="B1502" r:id="rId1455" display="https://leetcode-cn.com/problems/qi-wang-ge-shu-tong-ji" xr:uid="{9CA6765F-77AE-48E9-96CE-211D96171ADE}"/>
-    <hyperlink ref="B1503" r:id="rId1456" display="https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua" xr:uid="{64E0E543-DA06-49F5-ABA0-93AFBC6AE494}"/>
-    <hyperlink ref="B1504" r:id="rId1457" display="https://leetcode-cn.com/problems/xun-bao" xr:uid="{D7038CDA-E564-465B-9BE5-F87650501858}"/>
-    <hyperlink ref="B1505" r:id="rId1458" display="https://leetcode-cn.com/problems/qie-fen-shu-zu" xr:uid="{9812E229-7AF3-488C-A910-903A3CEB1C27}"/>
-    <hyperlink ref="B1506" r:id="rId1459" display="https://leetcode-cn.com/problems/you-le-yuan-de-mi-gong" xr:uid="{83653B12-D1CB-40CE-85A9-7080941CA862}"/>
-    <hyperlink ref="B1507" r:id="rId1460" display="https://leetcode-cn.com/problems/you-le-yuan-de-you-lan-ji-hua" xr:uid="{FEFCF74B-B5BC-42D7-88BE-EFDE007579B8}"/>
+    <hyperlink ref="B1507" r:id="rId1445" display="https://leetcode-cn.com/problems/guess-numbers" xr:uid="{69087C18-FA9C-40B3-AF17-043A96496574}"/>
+    <hyperlink ref="B1508" r:id="rId1446" display="https://leetcode-cn.com/problems/deep-dark-fraction" xr:uid="{114BD6E4-01F4-4B7F-A39C-5F005CAF496A}"/>
+    <hyperlink ref="B1509" r:id="rId1447" display="https://leetcode-cn.com/problems/programmable-robot" xr:uid="{5AB364F8-5855-443C-BF25-0AAD6261A637}"/>
+    <hyperlink ref="B1510" r:id="rId1448" display="https://leetcode-cn.com/problems/broken-board-dominoes" xr:uid="{F4A53F44-AA5A-483F-9C5B-6D3834B9E37D}"/>
+    <hyperlink ref="B1511" r:id="rId1449" display="https://leetcode-cn.com/problems/coin-bonus" xr:uid="{F83EFE64-1C11-462B-BAED-11146005F3A9}"/>
+    <hyperlink ref="B1512" r:id="rId1450" display="https://leetcode-cn.com/problems/na-ying-bi" xr:uid="{A76A66F5-E848-44C7-B3DA-9E7DD8A8C044}"/>
+    <hyperlink ref="B1513" r:id="rId1451" display="https://leetcode-cn.com/problems/chuan-di-xin-xi" xr:uid="{92733632-EA18-4A8A-8FF7-FF778E2296C5}"/>
+    <hyperlink ref="B1514" r:id="rId1452" display="https://leetcode-cn.com/problems/ju-qing-hong-fa-shi-jian" xr:uid="{180831C5-B17B-47C8-96E5-BD6168FE5F93}"/>
+    <hyperlink ref="B1515" r:id="rId1453" display="https://leetcode-cn.com/problems/zui-xiao-tiao-yue-ci-shu" xr:uid="{43E72EB8-A0E0-4323-A2F1-445E96866D3B}"/>
+    <hyperlink ref="B1516" r:id="rId1454" display="https://leetcode-cn.com/problems/er-cha-shu-ren-wu-diao-du" xr:uid="{362A3653-8A6F-4C30-AC3C-F3F60DB66B09}"/>
+    <hyperlink ref="B1517" r:id="rId1455" display="https://leetcode-cn.com/problems/qi-wang-ge-shu-tong-ji" xr:uid="{9CA6765F-77AE-48E9-96CE-211D96171ADE}"/>
+    <hyperlink ref="B1518" r:id="rId1456" display="https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua" xr:uid="{64E0E543-DA06-49F5-ABA0-93AFBC6AE494}"/>
+    <hyperlink ref="B1519" r:id="rId1457" display="https://leetcode-cn.com/problems/xun-bao" xr:uid="{D7038CDA-E564-465B-9BE5-F87650501858}"/>
+    <hyperlink ref="B1520" r:id="rId1458" display="https://leetcode-cn.com/problems/qie-fen-shu-zu" xr:uid="{9812E229-7AF3-488C-A910-903A3CEB1C27}"/>
+    <hyperlink ref="B1521" r:id="rId1459" display="https://leetcode-cn.com/problems/you-le-yuan-de-mi-gong" xr:uid="{83653B12-D1CB-40CE-85A9-7080941CA862}"/>
+    <hyperlink ref="B1522" r:id="rId1460" display="https://leetcode-cn.com/problems/you-le-yuan-de-you-lan-ji-hua" xr:uid="{FEFCF74B-B5BC-42D7-88BE-EFDE007579B8}"/>
     <hyperlink ref="B1447" r:id="rId1461" display="https://leetcode-cn.com/problems/consecutive-characters" xr:uid="{CF4321A1-6252-461C-9B12-23ED59AABFE8}"/>
     <hyperlink ref="B1448" r:id="rId1462" display="https://leetcode-cn.com/problems/simplified-fractions" xr:uid="{A5D3E664-F486-4799-AA04-2AE2496E698E}"/>
     <hyperlink ref="B1449" r:id="rId1463" display="https://leetcode-cn.com/problems/count-good-nodes-in-binary-tree" xr:uid="{EA7C1C01-25CB-4B93-B7B6-2D71007B3607}"/>
@@ -28157,9 +28339,18 @@
     <hyperlink ref="B1485" r:id="rId1498" display="https://leetcode-cn.com/problems/group-sold-products-by-the-date" xr:uid="{CEBD78C1-F634-4F23-A14A-5C41B02993B0}"/>
     <hyperlink ref="B1486" r:id="rId1499" display="https://leetcode-cn.com/problems/xor-operation-in-an-array" xr:uid="{806F6E1D-F4DA-4D20-9F74-B2701A791223}"/>
     <hyperlink ref="B1487" r:id="rId1500" display="https://leetcode-cn.com/problems/making-file-names-unique" xr:uid="{0D5EEDC1-B593-4CFB-91B3-E59B8E7F2483}"/>
+    <hyperlink ref="B1491" r:id="rId1501" display="https://leetcode-cn.com/problems/average-salary-excluding-the-minimum-and-maximum-salary" xr:uid="{6FA7843B-196E-4DB5-AA2D-2A40EBF1BF30}"/>
+    <hyperlink ref="B1492" r:id="rId1502" display="https://leetcode-cn.com/problems/the-kth-factor-of-n" xr:uid="{72148561-ABC0-45C0-A0C0-425C890571D0}"/>
+    <hyperlink ref="B1493" r:id="rId1503" display="https://leetcode-cn.com/problems/longest-subarray-of-1s-after-deleting-one-element" xr:uid="{53EF3C64-6887-4268-83BF-EC86B489B475}"/>
+    <hyperlink ref="B1494" r:id="rId1504" display="https://leetcode-cn.com/problems/parallel-courses-ii" xr:uid="{F898127F-AA98-4126-A568-7420E184C258}"/>
+    <hyperlink ref="B1495" r:id="rId1505" display="https://leetcode-cn.com/problems/friendly-movies-streamed-last-month" xr:uid="{D38BEEDE-A2AA-4C27-B97B-12B0E8D02324}"/>
+    <hyperlink ref="B1496" r:id="rId1506" display="https://leetcode-cn.com/problems/path-crossing" xr:uid="{30297883-173D-410F-B459-748DA9E481F5}"/>
+    <hyperlink ref="B1497" r:id="rId1507" display="https://leetcode-cn.com/problems/check-if-array-pairs-are-divisible-by-k" xr:uid="{212B160A-7EEE-43B9-86A4-DDC5B8EEFB0D}"/>
+    <hyperlink ref="B1498" r:id="rId1508" display="https://leetcode-cn.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{D4750F73-416D-4293-92E7-F4FAEC8B0564}"/>
+    <hyperlink ref="B1499" r:id="rId1509" display="https://leetcode-cn.com/problems/max-value-of-equation" xr:uid="{EBE74569-3ECE-4C28-8AE6-EEC95E8AD670}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1501"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1510"/>
 </worksheet>
 </file>
 

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,54 +8,56 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABF3786-E0B0-4CC1-B88E-E2D9F112951C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C135E04-6B7E-4D42-BFB5-D2E9C7AEEF12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
     <sheet name="程序员面试题金典" sheetId="4" r:id="rId2"/>
     <sheet name="剑指Offer" sheetId="5" r:id="rId3"/>
     <sheet name="数组" sheetId="7" r:id="rId4"/>
-    <sheet name="字符串" sheetId="8" r:id="rId5"/>
-    <sheet name="双指针" sheetId="9" r:id="rId6"/>
+    <sheet name="双指针" sheetId="9" r:id="rId5"/>
+    <sheet name="字符串" sheetId="8" r:id="rId6"/>
     <sheet name="哈希表" sheetId="15" r:id="rId7"/>
     <sheet name="链表" sheetId="10" r:id="rId8"/>
-    <sheet name="栈" sheetId="11" r:id="rId9"/>
-    <sheet name="二分搜索" sheetId="14" r:id="rId10"/>
-    <sheet name="位操作" sheetId="16" r:id="rId11"/>
-    <sheet name="堆" sheetId="13" r:id="rId12"/>
-    <sheet name="排序" sheetId="17" r:id="rId13"/>
-    <sheet name="队列" sheetId="12" r:id="rId14"/>
-    <sheet name="递归" sheetId="18" r:id="rId15"/>
-    <sheet name="滑动窗口" sheetId="19" r:id="rId16"/>
-    <sheet name="分治法" sheetId="20" r:id="rId17"/>
+    <sheet name="动态规划" sheetId="21" r:id="rId9"/>
+    <sheet name="栈" sheetId="11" r:id="rId10"/>
+    <sheet name="二分搜索" sheetId="14" r:id="rId11"/>
+    <sheet name="位操作" sheetId="16" r:id="rId12"/>
+    <sheet name="堆" sheetId="13" r:id="rId13"/>
+    <sheet name="排序" sheetId="17" r:id="rId14"/>
+    <sheet name="队列" sheetId="12" r:id="rId15"/>
+    <sheet name="递归" sheetId="18" r:id="rId16"/>
+    <sheet name="滑动窗口" sheetId="19" r:id="rId17"/>
+    <sheet name="分治法" sheetId="20" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode 题目'!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">二分搜索!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">位操作!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">分治法!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">二分搜索!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">位操作!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">分治法!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">剑指Offer!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">双指针!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">动态规划!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">双指针!$A$4:$D$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">哈希表!$A$5:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">堆!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">字符串!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">排序!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数组!$A$4:$D$136</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">栈!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">滑动窗口!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">堆!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">字符串!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">排序!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数组!$A$4:$C$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">栈!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">滑动窗口!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">程序员面试题金典!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">递归!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">递归!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">链表!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">队列!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">队列!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5824" uniqueCount="3156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6173" uniqueCount="3319">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -9525,6 +9527,495 @@
   </si>
   <si>
     <t>2020.7.1</t>
+  </si>
+  <si>
+    <t>$1479</t>
+  </si>
+  <si>
+    <t>$1474</t>
+  </si>
+  <si>
+    <t>$1484</t>
+  </si>
+  <si>
+    <t>$1485</t>
+  </si>
+  <si>
+    <t>$1490</t>
+  </si>
+  <si>
+    <t>$1495</t>
+  </si>
+  <si>
+    <t>Design a File Sharing System  新</t>
+  </si>
+  <si>
+    <t>$1500</t>
+  </si>
+  <si>
+    <t>动态规划篇-110题(Dynamic Programming, 110 problems)</t>
+  </si>
+  <si>
+    <t>#95</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t>#96</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>#70</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>#309</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>#546</t>
+  </si>
+  <si>
+    <t>Remove Boxes</t>
+  </si>
+  <si>
+    <t>#552</t>
+  </si>
+  <si>
+    <t>Student Attendance Record II</t>
+  </si>
+  <si>
+    <t>#303</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>#516</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>#221</t>
+  </si>
+  <si>
+    <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>#357</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>#198</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>#877</t>
+  </si>
+  <si>
+    <t>Stone Game</t>
+  </si>
+  <si>
+    <t>#466</t>
+  </si>
+  <si>
+    <t>Count The Repetitions</t>
+  </si>
+  <si>
+    <t>#375</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>#279</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>#413</t>
+  </si>
+  <si>
+    <t>Arithmetic Slices</t>
+  </si>
+  <si>
+    <t>#673</t>
+  </si>
+  <si>
+    <t>Number of Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>#132</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>#368</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>#322</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>#464</t>
+  </si>
+  <si>
+    <t>Can I Win</t>
+  </si>
+  <si>
+    <t>#139</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>#638</t>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+  </si>
+  <si>
+    <t>#343</t>
+  </si>
+  <si>
+    <t>Integer Break</t>
+  </si>
+  <si>
+    <t>#664</t>
+  </si>
+  <si>
+    <t>Strange Printer</t>
+  </si>
+  <si>
+    <t>#321</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>#650</t>
+  </si>
+  <si>
+    <t>2 Keys Keyboard</t>
+  </si>
+  <si>
+    <t>#600</t>
+  </si>
+  <si>
+    <t>Non-negative Integers without Consecutive Ones</t>
+  </si>
+  <si>
+    <t>#629</t>
+  </si>
+  <si>
+    <t>K Inverse Pairs Array</t>
+  </si>
+  <si>
+    <t>#486</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>#712</t>
+  </si>
+  <si>
+    <t>Minimum ASCII Delete Sum for Two Strings</t>
+  </si>
+  <si>
+    <t>#351</t>
+  </si>
+  <si>
+    <t>Android Unlock Patterns</t>
+  </si>
+  <si>
+    <t>#474</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t>#213</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>#741</t>
+  </si>
+  <si>
+    <t>Cherry Pickup</t>
+  </si>
+  <si>
+    <t>#956</t>
+  </si>
+  <si>
+    <t>Tallest Billboard</t>
+  </si>
+  <si>
+    <t>#639</t>
+  </si>
+  <si>
+    <t>Decode Ways II</t>
+  </si>
+  <si>
+    <t>#688</t>
+  </si>
+  <si>
+    <t>Knight Probability in Chessboard</t>
+  </si>
+  <si>
+    <t>#740</t>
+  </si>
+  <si>
+    <t>Delete and Earn</t>
+  </si>
+  <si>
+    <t>#1025</t>
+  </si>
+  <si>
+    <t>Divisor Game</t>
+  </si>
+  <si>
+    <t>#1240</t>
+  </si>
+  <si>
+    <t>Tiling a Rectangle with the Fewest Squares</t>
+  </si>
+  <si>
+    <t>#1130</t>
+  </si>
+  <si>
+    <t>Minimum Cost Tree From Leaf Values</t>
+  </si>
+  <si>
+    <t>#188</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>#646</t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>#967</t>
+  </si>
+  <si>
+    <t>Numbers With Same Consecutive Differences</t>
+  </si>
+  <si>
+    <t>#691</t>
+  </si>
+  <si>
+    <t>Stickers to Spell Word</t>
+  </si>
+  <si>
+    <t>#403</t>
+  </si>
+  <si>
+    <t>Frog Jump</t>
+  </si>
+  <si>
+    <t>#902</t>
+  </si>
+  <si>
+    <t>Numbers At Most N Given Digit Set</t>
+  </si>
+  <si>
+    <t>#377</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>#494</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>#467</t>
+  </si>
+  <si>
+    <t>Unique Substrings in Wraparound String</t>
+  </si>
+  <si>
+    <t>#416</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>#376</t>
+  </si>
+  <si>
+    <t>Wiggle Subsequence</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>#1000</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Merge Stones</t>
+  </si>
+  <si>
+    <t>#523</t>
+  </si>
+  <si>
+    <t>Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>#576</t>
+  </si>
+  <si>
+    <t>Out of Boundary Paths</t>
+  </si>
+  <si>
+    <t>#517</t>
+  </si>
+  <si>
+    <t>Super Washing Machines</t>
+  </si>
+  <si>
+    <t>#256</t>
+  </si>
+  <si>
+    <t>Paint House</t>
+  </si>
+  <si>
+    <t>#361</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>#304</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>#472</t>
+  </si>
+  <si>
+    <t>Concatenated Words</t>
+  </si>
+  <si>
+    <t>#656</t>
+  </si>
+  <si>
+    <t>Coin Path</t>
+  </si>
+  <si>
+    <t>#1024</t>
+  </si>
+  <si>
+    <t>Video Stitching</t>
+  </si>
+  <si>
+    <t>#446</t>
+  </si>
+  <si>
+    <t>Arithmetic Slices II - Subsequence</t>
+  </si>
+  <si>
+    <t>#651</t>
+  </si>
+  <si>
+    <t>4 Keys Keyboard</t>
+  </si>
+  <si>
+    <t>#276</t>
+  </si>
+  <si>
+    <t>Paint Fence</t>
+  </si>
+  <si>
+    <t>#471</t>
+  </si>
+  <si>
+    <t>Encode String with Shortest Length</t>
+  </si>
+  <si>
+    <t>#1388</t>
+  </si>
+  <si>
+    <t>Pizza With 3n Slices</t>
+  </si>
+  <si>
+    <t>#1220</t>
+  </si>
+  <si>
+    <t>Count Vowels Permutation</t>
+  </si>
+  <si>
+    <t>#265</t>
+  </si>
+  <si>
+    <t>Paint House II</t>
+  </si>
+  <si>
+    <t>#568</t>
+  </si>
+  <si>
+    <t>Maximum Vacation Days</t>
+  </si>
+  <si>
+    <t>#418</t>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+  </si>
+  <si>
+    <t>#1277</t>
+  </si>
+  <si>
+    <t>Count Square Submatrices with All Ones</t>
+  </si>
+  <si>
+    <t>#1067</t>
+  </si>
+  <si>
+    <t>Digit Count in Range</t>
+  </si>
+  <si>
+    <t>————————————————</t>
+  </si>
+  <si>
+    <t>版权声明：本文为CSDN博主「LiBer_CV」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。</t>
+  </si>
+  <si>
+    <t>原文链接：https://blog.csdn.net/a435262767/java/article/details/105176107</t>
+  </si>
+  <si>
+    <t>2020.7.2</t>
   </si>
 </sst>
 </file>
@@ -9666,7 +10157,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9715,6 +10206,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9729,9 +10229,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10015,10 +10512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1689"/>
+  <dimension ref="A1:F1690"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10029,12 +10526,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -10576,7 +11073,9 @@
       <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>3318</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
@@ -27910,8 +28409,8 @@
       <c r="E1474"/>
     </row>
     <row r="1475" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1475" s="10">
-        <v>1474</v>
+      <c r="A1475" s="10" t="s">
+        <v>3157</v>
       </c>
       <c r="B1475" s="8" t="s">
         <v>2521</v>
@@ -27969,36 +28468,36 @@
       </c>
       <c r="E1479"/>
     </row>
-    <row r="1480" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1480" s="10">
-        <v>1480</v>
+    <row r="1480" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1480" s="10" t="s">
+        <v>3156</v>
       </c>
       <c r="B1480" s="8" t="s">
-        <v>2526</v>
+        <v>2537</v>
       </c>
       <c r="C1480" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E1480"/>
     </row>
     <row r="1481" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1481" s="10">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B1481" s="8" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C1481" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1481"/>
     </row>
     <row r="1482" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1482" s="10">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B1482" s="8" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C1482" s="3" t="s">
         <v>7</v>
@@ -28007,46 +28506,46 @@
     </row>
     <row r="1483" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1483" s="10">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B1483" s="8" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="C1483" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1483"/>
     </row>
     <row r="1484" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1484" s="10">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B1484" s="8" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C1484" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1484"/>
+    </row>
+    <row r="1485" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1485" s="10" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B1485" s="8" t="s">
         <v>2530</v>
       </c>
-      <c r="C1484" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1484"/>
-    </row>
-    <row r="1485" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1485" s="10">
-        <v>1485</v>
-      </c>
-      <c r="B1485" s="8" t="s">
+      <c r="C1485" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1485"/>
+    </row>
+    <row r="1486" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1486" s="10" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B1486" s="8" t="s">
         <v>2531</v>
-      </c>
-      <c r="C1485" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1485"/>
-    </row>
-    <row r="1486" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1486" s="10">
-        <v>1486</v>
-      </c>
-      <c r="B1486" s="8" t="s">
-        <v>2532</v>
       </c>
       <c r="C1486" s="3" t="s">
         <v>5</v>
@@ -28055,189 +28554,203 @@
     </row>
     <row r="1487" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1487" s="10">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B1487" s="8" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="C1487" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1487"/>
     </row>
     <row r="1488" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1488" s="10">
+        <v>1487</v>
+      </c>
+      <c r="B1488" s="8" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C1488" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1488"/>
+    </row>
+    <row r="1489" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1489" s="10">
         <v>1488</v>
       </c>
-      <c r="B1488" s="8" t="s">
+      <c r="B1489" s="8" t="s">
         <v>2534</v>
       </c>
-      <c r="C1488" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1488"/>
-    </row>
-    <row r="1489" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1489" s="10">
+      <c r="C1489" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1489"/>
+    </row>
+    <row r="1490" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1490" s="10">
         <v>1489</v>
       </c>
-      <c r="B1489" s="8" t="s">
+      <c r="B1490" s="8" t="s">
         <v>2535</v>
       </c>
-      <c r="C1489" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1489"/>
-    </row>
-    <row r="1490" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1490" s="10">
-        <v>1490</v>
-      </c>
-      <c r="B1490" s="8" t="s">
+      <c r="C1490" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1490"/>
+    </row>
+    <row r="1491" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1491" s="10" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B1491" s="8" t="s">
         <v>2536</v>
       </c>
-      <c r="C1490" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1490"/>
-    </row>
-    <row r="1491" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1491" s="10">
+      <c r="C1491" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1491"/>
+    </row>
+    <row r="1492" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1492" s="10">
         <v>1491</v>
       </c>
-      <c r="B1491" s="8" t="s">
+      <c r="B1492" s="8" t="s">
         <v>2545</v>
       </c>
-      <c r="C1491" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1491" s="1" t="s">
-        <v>2539</v>
-      </c>
-      <c r="E1491"/>
-    </row>
-    <row r="1492" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1492" s="10">
-        <v>1492</v>
-      </c>
-      <c r="B1492" s="8" t="s">
-        <v>2546</v>
-      </c>
       <c r="C1492" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1492" s="1" t="s">
         <v>2539</v>
       </c>
       <c r="E1492"/>
     </row>
-    <row r="1493" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1493" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1493" s="10">
+        <v>1492</v>
+      </c>
+      <c r="B1493" s="8" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1493" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1493" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E1493"/>
+    </row>
+    <row r="1494" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1494" s="10">
         <v>1493</v>
       </c>
-      <c r="B1493" s="8" t="s">
+      <c r="B1494" s="8" t="s">
         <v>2547</v>
       </c>
-      <c r="C1493" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1493" s="1" t="s">
+      <c r="C1494" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1494" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="E1493"/>
-    </row>
-    <row r="1494" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1494" s="10">
+      <c r="E1494"/>
+    </row>
+    <row r="1495" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1495" s="10">
         <v>1494</v>
       </c>
-      <c r="B1494" s="8" t="s">
+      <c r="B1495" s="8" t="s">
         <v>2548</v>
       </c>
-      <c r="C1494" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1494"/>
-    </row>
-    <row r="1495" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1495" s="10">
-        <v>1495</v>
-      </c>
-      <c r="B1495" s="8" t="s">
+      <c r="C1495" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1495"/>
+    </row>
+    <row r="1496" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1496" s="10" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B1496" s="8" t="s">
         <v>2549</v>
       </c>
-      <c r="C1495" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1496" s="10">
+      <c r="C1496" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1497" s="10">
         <v>1496</v>
       </c>
-      <c r="B1496" s="8" t="s">
+      <c r="B1497" s="8" t="s">
         <v>2550</v>
       </c>
-      <c r="C1496" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1497" s="10">
+      <c r="C1497" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1498" s="10">
         <v>1497</v>
       </c>
-      <c r="B1497" s="8" t="s">
+      <c r="B1498" s="8" t="s">
         <v>2551</v>
       </c>
-      <c r="C1497" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1498" s="10">
+      <c r="C1498" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1499" s="10">
         <v>1498</v>
       </c>
-      <c r="B1498" s="8" t="s">
+      <c r="B1499" s="8" t="s">
         <v>2552</v>
       </c>
-      <c r="C1498" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1499" s="10">
+      <c r="C1499" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1500" s="10">
         <v>1499</v>
       </c>
-      <c r="B1499" s="8" t="s">
+      <c r="B1500" s="8" t="s">
         <v>2553</v>
       </c>
-      <c r="C1499" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1500" s="10"/>
-      <c r="B1500" s="8"/>
-      <c r="C1500" s="3"/>
-      <c r="E1500"/>
-    </row>
-    <row r="1501" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1501" s="10"/>
-      <c r="B1501" s="8"/>
-      <c r="C1501" s="3"/>
-      <c r="E1501"/>
-    </row>
-    <row r="1502" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1500" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1501" s="10" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B1501" s="8" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C1501" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1501" s="19"/>
+      <c r="E1501" s="19"/>
+      <c r="F1501" s="19"/>
+    </row>
+    <row r="1502" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1502" s="10"/>
       <c r="B1502" s="8"/>
       <c r="C1502" s="3"/>
       <c r="E1502"/>
     </row>
-    <row r="1503" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1503" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1503" s="10"/>
       <c r="B1503" s="8"/>
       <c r="C1503" s="3"/>
       <c r="E1503"/>
     </row>
-    <row r="1504" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1504" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1504" s="10"/>
       <c r="B1504" s="8"/>
       <c r="C1504" s="3"/>
@@ -28250,195 +28763,194 @@
       <c r="E1505"/>
     </row>
     <row r="1506" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1506" s="10">
-        <v>5452</v>
-      </c>
-      <c r="B1506" s="8" t="s">
-        <v>2537</v>
-      </c>
-      <c r="C1506" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A1506" s="10"/>
+      <c r="B1506" s="8"/>
+      <c r="C1506" s="3"/>
       <c r="E1506"/>
     </row>
     <row r="1507" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1507" s="10" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B1507" s="8" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C1507" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A1507" s="10"/>
+      <c r="B1507" s="8"/>
+      <c r="C1507" s="3"/>
       <c r="E1507"/>
     </row>
     <row r="1508" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1508" s="10" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B1508" s="7" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C1508" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>1462</v>
+      </c>
+      <c r="B1508" s="8" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C1508" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1508"/>
     </row>
     <row r="1509" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1509" s="10" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B1509" s="8" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C1509" s="4" t="s">
-        <v>7</v>
+        <v>1464</v>
+      </c>
+      <c r="B1509" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C1509" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1510" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1510" s="10" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B1510" s="7" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C1510" s="3" t="s">
-        <v>10</v>
+        <v>1466</v>
+      </c>
+      <c r="B1510" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C1510" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1511" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1511" s="10" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B1511" s="8" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C1511" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1511" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C1511" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="1512" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1512" s="10" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B1512" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C1512" s="3" t="s">
-        <v>5</v>
+        <v>1470</v>
+      </c>
+      <c r="B1512" s="8" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1512" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1513" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1513" s="10" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B1513" s="8" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C1513" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1513" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C1513" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="1514" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1514" s="10" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B1514" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C1514" s="3" t="s">
-        <v>7</v>
+        <v>1474</v>
+      </c>
+      <c r="B1514" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C1514" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1515" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1515" s="10" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B1515" s="8" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C1515" s="4" t="s">
-        <v>10</v>
+        <v>1476</v>
+      </c>
+      <c r="B1515" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C1515" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1516" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1516" s="10" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B1516" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C1516" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1516" s="8" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C1516" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="1517" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1517" s="10" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B1517" s="8" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C1517" s="4" t="s">
-        <v>5</v>
+        <v>1480</v>
+      </c>
+      <c r="B1517" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C1517" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1518" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1518" s="10" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B1518" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C1518" s="3" t="s">
-        <v>7</v>
+        <v>1482</v>
+      </c>
+      <c r="B1518" s="8" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C1518" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1519" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1519" s="10" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B1519" s="8" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C1519" s="4" t="s">
-        <v>10</v>
+        <v>1484</v>
+      </c>
+      <c r="B1519" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C1519" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1520" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1520" s="10" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B1520" s="7" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C1520" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1520" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C1520" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="1521" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1521" s="10" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B1521" s="8" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C1521" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1521" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C1521" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="1522" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1522" s="10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1522" s="8" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C1522" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1523" s="10" t="s">
         <v>1492</v>
       </c>
-      <c r="B1522" s="7" t="s">
+      <c r="B1523" s="7" t="s">
         <v>1493</v>
       </c>
-      <c r="C1522" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1523" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C1523" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="1524" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1525" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1526" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -28605,6 +29117,7 @@
     <row r="1687" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1688" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1689" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1690" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{5165F1EF-78E9-4966-B538-E9E3BC66CD1B}"/>
   <mergeCells count="1">
@@ -30055,22 +30568,22 @@
     <hyperlink ref="B1444" r:id="rId1442" display="https://leetcode-cn.com/problems/minimum-time-to-collect-all-apples-in-a-tree" xr:uid="{26C99996-EF95-41E0-AC28-7ACC44E27D73}"/>
     <hyperlink ref="B1445" r:id="rId1443" display="https://leetcode-cn.com/problems/number-of-ways-of-cutting-a-pizza" xr:uid="{399F5F11-C4D3-4E4E-B284-B30210CDDC71}"/>
     <hyperlink ref="B1446" r:id="rId1444" display="https://leetcode-cn.com/problems/apples-oranges" xr:uid="{4EA7D115-D121-4BCC-99F9-CD083ECA09C8}"/>
-    <hyperlink ref="B1507" r:id="rId1445" display="https://leetcode-cn.com/problems/guess-numbers" xr:uid="{69087C18-FA9C-40B3-AF17-043A96496574}"/>
-    <hyperlink ref="B1508" r:id="rId1446" display="https://leetcode-cn.com/problems/deep-dark-fraction" xr:uid="{114BD6E4-01F4-4B7F-A39C-5F005CAF496A}"/>
-    <hyperlink ref="B1509" r:id="rId1447" display="https://leetcode-cn.com/problems/programmable-robot" xr:uid="{5AB364F8-5855-443C-BF25-0AAD6261A637}"/>
-    <hyperlink ref="B1510" r:id="rId1448" display="https://leetcode-cn.com/problems/broken-board-dominoes" xr:uid="{F4A53F44-AA5A-483F-9C5B-6D3834B9E37D}"/>
-    <hyperlink ref="B1511" r:id="rId1449" display="https://leetcode-cn.com/problems/coin-bonus" xr:uid="{F83EFE64-1C11-462B-BAED-11146005F3A9}"/>
-    <hyperlink ref="B1512" r:id="rId1450" display="https://leetcode-cn.com/problems/na-ying-bi" xr:uid="{A76A66F5-E848-44C7-B3DA-9E7DD8A8C044}"/>
-    <hyperlink ref="B1513" r:id="rId1451" display="https://leetcode-cn.com/problems/chuan-di-xin-xi" xr:uid="{92733632-EA18-4A8A-8FF7-FF778E2296C5}"/>
-    <hyperlink ref="B1514" r:id="rId1452" display="https://leetcode-cn.com/problems/ju-qing-hong-fa-shi-jian" xr:uid="{180831C5-B17B-47C8-96E5-BD6168FE5F93}"/>
-    <hyperlink ref="B1515" r:id="rId1453" display="https://leetcode-cn.com/problems/zui-xiao-tiao-yue-ci-shu" xr:uid="{43E72EB8-A0E0-4323-A2F1-445E96866D3B}"/>
-    <hyperlink ref="B1516" r:id="rId1454" display="https://leetcode-cn.com/problems/er-cha-shu-ren-wu-diao-du" xr:uid="{362A3653-8A6F-4C30-AC3C-F3F60DB66B09}"/>
-    <hyperlink ref="B1517" r:id="rId1455" display="https://leetcode-cn.com/problems/qi-wang-ge-shu-tong-ji" xr:uid="{9CA6765F-77AE-48E9-96CE-211D96171ADE}"/>
-    <hyperlink ref="B1518" r:id="rId1456" display="https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua" xr:uid="{64E0E543-DA06-49F5-ABA0-93AFBC6AE494}"/>
-    <hyperlink ref="B1519" r:id="rId1457" display="https://leetcode-cn.com/problems/xun-bao" xr:uid="{D7038CDA-E564-465B-9BE5-F87650501858}"/>
-    <hyperlink ref="B1520" r:id="rId1458" display="https://leetcode-cn.com/problems/qie-fen-shu-zu" xr:uid="{9812E229-7AF3-488C-A910-903A3CEB1C27}"/>
-    <hyperlink ref="B1521" r:id="rId1459" display="https://leetcode-cn.com/problems/you-le-yuan-de-mi-gong" xr:uid="{83653B12-D1CB-40CE-85A9-7080941CA862}"/>
-    <hyperlink ref="B1522" r:id="rId1460" display="https://leetcode-cn.com/problems/you-le-yuan-de-you-lan-ji-hua" xr:uid="{FEFCF74B-B5BC-42D7-88BE-EFDE007579B8}"/>
+    <hyperlink ref="B1508" r:id="rId1445" display="https://leetcode-cn.com/problems/guess-numbers" xr:uid="{69087C18-FA9C-40B3-AF17-043A96496574}"/>
+    <hyperlink ref="B1509" r:id="rId1446" display="https://leetcode-cn.com/problems/deep-dark-fraction" xr:uid="{114BD6E4-01F4-4B7F-A39C-5F005CAF496A}"/>
+    <hyperlink ref="B1510" r:id="rId1447" display="https://leetcode-cn.com/problems/programmable-robot" xr:uid="{5AB364F8-5855-443C-BF25-0AAD6261A637}"/>
+    <hyperlink ref="B1511" r:id="rId1448" display="https://leetcode-cn.com/problems/broken-board-dominoes" xr:uid="{F4A53F44-AA5A-483F-9C5B-6D3834B9E37D}"/>
+    <hyperlink ref="B1512" r:id="rId1449" display="https://leetcode-cn.com/problems/coin-bonus" xr:uid="{F83EFE64-1C11-462B-BAED-11146005F3A9}"/>
+    <hyperlink ref="B1513" r:id="rId1450" display="https://leetcode-cn.com/problems/na-ying-bi" xr:uid="{A76A66F5-E848-44C7-B3DA-9E7DD8A8C044}"/>
+    <hyperlink ref="B1514" r:id="rId1451" display="https://leetcode-cn.com/problems/chuan-di-xin-xi" xr:uid="{92733632-EA18-4A8A-8FF7-FF778E2296C5}"/>
+    <hyperlink ref="B1515" r:id="rId1452" display="https://leetcode-cn.com/problems/ju-qing-hong-fa-shi-jian" xr:uid="{180831C5-B17B-47C8-96E5-BD6168FE5F93}"/>
+    <hyperlink ref="B1516" r:id="rId1453" display="https://leetcode-cn.com/problems/zui-xiao-tiao-yue-ci-shu" xr:uid="{43E72EB8-A0E0-4323-A2F1-445E96866D3B}"/>
+    <hyperlink ref="B1517" r:id="rId1454" display="https://leetcode-cn.com/problems/er-cha-shu-ren-wu-diao-du" xr:uid="{362A3653-8A6F-4C30-AC3C-F3F60DB66B09}"/>
+    <hyperlink ref="B1518" r:id="rId1455" display="https://leetcode-cn.com/problems/qi-wang-ge-shu-tong-ji" xr:uid="{9CA6765F-77AE-48E9-96CE-211D96171ADE}"/>
+    <hyperlink ref="B1519" r:id="rId1456" display="https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua" xr:uid="{64E0E543-DA06-49F5-ABA0-93AFBC6AE494}"/>
+    <hyperlink ref="B1520" r:id="rId1457" display="https://leetcode-cn.com/problems/xun-bao" xr:uid="{D7038CDA-E564-465B-9BE5-F87650501858}"/>
+    <hyperlink ref="B1521" r:id="rId1458" display="https://leetcode-cn.com/problems/qie-fen-shu-zu" xr:uid="{9812E229-7AF3-488C-A910-903A3CEB1C27}"/>
+    <hyperlink ref="B1522" r:id="rId1459" display="https://leetcode-cn.com/problems/you-le-yuan-de-mi-gong" xr:uid="{83653B12-D1CB-40CE-85A9-7080941CA862}"/>
+    <hyperlink ref="B1523" r:id="rId1460" display="https://leetcode-cn.com/problems/you-le-yuan-de-you-lan-ji-hua" xr:uid="{FEFCF74B-B5BC-42D7-88BE-EFDE007579B8}"/>
     <hyperlink ref="B1447" r:id="rId1461" display="https://leetcode-cn.com/problems/consecutive-characters" xr:uid="{CF4321A1-6252-461C-9B12-23ED59AABFE8}"/>
     <hyperlink ref="B1448" r:id="rId1462" display="https://leetcode-cn.com/problems/simplified-fractions" xr:uid="{A5D3E664-F486-4799-AA04-2AE2496E698E}"/>
     <hyperlink ref="B1449" r:id="rId1463" display="https://leetcode-cn.com/problems/count-good-nodes-in-binary-tree" xr:uid="{EA7C1C01-25CB-4B93-B7B6-2D71007B3607}"/>
@@ -30103,30 +30616,556 @@
     <hyperlink ref="B1477" r:id="rId1490" display="https://leetcode-cn.com/problems/subrectangle-queries" xr:uid="{58341380-2F02-4D24-AA6D-30B4E3B7877F}"/>
     <hyperlink ref="B1478" r:id="rId1491" display="https://leetcode-cn.com/problems/find-two-non-overlapping-sub-arrays-each-with-target-sum" xr:uid="{515203C4-B0BD-4D72-91FA-A1199CBAA789}"/>
     <hyperlink ref="B1479" r:id="rId1492" display="https://leetcode-cn.com/problems/allocate-mailboxes" xr:uid="{9AFF07BE-905E-419D-B316-2AC3EB7B5A94}"/>
-    <hyperlink ref="B1480" r:id="rId1493" display="https://leetcode-cn.com/problems/running-sum-of-1d-array" xr:uid="{B906C7DB-7D1C-483B-B75A-050CFE6D5AF4}"/>
-    <hyperlink ref="B1481" r:id="rId1494" display="https://leetcode-cn.com/problems/least-number-of-unique-integers-after-k-removals" xr:uid="{B00EEE53-9057-400E-A0D1-49F45516F275}"/>
-    <hyperlink ref="B1482" r:id="rId1495" display="https://leetcode-cn.com/problems/minimum-number-of-days-to-make-m-bouquets" xr:uid="{130C771C-FFEB-4628-842A-E96370D33EBB}"/>
-    <hyperlink ref="B1483" r:id="rId1496" display="https://leetcode-cn.com/problems/kth-ancestor-of-a-tree-node" xr:uid="{9BE2E7D3-B0ED-4E64-8953-542CE046656A}"/>
-    <hyperlink ref="B1484" r:id="rId1497" display="https://leetcode-cn.com/problems/clone-binary-tree-with-random-pointer" xr:uid="{BE7D7C43-27EE-4A35-9A4E-73E57A5704DB}"/>
-    <hyperlink ref="B1485" r:id="rId1498" display="https://leetcode-cn.com/problems/group-sold-products-by-the-date" xr:uid="{CEBD78C1-F634-4F23-A14A-5C41B02993B0}"/>
-    <hyperlink ref="B1486" r:id="rId1499" display="https://leetcode-cn.com/problems/xor-operation-in-an-array" xr:uid="{806F6E1D-F4DA-4D20-9F74-B2701A791223}"/>
-    <hyperlink ref="B1487" r:id="rId1500" display="https://leetcode-cn.com/problems/making-file-names-unique" xr:uid="{0D5EEDC1-B593-4CFB-91B3-E59B8E7F2483}"/>
-    <hyperlink ref="B1491" r:id="rId1501" display="https://leetcode-cn.com/problems/average-salary-excluding-the-minimum-and-maximum-salary" xr:uid="{6FA7843B-196E-4DB5-AA2D-2A40EBF1BF30}"/>
-    <hyperlink ref="B1492" r:id="rId1502" display="https://leetcode-cn.com/problems/the-kth-factor-of-n" xr:uid="{72148561-ABC0-45C0-A0C0-425C890571D0}"/>
-    <hyperlink ref="B1493" r:id="rId1503" display="https://leetcode-cn.com/problems/longest-subarray-of-1s-after-deleting-one-element" xr:uid="{53EF3C64-6887-4268-83BF-EC86B489B475}"/>
-    <hyperlink ref="B1494" r:id="rId1504" display="https://leetcode-cn.com/problems/parallel-courses-ii" xr:uid="{F898127F-AA98-4126-A568-7420E184C258}"/>
-    <hyperlink ref="B1495" r:id="rId1505" display="https://leetcode-cn.com/problems/friendly-movies-streamed-last-month" xr:uid="{D38BEEDE-A2AA-4C27-B97B-12B0E8D02324}"/>
-    <hyperlink ref="B1496" r:id="rId1506" display="https://leetcode-cn.com/problems/path-crossing" xr:uid="{30297883-173D-410F-B459-748DA9E481F5}"/>
-    <hyperlink ref="B1497" r:id="rId1507" display="https://leetcode-cn.com/problems/check-if-array-pairs-are-divisible-by-k" xr:uid="{212B160A-7EEE-43B9-86A4-DDC5B8EEFB0D}"/>
-    <hyperlink ref="B1498" r:id="rId1508" display="https://leetcode-cn.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{D4750F73-416D-4293-92E7-F4FAEC8B0564}"/>
-    <hyperlink ref="B1499" r:id="rId1509" display="https://leetcode-cn.com/problems/max-value-of-equation" xr:uid="{EBE74569-3ECE-4C28-8AE6-EEC95E8AD670}"/>
+    <hyperlink ref="B1481" r:id="rId1493" display="https://leetcode-cn.com/problems/running-sum-of-1d-array" xr:uid="{B906C7DB-7D1C-483B-B75A-050CFE6D5AF4}"/>
+    <hyperlink ref="B1482" r:id="rId1494" display="https://leetcode-cn.com/problems/least-number-of-unique-integers-after-k-removals" xr:uid="{B00EEE53-9057-400E-A0D1-49F45516F275}"/>
+    <hyperlink ref="B1483" r:id="rId1495" display="https://leetcode-cn.com/problems/minimum-number-of-days-to-make-m-bouquets" xr:uid="{130C771C-FFEB-4628-842A-E96370D33EBB}"/>
+    <hyperlink ref="B1484" r:id="rId1496" display="https://leetcode-cn.com/problems/kth-ancestor-of-a-tree-node" xr:uid="{9BE2E7D3-B0ED-4E64-8953-542CE046656A}"/>
+    <hyperlink ref="B1485" r:id="rId1497" display="https://leetcode-cn.com/problems/clone-binary-tree-with-random-pointer" xr:uid="{BE7D7C43-27EE-4A35-9A4E-73E57A5704DB}"/>
+    <hyperlink ref="B1486" r:id="rId1498" display="https://leetcode-cn.com/problems/group-sold-products-by-the-date" xr:uid="{CEBD78C1-F634-4F23-A14A-5C41B02993B0}"/>
+    <hyperlink ref="B1487" r:id="rId1499" display="https://leetcode-cn.com/problems/xor-operation-in-an-array" xr:uid="{806F6E1D-F4DA-4D20-9F74-B2701A791223}"/>
+    <hyperlink ref="B1488" r:id="rId1500" display="https://leetcode-cn.com/problems/making-file-names-unique" xr:uid="{0D5EEDC1-B593-4CFB-91B3-E59B8E7F2483}"/>
+    <hyperlink ref="B1492" r:id="rId1501" display="https://leetcode-cn.com/problems/average-salary-excluding-the-minimum-and-maximum-salary" xr:uid="{6FA7843B-196E-4DB5-AA2D-2A40EBF1BF30}"/>
+    <hyperlink ref="B1493" r:id="rId1502" display="https://leetcode-cn.com/problems/the-kth-factor-of-n" xr:uid="{72148561-ABC0-45C0-A0C0-425C890571D0}"/>
+    <hyperlink ref="B1494" r:id="rId1503" display="https://leetcode-cn.com/problems/longest-subarray-of-1s-after-deleting-one-element" xr:uid="{53EF3C64-6887-4268-83BF-EC86B489B475}"/>
+    <hyperlink ref="B1495" r:id="rId1504" display="https://leetcode-cn.com/problems/parallel-courses-ii" xr:uid="{F898127F-AA98-4126-A568-7420E184C258}"/>
+    <hyperlink ref="B1496" r:id="rId1505" display="https://leetcode-cn.com/problems/friendly-movies-streamed-last-month" xr:uid="{D38BEEDE-A2AA-4C27-B97B-12B0E8D02324}"/>
+    <hyperlink ref="B1497" r:id="rId1506" display="https://leetcode-cn.com/problems/path-crossing" xr:uid="{30297883-173D-410F-B459-748DA9E481F5}"/>
+    <hyperlink ref="B1498" r:id="rId1507" display="https://leetcode-cn.com/problems/check-if-array-pairs-are-divisible-by-k" xr:uid="{212B160A-7EEE-43B9-86A4-DDC5B8EEFB0D}"/>
+    <hyperlink ref="B1499" r:id="rId1508" display="https://leetcode-cn.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{D4750F73-416D-4293-92E7-F4FAEC8B0564}"/>
+    <hyperlink ref="B1500" r:id="rId1509" display="https://leetcode-cn.com/problems/max-value-of-equation" xr:uid="{EBE74569-3ECE-4C28-8AE6-EEC95E8AD670}"/>
+    <hyperlink ref="B1501" r:id="rId1510" display="https://leetcode-cn.com/problems/design-a-file-sharing-system" xr:uid="{802B9D1E-1385-4286-ABE1-2848D1CA5F0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1510"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1511"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1850CE06-8D22-4A2D-B248-33547EF5D1DE}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763AD0AA-3B57-42E5-A446-1C59E0C93422}">
   <dimension ref="A1:D52"/>
   <sheetViews>
@@ -30140,28 +31179,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>2973</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -30861,7 +31900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F75EA1-3F40-4719-A8D7-342E24F883F7}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -30875,28 +31914,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>3113</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -31302,7 +32341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBCB591-AE65-4792-A678-35AE60570A6F}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -31318,28 +32357,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>2915</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -31647,7 +32686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9297348D-86DA-451F-93BD-1403E5127234}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -31662,28 +32701,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>3128</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -32033,7 +33072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A59C3A-532E-49A6-A258-BE69DF77CF7C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -32047,12 +33086,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>2879</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -32148,7 +33187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39066FC-A5CF-45A0-B754-257D1B057823}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -32162,12 +33201,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>3139</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -32291,7 +33330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8033317-A5CE-477B-B520-81BBEBF5F5A8}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -32305,12 +33344,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>3144</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -32462,11 +33501,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206B427-A21F-46E1-B673-6E5B9EF2EC95}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -32476,12 +33515,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>3153</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -32720,12 +33759,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>1494</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -34081,7 +35120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -34094,12 +35133,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>1710</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -35035,118 +36074,107 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8B07CB-5951-4E4D-9656-CC903CD16628}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A136"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="54.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>2555</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>2226</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="18" t="s">
         <v>2227</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2228</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>2229</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>2230</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>2231</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>2232</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>2233</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>2234</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>2235</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2236</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="20" t="s">
         <v>2237</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>2238</v>
       </c>
@@ -35156,9 +36184,8 @@
       <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>2240</v>
       </c>
@@ -35168,9 +36195,8 @@
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>2242</v>
       </c>
@@ -35180,9 +36206,8 @@
       <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>2244</v>
       </c>
@@ -35192,21 +36217,19 @@
       <c r="C13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>2246</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>2247</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>2248</v>
       </c>
@@ -35216,9 +36239,8 @@
       <c r="C15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>2250</v>
       </c>
@@ -35228,9 +36250,8 @@
       <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>2252</v>
       </c>
@@ -35240,9 +36261,8 @@
       <c r="C17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>2254</v>
       </c>
@@ -35252,9 +36272,8 @@
       <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>2256</v>
       </c>
@@ -35264,9 +36283,8 @@
       <c r="C19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>2258</v>
       </c>
@@ -35276,9 +36294,8 @@
       <c r="C20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>2260</v>
       </c>
@@ -35288,9 +36305,8 @@
       <c r="C21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>2262</v>
       </c>
@@ -35300,9 +36316,8 @@
       <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>2264</v>
       </c>
@@ -35312,9 +36327,8 @@
       <c r="C23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>2266</v>
       </c>
@@ -35324,9 +36338,8 @@
       <c r="C24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>2268</v>
       </c>
@@ -35336,9 +36349,8 @@
       <c r="C25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>2270</v>
       </c>
@@ -35348,21 +36360,19 @@
       <c r="C26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="20" t="s">
         <v>2273</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>2274</v>
       </c>
@@ -35372,9 +36382,8 @@
       <c r="C28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>2276</v>
       </c>
@@ -35384,9 +36393,8 @@
       <c r="C29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>2278</v>
       </c>
@@ -35396,9 +36404,8 @@
       <c r="C30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>2280</v>
       </c>
@@ -35408,9 +36415,8 @@
       <c r="C31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>2282</v>
       </c>
@@ -35420,9 +36426,8 @@
       <c r="C32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>2284</v>
       </c>
@@ -35432,9 +36437,8 @@
       <c r="C33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>2286</v>
       </c>
@@ -35444,9 +36448,8 @@
       <c r="C34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>2288</v>
       </c>
@@ -35456,9 +36459,8 @@
       <c r="C35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>2290</v>
       </c>
@@ -35468,9 +36470,8 @@
       <c r="C36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>2292</v>
       </c>
@@ -35480,9 +36481,8 @@
       <c r="C37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>2294</v>
       </c>
@@ -35492,9 +36492,8 @@
       <c r="C38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>2296</v>
       </c>
@@ -35504,9 +36503,8 @@
       <c r="C39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>2298</v>
       </c>
@@ -35516,9 +36514,8 @@
       <c r="C40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>2300</v>
       </c>
@@ -35528,9 +36525,8 @@
       <c r="C41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>2302</v>
       </c>
@@ -35540,9 +36536,8 @@
       <c r="C42" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>2304</v>
       </c>
@@ -35552,9 +36547,8 @@
       <c r="C43" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>2306</v>
       </c>
@@ -35564,9 +36558,8 @@
       <c r="C44" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>2308</v>
       </c>
@@ -35576,9 +36569,8 @@
       <c r="C45" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>2310</v>
       </c>
@@ -35588,9 +36580,8 @@
       <c r="C46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>2312</v>
       </c>
@@ -35600,9 +36591,8 @@
       <c r="C47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>2314</v>
       </c>
@@ -35612,9 +36602,8 @@
       <c r="C48" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>2316</v>
       </c>
@@ -35624,9 +36613,8 @@
       <c r="C49" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>2318</v>
       </c>
@@ -35636,21 +36624,19 @@
       <c r="C50" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>2320</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="20" t="s">
         <v>2321</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D51"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>2322</v>
       </c>
@@ -35660,9 +36646,8 @@
       <c r="C52" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>2324</v>
       </c>
@@ -35672,9 +36657,8 @@
       <c r="C53" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D53"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>2326</v>
       </c>
@@ -35684,9 +36668,8 @@
       <c r="C54" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D54"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>2328</v>
       </c>
@@ -35696,9 +36679,8 @@
       <c r="C55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>2330</v>
       </c>
@@ -35708,9 +36690,8 @@
       <c r="C56" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>2332</v>
       </c>
@@ -35720,9 +36701,8 @@
       <c r="C57" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>2334</v>
       </c>
@@ -35732,9 +36712,8 @@
       <c r="C58" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>2336</v>
       </c>
@@ -35744,9 +36723,8 @@
       <c r="C59" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D59"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>2338</v>
       </c>
@@ -35756,9 +36734,8 @@
       <c r="C60" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>2340</v>
       </c>
@@ -35768,9 +36745,8 @@
       <c r="C61" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>2342</v>
       </c>
@@ -35780,9 +36756,8 @@
       <c r="C62" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>2344</v>
       </c>
@@ -35792,9 +36767,8 @@
       <c r="C63" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>2346</v>
       </c>
@@ -35804,9 +36778,8 @@
       <c r="C64" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>2348</v>
       </c>
@@ -35816,9 +36789,8 @@
       <c r="C65" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>2350</v>
       </c>
@@ -35828,9 +36800,8 @@
       <c r="C66" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>2352</v>
       </c>
@@ -35840,9 +36811,8 @@
       <c r="C67" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D67"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>2354</v>
       </c>
@@ -35852,9 +36822,8 @@
       <c r="C68" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>2356</v>
       </c>
@@ -35864,9 +36833,8 @@
       <c r="C69" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>2358</v>
       </c>
@@ -35876,9 +36844,8 @@
       <c r="C70" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>2360</v>
       </c>
@@ -35888,9 +36855,8 @@
       <c r="C71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>2362</v>
       </c>
@@ -35900,9 +36866,8 @@
       <c r="C72" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>2364</v>
       </c>
@@ -35912,9 +36877,8 @@
       <c r="C73" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>2366</v>
       </c>
@@ -35924,9 +36888,8 @@
       <c r="C74" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>2368</v>
       </c>
@@ -35936,9 +36899,8 @@
       <c r="C75" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>2370</v>
       </c>
@@ -35948,9 +36910,8 @@
       <c r="C76" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>2372</v>
       </c>
@@ -35960,9 +36921,8 @@
       <c r="C77" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>2374</v>
       </c>
@@ -35972,9 +36932,8 @@
       <c r="C78" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D78"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>2376</v>
       </c>
@@ -35984,9 +36943,8 @@
       <c r="C79" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D79"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>2378</v>
       </c>
@@ -35996,9 +36954,8 @@
       <c r="C80" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D80"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>2380</v>
       </c>
@@ -36008,9 +36965,8 @@
       <c r="C81" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D81"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>2382</v>
       </c>
@@ -36020,9 +36976,8 @@
       <c r="C82" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D82"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>2384</v>
       </c>
@@ -36032,9 +36987,8 @@
       <c r="C83" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D83"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>2386</v>
       </c>
@@ -36044,9 +36998,8 @@
       <c r="C84" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D84"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>2388</v>
       </c>
@@ -36056,9 +37009,8 @@
       <c r="C85" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D85"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>2390</v>
       </c>
@@ -36068,9 +37020,8 @@
       <c r="C86" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D86"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>2392</v>
       </c>
@@ -36080,9 +37031,8 @@
       <c r="C87" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D87"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>2394</v>
       </c>
@@ -36092,9 +37042,8 @@
       <c r="C88" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D88"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>2396</v>
       </c>
@@ -36104,9 +37053,8 @@
       <c r="C89" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D89"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>2398</v>
       </c>
@@ -36116,9 +37064,8 @@
       <c r="C90" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D90"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>2400</v>
       </c>
@@ -36128,9 +37075,8 @@
       <c r="C91" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D91"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>2402</v>
       </c>
@@ -36140,9 +37086,8 @@
       <c r="C92" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D92"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>2404</v>
       </c>
@@ -36152,9 +37097,8 @@
       <c r="C93" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D93"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>2406</v>
       </c>
@@ -36164,9 +37108,8 @@
       <c r="C94" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D94"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>2408</v>
       </c>
@@ -36176,9 +37119,8 @@
       <c r="C95" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D95"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>2410</v>
       </c>
@@ -36188,9 +37130,8 @@
       <c r="C96" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D96"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>2412</v>
       </c>
@@ -36200,9 +37141,8 @@
       <c r="C97" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D97"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>2414</v>
       </c>
@@ -36212,9 +37152,8 @@
       <c r="C98" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D98"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>2416</v>
       </c>
@@ -36224,9 +37163,8 @@
       <c r="C99" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D99"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>2418</v>
       </c>
@@ -36236,9 +37174,8 @@
       <c r="C100" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D100"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>2420</v>
       </c>
@@ -36248,9 +37185,8 @@
       <c r="C101" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D101"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>2422</v>
       </c>
@@ -36260,9 +37196,8 @@
       <c r="C102" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D102"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>2424</v>
       </c>
@@ -36272,9 +37207,8 @@
       <c r="C103" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D103"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>2426</v>
       </c>
@@ -36284,9 +37218,8 @@
       <c r="C104" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D104"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>2428</v>
       </c>
@@ -36296,9 +37229,8 @@
       <c r="C105" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D105"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>2430</v>
       </c>
@@ -36308,9 +37240,8 @@
       <c r="C106" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D106"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>2432</v>
       </c>
@@ -36320,9 +37251,8 @@
       <c r="C107" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D107"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>2434</v>
       </c>
@@ -36332,9 +37262,8 @@
       <c r="C108" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D108"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>2436</v>
       </c>
@@ -36344,9 +37273,8 @@
       <c r="C109" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D109"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>2438</v>
       </c>
@@ -36356,9 +37284,8 @@
       <c r="C110" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D110"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>2440</v>
       </c>
@@ -36368,9 +37295,8 @@
       <c r="C111" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D111"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>2442</v>
       </c>
@@ -36380,9 +37306,8 @@
       <c r="C112" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D112"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>2444</v>
       </c>
@@ -36392,9 +37317,8 @@
       <c r="C113" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D113"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>2446</v>
       </c>
@@ -36404,9 +37328,8 @@
       <c r="C114" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D114"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>2448</v>
       </c>
@@ -36416,9 +37339,8 @@
       <c r="C115" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D115"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>2450</v>
       </c>
@@ -36428,9 +37350,8 @@
       <c r="C116" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D116"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>2452</v>
       </c>
@@ -36440,9 +37361,8 @@
       <c r="C117" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D117"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>2454</v>
       </c>
@@ -36452,9 +37372,8 @@
       <c r="C118" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D118"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>2456</v>
       </c>
@@ -36464,9 +37383,8 @@
       <c r="C119" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D119"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>2458</v>
       </c>
@@ -36476,9 +37394,8 @@
       <c r="C120" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D120"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>2460</v>
       </c>
@@ -36488,9 +37405,8 @@
       <c r="C121" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D121"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>2462</v>
       </c>
@@ -36500,9 +37416,8 @@
       <c r="C122" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D122"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>2464</v>
       </c>
@@ -36512,9 +37427,8 @@
       <c r="C123" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D123"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>2466</v>
       </c>
@@ -36524,9 +37438,8 @@
       <c r="C124" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D124"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>2468</v>
       </c>
@@ -36536,9 +37449,8 @@
       <c r="C125" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D125"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>2470</v>
       </c>
@@ -36548,9 +37460,8 @@
       <c r="C126" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D126"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>2472</v>
       </c>
@@ -36560,9 +37471,8 @@
       <c r="C127" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D127"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>2474</v>
       </c>
@@ -36572,9 +37482,8 @@
       <c r="C128" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D128"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>2476</v>
       </c>
@@ -36584,9 +37493,8 @@
       <c r="C129" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D129"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>2478</v>
       </c>
@@ -36596,9 +37504,8 @@
       <c r="C130" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D130"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>2480</v>
       </c>
@@ -36608,9 +37515,8 @@
       <c r="C131" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D131"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>2482</v>
       </c>
@@ -36620,9 +37526,8 @@
       <c r="C132" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D132"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>2484</v>
       </c>
@@ -36632,9 +37537,8 @@
       <c r="C133" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D133"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>2486</v>
       </c>
@@ -36644,9 +37548,8 @@
       <c r="C134" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D134"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>2488</v>
       </c>
@@ -36656,9 +37559,8 @@
       <c r="C135" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D135"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>2490</v>
       </c>
@@ -36668,14 +37570,13 @@
       <c r="C136" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D136"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:C136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36683,10 +37584,647 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8283B1-4B7A-4BF8-A411-C39CFE5A2537}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4F7005-EA04-453B-90A9-8D52E1CF9BD4}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -36696,28 +38234,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>2744</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -38075,644 +39613,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8283B1-4B7A-4BF8-A411-C39CFE5A2537}">
-  <dimension ref="A1:D45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2771</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2226</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2227</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2743</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2742</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2232</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2233</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2239</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2243</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2246</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2247</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2260</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2261</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2770</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2769</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2263</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2768</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2767</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2766</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2765</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2273</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2292</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2293</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2704</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2703</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2702</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2699</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2698</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2693</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2692</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2311</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2687</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2686</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2764</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2763</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2320</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2321</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2322</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2323</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2762</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2761</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2760</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2759</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2354</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2355</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2658</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2637</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2636</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2758</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2757</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2756</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2755</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2754</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2753</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2412</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2413</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2416</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2417</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2752</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2751</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2750</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2749</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2444</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2445</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>36</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2446</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2447</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2748</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2747</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2587</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2586</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2472</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2473</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2484</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2485</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2746</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2745</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="2">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58792F2-8C5B-4D50-BE98-1901DB34862F}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -38722,28 +39627,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>3070</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -39919,28 +40824,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>2816</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -40361,41 +41266,42 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1850CE06-8D22-4A2D-B248-33547EF5D1DE}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2BA2F-892D-4630-855B-347AF86C8A77}">
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="24" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>2869</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -40416,13 +41322,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2236</v>
+        <v>2741</v>
       </c>
       <c r="C5" t="s">
-        <v>2237</v>
+        <v>2740</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -40430,13 +41336,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="C6" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -40444,13 +41350,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2868</v>
+        <v>2240</v>
       </c>
       <c r="C7" t="s">
-        <v>2867</v>
+        <v>2241</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -40458,13 +41364,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>2723</v>
+        <v>3165</v>
       </c>
       <c r="C8" t="s">
-        <v>2722</v>
+        <v>3166</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -40472,13 +41378,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>2866</v>
+        <v>2727</v>
       </c>
       <c r="C9" t="s">
-        <v>2865</v>
+        <v>2726</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -40486,13 +41392,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>2864</v>
+        <v>2725</v>
       </c>
       <c r="C10" t="s">
-        <v>2863</v>
+        <v>2724</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -40500,10 +41406,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>2862</v>
+        <v>3167</v>
       </c>
       <c r="C11" t="s">
-        <v>2861</v>
+        <v>3168</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -40514,10 +41420,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>2860</v>
+        <v>3152</v>
       </c>
       <c r="C12" t="s">
-        <v>2859</v>
+        <v>3151</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -40528,10 +41434,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>2858</v>
+        <v>3169</v>
       </c>
       <c r="C13" t="s">
-        <v>2857</v>
+        <v>3170</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -40542,13 +41448,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>2856</v>
+        <v>2256</v>
       </c>
       <c r="C14" t="s">
-        <v>2855</v>
+        <v>2257</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -40556,13 +41462,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>2854</v>
+        <v>2264</v>
       </c>
       <c r="C15" t="s">
-        <v>2853</v>
+        <v>2265</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -40570,13 +41476,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>2852</v>
+        <v>3171</v>
       </c>
       <c r="C16" t="s">
-        <v>2851</v>
+        <v>3172</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -40584,13 +41490,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>2850</v>
+        <v>3173</v>
       </c>
       <c r="C17" t="s">
-        <v>2849</v>
+        <v>3174</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -40598,13 +41504,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>2848</v>
+        <v>2276</v>
       </c>
       <c r="C18" t="s">
-        <v>2847</v>
+        <v>2277</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -40612,13 +41518,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>2673</v>
+        <v>3175</v>
       </c>
       <c r="C19" t="s">
-        <v>2672</v>
+        <v>3176</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -40626,10 +41532,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>2671</v>
+        <v>3138</v>
       </c>
       <c r="C20" t="s">
-        <v>2670</v>
+        <v>3137</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -40640,13 +41546,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>2350</v>
+        <v>3177</v>
       </c>
       <c r="C21" t="s">
-        <v>2351</v>
+        <v>3178</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -40654,10 +41560,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>2846</v>
+        <v>2972</v>
       </c>
       <c r="C22" t="s">
-        <v>2845</v>
+        <v>2971</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -40668,13 +41574,13 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>2844</v>
+        <v>3179</v>
       </c>
       <c r="C23" t="s">
-        <v>2843</v>
+        <v>3180</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -40682,10 +41588,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>2842</v>
+        <v>3181</v>
       </c>
       <c r="C24" t="s">
-        <v>2841</v>
+        <v>3182</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -40696,10 +41602,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>2840</v>
+        <v>2707</v>
       </c>
       <c r="C25" t="s">
-        <v>2839</v>
+        <v>2706</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -40710,10 +41616,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>2838</v>
+        <v>3183</v>
       </c>
       <c r="C26" t="s">
-        <v>2837</v>
+        <v>3184</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -40724,13 +41630,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>2836</v>
+        <v>3185</v>
       </c>
       <c r="C27" t="s">
-        <v>2835</v>
+        <v>3186</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -40738,10 +41644,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>2834</v>
+        <v>2912</v>
       </c>
       <c r="C28" t="s">
-        <v>2833</v>
+        <v>2911</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -40752,10 +41658,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>2832</v>
+        <v>3187</v>
       </c>
       <c r="C29" t="s">
-        <v>2831</v>
+        <v>3188</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -40766,13 +41672,13 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>2830</v>
+        <v>3189</v>
       </c>
       <c r="C30" t="s">
-        <v>2829</v>
+        <v>3190</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -40780,10 +41686,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>2828</v>
+        <v>2296</v>
       </c>
       <c r="C31" t="s">
-        <v>2827</v>
+        <v>2297</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -40794,13 +41700,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>2601</v>
+        <v>3191</v>
       </c>
       <c r="C32" t="s">
-        <v>2600</v>
+        <v>3192</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -40808,10 +41714,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>2826</v>
+        <v>3193</v>
       </c>
       <c r="C33" t="s">
-        <v>2825</v>
+        <v>3194</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -40822,10 +41728,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>2824</v>
+        <v>3195</v>
       </c>
       <c r="C34" t="s">
-        <v>2823</v>
+        <v>3196</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -40836,10 +41742,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>2822</v>
+        <v>3197</v>
       </c>
       <c r="C35" t="s">
-        <v>2821</v>
+        <v>3198</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -40850,10 +41756,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>2820</v>
+        <v>2689</v>
       </c>
       <c r="C36" t="s">
-        <v>2819</v>
+        <v>2688</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -40864,21 +41770,1114 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>2818</v>
+        <v>2970</v>
       </c>
       <c r="C37" t="s">
-        <v>2817</v>
+        <v>2969</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3215</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3216</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2944</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3278</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>95</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>96</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>97</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>103</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>107</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>108</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>110</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>3317</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A4:D4" xr:uid="{00EDD5DC-D63C-4FD9-81AD-3C4BC8CD6D26}"/>
   <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C135E04-6B7E-4D42-BFB5-D2E9C7AEEF12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6259D87B-9668-4155-8F1C-FE39038009D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11115" yWindow="1305" windowWidth="28170" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
     <sheet name="程序员面试题金典" sheetId="4" r:id="rId2"/>
     <sheet name="剑指Offer" sheetId="5" r:id="rId3"/>
     <sheet name="数组" sheetId="7" r:id="rId4"/>
-    <sheet name="双指针" sheetId="9" r:id="rId5"/>
-    <sheet name="字符串" sheetId="8" r:id="rId6"/>
+    <sheet name="字符串" sheetId="8" r:id="rId5"/>
+    <sheet name="双指针" sheetId="9" r:id="rId6"/>
     <sheet name="哈希表" sheetId="15" r:id="rId7"/>
     <sheet name="链表" sheetId="10" r:id="rId8"/>
     <sheet name="动态规划" sheetId="21" r:id="rId9"/>
@@ -39,12 +39,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">分治法!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">剑指Offer!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">动态规划!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">双指针!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">双指针!$A$4:$D$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">哈希表!$A$5:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">堆!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">字符串!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">字符串!$A$4:$D$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">排序!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数组!$A$4:$C$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数组!$A$4:$E$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">栈!$A$4:$D$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">滑动窗口!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">程序员面试题金典!$A$2:$D$2</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6173" uniqueCount="3319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="3326">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10016,13 +10016,34 @@
   </si>
   <si>
     <t>2020.7.2</t>
+  </si>
+  <si>
+    <t>Leetcode 42</t>
+  </si>
+  <si>
+    <t>2020.7.2(self)</t>
+  </si>
+  <si>
+    <t>2020.7.3</t>
+  </si>
+  <si>
+    <t>DataBase</t>
+  </si>
+  <si>
+    <t>Countries You Can Safely Invest In  新</t>
+  </si>
+  <si>
+    <t>$1501</t>
+  </si>
+  <si>
+    <t>2020.7.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10069,8 +10090,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10094,8 +10129,18 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -10151,13 +10196,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10215,8 +10271,31 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10231,12 +10310,35 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -10514,8 +10616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10526,12 +10628,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -10687,7 +10789,9 @@
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>3321</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -10751,7 +10855,9 @@
       <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>3325</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -10933,7 +11039,9 @@
       <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>3325</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
@@ -11599,7 +11707,9 @@
       <c r="C85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>3321</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
@@ -11611,7 +11721,9 @@
       <c r="C86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>3325</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
@@ -12531,7 +12643,7 @@
       </c>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
         <v>160</v>
       </c>
@@ -12545,7 +12657,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>1863</v>
       </c>
@@ -12557,7 +12669,7 @@
       </c>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10">
         <v>162</v>
       </c>
@@ -12571,7 +12683,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>1864</v>
       </c>
@@ -12583,7 +12695,7 @@
       </c>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10">
         <v>164</v>
       </c>
@@ -12595,7 +12707,7 @@
       </c>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10">
         <v>165</v>
       </c>
@@ -12607,7 +12719,7 @@
       </c>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10">
         <v>166</v>
       </c>
@@ -12619,7 +12731,7 @@
       </c>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
         <v>167</v>
       </c>
@@ -12633,7 +12745,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
         <v>168</v>
       </c>
@@ -12645,7 +12757,7 @@
       </c>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
         <v>169</v>
       </c>
@@ -12657,7 +12769,7 @@
       </c>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>1865</v>
       </c>
@@ -12669,7 +12781,7 @@
       </c>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
         <v>171</v>
       </c>
@@ -12681,7 +12793,7 @@
       </c>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10">
         <v>172</v>
       </c>
@@ -12693,7 +12805,7 @@
       </c>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
         <v>173</v>
       </c>
@@ -12705,7 +12817,7 @@
       </c>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
         <v>174</v>
       </c>
@@ -12717,55 +12829,61 @@
       </c>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="10">
+    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="24">
         <v>175</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="10">
+      <c r="E176" s="30" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="24">
         <v>176</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="10">
+      <c r="E177" s="30"/>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="24">
         <v>177</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="10">
+      <c r="E178" s="30"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="24">
         <v>178</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D179" s="4"/>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E179" s="30"/>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
         <v>179</v>
       </c>
@@ -12777,79 +12895,87 @@
       </c>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="10">
+    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="24">
         <v>180</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D181" s="4"/>
-    </row>
-    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="10">
+      <c r="E181" s="30" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="24">
         <v>181</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="10">
+      <c r="E182" s="30"/>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="24">
         <v>182</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D183" s="4"/>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="10">
+      <c r="E183" s="30"/>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="24">
         <v>183</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="10">
+      <c r="E184" s="30"/>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="24">
         <v>184</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="10">
+      <c r="E185" s="30"/>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="24">
         <v>185</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E186" s="30"/>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>1866</v>
       </c>
@@ -12861,7 +12987,7 @@
       </c>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
         <v>187</v>
       </c>
@@ -12873,7 +12999,7 @@
       </c>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
         <v>188</v>
       </c>
@@ -12885,7 +13011,7 @@
       </c>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10">
         <v>189</v>
       </c>
@@ -12899,7 +13025,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10">
         <v>190</v>
       </c>
@@ -12911,7 +13037,7 @@
       </c>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10">
         <v>191</v>
       </c>
@@ -12972,25 +13098,25 @@
       <c r="D196" s="3"/>
     </row>
     <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="10">
+      <c r="A197" s="24">
         <v>196</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="10">
+      <c r="A198" s="24">
         <v>197</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D198" s="3"/>
@@ -13788,13 +13914,13 @@
       <c r="D262" s="3"/>
     </row>
     <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="10">
+      <c r="A263" s="24">
         <v>262</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="B263" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C263" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D263" s="4"/>
@@ -16801,7 +16927,9 @@
       <c r="C510" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D510" s="3"/>
+      <c r="D510" s="3" t="s">
+        <v>3320</v>
+      </c>
     </row>
     <row r="511" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="10" t="s">
@@ -16816,25 +16944,25 @@
       <c r="D511" s="4"/>
     </row>
     <row r="512" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="10" t="s">
+      <c r="A512" s="24" t="s">
         <v>1954</v>
       </c>
-      <c r="B512" s="7" t="s">
+      <c r="B512" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="C512" s="3" t="s">
+      <c r="C512" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D512" s="3"/>
     </row>
     <row r="513" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="10" t="s">
+      <c r="A513" s="24" t="s">
         <v>1955</v>
       </c>
-      <c r="B513" s="8" t="s">
+      <c r="B513" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="C513" s="4" t="s">
+      <c r="C513" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D513" s="4"/>
@@ -17092,13 +17220,13 @@
       <c r="D534" s="3"/>
     </row>
     <row r="535" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="10" t="s">
+      <c r="A535" s="24" t="s">
         <v>1959</v>
       </c>
-      <c r="B535" s="8" t="s">
+      <c r="B535" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="C535" s="4" t="s">
+      <c r="C535" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D535" s="4"/>
@@ -17286,13 +17414,13 @@
       <c r="D550" s="3"/>
     </row>
     <row r="551" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A551" s="10" t="s">
+      <c r="A551" s="24" t="s">
         <v>1965</v>
       </c>
-      <c r="B551" s="8" t="s">
+      <c r="B551" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="C551" s="4" t="s">
+      <c r="C551" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D551" s="4"/>
@@ -17518,37 +17646,37 @@
       <c r="D569" s="4"/>
     </row>
     <row r="570" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="10" t="s">
+      <c r="A570" s="24" t="s">
         <v>1969</v>
       </c>
-      <c r="B570" s="7" t="s">
+      <c r="B570" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="C570" s="3" t="s">
+      <c r="C570" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D570" s="3"/>
     </row>
     <row r="571" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A571" s="10" t="s">
+      <c r="A571" s="24" t="s">
         <v>1970</v>
       </c>
-      <c r="B571" s="8" t="s">
+      <c r="B571" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="C571" s="4" t="s">
+      <c r="C571" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D571" s="4"/>
     </row>
     <row r="572" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A572" s="10" t="s">
+      <c r="A572" s="24" t="s">
         <v>1971</v>
       </c>
-      <c r="B572" s="7" t="s">
+      <c r="B572" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="C572" s="3" t="s">
+      <c r="C572" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D572" s="3"/>
@@ -17578,13 +17706,13 @@
       <c r="D574" s="3"/>
     </row>
     <row r="575" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="10" t="s">
+      <c r="A575" s="24" t="s">
         <v>1973</v>
       </c>
-      <c r="B575" s="8" t="s">
+      <c r="B575" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="C575" s="4" t="s">
+      <c r="C575" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D575" s="4"/>
@@ -17614,49 +17742,49 @@
       <c r="D577" s="4"/>
     </row>
     <row r="578" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A578" s="10" t="s">
+      <c r="A578" s="24" t="s">
         <v>1976</v>
       </c>
-      <c r="B578" s="7" t="s">
+      <c r="B578" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="C578" s="3" t="s">
+      <c r="C578" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D578" s="3"/>
     </row>
     <row r="579" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A579" s="10" t="s">
+      <c r="A579" s="24" t="s">
         <v>1977</v>
       </c>
-      <c r="B579" s="8" t="s">
+      <c r="B579" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="C579" s="4" t="s">
+      <c r="C579" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D579" s="4"/>
     </row>
     <row r="580" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A580" s="10" t="s">
+      <c r="A580" s="24" t="s">
         <v>1978</v>
       </c>
-      <c r="B580" s="7" t="s">
+      <c r="B580" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="C580" s="3" t="s">
+      <c r="C580" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D580" s="3"/>
     </row>
     <row r="581" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A581" s="10" t="s">
+      <c r="A581" s="24" t="s">
         <v>1979</v>
       </c>
-      <c r="B581" s="8" t="s">
+      <c r="B581" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="C581" s="4" t="s">
+      <c r="C581" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D581" s="4"/>
@@ -17698,37 +17826,37 @@
       <c r="D584" s="3"/>
     </row>
     <row r="585" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A585" s="10" t="s">
+      <c r="A585" s="24" t="s">
         <v>1981</v>
       </c>
-      <c r="B585" s="8" t="s">
+      <c r="B585" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="C585" s="4" t="s">
+      <c r="C585" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D585" s="4"/>
     </row>
     <row r="586" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="10" t="s">
+      <c r="A586" s="24" t="s">
         <v>1982</v>
       </c>
-      <c r="B586" s="7" t="s">
+      <c r="B586" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="C586" s="3" t="s">
+      <c r="C586" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D586" s="3"/>
     </row>
     <row r="587" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A587" s="10" t="s">
+      <c r="A587" s="24" t="s">
         <v>1983</v>
       </c>
-      <c r="B587" s="8" t="s">
+      <c r="B587" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="C587" s="4" t="s">
+      <c r="C587" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D587" s="4"/>
@@ -17854,13 +17982,13 @@
       <c r="D597" s="4"/>
     </row>
     <row r="598" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A598" s="10" t="s">
+      <c r="A598" s="24" t="s">
         <v>1988</v>
       </c>
-      <c r="B598" s="7" t="s">
+      <c r="B598" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="C598" s="3" t="s">
+      <c r="C598" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D598" s="3"/>
@@ -17904,37 +18032,37 @@
       <c r="D601" s="4"/>
     </row>
     <row r="602" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A602" s="10">
+      <c r="A602" s="24">
         <v>601</v>
       </c>
-      <c r="B602" s="7" t="s">
+      <c r="B602" s="25" t="s">
         <v>619</v>
       </c>
-      <c r="C602" s="3" t="s">
+      <c r="C602" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D602" s="3"/>
     </row>
     <row r="603" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A603" s="10" t="s">
+      <c r="A603" s="24" t="s">
         <v>1989</v>
       </c>
-      <c r="B603" s="8" t="s">
+      <c r="B603" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="C603" s="4" t="s">
+      <c r="C603" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D603" s="4"/>
     </row>
     <row r="604" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A604" s="10" t="s">
+      <c r="A604" s="24" t="s">
         <v>1990</v>
       </c>
-      <c r="B604" s="7" t="s">
+      <c r="B604" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="C604" s="3" t="s">
+      <c r="C604" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D604" s="3"/>
@@ -17976,25 +18104,25 @@
       <c r="D607" s="4"/>
     </row>
     <row r="608" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A608" s="10" t="s">
+      <c r="A608" s="24" t="s">
         <v>1992</v>
       </c>
-      <c r="B608" s="7" t="s">
+      <c r="B608" s="25" t="s">
         <v>625</v>
       </c>
-      <c r="C608" s="3" t="s">
+      <c r="C608" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D608" s="3"/>
     </row>
     <row r="609" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A609" s="10" t="s">
+      <c r="A609" s="24" t="s">
         <v>1993</v>
       </c>
-      <c r="B609" s="8" t="s">
+      <c r="B609" s="25" t="s">
         <v>626</v>
       </c>
-      <c r="C609" s="4" t="s">
+      <c r="C609" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D609" s="4"/>
@@ -18012,13 +18140,13 @@
       <c r="D610" s="3"/>
     </row>
     <row r="611" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A611" s="10" t="s">
+      <c r="A611" s="24" t="s">
         <v>1994</v>
       </c>
-      <c r="B611" s="8" t="s">
+      <c r="B611" s="25" t="s">
         <v>628</v>
       </c>
-      <c r="C611" s="4" t="s">
+      <c r="C611" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D611" s="4"/>
@@ -18036,49 +18164,49 @@
       <c r="D612" s="3"/>
     </row>
     <row r="613" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A613" s="10" t="s">
+      <c r="A613" s="24" t="s">
         <v>1995</v>
       </c>
-      <c r="B613" s="8" t="s">
+      <c r="B613" s="25" t="s">
         <v>630</v>
       </c>
-      <c r="C613" s="4" t="s">
+      <c r="C613" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D613" s="4"/>
     </row>
     <row r="614" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A614" s="10" t="s">
+      <c r="A614" s="24" t="s">
         <v>1996</v>
       </c>
-      <c r="B614" s="7" t="s">
+      <c r="B614" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="C614" s="3" t="s">
+      <c r="C614" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D614" s="3"/>
     </row>
     <row r="615" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A615" s="10" t="s">
+      <c r="A615" s="24" t="s">
         <v>1997</v>
       </c>
-      <c r="B615" s="8" t="s">
+      <c r="B615" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="C615" s="4" t="s">
+      <c r="C615" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D615" s="4"/>
     </row>
     <row r="616" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A616" s="10" t="s">
+      <c r="A616" s="24" t="s">
         <v>1998</v>
       </c>
-      <c r="B616" s="7" t="s">
+      <c r="B616" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="C616" s="3" t="s">
+      <c r="C616" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D616" s="3"/>
@@ -18108,37 +18236,37 @@
       <c r="D618" s="3"/>
     </row>
     <row r="619" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A619" s="10" t="s">
+      <c r="A619" s="24" t="s">
         <v>2000</v>
       </c>
-      <c r="B619" s="8" t="s">
+      <c r="B619" s="25" t="s">
         <v>636</v>
       </c>
-      <c r="C619" s="4" t="s">
+      <c r="C619" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D619" s="4"/>
     </row>
     <row r="620" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A620" s="10" t="s">
+      <c r="A620" s="24" t="s">
         <v>2001</v>
       </c>
-      <c r="B620" s="7" t="s">
+      <c r="B620" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="C620" s="3" t="s">
+      <c r="C620" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D620" s="3"/>
     </row>
     <row r="621" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A621" s="10">
+      <c r="A621" s="24">
         <v>620</v>
       </c>
-      <c r="B621" s="8" t="s">
+      <c r="B621" s="25" t="s">
         <v>638</v>
       </c>
-      <c r="C621" s="4" t="s">
+      <c r="C621" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D621" s="4"/>
@@ -18206,25 +18334,25 @@
       <c r="D626" s="3"/>
     </row>
     <row r="627" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A627" s="10">
+      <c r="A627" s="24">
         <v>626</v>
       </c>
-      <c r="B627" s="8" t="s">
+      <c r="B627" s="25" t="s">
         <v>644</v>
       </c>
-      <c r="C627" s="4" t="s">
+      <c r="C627" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D627" s="4"/>
     </row>
     <row r="628" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A628" s="10">
+      <c r="A628" s="24">
         <v>627</v>
       </c>
-      <c r="B628" s="7" t="s">
+      <c r="B628" s="25" t="s">
         <v>645</v>
       </c>
-      <c r="C628" s="3" t="s">
+      <c r="C628" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D628" s="3"/>
@@ -23264,13 +23392,13 @@
       <c r="D1045" s="4"/>
     </row>
     <row r="1046" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1046" s="10" t="s">
+      <c r="A1046" s="24" t="s">
         <v>2040</v>
       </c>
-      <c r="B1046" s="7" t="s">
+      <c r="B1046" s="25" t="s">
         <v>1062</v>
       </c>
-      <c r="C1046" s="3" t="s">
+      <c r="C1046" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1046" s="3"/>
@@ -23324,13 +23452,13 @@
       <c r="D1050" s="3"/>
     </row>
     <row r="1051" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1051" s="10" t="s">
+      <c r="A1051" s="24" t="s">
         <v>2041</v>
       </c>
-      <c r="B1051" s="8" t="s">
+      <c r="B1051" s="25" t="s">
         <v>1067</v>
       </c>
-      <c r="C1051" s="4" t="s">
+      <c r="C1051" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1051" s="4"/>
@@ -23540,37 +23668,37 @@
       <c r="D1068" s="3"/>
     </row>
     <row r="1069" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1069" s="10" t="s">
+      <c r="A1069" s="24" t="s">
         <v>2055</v>
       </c>
-      <c r="B1069" s="8" t="s">
+      <c r="B1069" s="25" t="s">
         <v>1084</v>
       </c>
-      <c r="C1069" s="4" t="s">
+      <c r="C1069" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1069" s="4"/>
     </row>
     <row r="1070" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1070" s="10" t="s">
+      <c r="A1070" s="24" t="s">
         <v>2056</v>
       </c>
-      <c r="B1070" s="7" t="s">
+      <c r="B1070" s="25" t="s">
         <v>1085</v>
       </c>
-      <c r="C1070" s="3" t="s">
+      <c r="C1070" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1070" s="3"/>
     </row>
     <row r="1071" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1071" s="10" t="s">
+      <c r="A1071" s="24" t="s">
         <v>2057</v>
       </c>
-      <c r="B1071" s="8" t="s">
+      <c r="B1071" s="25" t="s">
         <v>1086</v>
       </c>
-      <c r="C1071" s="4" t="s">
+      <c r="C1071" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1071" s="4"/>
@@ -23624,37 +23752,37 @@
       <c r="D1075" s="4"/>
     </row>
     <row r="1076" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1076" s="10" t="s">
+      <c r="A1076" s="24" t="s">
         <v>2058</v>
       </c>
-      <c r="B1076" s="7" t="s">
+      <c r="B1076" s="25" t="s">
         <v>1091</v>
       </c>
-      <c r="C1076" s="3" t="s">
+      <c r="C1076" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1076" s="3"/>
     </row>
     <row r="1077" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1077" s="10" t="s">
+      <c r="A1077" s="24" t="s">
         <v>2059</v>
       </c>
-      <c r="B1077" s="8" t="s">
+      <c r="B1077" s="25" t="s">
         <v>1092</v>
       </c>
-      <c r="C1077" s="4" t="s">
+      <c r="C1077" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1077" s="4"/>
     </row>
     <row r="1078" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1078" s="10" t="s">
+      <c r="A1078" s="24" t="s">
         <v>2060</v>
       </c>
-      <c r="B1078" s="7" t="s">
+      <c r="B1078" s="25" t="s">
         <v>1093</v>
       </c>
-      <c r="C1078" s="3" t="s">
+      <c r="C1078" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1078" s="3"/>
@@ -23708,37 +23836,37 @@
       <c r="D1082" s="3"/>
     </row>
     <row r="1083" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1083" s="10" t="s">
+      <c r="A1083" s="24" t="s">
         <v>2061</v>
       </c>
-      <c r="B1083" s="8" t="s">
+      <c r="B1083" s="25" t="s">
         <v>1098</v>
       </c>
-      <c r="C1083" s="4" t="s">
+      <c r="C1083" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1083" s="4"/>
     </row>
     <row r="1084" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1084" s="10" t="s">
+      <c r="A1084" s="24" t="s">
         <v>2062</v>
       </c>
-      <c r="B1084" s="7" t="s">
+      <c r="B1084" s="25" t="s">
         <v>1099</v>
       </c>
-      <c r="C1084" s="3" t="s">
+      <c r="C1084" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1084" s="3"/>
     </row>
     <row r="1085" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1085" s="10" t="s">
+      <c r="A1085" s="24" t="s">
         <v>2063</v>
       </c>
-      <c r="B1085" s="8" t="s">
+      <c r="B1085" s="25" t="s">
         <v>1100</v>
       </c>
-      <c r="C1085" s="4" t="s">
+      <c r="C1085" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1085" s="4"/>
@@ -23888,25 +24016,25 @@
       <c r="D1097" s="4"/>
     </row>
     <row r="1098" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1098" s="10" t="s">
+      <c r="A1098" s="24" t="s">
         <v>2068</v>
       </c>
-      <c r="B1098" s="7" t="s">
+      <c r="B1098" s="25" t="s">
         <v>1113</v>
       </c>
-      <c r="C1098" s="3" t="s">
+      <c r="C1098" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D1098" s="3"/>
     </row>
     <row r="1099" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1099" s="10" t="s">
+      <c r="A1099" s="24" t="s">
         <v>2069</v>
       </c>
-      <c r="B1099" s="8" t="s">
+      <c r="B1099" s="25" t="s">
         <v>1114</v>
       </c>
-      <c r="C1099" s="4" t="s">
+      <c r="C1099" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1099" s="4"/>
@@ -24008,13 +24136,13 @@
       <c r="D1107" s="4"/>
     </row>
     <row r="1108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1108" s="10" t="s">
+      <c r="A1108" s="24" t="s">
         <v>2074</v>
       </c>
-      <c r="B1108" s="7" t="s">
+      <c r="B1108" s="25" t="s">
         <v>1123</v>
       </c>
-      <c r="C1108" s="3" t="s">
+      <c r="C1108" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1108" s="3"/>
@@ -24068,25 +24196,25 @@
       <c r="D1112" s="3"/>
     </row>
     <row r="1113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1113" s="10" t="s">
+      <c r="A1113" s="24" t="s">
         <v>2075</v>
       </c>
-      <c r="B1113" s="8" t="s">
+      <c r="B1113" s="25" t="s">
         <v>1128</v>
       </c>
-      <c r="C1113" s="4" t="s">
+      <c r="C1113" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1113" s="4"/>
     </row>
     <row r="1114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1114" s="10" t="s">
+      <c r="A1114" s="24" t="s">
         <v>2076</v>
       </c>
-      <c r="B1114" s="7" t="s">
+      <c r="B1114" s="25" t="s">
         <v>1129</v>
       </c>
-      <c r="C1114" s="3" t="s">
+      <c r="C1114" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1114" s="3"/>
@@ -24236,25 +24364,25 @@
       <c r="D1126" s="3"/>
     </row>
     <row r="1127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1127" s="10" t="s">
+      <c r="A1127" s="24" t="s">
         <v>2081</v>
       </c>
-      <c r="B1127" s="8" t="s">
+      <c r="B1127" s="25" t="s">
         <v>1142</v>
       </c>
-      <c r="C1127" s="4" t="s">
+      <c r="C1127" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1127" s="4"/>
     </row>
     <row r="1128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1128" s="10" t="s">
+      <c r="A1128" s="24" t="s">
         <v>2082</v>
       </c>
-      <c r="B1128" s="7" t="s">
+      <c r="B1128" s="25" t="s">
         <v>1143</v>
       </c>
-      <c r="C1128" s="3" t="s">
+      <c r="C1128" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D1128" s="3"/>
@@ -24308,13 +24436,13 @@
       <c r="D1132" s="3"/>
     </row>
     <row r="1133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1133" s="10" t="s">
+      <c r="A1133" s="24" t="s">
         <v>2083</v>
       </c>
-      <c r="B1133" s="8" t="s">
+      <c r="B1133" s="25" t="s">
         <v>1148</v>
       </c>
-      <c r="C1133" s="4" t="s">
+      <c r="C1133" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1133" s="4"/>
@@ -24416,25 +24544,25 @@
       <c r="D1141" s="4"/>
     </row>
     <row r="1142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1142" s="10" t="s">
+      <c r="A1142" s="24" t="s">
         <v>2088</v>
       </c>
-      <c r="B1142" s="7" t="s">
+      <c r="B1142" s="25" t="s">
         <v>1157</v>
       </c>
-      <c r="C1142" s="3" t="s">
+      <c r="C1142" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1142" s="3"/>
     </row>
     <row r="1143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1143" s="10" t="s">
+      <c r="A1143" s="24" t="s">
         <v>2089</v>
       </c>
-      <c r="B1143" s="8" t="s">
+      <c r="B1143" s="25" t="s">
         <v>1158</v>
       </c>
-      <c r="C1143" s="4" t="s">
+      <c r="C1143" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1143" s="4"/>
@@ -24500,25 +24628,25 @@
       <c r="D1148" s="3"/>
     </row>
     <row r="1149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1149" s="10" t="s">
+      <c r="A1149" s="24" t="s">
         <v>2090</v>
       </c>
-      <c r="B1149" s="8" t="s">
+      <c r="B1149" s="25" t="s">
         <v>1164</v>
       </c>
-      <c r="C1149" s="4" t="s">
+      <c r="C1149" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1149" s="4"/>
     </row>
     <row r="1150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1150" s="10" t="s">
+      <c r="A1150" s="24" t="s">
         <v>2091</v>
       </c>
-      <c r="B1150" s="7" t="s">
+      <c r="B1150" s="25" t="s">
         <v>1165</v>
       </c>
-      <c r="C1150" s="3" t="s">
+      <c r="C1150" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1150" s="3"/>
@@ -24620,25 +24748,25 @@
       <c r="D1158" s="3"/>
     </row>
     <row r="1159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1159" s="10" t="s">
+      <c r="A1159" s="24" t="s">
         <v>2096</v>
       </c>
-      <c r="B1159" s="8" t="s">
+      <c r="B1159" s="25" t="s">
         <v>1174</v>
       </c>
-      <c r="C1159" s="4" t="s">
+      <c r="C1159" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1159" s="4"/>
     </row>
     <row r="1160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1160" s="10" t="s">
+      <c r="A1160" s="24" t="s">
         <v>2097</v>
       </c>
-      <c r="B1160" s="7" t="s">
+      <c r="B1160" s="25" t="s">
         <v>1175</v>
       </c>
-      <c r="C1160" s="3" t="s">
+      <c r="C1160" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D1160" s="3"/>
@@ -24692,13 +24820,13 @@
       <c r="D1164" s="3"/>
     </row>
     <row r="1165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1165" s="10" t="s">
+      <c r="A1165" s="24" t="s">
         <v>2098</v>
       </c>
-      <c r="B1165" s="8" t="s">
+      <c r="B1165" s="25" t="s">
         <v>1180</v>
       </c>
-      <c r="C1165" s="4" t="s">
+      <c r="C1165" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1165" s="4"/>
@@ -24800,25 +24928,25 @@
       <c r="D1173" s="4"/>
     </row>
     <row r="1174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1174" s="10" t="s">
+      <c r="A1174" s="24" t="s">
         <v>2103</v>
       </c>
-      <c r="B1174" s="7" t="s">
+      <c r="B1174" s="25" t="s">
         <v>1189</v>
       </c>
-      <c r="C1174" s="3" t="s">
+      <c r="C1174" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1174" s="3"/>
     </row>
     <row r="1175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1175" s="10" t="s">
+      <c r="A1175" s="24" t="s">
         <v>2104</v>
       </c>
-      <c r="B1175" s="8" t="s">
+      <c r="B1175" s="25" t="s">
         <v>1190</v>
       </c>
-      <c r="C1175" s="4" t="s">
+      <c r="C1175" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1175" s="4"/>
@@ -25040,25 +25168,25 @@
       <c r="D1193" s="4"/>
     </row>
     <row r="1194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1194" s="10" t="s">
+      <c r="A1194" s="24" t="s">
         <v>2112</v>
       </c>
-      <c r="B1194" s="7" t="s">
+      <c r="B1194" s="25" t="s">
         <v>1209</v>
       </c>
-      <c r="C1194" s="3" t="s">
+      <c r="C1194" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1194" s="3"/>
     </row>
     <row r="1195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1195" s="10" t="s">
+      <c r="A1195" s="24" t="s">
         <v>2113</v>
       </c>
-      <c r="B1195" s="8" t="s">
+      <c r="B1195" s="25" t="s">
         <v>1210</v>
       </c>
-      <c r="C1195" s="4" t="s">
+      <c r="C1195" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D1195" s="4"/>
@@ -25172,25 +25300,25 @@
       <c r="D1204" s="3"/>
     </row>
     <row r="1205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1205" s="10" t="s">
+      <c r="A1205" s="24" t="s">
         <v>2119</v>
       </c>
-      <c r="B1205" s="8" t="s">
+      <c r="B1205" s="25" t="s">
         <v>1220</v>
       </c>
-      <c r="C1205" s="4" t="s">
+      <c r="C1205" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1205" s="4"/>
     </row>
     <row r="1206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1206" s="10" t="s">
+      <c r="A1206" s="24" t="s">
         <v>2120</v>
       </c>
-      <c r="B1206" s="7" t="s">
+      <c r="B1206" s="25" t="s">
         <v>1221</v>
       </c>
-      <c r="C1206" s="3" t="s">
+      <c r="C1206" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1206" s="3"/>
@@ -25256,25 +25384,25 @@
       <c r="D1211" s="4"/>
     </row>
     <row r="1212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1212" s="10" t="s">
+      <c r="A1212" s="24" t="s">
         <v>2121</v>
       </c>
-      <c r="B1212" s="7" t="s">
+      <c r="B1212" s="25" t="s">
         <v>1227</v>
       </c>
-      <c r="C1212" s="3" t="s">
+      <c r="C1212" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1212" s="3"/>
     </row>
     <row r="1213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1213" s="10" t="s">
+      <c r="A1213" s="24" t="s">
         <v>2122</v>
       </c>
-      <c r="B1213" s="8" t="s">
+      <c r="B1213" s="25" t="s">
         <v>1228</v>
       </c>
-      <c r="C1213" s="4" t="s">
+      <c r="C1213" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1213" s="4"/>
@@ -25424,13 +25552,13 @@
       <c r="D1225" s="4"/>
     </row>
     <row r="1226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1226" s="10" t="s">
+      <c r="A1226" s="24" t="s">
         <v>2127</v>
       </c>
-      <c r="B1226" s="7" t="s">
+      <c r="B1226" s="25" t="s">
         <v>1241</v>
       </c>
-      <c r="C1226" s="3" t="s">
+      <c r="C1226" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D1226" s="3"/>
@@ -25616,13 +25744,13 @@
       <c r="D1241" s="4"/>
     </row>
     <row r="1242" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1242" s="10" t="s">
+      <c r="A1242" s="24" t="s">
         <v>2133</v>
       </c>
-      <c r="B1242" s="7" t="s">
+      <c r="B1242" s="25" t="s">
         <v>1257</v>
       </c>
-      <c r="C1242" s="3" t="s">
+      <c r="C1242" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1242" s="3"/>
@@ -25736,13 +25864,13 @@
       <c r="D1251" s="4"/>
     </row>
     <row r="1252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1252" s="10" t="s">
+      <c r="A1252" s="24" t="s">
         <v>2139</v>
       </c>
-      <c r="B1252" s="7" t="s">
+      <c r="B1252" s="25" t="s">
         <v>1267</v>
       </c>
-      <c r="C1252" s="3" t="s">
+      <c r="C1252" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1252" s="3"/>
@@ -25892,13 +26020,13 @@
       <c r="D1264" s="3"/>
     </row>
     <row r="1265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1265" s="10" t="s">
+      <c r="A1265" s="24" t="s">
         <v>2144</v>
       </c>
-      <c r="B1265" s="8" t="s">
+      <c r="B1265" s="25" t="s">
         <v>1280</v>
       </c>
-      <c r="C1265" s="4" t="s">
+      <c r="C1265" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1265" s="4"/>
@@ -25964,13 +26092,13 @@
       <c r="D1270" s="3"/>
     </row>
     <row r="1271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1271" s="10" t="s">
+      <c r="A1271" s="24" t="s">
         <v>2146</v>
       </c>
-      <c r="B1271" s="8" t="s">
+      <c r="B1271" s="25" t="s">
         <v>1286</v>
       </c>
-      <c r="C1271" s="4" t="s">
+      <c r="C1271" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1271" s="4"/>
@@ -26084,13 +26212,13 @@
       <c r="D1280" s="3"/>
     </row>
     <row r="1281" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1281" s="10" t="s">
+      <c r="A1281" s="24" t="s">
         <v>2152</v>
       </c>
-      <c r="B1281" s="8" t="s">
+      <c r="B1281" s="25" t="s">
         <v>1296</v>
       </c>
-      <c r="C1281" s="4" t="s">
+      <c r="C1281" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1281" s="4"/>
@@ -26144,13 +26272,13 @@
       <c r="D1285" s="4"/>
     </row>
     <row r="1286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1286" s="10" t="s">
+      <c r="A1286" s="24" t="s">
         <v>2153</v>
       </c>
-      <c r="B1286" s="7" t="s">
+      <c r="B1286" s="25" t="s">
         <v>1301</v>
       </c>
-      <c r="C1286" s="3" t="s">
+      <c r="C1286" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1286" s="3"/>
@@ -26252,13 +26380,13 @@
       <c r="D1294" s="3"/>
     </row>
     <row r="1295" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1295" s="10" t="s">
+      <c r="A1295" s="24" t="s">
         <v>2154</v>
       </c>
-      <c r="B1295" s="8" t="s">
+      <c r="B1295" s="25" t="s">
         <v>1310</v>
       </c>
-      <c r="C1295" s="4" t="s">
+      <c r="C1295" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1295" s="4"/>
@@ -26360,13 +26488,13 @@
       <c r="D1303" s="4"/>
     </row>
     <row r="1304" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1304" s="10" t="s">
+      <c r="A1304" s="24" t="s">
         <v>2155</v>
       </c>
-      <c r="B1304" s="7" t="s">
+      <c r="B1304" s="25" t="s">
         <v>1319</v>
       </c>
-      <c r="C1304" s="3" t="s">
+      <c r="C1304" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1304" s="3"/>
@@ -26420,13 +26548,13 @@
       <c r="D1308" s="3"/>
     </row>
     <row r="1309" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1309" s="10" t="s">
+      <c r="A1309" s="24" t="s">
         <v>2156</v>
       </c>
-      <c r="B1309" s="8" t="s">
+      <c r="B1309" s="25" t="s">
         <v>1324</v>
       </c>
-      <c r="C1309" s="4" t="s">
+      <c r="C1309" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1309" s="4"/>
@@ -26576,25 +26704,25 @@
       <c r="D1321" s="4"/>
     </row>
     <row r="1322" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1322" s="10" t="s">
+      <c r="A1322" s="24" t="s">
         <v>2157</v>
       </c>
-      <c r="B1322" s="7" t="s">
+      <c r="B1322" s="25" t="s">
         <v>1337</v>
       </c>
-      <c r="C1322" s="3" t="s">
+      <c r="C1322" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1322" s="3"/>
     </row>
     <row r="1323" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1323" s="10" t="s">
+      <c r="A1323" s="24" t="s">
         <v>2158</v>
       </c>
-      <c r="B1323" s="8" t="s">
+      <c r="B1323" s="25" t="s">
         <v>1338</v>
       </c>
-      <c r="C1323" s="4" t="s">
+      <c r="C1323" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1323" s="4"/>
@@ -26648,13 +26776,13 @@
       <c r="D1327" s="4"/>
     </row>
     <row r="1328" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1328" s="10" t="s">
+      <c r="A1328" s="24" t="s">
         <v>2159</v>
       </c>
-      <c r="B1328" s="7" t="s">
+      <c r="B1328" s="25" t="s">
         <v>1343</v>
       </c>
-      <c r="C1328" s="3" t="s">
+      <c r="C1328" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1328" s="3"/>
@@ -26756,13 +26884,13 @@
       <c r="D1336" s="3"/>
     </row>
     <row r="1337" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1337" s="10" t="s">
+      <c r="A1337" s="24" t="s">
         <v>2160</v>
       </c>
-      <c r="B1337" s="8" t="s">
+      <c r="B1337" s="25" t="s">
         <v>1352</v>
       </c>
-      <c r="C1337" s="4" t="s">
+      <c r="C1337" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D1337" s="4"/>
@@ -26816,13 +26944,13 @@
       <c r="D1341" s="4"/>
     </row>
     <row r="1342" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1342" s="10" t="s">
+      <c r="A1342" s="24" t="s">
         <v>2161</v>
       </c>
-      <c r="B1342" s="7" t="s">
+      <c r="B1342" s="25" t="s">
         <v>1357</v>
       </c>
-      <c r="C1342" s="3" t="s">
+      <c r="C1342" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1342" s="3"/>
@@ -26924,13 +27052,13 @@
       <c r="D1350" s="3"/>
     </row>
     <row r="1351" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1351" s="10" t="s">
+      <c r="A1351" s="24" t="s">
         <v>2162</v>
       </c>
-      <c r="B1351" s="8" t="s">
+      <c r="B1351" s="25" t="s">
         <v>1366</v>
       </c>
-      <c r="C1351" s="4" t="s">
+      <c r="C1351" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1351" s="4"/>
@@ -26984,13 +27112,13 @@
       <c r="D1355" s="4"/>
     </row>
     <row r="1356" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1356" s="10" t="s">
+      <c r="A1356" s="24" t="s">
         <v>2163</v>
       </c>
-      <c r="B1356" s="7" t="s">
+      <c r="B1356" s="25" t="s">
         <v>1371</v>
       </c>
-      <c r="C1356" s="3" t="s">
+      <c r="C1356" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1356" s="3"/>
@@ -27092,13 +27220,13 @@
       <c r="D1364" s="3"/>
     </row>
     <row r="1365" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1365" s="10" t="s">
+      <c r="A1365" s="24" t="s">
         <v>2164</v>
       </c>
-      <c r="B1365" s="8" t="s">
+      <c r="B1365" s="25" t="s">
         <v>1380</v>
       </c>
-      <c r="C1365" s="4" t="s">
+      <c r="C1365" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1365" s="4"/>
@@ -27152,13 +27280,13 @@
       <c r="D1369" s="4"/>
     </row>
     <row r="1370" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1370" s="10" t="s">
+      <c r="A1370" s="24" t="s">
         <v>2165</v>
       </c>
-      <c r="B1370" s="7" t="s">
+      <c r="B1370" s="25" t="s">
         <v>1385</v>
       </c>
-      <c r="C1370" s="3" t="s">
+      <c r="C1370" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D1370" s="3"/>
@@ -27260,13 +27388,13 @@
       <c r="D1378" s="3"/>
     </row>
     <row r="1379" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1379" s="10" t="s">
+      <c r="A1379" s="24" t="s">
         <v>2166</v>
       </c>
-      <c r="B1379" s="8" t="s">
+      <c r="B1379" s="25" t="s">
         <v>1394</v>
       </c>
-      <c r="C1379" s="4" t="s">
+      <c r="C1379" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1379" s="4"/>
@@ -27332,13 +27460,13 @@
       <c r="D1384" s="3"/>
     </row>
     <row r="1385" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1385" s="10" t="s">
+      <c r="A1385" s="24" t="s">
         <v>2167</v>
       </c>
-      <c r="B1385" s="8" t="s">
+      <c r="B1385" s="25" t="s">
         <v>1400</v>
       </c>
-      <c r="C1385" s="4" t="s">
+      <c r="C1385" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D1385" s="4"/>
@@ -27440,13 +27568,13 @@
       <c r="D1393" s="4"/>
     </row>
     <row r="1394" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1394" s="10" t="s">
+      <c r="A1394" s="24" t="s">
         <v>2168</v>
       </c>
-      <c r="B1394" s="7" t="s">
+      <c r="B1394" s="25" t="s">
         <v>1409</v>
       </c>
-      <c r="C1394" s="3" t="s">
+      <c r="C1394" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1394" s="3"/>
@@ -27500,13 +27628,13 @@
       <c r="D1398" s="3"/>
     </row>
     <row r="1399" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1399" s="10" t="s">
+      <c r="A1399" s="24" t="s">
         <v>2169</v>
       </c>
-      <c r="B1399" s="8" t="s">
+      <c r="B1399" s="25" t="s">
         <v>1414</v>
       </c>
-      <c r="C1399" s="4" t="s">
+      <c r="C1399" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1399" s="4"/>
@@ -27608,13 +27736,13 @@
       <c r="D1407" s="4"/>
     </row>
     <row r="1408" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1408" s="10" t="s">
+      <c r="A1408" s="24" t="s">
         <v>2170</v>
       </c>
-      <c r="B1408" s="7" t="s">
+      <c r="B1408" s="25" t="s">
         <v>1423</v>
       </c>
-      <c r="C1408" s="3" t="s">
+      <c r="C1408" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1408" s="3"/>
@@ -27668,13 +27796,13 @@
       <c r="D1412" s="3"/>
     </row>
     <row r="1413" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1413" s="10" t="s">
+      <c r="A1413" s="24" t="s">
         <v>2171</v>
       </c>
-      <c r="B1413" s="8" t="s">
+      <c r="B1413" s="25" t="s">
         <v>1428</v>
       </c>
-      <c r="C1413" s="4" t="s">
+      <c r="C1413" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D1413" s="4"/>
@@ -27776,13 +27904,13 @@
       <c r="D1421" s="4"/>
     </row>
     <row r="1422" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1422" s="10" t="s">
+      <c r="A1422" s="24" t="s">
         <v>2172</v>
       </c>
-      <c r="B1422" s="7" t="s">
+      <c r="B1422" s="25" t="s">
         <v>1437</v>
       </c>
-      <c r="C1422" s="3" t="s">
+      <c r="C1422" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1422" s="3"/>
@@ -27944,13 +28072,13 @@
       <c r="D1435" s="4"/>
     </row>
     <row r="1436" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1436" s="10" t="s">
+      <c r="A1436" s="24" t="s">
         <v>2178</v>
       </c>
-      <c r="B1436" s="7" t="s">
+      <c r="B1436" s="25" t="s">
         <v>1451</v>
       </c>
-      <c r="C1436" s="3" t="s">
+      <c r="C1436" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D1436" s="3"/>
@@ -28004,13 +28132,13 @@
       <c r="D1440" s="3"/>
     </row>
     <row r="1441" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1441" s="10" t="s">
+      <c r="A1441" s="24" t="s">
         <v>2179</v>
       </c>
-      <c r="B1441" s="8" t="s">
+      <c r="B1441" s="25" t="s">
         <v>1456</v>
       </c>
-      <c r="C1441" s="4" t="s">
+      <c r="C1441" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1441" s="4"/>
@@ -28064,13 +28192,13 @@
       <c r="D1445" s="4"/>
     </row>
     <row r="1446" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1446" s="10" t="s">
+      <c r="A1446" s="24" t="s">
         <v>2180</v>
       </c>
-      <c r="B1446" s="7" t="s">
+      <c r="B1446" s="25" t="s">
         <v>1461</v>
       </c>
-      <c r="C1446" s="3" t="s">
+      <c r="C1446" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1446" s="3"/>
@@ -28172,13 +28300,13 @@
       <c r="D1454" s="4"/>
     </row>
     <row r="1455" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1455" s="10" t="s">
+      <c r="A1455" s="24" t="s">
         <v>2221</v>
       </c>
-      <c r="B1455" s="8" t="s">
+      <c r="B1455" s="25" t="s">
         <v>2202</v>
       </c>
-      <c r="C1455" s="3" t="s">
+      <c r="C1455" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1455" s="4"/>
@@ -28232,13 +28360,13 @@
       <c r="D1459" s="4"/>
     </row>
     <row r="1460" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1460" s="10" t="s">
+      <c r="A1460" s="24" t="s">
         <v>2220</v>
       </c>
-      <c r="B1460" s="8" t="s">
+      <c r="B1460" s="25" t="s">
         <v>2207</v>
       </c>
-      <c r="C1460" s="3" t="s">
+      <c r="C1460" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D1460" s="3"/>
@@ -28332,13 +28460,13 @@
       </c>
     </row>
     <row r="1469" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1469" s="10" t="s">
+      <c r="A1469" s="24" t="s">
         <v>2219</v>
       </c>
-      <c r="B1469" s="8" t="s">
+      <c r="B1469" s="25" t="s">
         <v>2216</v>
       </c>
-      <c r="C1469" s="3" t="s">
+      <c r="C1469" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -28469,13 +28597,13 @@
       <c r="E1479"/>
     </row>
     <row r="1480" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1480" s="10" t="s">
+      <c r="A1480" s="24" t="s">
         <v>3156</v>
       </c>
-      <c r="B1480" s="8" t="s">
+      <c r="B1480" s="25" t="s">
         <v>2537</v>
       </c>
-      <c r="C1480" s="3" t="s">
+      <c r="C1480" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E1480"/>
@@ -28541,13 +28669,13 @@
       <c r="E1485"/>
     </row>
     <row r="1486" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1486" s="10" t="s">
+      <c r="A1486" s="24" t="s">
         <v>3159</v>
       </c>
-      <c r="B1486" s="8" t="s">
+      <c r="B1486" s="25" t="s">
         <v>2531</v>
       </c>
-      <c r="C1486" s="3" t="s">
+      <c r="C1486" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E1486"/>
@@ -28670,13 +28798,13 @@
       <c r="E1495"/>
     </row>
     <row r="1496" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1496" s="10" t="s">
+      <c r="A1496" s="24" t="s">
         <v>3161</v>
       </c>
-      <c r="B1496" s="8" t="s">
+      <c r="B1496" s="25" t="s">
         <v>2549</v>
       </c>
-      <c r="C1496" s="3" t="s">
+      <c r="C1496" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -28739,10 +28867,18 @@
       <c r="F1501" s="19"/>
     </row>
     <row r="1502" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1502" s="10"/>
-      <c r="B1502" s="8"/>
-      <c r="C1502" s="3"/>
-      <c r="E1502"/>
+      <c r="A1502" s="24" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B1502" s="25" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C1502" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1502" s="22"/>
+      <c r="E1502" s="22"/>
+      <c r="F1502" s="22"/>
     </row>
     <row r="1503" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1503" s="10"/>
@@ -29120,8 +29256,10 @@
     <row r="1690" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{5165F1EF-78E9-4966-B538-E9E3BC66CD1B}"/>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E176:E179"/>
+    <mergeCell ref="E181:E186"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://leetcode-cn.com/problems/two-sum" xr:uid="{2060F107-A6CB-46BE-9E48-54FD82EC2C67}"/>
@@ -30634,9 +30772,10 @@
     <hyperlink ref="B1499" r:id="rId1508" display="https://leetcode-cn.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{D4750F73-416D-4293-92E7-F4FAEC8B0564}"/>
     <hyperlink ref="B1500" r:id="rId1509" display="https://leetcode-cn.com/problems/max-value-of-equation" xr:uid="{EBE74569-3ECE-4C28-8AE6-EEC95E8AD670}"/>
     <hyperlink ref="B1501" r:id="rId1510" display="https://leetcode-cn.com/problems/design-a-file-sharing-system" xr:uid="{802B9D1E-1385-4286-ABE1-2848D1CA5F0D}"/>
+    <hyperlink ref="B1502" r:id="rId1511" display="https://leetcode-cn.com/problems/countries-you-can-safely-invest-in" xr:uid="{8EAE359A-2422-4A28-9E32-B28B452962C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1511"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1512"/>
 </worksheet>
 </file>
 
@@ -30645,7 +30784,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30654,28 +30793,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>2870</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="34" t="s">
         <v>2869</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -31179,28 +31318,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>2973</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="33" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -31914,28 +32053,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>3113</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="34" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -32357,28 +32496,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>2915</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="32" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="32" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -32701,28 +32840,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>3128</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="34" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -33086,12 +33225,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>2879</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33201,12 +33340,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>3139</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33344,12 +33483,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>3144</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33515,12 +33654,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>3153</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33744,10 +33883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33756,15 +33895,16 @@
     <col min="2" max="2" width="25" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>1494</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -34820,7 +34960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>1680</v>
       </c>
@@ -34831,7 +34971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>1682</v>
       </c>
@@ -34842,7 +34982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>1684</v>
       </c>
@@ -34853,7 +34993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>1686</v>
       </c>
@@ -34864,7 +35004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>1688</v>
       </c>
@@ -34875,7 +35015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>1690</v>
       </c>
@@ -34886,7 +35026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>1692</v>
       </c>
@@ -34897,7 +35037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="13" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>1694</v>
       </c>
@@ -34908,7 +35048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>1696</v>
       </c>
@@ -34919,7 +35059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>1698</v>
       </c>
@@ -34929,8 +35069,14 @@
       <c r="C106" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>1700</v>
       </c>
@@ -34941,7 +35087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>1702</v>
       </c>
@@ -34952,7 +35098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>1704</v>
       </c>
@@ -34963,7 +35109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>1706</v>
       </c>
@@ -34974,7 +35120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>1708</v>
       </c>
@@ -34985,7 +35131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -35133,12 +35279,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>1710</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -36076,8 +36222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8B07CB-5951-4E4D-9656-CC903CD16628}">
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36088,25 +36234,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>2555</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="32" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="32" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -36126,7 +36272,7 @@
       <c r="B5" s="20" t="s">
         <v>2229</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36137,7 +36283,7 @@
       <c r="B6" s="20" t="s">
         <v>2231</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -36148,7 +36294,7 @@
       <c r="B7" s="20" t="s">
         <v>2233</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36159,7 +36305,7 @@
       <c r="B8" s="20" t="s">
         <v>2235</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36170,7 +36316,7 @@
       <c r="B9" s="20" t="s">
         <v>2237</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -36178,10 +36324,10 @@
       <c r="A10" s="11" t="s">
         <v>2238</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="20" t="s">
         <v>2239</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36189,10 +36335,10 @@
       <c r="A11" s="11" t="s">
         <v>2240</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="20" t="s">
         <v>2241</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -36200,10 +36346,10 @@
       <c r="A12" s="11" t="s">
         <v>2242</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="20" t="s">
         <v>2243</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36211,10 +36357,10 @@
       <c r="A13" s="11" t="s">
         <v>2244</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="20" t="s">
         <v>2245</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36225,7 +36371,7 @@
       <c r="B14" s="20" t="s">
         <v>2247</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36236,7 +36382,7 @@
       <c r="B15" s="11" t="s">
         <v>2249</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36247,7 +36393,7 @@
       <c r="B16" s="11" t="s">
         <v>2251</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36258,7 +36404,7 @@
       <c r="B17" s="11" t="s">
         <v>2253</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36269,7 +36415,7 @@
       <c r="B18" s="11" t="s">
         <v>2255</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36280,7 +36426,7 @@
       <c r="B19" s="11" t="s">
         <v>2257</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36291,7 +36437,7 @@
       <c r="B20" s="11" t="s">
         <v>2259</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -36302,7 +36448,7 @@
       <c r="B21" s="11" t="s">
         <v>2261</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36313,7 +36459,7 @@
       <c r="B22" s="11" t="s">
         <v>2263</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36324,7 +36470,7 @@
       <c r="B23" s="11" t="s">
         <v>2265</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36335,7 +36481,7 @@
       <c r="B24" s="11" t="s">
         <v>2267</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36346,7 +36492,7 @@
       <c r="B25" s="11" t="s">
         <v>2269</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36357,7 +36503,7 @@
       <c r="B26" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36368,7 +36514,7 @@
       <c r="B27" s="20" t="s">
         <v>2273</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36379,7 +36525,7 @@
       <c r="B28" s="11" t="s">
         <v>2275</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -36390,7 +36536,7 @@
       <c r="B29" s="11" t="s">
         <v>2277</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36401,7 +36547,7 @@
       <c r="B30" s="11" t="s">
         <v>2279</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36412,7 +36558,7 @@
       <c r="B31" s="11" t="s">
         <v>2281</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36423,7 +36569,7 @@
       <c r="B32" s="11" t="s">
         <v>2283</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36434,7 +36580,7 @@
       <c r="B33" s="11" t="s">
         <v>2285</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36445,7 +36591,7 @@
       <c r="B34" s="11" t="s">
         <v>2287</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36456,7 +36602,7 @@
       <c r="B35" s="11" t="s">
         <v>2289</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36467,7 +36613,7 @@
       <c r="B36" s="11" t="s">
         <v>2291</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -36478,7 +36624,7 @@
       <c r="B37" s="11" t="s">
         <v>2293</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36489,7 +36635,7 @@
       <c r="B38" s="11" t="s">
         <v>2295</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36500,7 +36646,7 @@
       <c r="B39" s="11" t="s">
         <v>2297</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36511,7 +36657,7 @@
       <c r="B40" s="11" t="s">
         <v>2299</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36522,7 +36668,7 @@
       <c r="B41" s="11" t="s">
         <v>2301</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36533,7 +36679,7 @@
       <c r="B42" s="11" t="s">
         <v>2303</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36544,7 +36690,7 @@
       <c r="B43" s="11" t="s">
         <v>2305</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36555,7 +36701,7 @@
       <c r="B44" s="11" t="s">
         <v>2307</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36566,7 +36712,7 @@
       <c r="B45" s="11" t="s">
         <v>2309</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36577,7 +36723,7 @@
       <c r="B46" s="11" t="s">
         <v>2311</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36588,7 +36734,7 @@
       <c r="B47" s="11" t="s">
         <v>2313</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36599,7 +36745,7 @@
       <c r="B48" s="11" t="s">
         <v>2315</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36610,7 +36756,7 @@
       <c r="B49" s="11" t="s">
         <v>2317</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36621,7 +36767,7 @@
       <c r="B50" s="11" t="s">
         <v>2319</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36632,7 +36778,7 @@
       <c r="B51" s="20" t="s">
         <v>2321</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36643,7 +36789,7 @@
       <c r="B52" s="11" t="s">
         <v>2323</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36654,7 +36800,7 @@
       <c r="B53" s="11" t="s">
         <v>2325</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36665,7 +36811,7 @@
       <c r="B54" s="11" t="s">
         <v>2327</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36676,7 +36822,7 @@
       <c r="B55" s="11" t="s">
         <v>2329</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36687,7 +36833,7 @@
       <c r="B56" s="11" t="s">
         <v>2331</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -36698,7 +36844,7 @@
       <c r="B57" s="11" t="s">
         <v>2333</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36709,7 +36855,7 @@
       <c r="B58" s="11" t="s">
         <v>2335</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36720,7 +36866,7 @@
       <c r="B59" s="11" t="s">
         <v>2337</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36731,7 +36877,7 @@
       <c r="B60" s="11" t="s">
         <v>2339</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36742,7 +36888,7 @@
       <c r="B61" s="11" t="s">
         <v>2341</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36753,7 +36899,7 @@
       <c r="B62" s="11" t="s">
         <v>2343</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36764,7 +36910,7 @@
       <c r="B63" s="11" t="s">
         <v>2345</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -36775,7 +36921,7 @@
       <c r="B64" s="11" t="s">
         <v>2347</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36786,7 +36932,7 @@
       <c r="B65" s="11" t="s">
         <v>2349</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36794,10 +36940,10 @@
       <c r="A66" s="11" t="s">
         <v>2350</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="20" t="s">
         <v>2351</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -36808,7 +36954,7 @@
       <c r="B67" s="11" t="s">
         <v>2353</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36819,7 +36965,7 @@
       <c r="B68" s="11" t="s">
         <v>2355</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36830,7 +36976,7 @@
       <c r="B69" s="11" t="s">
         <v>2357</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -36841,7 +36987,7 @@
       <c r="B70" s="11" t="s">
         <v>2359</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36852,7 +36998,7 @@
       <c r="B71" s="11" t="s">
         <v>2361</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36863,7 +37009,7 @@
       <c r="B72" s="11" t="s">
         <v>2363</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36874,7 +37020,7 @@
       <c r="B73" s="11" t="s">
         <v>2365</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36885,7 +37031,7 @@
       <c r="B74" s="11" t="s">
         <v>2367</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36896,7 +37042,7 @@
       <c r="B75" s="11" t="s">
         <v>2369</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36907,7 +37053,7 @@
       <c r="B76" s="11" t="s">
         <v>2371</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36918,7 +37064,7 @@
       <c r="B77" s="11" t="s">
         <v>2373</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36929,7 +37075,7 @@
       <c r="B78" s="11" t="s">
         <v>2375</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36940,7 +37086,7 @@
       <c r="B79" s="11" t="s">
         <v>2377</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36951,7 +37097,7 @@
       <c r="B80" s="11" t="s">
         <v>2379</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36962,7 +37108,7 @@
       <c r="B81" s="11" t="s">
         <v>2381</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36973,7 +37119,7 @@
       <c r="B82" s="11" t="s">
         <v>2383</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36984,7 +37130,7 @@
       <c r="B83" s="11" t="s">
         <v>2385</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36995,7 +37141,7 @@
       <c r="B84" s="11" t="s">
         <v>2387</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37006,7 +37152,7 @@
       <c r="B85" s="11" t="s">
         <v>2389</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37017,7 +37163,7 @@
       <c r="B86" s="11" t="s">
         <v>2391</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37028,7 +37174,7 @@
       <c r="B87" s="11" t="s">
         <v>2393</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37039,7 +37185,7 @@
       <c r="B88" s="11" t="s">
         <v>2395</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37050,7 +37196,7 @@
       <c r="B89" s="11" t="s">
         <v>2397</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37061,7 +37207,7 @@
       <c r="B90" s="11" t="s">
         <v>2399</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37072,7 +37218,7 @@
       <c r="B91" s="11" t="s">
         <v>2401</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37083,7 +37229,7 @@
       <c r="B92" s="11" t="s">
         <v>2403</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37094,7 +37240,7 @@
       <c r="B93" s="11" t="s">
         <v>2405</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37105,7 +37251,7 @@
       <c r="B94" s="11" t="s">
         <v>2407</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37116,7 +37262,7 @@
       <c r="B95" s="11" t="s">
         <v>2409</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37127,7 +37273,7 @@
       <c r="B96" s="11" t="s">
         <v>2411</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37138,7 +37284,7 @@
       <c r="B97" s="11" t="s">
         <v>2413</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37149,7 +37295,7 @@
       <c r="B98" s="11" t="s">
         <v>2415</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37160,7 +37306,7 @@
       <c r="B99" s="11" t="s">
         <v>2417</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37171,7 +37317,7 @@
       <c r="B100" s="11" t="s">
         <v>2419</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37182,7 +37328,7 @@
       <c r="B101" s="11" t="s">
         <v>2421</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37193,7 +37339,7 @@
       <c r="B102" s="11" t="s">
         <v>2423</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -37204,7 +37350,7 @@
       <c r="B103" s="11" t="s">
         <v>2425</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37215,7 +37361,7 @@
       <c r="B104" s="11" t="s">
         <v>2427</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37226,7 +37372,7 @@
       <c r="B105" s="11" t="s">
         <v>2429</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -37237,7 +37383,7 @@
       <c r="B106" s="11" t="s">
         <v>2431</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -37248,7 +37394,7 @@
       <c r="B107" s="11" t="s">
         <v>2433</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37259,7 +37405,7 @@
       <c r="B108" s="11" t="s">
         <v>2435</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37270,7 +37416,7 @@
       <c r="B109" s="11" t="s">
         <v>2437</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -37281,7 +37427,7 @@
       <c r="B110" s="11" t="s">
         <v>2439</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37292,7 +37438,7 @@
       <c r="B111" s="11" t="s">
         <v>2441</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37303,7 +37449,7 @@
       <c r="B112" s="11" t="s">
         <v>2443</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -37314,7 +37460,7 @@
       <c r="B113" s="11" t="s">
         <v>2445</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37325,7 +37471,7 @@
       <c r="B114" s="11" t="s">
         <v>2447</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37336,7 +37482,7 @@
       <c r="B115" s="11" t="s">
         <v>2449</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37347,7 +37493,7 @@
       <c r="B116" s="11" t="s">
         <v>2451</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37358,7 +37504,7 @@
       <c r="B117" s="11" t="s">
         <v>2453</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37369,7 +37515,7 @@
       <c r="B118" s="11" t="s">
         <v>2455</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37380,7 +37526,7 @@
       <c r="B119" s="11" t="s">
         <v>2457</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37391,7 +37537,7 @@
       <c r="B120" s="11" t="s">
         <v>2459</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37402,7 +37548,7 @@
       <c r="B121" s="11" t="s">
         <v>2461</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37413,7 +37559,7 @@
       <c r="B122" s="11" t="s">
         <v>2463</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37424,7 +37570,7 @@
       <c r="B123" s="11" t="s">
         <v>2465</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37435,7 +37581,7 @@
       <c r="B124" s="11" t="s">
         <v>2467</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37446,7 +37592,7 @@
       <c r="B125" s="11" t="s">
         <v>2469</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37457,7 +37603,7 @@
       <c r="B126" s="11" t="s">
         <v>2471</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37468,7 +37614,7 @@
       <c r="B127" s="11" t="s">
         <v>2473</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37479,7 +37625,7 @@
       <c r="B128" s="11" t="s">
         <v>2475</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -37490,7 +37636,7 @@
       <c r="B129" s="11" t="s">
         <v>2477</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37501,7 +37647,7 @@
       <c r="B130" s="11" t="s">
         <v>2479</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37512,7 +37658,7 @@
       <c r="B131" s="11" t="s">
         <v>2481</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37523,7 +37669,7 @@
       <c r="B132" s="11" t="s">
         <v>2483</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37534,7 +37680,7 @@
       <c r="B133" s="11" t="s">
         <v>2485</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37545,7 +37691,7 @@
       <c r="B134" s="11" t="s">
         <v>2487</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37556,7 +37702,7 @@
       <c r="B135" s="11" t="s">
         <v>2489</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37567,28 +37713,1427 @@
       <c r="B136" s="11" t="s">
         <v>2491</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="20" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:C136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:E136" xr:uid="{225B1092-DA99-4F34-92CC-113F74939B21}"/>
   <mergeCells count="3">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4F7005-EA04-453B-90A9-8D52E1CF9BD4}">
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>95</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8283B1-4B7A-4BF8-A411-C39CFE5A2537}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37597,28 +39142,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>2771</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="34" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -37739,7 +39284,7 @@
       <c r="B12" t="s">
         <v>2770</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="21" t="s">
         <v>2769</v>
       </c>
       <c r="D12" t="s">
@@ -37767,7 +39312,7 @@
       <c r="B14" t="s">
         <v>2768</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="21" t="s">
         <v>2767</v>
       </c>
       <c r="D14" t="s">
@@ -37781,7 +39326,7 @@
       <c r="B15" t="s">
         <v>2766</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="21" t="s">
         <v>2765</v>
       </c>
       <c r="D15" t="s">
@@ -37907,7 +39452,7 @@
       <c r="B24" t="s">
         <v>2764</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="21" t="s">
         <v>2763</v>
       </c>
       <c r="D24" t="s">
@@ -37949,7 +39494,7 @@
       <c r="B27" t="s">
         <v>2762</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="21" t="s">
         <v>2761</v>
       </c>
       <c r="D27" t="s">
@@ -37963,7 +39508,7 @@
       <c r="B28" t="s">
         <v>2760</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="21" t="s">
         <v>2759</v>
       </c>
       <c r="D28" t="s">
@@ -38019,7 +39564,7 @@
       <c r="B32" t="s">
         <v>2758</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="21" t="s">
         <v>2757</v>
       </c>
       <c r="D32" t="s">
@@ -38033,7 +39578,7 @@
       <c r="B33" t="s">
         <v>2756</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="21" t="s">
         <v>2755</v>
       </c>
       <c r="D33" t="s">
@@ -38047,7 +39592,7 @@
       <c r="B34" t="s">
         <v>2754</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="21" t="s">
         <v>2753</v>
       </c>
       <c r="D34" t="s">
@@ -38089,7 +39634,7 @@
       <c r="B37" t="s">
         <v>2752</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="21" t="s">
         <v>2751</v>
       </c>
       <c r="D37" t="s">
@@ -38103,7 +39648,7 @@
       <c r="B38" t="s">
         <v>2750</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="21" t="s">
         <v>2749</v>
       </c>
       <c r="D38" t="s">
@@ -38145,7 +39690,7 @@
       <c r="B41" t="s">
         <v>2748</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="21" t="s">
         <v>2747</v>
       </c>
       <c r="D41" t="s">
@@ -38214,1399 +39759,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4F7005-EA04-453B-90A9-8D52E1CF9BD4}">
-  <dimension ref="A1:D99"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>2744</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2226</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2227</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2743</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2742</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2741</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2740</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2739</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2738</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2737</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2736</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2735</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2734</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2732</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2731</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2730</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2728</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2727</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2726</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2725</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2724</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2723</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2722</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2721</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2720</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2719</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2718</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2717</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2716</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2715</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2714</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2713</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2712</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2711</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2709</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2707</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2706</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2704</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2703</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2702</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2700</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2699</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2698</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2697</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2696</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2695</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2694</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2693</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2692</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2691</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2690</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2689</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2688</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2687</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2686</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2685</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2684</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2683</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2682</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2681</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2680</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2679</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2678</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2677</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2676</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2675</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>36</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2673</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2672</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2671</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2670</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2669</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2668</v>
-      </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2667</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2666</v>
-      </c>
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2665</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2664</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2663</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2662</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>42</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2661</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2660</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>43</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2658</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>44</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2657</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2656</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>45</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2655</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2654</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2653</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>47</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2651</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2650</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>48</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2649</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2648</v>
-      </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>49</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2647</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2646</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>50</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2645</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2644</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>51</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2643</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2642</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>52</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2641</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2640</v>
-      </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>53</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>54</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2637</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2636</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2635</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2634</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>56</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2633</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2632</v>
-      </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>57</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2631</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2630</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>58</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2629</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2628</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>59</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2627</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>60</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2624</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>61</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2623</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2622</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>62</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2621</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2620</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>63</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2619</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2618</v>
-      </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>64</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2617</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2616</v>
-      </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>65</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2614</v>
-      </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>66</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2613</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2612</v>
-      </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>67</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2611</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2610</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>68</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2428</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2429</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>69</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2609</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2608</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>70</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2607</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2606</v>
-      </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>71</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2605</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2604</v>
-      </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>72</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2603</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2602</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>73</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2601</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2600</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>74</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2599</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2598</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>75</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2597</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2596</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>76</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2594</v>
-      </c>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>77</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2593</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2592</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>78</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2591</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2590</v>
-      </c>
-      <c r="D82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>79</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2589</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2588</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>80</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2587</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2586</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>81</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2585</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2584</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>82</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2583</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2582</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>83</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2581</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2580</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>84</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2579</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2578</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>85</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2577</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2576</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>86</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2575</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2574</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>87</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2573</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2572</v>
-      </c>
-      <c r="D91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>88</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2571</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2570</v>
-      </c>
-      <c r="D92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>89</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2569</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2568</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>90</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2567</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2566</v>
-      </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>91</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2565</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2564</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>92</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2563</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2562</v>
-      </c>
-      <c r="D96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>93</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2561</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2560</v>
-      </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>94</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2559</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2558</v>
-      </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>95</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2557</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2556</v>
-      </c>
-      <c r="D99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
@@ -39627,28 +39779,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>3070</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="33" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -40824,28 +40976,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>2816</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="34" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -41280,28 +41432,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>3164</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>2554</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="33" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6259D87B-9668-4155-8F1C-FE39038009D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25A65F-13E1-4D5A-A7A6-E3F5A0956FCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11115" yWindow="1305" windowWidth="28170" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="6270" windowWidth="28170" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="3326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6188" uniqueCount="3327">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10037,6 +10037,9 @@
   </si>
   <si>
     <t>2020.7.4</t>
+  </si>
+  <si>
+    <t>2020.7.5</t>
   </si>
 </sst>
 </file>
@@ -10616,8 +10619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12161,7 +12164,9 @@
       <c r="C122" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="3"/>
+      <c r="D122" s="3" t="s">
+        <v>3326</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
@@ -19447,7 +19452,9 @@
       <c r="C718" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D718" s="3"/>
+      <c r="D718" s="3" t="s">
+        <v>3326</v>
+      </c>
     </row>
     <row r="719" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="10">
@@ -36220,10 +36227,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8B07CB-5951-4E4D-9656-CC903CD16628}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36276,7 +36284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>2230</v>
       </c>
@@ -36287,7 +36295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>2232</v>
       </c>
@@ -36309,7 +36317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2236</v>
       </c>
@@ -36320,7 +36328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>2238</v>
       </c>
@@ -36331,7 +36339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>2240</v>
       </c>
@@ -36342,7 +36350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>2242</v>
       </c>
@@ -36353,7 +36361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>2244</v>
       </c>
@@ -36379,14 +36387,14 @@
       <c r="A15" s="11" t="s">
         <v>2248</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="20" t="s">
         <v>2249</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>2250</v>
       </c>
@@ -36397,7 +36405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>2252</v>
       </c>
@@ -36408,7 +36416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>2254</v>
       </c>
@@ -36423,14 +36431,14 @@
       <c r="A19" s="11" t="s">
         <v>2256</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="20" t="s">
         <v>2257</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>2258</v>
       </c>
@@ -36452,7 +36460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>2262</v>
       </c>
@@ -36463,7 +36471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>2264</v>
       </c>
@@ -36474,7 +36482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>2266</v>
       </c>
@@ -36518,7 +36526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>2274</v>
       </c>
@@ -36529,7 +36537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>2276</v>
       </c>
@@ -36551,7 +36559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>2280</v>
       </c>
@@ -36562,7 +36570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>2282</v>
       </c>
@@ -36573,7 +36581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>2284</v>
       </c>
@@ -36584,7 +36592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>2286</v>
       </c>
@@ -36595,7 +36603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>2288</v>
       </c>
@@ -36606,7 +36614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>2290</v>
       </c>
@@ -36617,7 +36625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>2292</v>
       </c>
@@ -36628,7 +36636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>2294</v>
       </c>
@@ -36639,7 +36647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>2296</v>
       </c>
@@ -36650,7 +36658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>2298</v>
       </c>
@@ -36694,7 +36702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>2306</v>
       </c>
@@ -36716,7 +36724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>2310</v>
       </c>
@@ -36749,7 +36757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>2316</v>
       </c>
@@ -36760,7 +36768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>2318</v>
       </c>
@@ -36793,7 +36801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>2324</v>
       </c>
@@ -36804,7 +36812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>2326</v>
       </c>
@@ -36815,7 +36823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>2328</v>
       </c>
@@ -36826,7 +36834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>2330</v>
       </c>
@@ -36837,7 +36845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>2332</v>
       </c>
@@ -36870,7 +36878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>2338</v>
       </c>
@@ -36892,7 +36900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>2342</v>
       </c>
@@ -36903,7 +36911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>2344</v>
       </c>
@@ -36925,7 +36933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>2348</v>
       </c>
@@ -36936,7 +36944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>2350</v>
       </c>
@@ -36958,7 +36966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>2354</v>
       </c>
@@ -36969,7 +36977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>2356</v>
       </c>
@@ -37002,7 +37010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>2362</v>
       </c>
@@ -37024,7 +37032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>2366</v>
       </c>
@@ -37046,7 +37054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>2370</v>
       </c>
@@ -37057,7 +37065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>2372</v>
       </c>
@@ -37079,7 +37087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>2376</v>
       </c>
@@ -37090,7 +37098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>2378</v>
       </c>
@@ -37101,7 +37109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>2380</v>
       </c>
@@ -37123,7 +37131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>2384</v>
       </c>
@@ -37134,7 +37142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>2386</v>
       </c>
@@ -37156,7 +37164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>2390</v>
       </c>
@@ -37167,7 +37175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>2392</v>
       </c>
@@ -37189,7 +37197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>2396</v>
       </c>
@@ -37200,7 +37208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>2398</v>
       </c>
@@ -37222,7 +37230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>2402</v>
       </c>
@@ -37255,7 +37263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>2408</v>
       </c>
@@ -37266,7 +37274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>2410</v>
       </c>
@@ -37277,7 +37285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>2412</v>
       </c>
@@ -37299,7 +37307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>2416</v>
       </c>
@@ -37310,7 +37318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>2418</v>
       </c>
@@ -37332,7 +37340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>2422</v>
       </c>
@@ -37343,7 +37351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>2424</v>
       </c>
@@ -37354,7 +37362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>2426</v>
       </c>
@@ -37365,7 +37373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>2428</v>
       </c>
@@ -37376,7 +37384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>2430</v>
       </c>
@@ -37387,7 +37395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>2432</v>
       </c>
@@ -37398,7 +37406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>2434</v>
       </c>
@@ -37409,7 +37417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>2436</v>
       </c>
@@ -37431,7 +37439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>2440</v>
       </c>
@@ -37442,7 +37450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>2442</v>
       </c>
@@ -37464,7 +37472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>2446</v>
       </c>
@@ -37475,7 +37483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>2448</v>
       </c>
@@ -37486,7 +37494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>2450</v>
       </c>
@@ -37497,7 +37505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>2452</v>
       </c>
@@ -37530,7 +37538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>2458</v>
       </c>
@@ -37541,7 +37549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>2460</v>
       </c>
@@ -37552,7 +37560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>2462</v>
       </c>
@@ -37563,7 +37571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>2464</v>
       </c>
@@ -37574,7 +37582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>2466</v>
       </c>
@@ -37596,7 +37604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>2470</v>
       </c>
@@ -37607,7 +37615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>2472</v>
       </c>
@@ -37618,7 +37626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>2474</v>
       </c>
@@ -37629,7 +37637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>2476</v>
       </c>
@@ -37640,7 +37648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>2478</v>
       </c>
@@ -37651,7 +37659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>2480</v>
       </c>
@@ -37673,7 +37681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>2484</v>
       </c>
@@ -37695,7 +37703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>2488</v>
       </c>
@@ -37718,7 +37726,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E136" xr:uid="{225B1092-DA99-4F34-92CC-113F74939B21}"/>
+  <autoFilter ref="A4:E136" xr:uid="{225B1092-DA99-4F34-92CC-113F74939B21}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="简单"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:C1"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25A65F-13E1-4D5A-A7A6-E3F5A0956FCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EF9B48-2782-4E28-B82E-3DBDC4B7339D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="6270" windowWidth="28170" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="270" windowWidth="28170" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6188" uniqueCount="3327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6192" uniqueCount="3329">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10040,6 +10040,12 @@
   </si>
   <si>
     <t>2020.7.5</t>
+  </si>
+  <si>
+    <t>2020.7.6</t>
+  </si>
+  <si>
+    <t>2020.7.6(self)</t>
   </si>
 </sst>
 </file>
@@ -10619,8 +10625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11762,7 +11768,9 @@
       <c r="C89" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="4" t="s">
+        <v>3328</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
@@ -12178,7 +12186,9 @@
       <c r="C123" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="4"/>
+      <c r="D123" s="4" t="s">
+        <v>3327</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
@@ -12772,7 +12782,9 @@
       <c r="C170" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D170" s="3"/>
+      <c r="D170" s="3" t="s">
+        <v>3328</v>
+      </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
@@ -22160,7 +22172,9 @@
       <c r="C942" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D942" s="3"/>
+      <c r="D942" s="3" t="s">
+        <v>3328</v>
+      </c>
     </row>
     <row r="943" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A943" s="10">
@@ -36231,7 +36245,7 @@
   <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36453,7 +36467,7 @@
       <c r="A21" s="11" t="s">
         <v>2260</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="20" t="s">
         <v>2261</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -36497,7 +36511,7 @@
       <c r="A25" s="11" t="s">
         <v>2268</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="20" t="s">
         <v>2269</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -36508,7 +36522,7 @@
       <c r="A26" s="11" t="s">
         <v>2270</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="20" t="s">
         <v>2271</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -36552,7 +36566,7 @@
       <c r="A30" s="11" t="s">
         <v>2278</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="20" t="s">
         <v>2279</v>
       </c>
       <c r="C30" s="20" t="s">
@@ -36673,7 +36687,7 @@
       <c r="A41" s="11" t="s">
         <v>2300</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="20" t="s">
         <v>2301</v>
       </c>
       <c r="C41" s="20" t="s">
@@ -36684,7 +36698,7 @@
       <c r="A42" s="11" t="s">
         <v>2302</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="20" t="s">
         <v>2303</v>
       </c>
       <c r="C42" s="20" t="s">
@@ -36695,7 +36709,7 @@
       <c r="A43" s="11" t="s">
         <v>2304</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="20" t="s">
         <v>2305</v>
       </c>
       <c r="C43" s="20" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EF9B48-2782-4E28-B82E-3DBDC4B7339D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB395A37-16C7-406A-9471-4C3FA4F2AD7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="270" windowWidth="28170" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="510" windowWidth="28170" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6192" uniqueCount="3329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6196" uniqueCount="3331">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10046,6 +10046,12 @@
   </si>
   <si>
     <t>2020.7.6(self)</t>
+  </si>
+  <si>
+    <t>2020.7.8(self)</t>
+  </si>
+  <si>
+    <t>该颜色为数据库题</t>
   </si>
 </sst>
 </file>
@@ -10222,7 +10228,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10317,6 +10323,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10625,8 +10634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10634,17 +10643,21 @@
     <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="35" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>114</v>
       </c>
@@ -10658,7 +10671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -10672,7 +10685,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -10686,7 +10699,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -10700,7 +10713,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -10714,7 +10727,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -10728,7 +10741,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -10740,7 +10753,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -10752,7 +10765,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -10764,7 +10777,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -10776,7 +10789,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -10788,7 +10801,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -10802,7 +10815,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -10814,7 +10827,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -10826,7 +10839,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -16204,7 +16217,9 @@
       <c r="C449" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D449" s="4"/>
+      <c r="D449" s="4" t="s">
+        <v>3329</v>
+      </c>
     </row>
     <row r="450" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="10">
@@ -18384,7 +18399,9 @@
       <c r="C629" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D629" s="4"/>
+      <c r="D629" s="4" t="s">
+        <v>3329</v>
+      </c>
     </row>
     <row r="630" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="10">
@@ -19216,7 +19233,9 @@
       <c r="C698" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D698" s="3"/>
+      <c r="D698" s="3" t="s">
+        <v>3329</v>
+      </c>
     </row>
     <row r="699" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="10">
@@ -36244,8 +36263,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36731,7 +36750,7 @@
       <c r="A45" s="11" t="s">
         <v>2308</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="20" t="s">
         <v>2309</v>
       </c>
       <c r="C45" s="20" t="s">
@@ -36753,7 +36772,7 @@
       <c r="A47" s="11" t="s">
         <v>2312</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="20" t="s">
         <v>2313</v>
       </c>
       <c r="C47" s="20" t="s">
@@ -36764,7 +36783,7 @@
       <c r="A48" s="11" t="s">
         <v>2314</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="20" t="s">
         <v>2315</v>
       </c>
       <c r="C48" s="20" t="s">
@@ -36808,7 +36827,7 @@
       <c r="A52" s="11" t="s">
         <v>2322</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="20" t="s">
         <v>2323</v>
       </c>
       <c r="C52" s="20" t="s">
@@ -36874,7 +36893,7 @@
       <c r="A58" s="11" t="s">
         <v>2334</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="20" t="s">
         <v>2335</v>
       </c>
       <c r="C58" s="20" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB395A37-16C7-406A-9471-4C3FA4F2AD7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8597138D-A594-4649-B34D-C3208EB16986}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="510" windowWidth="28170" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="825" windowWidth="28170" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6196" uniqueCount="3331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6200" uniqueCount="3334">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -7461,9 +7461,6 @@
   </si>
   <si>
     <t>Range Addition</t>
-  </si>
-  <si>
-    <t>#243</t>
   </si>
   <si>
     <t>Shortest Word Distance</t>
@@ -10052,13 +10049,25 @@
   </si>
   <si>
     <t>该颜色为数据库题</t>
+  </si>
+  <si>
+    <t>#$243</t>
+  </si>
+  <si>
+    <t>#$624</t>
+  </si>
+  <si>
+    <t>2020.7.9(self)</t>
+  </si>
+  <si>
+    <t>2020.7.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10115,6 +10124,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10228,7 +10244,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10306,6 +10322,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10324,9 +10343,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -10634,8 +10657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
+      <selection activeCell="D666" sqref="D666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10647,14 +10670,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="F1" s="35" t="s">
-        <v>3330</v>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="29" t="s">
+        <v>3329</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10710,7 +10733,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10724,7 +10747,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10738,7 +10761,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10812,7 +10835,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10864,7 +10887,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10878,7 +10901,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10930,7 +10953,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10982,7 +11005,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11062,7 +11085,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11088,7 +11111,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11102,7 +11125,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11116,7 +11139,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11130,7 +11153,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11204,7 +11227,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11290,7 +11313,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11304,7 +11327,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11342,7 +11365,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11382,7 +11405,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11444,7 +11467,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11546,7 +11569,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11560,7 +11583,7 @@
         <v>5</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11730,7 +11753,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11744,7 +11767,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11782,7 +11805,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12186,7 +12209,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12200,7 +12223,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12334,7 +12357,7 @@
         <v>7</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12372,7 +12395,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12398,7 +12421,7 @@
         <v>7</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12552,7 +12575,7 @@
         <v>7</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12592,7 +12615,7 @@
         <v>7</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12606,7 +12629,7 @@
         <v>10</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12620,7 +12643,7 @@
         <v>5</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12708,7 +12731,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12796,7 +12819,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12870,8 +12893,8 @@
         <v>5</v>
       </c>
       <c r="D176" s="3"/>
-      <c r="E176" s="30" t="s">
-        <v>3322</v>
+      <c r="E176" s="31" t="s">
+        <v>3321</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12885,7 +12908,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="4"/>
-      <c r="E177" s="30"/>
+      <c r="E177" s="31"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="24">
@@ -12898,7 +12921,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="3"/>
-      <c r="E178" s="30"/>
+      <c r="E178" s="31"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24">
@@ -12911,7 +12934,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="4"/>
-      <c r="E179" s="30"/>
+      <c r="E179" s="31"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
@@ -12936,8 +12959,8 @@
         <v>7</v>
       </c>
       <c r="D181" s="4"/>
-      <c r="E181" s="30" t="s">
-        <v>3322</v>
+      <c r="E181" s="31" t="s">
+        <v>3321</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12951,7 +12974,7 @@
         <v>5</v>
       </c>
       <c r="D182" s="3"/>
-      <c r="E182" s="30"/>
+      <c r="E182" s="31"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="24">
@@ -12964,7 +12987,7 @@
         <v>5</v>
       </c>
       <c r="D183" s="4"/>
-      <c r="E183" s="30"/>
+      <c r="E183" s="31"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="24">
@@ -12977,7 +13000,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="3"/>
-      <c r="E184" s="30"/>
+      <c r="E184" s="31"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24">
@@ -12990,7 +13013,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="4"/>
-      <c r="E185" s="30"/>
+      <c r="E185" s="31"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="24">
@@ -13003,7 +13026,7 @@
         <v>10</v>
       </c>
       <c r="D186" s="3"/>
-      <c r="E186" s="30"/>
+      <c r="E186" s="31"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
@@ -13186,7 +13209,7 @@
         <v>7</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13212,7 +13235,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13252,7 +13275,7 @@
         <v>5</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13402,7 +13425,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13428,7 +13451,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13502,7 +13525,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13588,7 +13611,7 @@
         <v>5</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13688,7 +13711,7 @@
         <v>7</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14025,7 +14048,9 @@
       <c r="C269" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D269" s="4"/>
+      <c r="D269" s="4" t="s">
+        <v>3332</v>
+      </c>
     </row>
     <row r="270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="10" t="s">
@@ -14146,7 +14171,7 @@
         <v>5</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14160,7 +14185,7 @@
         <v>7</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14260,7 +14285,7 @@
         <v>7</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14986,7 +15011,7 @@
         <v>7</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15012,7 +15037,7 @@
         <v>5</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15026,7 +15051,7 @@
         <v>5</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15232,7 +15257,7 @@
         <v>5</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15318,7 +15343,7 @@
         <v>5</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15392,7 +15417,7 @@
         <v>7</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15478,7 +15503,7 @@
         <v>5</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15564,7 +15589,7 @@
         <v>7</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15758,7 +15783,7 @@
         <v>10</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16000,7 +16025,7 @@
         <v>7</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16218,7 +16243,7 @@
         <v>5</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16292,7 +16317,7 @@
         <v>7</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16776,7 +16801,7 @@
         <v>7</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16960,7 +16985,7 @@
         <v>5</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17358,7 +17383,7 @@
         <v>7</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18048,7 +18073,7 @@
         <v>5</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18326,7 +18351,7 @@
         <v>7</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="624" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18400,7 +18425,7 @@
         <v>5</v>
       </c>
       <c r="D629" s="4" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18690,7 +18715,7 @@
         <v>7</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="654" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18764,7 +18789,7 @@
         <v>7</v>
       </c>
       <c r="D659" s="4" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="660" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18801,7 +18826,9 @@
       <c r="C662" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D662" s="3"/>
+      <c r="D662" s="3" t="s">
+        <v>3333</v>
+      </c>
     </row>
     <row r="663" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="10">
@@ -18849,7 +18876,9 @@
       <c r="C666" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D666" s="3"/>
+      <c r="D666" s="3" t="s">
+        <v>3333</v>
+      </c>
     </row>
     <row r="667" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="10" t="s">
@@ -19234,7 +19263,7 @@
         <v>5</v>
       </c>
       <c r="D698" s="3" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="699" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19320,7 +19349,7 @@
         <v>5</v>
       </c>
       <c r="D705" s="4" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="706" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19334,7 +19363,7 @@
         <v>5</v>
       </c>
       <c r="D706" s="3" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="707" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19348,7 +19377,7 @@
         <v>5</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="708" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19484,7 +19513,7 @@
         <v>5</v>
       </c>
       <c r="D718" s="3" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="719" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19510,7 +19539,7 @@
         <v>10</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="721" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19682,7 +19711,7 @@
         <v>5</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="735" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19756,7 +19785,7 @@
         <v>7</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="741" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19818,7 +19847,7 @@
         <v>5</v>
       </c>
       <c r="D745" s="4" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="746" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19918,7 +19947,7 @@
         <v>7</v>
       </c>
       <c r="D753" s="4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="754" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20148,7 +20177,7 @@
         <v>5</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="773" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20990,7 +21019,7 @@
         <v>7</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="843" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22192,7 +22221,7 @@
         <v>5</v>
       </c>
       <c r="D942" s="3" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="943" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25505,7 +25534,9 @@
       <c r="C1218" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1218" s="3"/>
+      <c r="D1218" s="3" t="s">
+        <v>3333</v>
+      </c>
     </row>
     <row r="1219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1219" s="10">
@@ -28527,13 +28558,13 @@
         <v>1470</v>
       </c>
       <c r="B1471" s="8" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="C1471" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1471" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="E1471"/>
     </row>
@@ -28542,13 +28573,13 @@
         <v>1471</v>
       </c>
       <c r="B1472" s="8" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="C1472" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D1472" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="E1472"/>
     </row>
@@ -28557,7 +28588,7 @@
         <v>1472</v>
       </c>
       <c r="B1473" s="8" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="C1473" s="3" t="s">
         <v>7</v>
@@ -28569,7 +28600,7 @@
         <v>1473</v>
       </c>
       <c r="B1474" s="8" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="C1474" s="3" t="s">
         <v>10</v>
@@ -28578,10 +28609,10 @@
     </row>
     <row r="1475" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1475" s="10" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="B1475" s="8" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C1475" s="3" t="s">
         <v>5</v>
@@ -28593,7 +28624,7 @@
         <v>1475</v>
       </c>
       <c r="B1476" s="8" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="C1476" s="3" t="s">
         <v>5</v>
@@ -28605,7 +28636,7 @@
         <v>1476</v>
       </c>
       <c r="B1477" s="8" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="C1477" s="3" t="s">
         <v>7</v>
@@ -28617,7 +28648,7 @@
         <v>1477</v>
       </c>
       <c r="B1478" s="8" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="C1478" s="3" t="s">
         <v>7</v>
@@ -28629,7 +28660,7 @@
         <v>1478</v>
       </c>
       <c r="B1479" s="8" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="C1479" s="3" t="s">
         <v>10</v>
@@ -28638,10 +28669,10 @@
     </row>
     <row r="1480" spans="1:5" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1480" s="24" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="B1480" s="25" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="C1480" s="26" t="s">
         <v>10</v>
@@ -28653,7 +28684,7 @@
         <v>1480</v>
       </c>
       <c r="B1481" s="8" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="C1481" s="3" t="s">
         <v>5</v>
@@ -28665,7 +28696,7 @@
         <v>1481</v>
       </c>
       <c r="B1482" s="8" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C1482" s="3" t="s">
         <v>7</v>
@@ -28677,7 +28708,7 @@
         <v>1482</v>
       </c>
       <c r="B1483" s="8" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C1483" s="3" t="s">
         <v>7</v>
@@ -28689,7 +28720,7 @@
         <v>1483</v>
       </c>
       <c r="B1484" s="8" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="C1484" s="3" t="s">
         <v>10</v>
@@ -28698,10 +28729,10 @@
     </row>
     <row r="1485" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1485" s="10" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B1485" s="8" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="C1485" s="3" t="s">
         <v>7</v>
@@ -28710,10 +28741,10 @@
     </row>
     <row r="1486" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1486" s="24" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="B1486" s="25" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="C1486" s="26" t="s">
         <v>5</v>
@@ -28725,7 +28756,7 @@
         <v>1486</v>
       </c>
       <c r="B1487" s="8" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="C1487" s="3" t="s">
         <v>5</v>
@@ -28737,7 +28768,7 @@
         <v>1487</v>
       </c>
       <c r="B1488" s="8" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="C1488" s="3" t="s">
         <v>7</v>
@@ -28749,7 +28780,7 @@
         <v>1488</v>
       </c>
       <c r="B1489" s="8" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="C1489" s="3" t="s">
         <v>7</v>
@@ -28761,7 +28792,7 @@
         <v>1489</v>
       </c>
       <c r="B1490" s="8" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="C1490" s="3" t="s">
         <v>10</v>
@@ -28770,10 +28801,10 @@
     </row>
     <row r="1491" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1491" s="10" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="B1491" s="8" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C1491" s="3" t="s">
         <v>7</v>
@@ -28785,13 +28816,13 @@
         <v>1491</v>
       </c>
       <c r="B1492" s="8" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C1492" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1492" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E1492"/>
     </row>
@@ -28800,13 +28831,13 @@
         <v>1492</v>
       </c>
       <c r="B1493" s="8" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C1493" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D1493" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E1493"/>
     </row>
@@ -28815,13 +28846,13 @@
         <v>1493</v>
       </c>
       <c r="B1494" s="8" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="C1494" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D1494" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E1494"/>
     </row>
@@ -28830,7 +28861,7 @@
         <v>1494</v>
       </c>
       <c r="B1495" s="8" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C1495" s="3" t="s">
         <v>10</v>
@@ -28839,10 +28870,10 @@
     </row>
     <row r="1496" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1496" s="24" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B1496" s="25" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C1496" s="26" t="s">
         <v>5</v>
@@ -28853,7 +28884,7 @@
         <v>1496</v>
       </c>
       <c r="B1497" s="8" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C1497" s="3" t="s">
         <v>5</v>
@@ -28864,7 +28895,7 @@
         <v>1497</v>
       </c>
       <c r="B1498" s="8" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C1498" s="3" t="s">
         <v>7</v>
@@ -28875,7 +28906,7 @@
         <v>1498</v>
       </c>
       <c r="B1499" s="8" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C1499" s="3" t="s">
         <v>7</v>
@@ -28886,7 +28917,7 @@
         <v>1499</v>
       </c>
       <c r="B1500" s="8" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C1500" s="3" t="s">
         <v>10</v>
@@ -28894,10 +28925,10 @@
     </row>
     <row r="1501" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1501" s="10" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="B1501" s="8" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="C1501" s="3" t="s">
         <v>7</v>
@@ -28908,10 +28939,10 @@
     </row>
     <row r="1502" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1502" s="24" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="B1502" s="25" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="C1502" s="26" t="s">
         <v>7</v>
@@ -30833,28 +30864,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>2869</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="35" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -30903,10 +30934,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C7" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -30917,10 +30948,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="C8" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -30931,10 +30962,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="C9" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -30945,10 +30976,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C10" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -30959,10 +30990,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="C11" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -30973,10 +31004,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="C12" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -30987,10 +31018,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="C13" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -31001,10 +31032,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C14" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -31015,10 +31046,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="C15" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -31029,10 +31060,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="C16" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -31043,10 +31074,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C17" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -31057,10 +31088,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C18" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -31071,10 +31102,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="C19" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -31085,10 +31116,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="C20" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -31113,10 +31144,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C22" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -31127,10 +31158,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C23" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -31141,10 +31172,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C24" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -31155,10 +31186,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C25" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -31169,10 +31200,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C26" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -31183,10 +31214,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="C27" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -31197,10 +31228,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="C28" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -31211,10 +31242,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="C29" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -31225,10 +31256,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="C30" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -31239,10 +31270,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="C31" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -31253,10 +31284,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C32" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -31267,10 +31298,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="C33" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -31281,10 +31312,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="C34" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -31295,10 +31326,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="C35" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -31309,10 +31340,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="C36" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -31323,10 +31354,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="C37" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -31358,28 +31389,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>2973</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -31414,10 +31445,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="C6" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -31456,10 +31487,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="C9" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -31498,10 +31529,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="C12" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -31512,10 +31543,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C13" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -31526,10 +31557,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="C14" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -31540,10 +31571,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="C15" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -31554,10 +31585,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="C16" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -31568,7 +31599,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
@@ -31582,10 +31613,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="C18" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -31596,10 +31627,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="C19" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -31610,10 +31641,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="C20" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -31638,10 +31669,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="C22" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -31652,10 +31683,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="C23" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -31680,10 +31711,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="C25" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -31694,10 +31725,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="C26" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -31708,10 +31739,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="C27" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -31722,10 +31753,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="C28" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -31750,10 +31781,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="C30" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -31778,10 +31809,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C32" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -31792,10 +31823,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="C33" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -31806,10 +31837,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="C34" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -31820,10 +31851,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C35" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -31862,10 +31893,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="C38" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -31876,10 +31907,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="C39" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -31890,10 +31921,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="C40" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -31904,10 +31935,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="C41" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -31918,10 +31949,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="C42" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -31960,10 +31991,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="C45" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -32002,10 +32033,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="C48" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -32016,10 +32047,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="C49" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -32030,10 +32061,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="C50" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -32044,10 +32075,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="C51" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -32058,10 +32089,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="C52" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -32093,28 +32124,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>3113</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -32135,10 +32166,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="C5" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -32149,10 +32180,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C6" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -32177,10 +32208,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="C8" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -32191,10 +32222,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="C9" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -32219,10 +32250,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="C11" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -32233,10 +32264,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="C12" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -32247,10 +32278,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="C13" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -32261,10 +32292,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="C14" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -32275,10 +32306,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="C15" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -32289,10 +32320,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="C16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -32317,10 +32348,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="C18" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -32331,10 +32362,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="C19" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -32345,10 +32376,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="C20" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -32359,10 +32390,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="C21" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -32373,10 +32404,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="C22" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -32387,10 +32418,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="C23" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -32401,10 +32432,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="C24" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -32415,10 +32446,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="C25" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -32429,10 +32460,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="C26" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -32443,10 +32474,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C27" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -32457,10 +32488,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="C28" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -32471,10 +32502,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="C29" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -32485,10 +32516,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="C30" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -32499,10 +32530,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="C31" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -32536,28 +32567,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="A1" s="33" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="A2" s="33" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -32578,10 +32609,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>10</v>
@@ -32592,10 +32623,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>10</v>
@@ -32606,10 +32637,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>7</v>
@@ -32620,10 +32651,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>10</v>
@@ -32634,10 +32665,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -32648,10 +32679,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -32662,10 +32693,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -32676,10 +32707,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -32690,10 +32721,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>10</v>
@@ -32704,10 +32735,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>10</v>
@@ -32718,10 +32749,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
@@ -32732,10 +32763,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>10</v>
@@ -32760,10 +32791,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -32774,10 +32805,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -32788,10 +32819,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>7</v>
@@ -32802,7 +32833,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>519</v>
@@ -32816,10 +32847,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
@@ -32830,10 +32861,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
@@ -32844,10 +32875,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>10</v>
@@ -32880,28 +32911,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>3128</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -32922,10 +32953,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="C5" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -32950,10 +32981,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="C7" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -32964,10 +32995,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="C8" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -32992,10 +33023,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="C10" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -33006,10 +33037,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="C11" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -33020,10 +33051,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="C12" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -33034,10 +33065,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="C13" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -33062,10 +33093,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C15" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -33076,10 +33107,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="C16" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -33090,10 +33121,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="C17" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -33104,10 +33135,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="C18" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -33118,10 +33149,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="C19" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -33132,10 +33163,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C20" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -33160,10 +33191,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C22" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -33174,10 +33205,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C23" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -33188,10 +33219,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C24" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -33202,10 +33233,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="C25" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -33216,10 +33247,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="C26" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -33230,10 +33261,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="C27" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -33265,12 +33296,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>2879</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33305,10 +33336,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C4" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -33319,10 +33350,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="C5" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -33333,10 +33364,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="C6" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -33347,10 +33378,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="C7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -33380,12 +33411,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>3139</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33406,10 +33437,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="C3" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -33420,10 +33451,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="C4" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -33434,10 +33465,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C5" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -33448,10 +33479,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="C6" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -33462,10 +33493,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="C7" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -33476,10 +33507,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C8" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -33490,10 +33521,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="C9" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -33523,12 +33554,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>3144</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33549,10 +33580,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="C3" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -33563,10 +33594,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="C4" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -33577,10 +33608,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C5" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -33591,10 +33622,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="C6" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -33605,10 +33636,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="C7" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -33619,10 +33650,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C8" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -33633,10 +33664,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="C9" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -33647,10 +33678,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="C10" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -33661,10 +33692,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="C11" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -33694,12 +33725,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>3153</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33748,10 +33779,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C5" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -33762,10 +33793,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C6" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -33790,10 +33821,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="C8" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -33804,10 +33835,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="C9" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -33818,10 +33849,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="C10" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -33832,10 +33863,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="C11" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -33846,10 +33877,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="C12" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -33860,10 +33891,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="C13" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -33874,10 +33905,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C14" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -33888,10 +33919,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="C15" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -33902,10 +33933,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="C16" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -33939,12 +33970,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1494</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -34037,7 +34068,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34051,7 +34082,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35110,10 +35141,10 @@
         <v>10</v>
       </c>
       <c r="D106" t="s">
+        <v>3317</v>
+      </c>
+      <c r="E106" t="s">
         <v>3318</v>
-      </c>
-      <c r="E106" t="s">
-        <v>3319</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35319,12 +35350,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1710</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -35351,7 +35382,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35365,7 +35396,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36263,8 +36294,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36275,25 +36306,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>2555</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="A1" s="33" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="33" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -36904,7 +36935,7 @@
       <c r="A59" s="11" t="s">
         <v>2336</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="20" t="s">
         <v>2337</v>
       </c>
       <c r="C59" s="20" t="s">
@@ -36926,7 +36957,7 @@
       <c r="A61" s="11" t="s">
         <v>2340</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="20" t="s">
         <v>2341</v>
       </c>
       <c r="C61" s="20" t="s">
@@ -36959,7 +36990,7 @@
       <c r="A64" s="11" t="s">
         <v>2346</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="20" t="s">
         <v>2347</v>
       </c>
       <c r="C64" s="20" t="s">
@@ -36992,7 +37023,7 @@
       <c r="A67" s="11" t="s">
         <v>2352</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="20" t="s">
         <v>2353</v>
       </c>
       <c r="C67" s="20" t="s">
@@ -37025,7 +37056,7 @@
       <c r="A70" s="11" t="s">
         <v>2358</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="20" t="s">
         <v>2359</v>
       </c>
       <c r="C70" s="20" t="s">
@@ -37036,7 +37067,7 @@
       <c r="A71" s="11" t="s">
         <v>2360</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="20" t="s">
         <v>2361</v>
       </c>
       <c r="C71" s="20" t="s">
@@ -37058,7 +37089,7 @@
       <c r="A73" s="11" t="s">
         <v>2364</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="20" t="s">
         <v>2365</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -37080,7 +37111,7 @@
       <c r="A75" s="11" t="s">
         <v>2368</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="20" t="s">
         <v>2369</v>
       </c>
       <c r="C75" s="20" t="s">
@@ -37113,7 +37144,7 @@
       <c r="A78" s="11" t="s">
         <v>2374</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="20" t="s">
         <v>2375</v>
       </c>
       <c r="C78" s="20" t="s">
@@ -37278,7 +37309,7 @@
       <c r="A93" s="11" t="s">
         <v>2404</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="20" t="s">
         <v>2405</v>
       </c>
       <c r="C93" s="20" t="s">
@@ -37553,7 +37584,7 @@
       <c r="A118" s="11" t="s">
         <v>2454</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="20" t="s">
         <v>2455</v>
       </c>
       <c r="C118" s="20" t="s">
@@ -37626,23 +37657,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+    <row r="125" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="36" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B125" s="36" t="s">
         <v>2468</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>2469</v>
-      </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>2470</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>2471</v>
       </c>
       <c r="C126" s="28" t="s">
         <v>7</v>
@@ -37650,10 +37681,10 @@
     </row>
     <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>2472</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>2473</v>
       </c>
       <c r="C127" s="28" t="s">
         <v>7</v>
@@ -37661,10 +37692,10 @@
     </row>
     <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>2474</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>2475</v>
       </c>
       <c r="C128" s="27" t="s">
         <v>10</v>
@@ -37672,10 +37703,10 @@
     </row>
     <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>2476</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>2477</v>
       </c>
       <c r="C129" s="28" t="s">
         <v>7</v>
@@ -37683,10 +37714,10 @@
     </row>
     <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>2478</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>2479</v>
       </c>
       <c r="C130" s="28" t="s">
         <v>7</v>
@@ -37694,10 +37725,10 @@
     </row>
     <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>2480</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>2481</v>
       </c>
       <c r="C131" s="28" t="s">
         <v>7</v>
@@ -37705,10 +37736,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>2482</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>2483</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>5</v>
@@ -37716,32 +37747,32 @@
     </row>
     <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>2484</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>2485</v>
-      </c>
       <c r="C133" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+    <row r="134" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="36" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B134" s="36" t="s">
         <v>2486</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>2487</v>
-      </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>2488</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>2489</v>
       </c>
       <c r="C135" s="28" t="s">
         <v>7</v>
@@ -37749,10 +37780,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B136" s="11" t="s">
         <v>2490</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>2491</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>5</v>
@@ -37793,28 +37824,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>2744</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -37835,10 +37866,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -37849,10 +37880,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -37863,10 +37894,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="C7" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -37877,10 +37908,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="C8" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -37891,10 +37922,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="C9" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -37905,10 +37936,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="C10" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -37919,10 +37950,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C11" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -37933,10 +37964,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="C12" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -37947,10 +37978,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="C13" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -37961,10 +37992,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="C14" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -37975,10 +38006,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="C15" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -37989,10 +38020,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="C16" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -38003,10 +38034,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="C17" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -38017,10 +38048,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="C18" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -38031,10 +38062,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="C19" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -38045,10 +38076,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C20" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -38059,10 +38090,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="C21" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -38073,10 +38104,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="C22" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -38087,10 +38118,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="C23" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -38101,10 +38132,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="C24" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -38115,10 +38146,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="C25" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -38129,10 +38160,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="C26" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -38143,10 +38174,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="C27" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -38157,10 +38188,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="C28" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -38171,10 +38202,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="C29" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -38185,10 +38216,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="C30" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -38199,10 +38230,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C31" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -38213,10 +38244,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="C32" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -38227,10 +38258,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="C33" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -38241,10 +38272,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="C34" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -38255,10 +38286,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="C35" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -38269,10 +38300,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="C36" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -38283,10 +38314,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="C37" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -38297,10 +38328,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="C38" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -38311,10 +38342,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="C39" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -38325,10 +38356,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="C40" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -38339,10 +38370,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="C41" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -38353,10 +38384,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="C42" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -38367,10 +38398,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="C43" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -38381,10 +38412,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="C44" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -38395,10 +38426,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="C45" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -38409,10 +38440,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="C46" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -38423,10 +38454,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C47" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -38437,10 +38468,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="C48" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -38451,10 +38482,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="C49" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -38465,10 +38496,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="C50" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -38479,10 +38510,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="C51" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -38493,10 +38524,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="C52" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -38507,10 +38538,10 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C53" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
@@ -38521,10 +38552,10 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C54" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -38535,10 +38566,10 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C55" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -38549,10 +38580,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C56" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -38563,10 +38594,10 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C57" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -38577,10 +38608,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C58" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -38591,10 +38622,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="C59" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -38605,10 +38636,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C60" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -38619,10 +38650,10 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C61" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -38633,10 +38664,10 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C62" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -38647,10 +38678,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="C63" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -38661,10 +38692,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C64" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -38675,10 +38706,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C65" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
@@ -38689,10 +38720,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C66" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -38703,10 +38734,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C67" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -38717,10 +38748,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C68" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -38731,10 +38762,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C69" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -38745,10 +38776,10 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C70" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -38759,10 +38790,10 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C71" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -38787,10 +38818,10 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C73" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -38801,10 +38832,10 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C74" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -38815,10 +38846,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C75" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -38829,10 +38860,10 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="C76" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -38843,10 +38874,10 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C77" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -38857,10 +38888,10 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="C78" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -38871,10 +38902,10 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="C79" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -38885,10 +38916,10 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="C80" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -38899,10 +38930,10 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C81" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -38913,10 +38944,10 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="C82" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -38927,10 +38958,10 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="C83" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -38941,10 +38972,10 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="C84" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -38955,10 +38986,10 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="C85" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -38969,10 +39000,10 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C86" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -38983,10 +39014,10 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="C87" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -38997,10 +39028,10 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C88" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -39011,10 +39042,10 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C89" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -39025,10 +39056,10 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="C90" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -39039,10 +39070,10 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="C91" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
@@ -39053,10 +39084,10 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C92" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -39067,10 +39098,10 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C93" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -39081,10 +39112,10 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="C94" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -39095,10 +39126,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C95" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -39109,10 +39140,10 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C96" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -39123,10 +39154,10 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C97" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -39137,10 +39168,10 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C98" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -39151,10 +39182,10 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C99" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -39189,28 +39220,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>2771</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -39231,10 +39262,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="C5" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -39329,10 +39360,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -39357,10 +39388,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -39371,10 +39402,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -39413,10 +39444,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="C18" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -39427,10 +39458,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="C19" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -39441,10 +39472,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="C20" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -39455,10 +39486,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="C21" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -39483,10 +39514,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="C23" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -39497,10 +39528,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -39539,10 +39570,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -39553,10 +39584,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -39581,10 +39612,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C30" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -39595,10 +39626,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C31" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -39609,10 +39640,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -39623,10 +39654,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -39637,10 +39668,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -39679,10 +39710,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -39693,10 +39724,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -39735,10 +39766,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -39749,10 +39780,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="C42" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -39763,10 +39794,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C43" t="s">
         <v>2472</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2473</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -39777,10 +39808,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C44" t="s">
         <v>2484</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2485</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -39791,10 +39822,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="C45" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -39826,28 +39857,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>3070</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -39882,10 +39913,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C7" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -39896,10 +39927,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="C8" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -39924,10 +39955,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="C10" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -39938,10 +39969,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C11" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -39952,10 +39983,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C12" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -39980,10 +40011,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="C14" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -39994,10 +40025,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="C15" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -40008,10 +40039,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="C16" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -40022,10 +40053,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="C17" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -40036,10 +40067,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="C18" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -40050,10 +40081,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="C19" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -40078,10 +40109,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="C21" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -40092,10 +40123,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="C22" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -40106,10 +40137,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="C23" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -40134,10 +40165,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="C25" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -40148,10 +40179,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="C26" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -40162,10 +40193,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="C27" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -40176,10 +40207,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="C28" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -40190,10 +40221,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="C29" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -40204,10 +40235,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C30" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -40218,10 +40249,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="C31" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -40232,10 +40263,10 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="C32" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -40246,10 +40277,10 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C33" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -40260,10 +40291,10 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="C34" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -40274,10 +40305,10 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="C35" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -40288,10 +40319,10 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="C36" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -40302,10 +40333,10 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="C37" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -40316,10 +40347,10 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="C38" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -40330,10 +40361,10 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="C39" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -40344,10 +40375,10 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C40" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -40358,10 +40389,10 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="C41" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -40386,10 +40417,10 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="C43" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -40400,10 +40431,10 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="C44" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -40428,10 +40459,10 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="C46" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -40442,10 +40473,10 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C47" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -40456,10 +40487,10 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="C48" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -40470,10 +40501,10 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C49" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -40484,10 +40515,10 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="C50" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -40498,10 +40529,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="C51" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -40512,10 +40543,10 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="C52" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -40526,10 +40557,10 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C53" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -40540,10 +40571,10 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C54" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -40554,10 +40585,10 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C55" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -40568,10 +40599,10 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C56" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -40582,10 +40613,10 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C57" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -40596,10 +40627,10 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C58" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -40610,10 +40641,10 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C59" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -40624,10 +40655,10 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="C60" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -40638,10 +40669,10 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C61" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -40652,10 +40683,10 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C62" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -40666,10 +40697,10 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C63" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -40680,10 +40711,10 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C64" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -40694,10 +40725,10 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="C65" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
@@ -40722,10 +40753,10 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C67" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -40736,10 +40767,10 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C68" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -40750,10 +40781,10 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="C69" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -40778,10 +40809,10 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="C71" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -40792,10 +40823,10 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="C72" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -40806,10 +40837,10 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="C73" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -40820,10 +40851,10 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="C74" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -40834,10 +40865,10 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="C75" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -40848,10 +40879,10 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="C76" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -40862,10 +40893,10 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C77" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -40876,10 +40907,10 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C78" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -40890,10 +40921,10 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="C79" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -40904,10 +40935,10 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="C80" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -40918,10 +40949,10 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="C81" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -40932,10 +40963,10 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="C82" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -40946,10 +40977,10 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C83" t="s">
         <v>2486</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2487</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -40960,10 +40991,10 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="C84" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -40974,10 +41005,10 @@
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="C85" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -40988,10 +41019,10 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="C86" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
@@ -41023,28 +41054,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>2816</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -41065,10 +41096,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="C5" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -41079,10 +41110,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="C6" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -41093,10 +41124,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="C7" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -41107,10 +41138,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C8" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -41121,10 +41152,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="C9" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -41135,10 +41166,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="C10" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -41149,10 +41180,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="C11" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -41163,10 +41194,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C12" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -41177,10 +41208,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="C13" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -41191,10 +41222,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="C14" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -41205,10 +41236,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="C15" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -41219,10 +41250,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="C16" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -41233,10 +41264,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="C17" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -41247,10 +41278,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="C18" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -41261,10 +41292,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="C19" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -41275,10 +41306,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C20" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -41289,10 +41320,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C21" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -41303,10 +41334,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="C22" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -41317,10 +41348,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="C23" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -41331,10 +41362,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="C24" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -41345,10 +41376,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="C25" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -41359,10 +41390,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="C26" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -41373,10 +41404,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="C27" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -41387,10 +41418,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C28" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -41401,10 +41432,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="C29" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -41415,10 +41446,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C30" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -41429,10 +41460,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C31" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -41443,10 +41474,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="C32" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -41479,28 +41510,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>3164</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -41521,10 +41552,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="C5" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -41563,10 +41594,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C8" t="s">
         <v>3165</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3166</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -41577,10 +41608,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="C9" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -41591,10 +41622,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="C10" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -41605,10 +41636,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C11" t="s">
         <v>3167</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3168</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -41619,10 +41650,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C12" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -41633,10 +41664,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C13" t="s">
         <v>3169</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3170</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -41675,10 +41706,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C16" t="s">
         <v>3171</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3172</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -41689,10 +41720,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C17" t="s">
         <v>3173</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3174</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -41717,10 +41748,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C19" t="s">
         <v>3175</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3176</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -41731,10 +41762,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="C20" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -41745,10 +41776,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C21" t="s">
         <v>3177</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3178</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -41759,10 +41790,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="C22" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -41773,10 +41804,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C23" t="s">
         <v>3179</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3180</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -41787,10 +41818,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C24" t="s">
         <v>3181</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3182</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -41801,10 +41832,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="C25" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -41815,10 +41846,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C26" t="s">
         <v>3183</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3184</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -41829,10 +41860,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C27" t="s">
         <v>3185</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3186</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -41843,10 +41874,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="C28" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -41857,10 +41888,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C29" t="s">
         <v>3187</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3188</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -41871,10 +41902,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C30" t="s">
         <v>3189</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3190</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -41899,10 +41930,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C32" t="s">
         <v>3191</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3192</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -41913,10 +41944,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C33" t="s">
         <v>3193</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3194</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -41927,10 +41958,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C34" t="s">
         <v>3195</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3196</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -41941,10 +41972,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C35" t="s">
         <v>3197</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3198</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -41955,10 +41986,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="C36" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -41969,10 +42000,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="C37" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -41983,10 +42014,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C38" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -41997,10 +42028,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="C39" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -42011,10 +42042,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C40" t="s">
         <v>3199</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3200</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -42039,10 +42070,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C42" t="s">
         <v>3201</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3202</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -42053,10 +42084,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="C43" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -42081,10 +42112,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="C45" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -42095,10 +42126,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C46" t="s">
         <v>3203</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3204</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -42109,10 +42140,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C47" t="s">
         <v>3205</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3206</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -42123,10 +42154,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C48" t="s">
         <v>3207</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3208</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -42137,10 +42168,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C49" t="s">
         <v>3209</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3210</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -42151,10 +42182,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C50" t="s">
         <v>3211</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3212</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -42165,10 +42196,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C51" t="s">
         <v>3213</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3214</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -42179,10 +42210,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="C52" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -42207,10 +42238,10 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C54" t="s">
         <v>3215</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3216</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -42221,10 +42252,10 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C55" t="s">
         <v>3217</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3218</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -42235,10 +42266,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C56" t="s">
         <v>3219</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3220</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -42263,10 +42294,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C58" t="s">
         <v>3221</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3222</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -42277,10 +42308,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C59" t="s">
         <v>3223</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3224</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -42291,10 +42322,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C60" t="s">
         <v>3225</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3226</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -42305,10 +42336,10 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="C61" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -42319,10 +42350,10 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C62" t="s">
         <v>3227</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3228</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -42333,10 +42364,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="C63" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -42347,10 +42378,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C64" t="s">
         <v>3229</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3230</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -42361,10 +42392,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C65" t="s">
         <v>3231</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3232</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -42375,10 +42406,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="C66" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -42389,10 +42420,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C67" t="s">
         <v>3233</v>
-      </c>
-      <c r="C67" t="s">
-        <v>3234</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -42403,10 +42434,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C68" t="s">
         <v>3235</v>
-      </c>
-      <c r="C68" t="s">
-        <v>3236</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -42417,10 +42448,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C69" t="s">
         <v>3237</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3238</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -42431,10 +42462,10 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C70" t="s">
         <v>3239</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3240</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -42445,10 +42476,10 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C71" t="s">
         <v>3241</v>
-      </c>
-      <c r="C71" t="s">
-        <v>3242</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -42459,10 +42490,10 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C72" t="s">
         <v>3243</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3244</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -42473,10 +42504,10 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="C73" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -42487,10 +42518,10 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C74" t="s">
         <v>3245</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3246</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -42501,10 +42532,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C75" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -42515,10 +42546,10 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C76" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -42529,10 +42560,10 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C77" t="s">
         <v>3247</v>
-      </c>
-      <c r="C77" t="s">
-        <v>3248</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -42557,10 +42588,10 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C79" t="s">
         <v>3249</v>
-      </c>
-      <c r="C79" t="s">
-        <v>3250</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -42571,10 +42602,10 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C80" t="s">
         <v>3251</v>
-      </c>
-      <c r="C80" t="s">
-        <v>3252</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -42585,10 +42616,10 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C81" t="s">
         <v>3253</v>
-      </c>
-      <c r="C81" t="s">
-        <v>3254</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -42599,10 +42630,10 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C82" t="s">
         <v>3255</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3256</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -42613,10 +42644,10 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C83" t="s">
         <v>3257</v>
-      </c>
-      <c r="C83" t="s">
-        <v>3258</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -42627,10 +42658,10 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C84" t="s">
         <v>3259</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3260</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -42641,10 +42672,10 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C85" t="s">
         <v>3261</v>
-      </c>
-      <c r="C85" t="s">
-        <v>3262</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -42669,10 +42700,10 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="C87" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -42683,10 +42714,10 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C88" t="s">
         <v>3263</v>
-      </c>
-      <c r="C88" t="s">
-        <v>3264</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -42697,10 +42728,10 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C89" t="s">
         <v>3265</v>
-      </c>
-      <c r="C89" t="s">
-        <v>3266</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -42711,10 +42742,10 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C90" t="s">
         <v>3267</v>
-      </c>
-      <c r="C90" t="s">
-        <v>3268</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -42725,10 +42756,10 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C91" t="s">
         <v>3269</v>
-      </c>
-      <c r="C91" t="s">
-        <v>3270</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -42739,10 +42770,10 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C92" t="s">
         <v>3271</v>
-      </c>
-      <c r="C92" t="s">
-        <v>3272</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -42753,10 +42784,10 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C93" t="s">
         <v>3273</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3274</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -42767,10 +42798,10 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C94" t="s">
         <v>3275</v>
-      </c>
-      <c r="C94" t="s">
-        <v>3276</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -42781,10 +42812,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C95" t="s">
         <v>3277</v>
-      </c>
-      <c r="C95" t="s">
-        <v>3278</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -42795,10 +42826,10 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C96" t="s">
         <v>3279</v>
-      </c>
-      <c r="C96" t="s">
-        <v>3280</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -42809,10 +42840,10 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C97" t="s">
         <v>3281</v>
-      </c>
-      <c r="C97" t="s">
-        <v>3282</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -42823,10 +42854,10 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C98" t="s">
         <v>3283</v>
-      </c>
-      <c r="C98" t="s">
-        <v>3284</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -42837,10 +42868,10 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C99" t="s">
         <v>3285</v>
-      </c>
-      <c r="C99" t="s">
-        <v>3286</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -42851,10 +42882,10 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C100" t="s">
         <v>3287</v>
-      </c>
-      <c r="C100" t="s">
-        <v>3288</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -42865,10 +42896,10 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C101" t="s">
         <v>3289</v>
-      </c>
-      <c r="C101" t="s">
-        <v>3290</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -42879,10 +42910,10 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C102" t="s">
         <v>3291</v>
-      </c>
-      <c r="C102" t="s">
-        <v>3292</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -42893,10 +42924,10 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C103" t="s">
         <v>3293</v>
-      </c>
-      <c r="C103" t="s">
-        <v>3294</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
@@ -42907,10 +42938,10 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C104" t="s">
         <v>3295</v>
-      </c>
-      <c r="C104" t="s">
-        <v>3296</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -42921,10 +42952,10 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C105" t="s">
         <v>3297</v>
-      </c>
-      <c r="C105" t="s">
-        <v>3298</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -42935,10 +42966,10 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C106" t="s">
         <v>3299</v>
-      </c>
-      <c r="C106" t="s">
-        <v>3300</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -42949,10 +42980,10 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C107" t="s">
         <v>3301</v>
-      </c>
-      <c r="C107" t="s">
-        <v>3302</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -42963,10 +42994,10 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C108" t="s">
         <v>3303</v>
-      </c>
-      <c r="C108" t="s">
-        <v>3304</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -42977,10 +43008,10 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C109" t="s">
         <v>3305</v>
-      </c>
-      <c r="C109" t="s">
-        <v>3306</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
@@ -42991,10 +43022,10 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C110" t="s">
         <v>3307</v>
-      </c>
-      <c r="C110" t="s">
-        <v>3308</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
@@ -43005,10 +43036,10 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="C111" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
@@ -43019,10 +43050,10 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C112" t="s">
         <v>3309</v>
-      </c>
-      <c r="C112" t="s">
-        <v>3310</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -43033,10 +43064,10 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C113" t="s">
         <v>3311</v>
-      </c>
-      <c r="C113" t="s">
-        <v>3312</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -43047,10 +43078,10 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C114" t="s">
         <v>3313</v>
-      </c>
-      <c r="C114" t="s">
-        <v>3314</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
@@ -43058,17 +43089,17 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8597138D-A594-4649-B34D-C3208EB16986}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBEAD3D-F7C5-4861-A19C-EE3C6CD98C09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="825" windowWidth="28170" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="2175" windowWidth="21600" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -25,8 +25,8 @@
     <sheet name="栈" sheetId="11" r:id="rId10"/>
     <sheet name="二分搜索" sheetId="14" r:id="rId11"/>
     <sheet name="位操作" sheetId="16" r:id="rId12"/>
-    <sheet name="堆" sheetId="13" r:id="rId13"/>
-    <sheet name="排序" sheetId="17" r:id="rId14"/>
+    <sheet name="排序" sheetId="17" r:id="rId13"/>
+    <sheet name="堆" sheetId="13" r:id="rId14"/>
     <sheet name="队列" sheetId="12" r:id="rId15"/>
     <sheet name="递归" sheetId="18" r:id="rId16"/>
     <sheet name="滑动窗口" sheetId="19" r:id="rId17"/>
@@ -34,22 +34,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode 题目'!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">二分搜索!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">位操作!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">二分搜索!$A$4:$D$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">位操作!$A$4:$D$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">分治法!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">剑指Offer!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">动态规划!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">双指针!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">哈希表!$A$5:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">堆!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">字符串!$A$4:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">排序!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">动态规划!$A$4:$D$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">双指针!$A$4:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">哈希表!$A$5:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">堆!$A$4:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">字符串!$A$4:$D$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">排序!$A$4:$D$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数组!$A$4:$E$136</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">栈!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">栈!$A$4:$D$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">滑动窗口!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">程序员面试题金典!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">递归!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">链表!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">链表!$A$4:$D$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">队列!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6200" uniqueCount="3334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6203" uniqueCount="3336">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10061,6 +10061,12 @@
   </si>
   <si>
     <t>2020.7.9</t>
+  </si>
+  <si>
+    <t>2020.7.10(self)</t>
+  </si>
+  <si>
+    <t>2020.7.10</t>
   </si>
 </sst>
 </file>
@@ -10244,7 +10250,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10325,6 +10331,14 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10343,13 +10357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -10657,8 +10664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="D666" sqref="D666"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="D583" sqref="D583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10670,12 +10677,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>3329</v>
       </c>
@@ -12893,7 +12900,7 @@
         <v>5</v>
       </c>
       <c r="D176" s="3"/>
-      <c r="E176" s="31" t="s">
+      <c r="E176" s="35" t="s">
         <v>3321</v>
       </c>
     </row>
@@ -12908,7 +12915,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="4"/>
-      <c r="E177" s="31"/>
+      <c r="E177" s="35"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="24">
@@ -12921,7 +12928,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="3"/>
-      <c r="E178" s="31"/>
+      <c r="E178" s="35"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24">
@@ -12934,7 +12941,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="4"/>
-      <c r="E179" s="31"/>
+      <c r="E179" s="35"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
@@ -12959,7 +12966,7 @@
         <v>7</v>
       </c>
       <c r="D181" s="4"/>
-      <c r="E181" s="31" t="s">
+      <c r="E181" s="35" t="s">
         <v>3321</v>
       </c>
     </row>
@@ -12974,7 +12981,7 @@
         <v>5</v>
       </c>
       <c r="D182" s="3"/>
-      <c r="E182" s="31"/>
+      <c r="E182" s="35"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="24">
@@ -12987,7 +12994,7 @@
         <v>5</v>
       </c>
       <c r="D183" s="4"/>
-      <c r="E183" s="31"/>
+      <c r="E183" s="35"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="24">
@@ -13000,7 +13007,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="3"/>
-      <c r="E184" s="31"/>
+      <c r="E184" s="35"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24">
@@ -13013,7 +13020,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="4"/>
-      <c r="E185" s="31"/>
+      <c r="E185" s="35"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="24">
@@ -13026,7 +13033,7 @@
         <v>10</v>
       </c>
       <c r="D186" s="3"/>
-      <c r="E186" s="31"/>
+      <c r="E186" s="35"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
@@ -17856,7 +17863,9 @@
       <c r="C582" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D582" s="3"/>
+      <c r="D582" s="3" t="s">
+        <v>3335</v>
+      </c>
     </row>
     <row r="583" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="10" t="s">
@@ -21788,7 +21797,9 @@
       <c r="C906" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D906" s="3"/>
+      <c r="D906" s="3" t="s">
+        <v>3334</v>
+      </c>
     </row>
     <row r="907" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A907" s="10">
@@ -23086,7 +23097,9 @@
       <c r="C1014" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1014" s="3"/>
+      <c r="D1014" s="3" t="s">
+        <v>3334</v>
+      </c>
     </row>
     <row r="1015" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1015" s="10">
@@ -30852,10 +30865,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1850CE06-8D22-4A2D-B248-33547EF5D1DE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D5" sqref="D5:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30864,28 +30878,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>2869</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>2868</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -30901,7 +30915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -30911,11 +30925,11 @@
       <c r="C5" t="s">
         <v>2237</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -30925,11 +30939,11 @@
       <c r="C6" t="s">
         <v>2241</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -30939,7 +30953,7 @@
       <c r="C7" t="s">
         <v>2866</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -30953,7 +30967,7 @@
       <c r="C8" t="s">
         <v>2721</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -30967,11 +30981,11 @@
       <c r="C9" t="s">
         <v>2864</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -30981,11 +30995,11 @@
       <c r="C10" t="s">
         <v>2862</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -30995,11 +31009,11 @@
       <c r="C11" t="s">
         <v>2860</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -31009,7 +31023,7 @@
       <c r="C12" t="s">
         <v>2858</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -31023,11 +31037,11 @@
       <c r="C13" t="s">
         <v>2856</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -31037,11 +31051,11 @@
       <c r="C14" t="s">
         <v>2854</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -31051,7 +31065,7 @@
       <c r="C15" t="s">
         <v>2852</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -31065,7 +31079,7 @@
       <c r="C16" t="s">
         <v>2850</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -31079,11 +31093,11 @@
       <c r="C17" t="s">
         <v>2848</v>
       </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -31093,11 +31107,11 @@
       <c r="C18" t="s">
         <v>2846</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -31107,11 +31121,11 @@
       <c r="C19" t="s">
         <v>2671</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -31121,11 +31135,11 @@
       <c r="C20" t="s">
         <v>2669</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -31135,11 +31149,11 @@
       <c r="C21" t="s">
         <v>2351</v>
       </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -31149,7 +31163,7 @@
       <c r="C22" t="s">
         <v>2844</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31163,11 +31177,11 @@
       <c r="C23" t="s">
         <v>2842</v>
       </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -31177,11 +31191,11 @@
       <c r="C24" t="s">
         <v>2840</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -31191,11 +31205,11 @@
       <c r="C25" t="s">
         <v>2838</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -31205,11 +31219,11 @@
       <c r="C26" t="s">
         <v>2836</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -31219,11 +31233,11 @@
       <c r="C27" t="s">
         <v>2834</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -31233,11 +31247,11 @@
       <c r="C28" t="s">
         <v>2832</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -31247,11 +31261,11 @@
       <c r="C29" t="s">
         <v>2830</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -31261,11 +31275,11 @@
       <c r="C30" t="s">
         <v>2828</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -31275,11 +31289,11 @@
       <c r="C31" t="s">
         <v>2826</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -31289,11 +31303,11 @@
       <c r="C32" t="s">
         <v>2599</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -31303,11 +31317,11 @@
       <c r="C33" t="s">
         <v>2824</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -31317,11 +31331,11 @@
       <c r="C34" t="s">
         <v>2822</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -31331,11 +31345,11 @@
       <c r="C35" t="s">
         <v>2820</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -31345,11 +31359,11 @@
       <c r="C36" t="s">
         <v>2818</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -31359,12 +31373,18 @@
       <c r="C37" t="s">
         <v>2816</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="21" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A4:D37" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="简单"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
@@ -31377,10 +31397,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763AD0AA-3B57-42E5-A446-1C59E0C93422}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+      <selection activeCell="D5" sqref="D5:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31389,28 +31410,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>2972</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -31426,7 +31447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -31436,7 +31457,7 @@
       <c r="C5" t="s">
         <v>2231</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -31450,7 +31471,7 @@
       <c r="C6" t="s">
         <v>2764</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -31464,11 +31485,11 @@
       <c r="C7" t="s">
         <v>2273</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -31478,11 +31499,11 @@
       <c r="C8" t="s">
         <v>2293</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -31492,11 +31513,11 @@
       <c r="C9" t="s">
         <v>2970</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -31506,11 +31527,11 @@
       <c r="C10" t="s">
         <v>2297</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -31520,11 +31541,11 @@
       <c r="C11" t="s">
         <v>2317</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -31534,11 +31555,11 @@
       <c r="C12" t="s">
         <v>2968</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -31548,11 +31569,11 @@
       <c r="C13" t="s">
         <v>2876</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -31562,11 +31583,11 @@
       <c r="C14" t="s">
         <v>2966</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -31576,11 +31597,11 @@
       <c r="C15" t="s">
         <v>2964</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -31590,11 +31611,11 @@
       <c r="C16" t="s">
         <v>2962</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -31604,7 +31625,7 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31618,11 +31639,11 @@
       <c r="C18" t="s">
         <v>2959</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -31632,7 +31653,7 @@
       <c r="C19" t="s">
         <v>2957</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -31646,7 +31667,7 @@
       <c r="C20" t="s">
         <v>2955</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -31660,11 +31681,11 @@
       <c r="C21" t="s">
         <v>2341</v>
       </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -31674,11 +31695,11 @@
       <c r="C22" t="s">
         <v>2900</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -31688,11 +31709,11 @@
       <c r="C23" t="s">
         <v>2953</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -31702,11 +31723,11 @@
       <c r="C24" t="s">
         <v>2355</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -31716,11 +31737,11 @@
       <c r="C25" t="s">
         <v>2951</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -31730,7 +31751,7 @@
       <c r="C26" t="s">
         <v>2949</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -31744,11 +31765,11 @@
       <c r="C27" t="s">
         <v>2947</v>
       </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -31758,11 +31779,11 @@
       <c r="C28" t="s">
         <v>2945</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -31772,11 +31793,11 @@
       <c r="C29" t="s">
         <v>2363</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -31786,11 +31807,11 @@
       <c r="C30" t="s">
         <v>2943</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -31800,11 +31821,11 @@
       <c r="C31" t="s">
         <v>2367</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -31814,7 +31835,7 @@
       <c r="C32" t="s">
         <v>2941</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -31828,11 +31849,11 @@
       <c r="C33" t="s">
         <v>2939</v>
       </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -31842,7 +31863,7 @@
       <c r="C34" t="s">
         <v>2937</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31856,11 +31877,11 @@
       <c r="C35" t="s">
         <v>2754</v>
       </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -31870,11 +31891,11 @@
       <c r="C36" t="s">
         <v>2381</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -31884,11 +31905,11 @@
       <c r="C37" t="s">
         <v>2387</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -31898,11 +31919,11 @@
       <c r="C38" t="s">
         <v>2935</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -31912,7 +31933,7 @@
       <c r="C39" t="s">
         <v>2933</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -31926,7 +31947,7 @@
       <c r="C40" t="s">
         <v>2931</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -31940,11 +31961,11 @@
       <c r="C41" t="s">
         <v>2929</v>
       </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -31954,11 +31975,11 @@
       <c r="C42" t="s">
         <v>2927</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -31968,11 +31989,11 @@
       <c r="C43" t="s">
         <v>2423</v>
       </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -31982,7 +32003,7 @@
       <c r="C44" t="s">
         <v>2427</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31996,11 +32017,11 @@
       <c r="C45" t="s">
         <v>2925</v>
       </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -32010,11 +32031,11 @@
       <c r="C46" t="s">
         <v>2431</v>
       </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -32024,11 +32045,11 @@
       <c r="C47" t="s">
         <v>2437</v>
       </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -32038,11 +32059,11 @@
       <c r="C48" t="s">
         <v>2923</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -32052,7 +32073,7 @@
       <c r="C49" t="s">
         <v>2921</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -32066,11 +32087,11 @@
       <c r="C50" t="s">
         <v>2919</v>
       </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -32080,11 +32101,11 @@
       <c r="C51" t="s">
         <v>2917</v>
       </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -32094,12 +32115,18 @@
       <c r="C52" t="s">
         <v>2915</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="21" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A4:D52" xr:uid="{00000000-0009-0000-0000-000007000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="简单"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -32112,10 +32139,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F75EA1-3F40-4719-A8D7-342E24F883F7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+      <selection activeCell="D5" sqref="D5:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32124,28 +32152,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>3112</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -32171,7 +32199,7 @@
       <c r="C5" t="s">
         <v>3110</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -32185,7 +32213,7 @@
       <c r="C6" t="s">
         <v>3108</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -32199,11 +32227,11 @@
       <c r="C7" t="s">
         <v>2253</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -32213,7 +32241,7 @@
       <c r="C8" t="s">
         <v>3063</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -32227,11 +32255,11 @@
       <c r="C9" t="s">
         <v>3106</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -32241,11 +32269,11 @@
       <c r="C10" t="s">
         <v>2279</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -32255,11 +32283,11 @@
       <c r="C11" t="s">
         <v>3104</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -32269,7 +32297,7 @@
       <c r="C12" t="s">
         <v>3102</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -32283,11 +32311,11 @@
       <c r="C13" t="s">
         <v>3055</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -32297,11 +32325,11 @@
       <c r="C14" t="s">
         <v>3100</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -32311,7 +32339,7 @@
       <c r="C15" t="s">
         <v>3098</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -32325,11 +32353,11 @@
       <c r="C16" t="s">
         <v>3096</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -32339,11 +32367,11 @@
       <c r="C17" t="s">
         <v>2337</v>
       </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -32353,7 +32381,7 @@
       <c r="C18" t="s">
         <v>3094</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -32367,7 +32395,7 @@
       <c r="C19" t="s">
         <v>3092</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -32381,11 +32409,11 @@
       <c r="C20" t="s">
         <v>3090</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -32395,7 +32423,7 @@
       <c r="C21" t="s">
         <v>3035</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -32409,7 +32437,7 @@
       <c r="C22" t="s">
         <v>3088</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -32423,11 +32451,11 @@
       <c r="C23" t="s">
         <v>3086</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -32437,11 +32465,11 @@
       <c r="C24" t="s">
         <v>3084</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -32451,11 +32479,11 @@
       <c r="C25" t="s">
         <v>3082</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -32465,11 +32493,11 @@
       <c r="C26" t="s">
         <v>3080</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -32479,11 +32507,11 @@
       <c r="C27" t="s">
         <v>3078</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -32493,7 +32521,7 @@
       <c r="C28" t="s">
         <v>3076</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -32507,7 +32535,7 @@
       <c r="C29" t="s">
         <v>3074</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -32521,11 +32549,11 @@
       <c r="C30" t="s">
         <v>3072</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -32535,12 +32563,18 @@
       <c r="C31" t="s">
         <v>3070</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="23" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A4:D31" xr:uid="{00000000-0009-0000-0000-000009000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="中等"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
@@ -32552,340 +32586,381 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBCB591-AE65-4792-A678-35AE60570A6F}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9297348D-86DA-451F-93BD-1403E5127234}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="11"/>
-    <col min="3" max="3" width="46" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>2914</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="38" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>2225</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>2226</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" t="s">
         <v>2227</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>2800</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>2799</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>2913</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>2912</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
+      <c r="B6" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>2911</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>2910</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
+      <c r="B7" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>2909</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>2908</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
+      <c r="B8" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>2907</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>2906</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>2905</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>2904</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>7</v>
+      <c r="B10" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>2903</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>2902</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>7</v>
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>2900</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>7</v>
+      <c r="B12" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>2899</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>2898</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>10</v>
+      <c r="B13" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>2897</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>2896</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>2895</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>2894</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>7</v>
+      <c r="B15" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>2893</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>2892</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>10</v>
+      <c r="B16" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>2422</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>2423</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>10</v>
+      <c r="B17" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>2891</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>2890</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B18" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>2888</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B19" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>2887</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>2886</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>7</v>
+      <c r="B20" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>2885</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>10</v>
+      <c r="B21" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>2884</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>2883</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>7</v>
+      <c r="B22" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" t="s">
         <v>2882</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" t="s">
         <v>2881</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>2880</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>2879</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>10</v>
+      <c r="B24" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A4:D27" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -32897,381 +32972,347 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9297348D-86DA-451F-93BD-1403E5127234}">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBCB591-AE65-4792-A678-35AE60570A6F}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+      <selection activeCell="D5" sqref="D5:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="11"/>
+    <col min="3" max="3" width="46" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>3127</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>2225</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>2226</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>2227</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>2802</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2801</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="B5" s="11" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="11" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>2765</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2764</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+      <c r="B7" s="11" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>2910</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>3126</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2311</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B8" s="11" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>2967</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2966</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2964</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B10" s="11" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>3124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3123</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
+      <c r="B12" s="11" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>2782</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2781</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
+      <c r="B13" s="11" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2356</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2357</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>2942</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2941</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
+      <c r="B15" s="11" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>3122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3121</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
+      <c r="B16" s="11" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3029</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B17" s="11" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>3028</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3027</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B18" s="11" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>3120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B19" s="11" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>2755</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2754</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
+      <c r="B20" s="11" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
-        <v>2418</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2419</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B21" s="11" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
-        <v>2604</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B22" s="11" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="11" t="s">
         <v>2882</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="11" t="s">
         <v>2881</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>2749</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3117</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3116</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3114</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
+      <c r="B24" s="11" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A4:D24" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="困难"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -33296,12 +33337,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>2878</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33411,12 +33452,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>3138</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33554,12 +33595,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>3143</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33725,12 +33766,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>3152</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33970,12 +34011,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>1494</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -35350,12 +35391,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>1710</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -36294,8 +36335,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36306,25 +36347,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>2554</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -37188,7 +37229,7 @@
       <c r="A82" s="11" t="s">
         <v>2382</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="20" t="s">
         <v>2383</v>
       </c>
       <c r="C82" s="20" t="s">
@@ -37221,7 +37262,7 @@
       <c r="A85" s="11" t="s">
         <v>2388</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="20" t="s">
         <v>2389</v>
       </c>
       <c r="C85" s="20" t="s">
@@ -37254,7 +37295,7 @@
       <c r="A88" s="11" t="s">
         <v>2394</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="20" t="s">
         <v>2395</v>
       </c>
       <c r="C88" s="20" t="s">
@@ -37657,14 +37698,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="36" t="s">
+    <row r="125" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
         <v>3330</v>
       </c>
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="30" t="s">
         <v>2468</v>
       </c>
-      <c r="C125" s="37" t="s">
+      <c r="C125" s="31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37756,14 +37797,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="36" t="s">
+    <row r="134" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="30" t="s">
         <v>3331</v>
       </c>
-      <c r="B134" s="36" t="s">
+      <c r="B134" s="30" t="s">
         <v>2486</v>
       </c>
-      <c r="C134" s="37" t="s">
+      <c r="C134" s="31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37812,10 +37853,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4F7005-EA04-453B-90A9-8D52E1CF9BD4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37824,28 +37866,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>2743</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -37861,7 +37903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -37871,11 +37913,11 @@
       <c r="C5" s="23" t="s">
         <v>2741</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -37885,11 +37927,11 @@
       <c r="C6" s="23" t="s">
         <v>2739</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -37899,11 +37941,11 @@
       <c r="C7" t="s">
         <v>2737</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -37913,7 +37955,7 @@
       <c r="C8" t="s">
         <v>2735</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -37927,7 +37969,7 @@
       <c r="C9" t="s">
         <v>2733</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -37941,11 +37983,11 @@
       <c r="C10" t="s">
         <v>2731</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -37955,11 +37997,11 @@
       <c r="C11" t="s">
         <v>2729</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -37969,11 +38011,11 @@
       <c r="C12" t="s">
         <v>2727</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -37983,11 +38025,11 @@
       <c r="C13" t="s">
         <v>2725</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -37997,7 +38039,7 @@
       <c r="C14" t="s">
         <v>2723</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -38011,7 +38053,7 @@
       <c r="C15" t="s">
         <v>2721</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38025,7 +38067,7 @@
       <c r="C16" t="s">
         <v>2719</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38039,7 +38081,7 @@
       <c r="C17" t="s">
         <v>2717</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38053,11 +38095,11 @@
       <c r="C18" t="s">
         <v>2715</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -38067,11 +38109,11 @@
       <c r="C19" t="s">
         <v>2713</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -38081,7 +38123,7 @@
       <c r="C20" t="s">
         <v>2711</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38095,7 +38137,7 @@
       <c r="C21" t="s">
         <v>2709</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38109,11 +38151,11 @@
       <c r="C22" t="s">
         <v>2707</v>
       </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -38123,11 +38165,11 @@
       <c r="C23" t="s">
         <v>2705</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -38137,11 +38179,11 @@
       <c r="C24" t="s">
         <v>2703</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -38151,7 +38193,7 @@
       <c r="C25" t="s">
         <v>2701</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -38165,11 +38207,11 @@
       <c r="C26" t="s">
         <v>2699</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -38179,11 +38221,11 @@
       <c r="C27" t="s">
         <v>2697</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -38193,11 +38235,11 @@
       <c r="C28" t="s">
         <v>2695</v>
       </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -38207,7 +38249,7 @@
       <c r="C29" t="s">
         <v>2693</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -38221,7 +38263,7 @@
       <c r="C30" t="s">
         <v>2691</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38235,11 +38277,11 @@
       <c r="C31" t="s">
         <v>2689</v>
       </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -38249,7 +38291,7 @@
       <c r="C32" t="s">
         <v>2687</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38263,11 +38305,11 @@
       <c r="C33" t="s">
         <v>2685</v>
       </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -38277,11 +38319,11 @@
       <c r="C34" t="s">
         <v>2683</v>
       </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -38291,11 +38333,11 @@
       <c r="C35" t="s">
         <v>2681</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -38305,11 +38347,11 @@
       <c r="C36" t="s">
         <v>2679</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -38319,11 +38361,11 @@
       <c r="C37" t="s">
         <v>2677</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -38333,7 +38375,7 @@
       <c r="C38" t="s">
         <v>2675</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -38347,11 +38389,11 @@
       <c r="C39" t="s">
         <v>2673</v>
       </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -38361,11 +38403,11 @@
       <c r="C40" t="s">
         <v>2671</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -38375,7 +38417,7 @@
       <c r="C41" t="s">
         <v>2669</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38389,7 +38431,7 @@
       <c r="C42" t="s">
         <v>2667</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38403,11 +38445,11 @@
       <c r="C43" t="s">
         <v>2665</v>
       </c>
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -38417,11 +38459,11 @@
       <c r="C44" t="s">
         <v>2663</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -38431,11 +38473,11 @@
       <c r="C45" t="s">
         <v>2661</v>
       </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -38445,7 +38487,7 @@
       <c r="C46" t="s">
         <v>2659</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -38459,7 +38501,7 @@
       <c r="C47" t="s">
         <v>2657</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38473,11 +38515,11 @@
       <c r="C48" t="s">
         <v>2655</v>
       </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -38487,7 +38529,7 @@
       <c r="C49" t="s">
         <v>2653</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38501,7 +38543,7 @@
       <c r="C50" t="s">
         <v>2651</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38515,7 +38557,7 @@
       <c r="C51" t="s">
         <v>2649</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38529,11 +38571,11 @@
       <c r="C52" t="s">
         <v>2647</v>
       </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -38543,11 +38585,11 @@
       <c r="C53" t="s">
         <v>2645</v>
       </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -38557,7 +38599,7 @@
       <c r="C54" t="s">
         <v>2643</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38571,11 +38613,11 @@
       <c r="C55" t="s">
         <v>2641</v>
       </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -38585,11 +38627,11 @@
       <c r="C56" t="s">
         <v>2639</v>
       </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -38599,7 +38641,7 @@
       <c r="C57" t="s">
         <v>2637</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -38613,7 +38655,7 @@
       <c r="C58" t="s">
         <v>2635</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38627,7 +38669,7 @@
       <c r="C59" t="s">
         <v>2633</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -38641,11 +38683,11 @@
       <c r="C60" t="s">
         <v>2631</v>
       </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -38655,11 +38697,11 @@
       <c r="C61" t="s">
         <v>2629</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -38669,7 +38711,7 @@
       <c r="C62" t="s">
         <v>2627</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38683,11 +38725,11 @@
       <c r="C63" t="s">
         <v>2625</v>
       </c>
-      <c r="D63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -38697,11 +38739,11 @@
       <c r="C64" t="s">
         <v>2623</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -38711,7 +38753,7 @@
       <c r="C65" t="s">
         <v>2621</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -38725,11 +38767,11 @@
       <c r="C66" t="s">
         <v>2619</v>
       </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -38739,11 +38781,11 @@
       <c r="C67" t="s">
         <v>2617</v>
       </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -38753,11 +38795,11 @@
       <c r="C68" t="s">
         <v>2615</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -38767,7 +38809,7 @@
       <c r="C69" t="s">
         <v>2613</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38781,11 +38823,11 @@
       <c r="C70" t="s">
         <v>2611</v>
       </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -38795,11 +38837,11 @@
       <c r="C71" t="s">
         <v>2609</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
@@ -38809,11 +38851,11 @@
       <c r="C72" t="s">
         <v>2429</v>
       </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -38823,7 +38865,7 @@
       <c r="C73" t="s">
         <v>2607</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38837,11 +38879,11 @@
       <c r="C74" t="s">
         <v>2605</v>
       </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -38851,11 +38893,11 @@
       <c r="C75" t="s">
         <v>2603</v>
       </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -38865,11 +38907,11 @@
       <c r="C76" t="s">
         <v>2601</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -38879,11 +38921,11 @@
       <c r="C77" t="s">
         <v>2599</v>
       </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -38893,11 +38935,11 @@
       <c r="C78" t="s">
         <v>2597</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -38907,11 +38949,11 @@
       <c r="C79" t="s">
         <v>2595</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
@@ -38921,11 +38963,11 @@
       <c r="C80" t="s">
         <v>2593</v>
       </c>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -38935,7 +38977,7 @@
       <c r="C81" t="s">
         <v>2591</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38949,11 +38991,11 @@
       <c r="C82" t="s">
         <v>2589</v>
       </c>
-      <c r="D82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -38963,11 +39005,11 @@
       <c r="C83" t="s">
         <v>2587</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -38977,11 +39019,11 @@
       <c r="C84" t="s">
         <v>2585</v>
       </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -38991,11 +39033,11 @@
       <c r="C85" t="s">
         <v>2583</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
@@ -39005,11 +39047,11 @@
       <c r="C86" t="s">
         <v>2581</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
@@ -39019,11 +39061,11 @@
       <c r="C87" t="s">
         <v>2579</v>
       </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -39033,11 +39075,11 @@
       <c r="C88" t="s">
         <v>2577</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
@@ -39047,11 +39089,11 @@
       <c r="C89" t="s">
         <v>2575</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>86</v>
       </c>
@@ -39061,7 +39103,7 @@
       <c r="C90" t="s">
         <v>2573</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39075,7 +39117,7 @@
       <c r="C91" t="s">
         <v>2571</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -39089,11 +39131,11 @@
       <c r="C92" t="s">
         <v>2569</v>
       </c>
-      <c r="D92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>89</v>
       </c>
@@ -39103,11 +39145,11 @@
       <c r="C93" t="s">
         <v>2567</v>
       </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90</v>
       </c>
@@ -39117,11 +39159,11 @@
       <c r="C94" t="s">
         <v>2565</v>
       </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>91</v>
       </c>
@@ -39131,11 +39173,11 @@
       <c r="C95" t="s">
         <v>2563</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>92</v>
       </c>
@@ -39145,11 +39187,11 @@
       <c r="C96" t="s">
         <v>2561</v>
       </c>
-      <c r="D96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
@@ -39159,11 +39201,11 @@
       <c r="C97" t="s">
         <v>2559</v>
       </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
@@ -39173,7 +39215,7 @@
       <c r="C98" t="s">
         <v>2557</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39187,12 +39229,18 @@
       <c r="C99" t="s">
         <v>2555</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="23" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A4:D99" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="简单"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -39208,10 +39256,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8283B1-4B7A-4BF8-A411-C39CFE5A2537}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39220,28 +39269,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>2770</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -39267,7 +39316,7 @@
       <c r="C5" t="s">
         <v>2741</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39281,11 +39330,11 @@
       <c r="C6" t="s">
         <v>2233</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -39295,7 +39344,7 @@
       <c r="C7" t="s">
         <v>2237</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -39309,7 +39358,7 @@
       <c r="C8" t="s">
         <v>2239</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39323,11 +39372,11 @@
       <c r="C9" t="s">
         <v>2243</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -39337,11 +39386,11 @@
       <c r="C10" t="s">
         <v>2247</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -39351,7 +39400,7 @@
       <c r="C11" t="s">
         <v>2261</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -39365,7 +39414,7 @@
       <c r="C12" s="21" t="s">
         <v>2768</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39379,7 +39428,7 @@
       <c r="C13" t="s">
         <v>2263</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39393,11 +39442,11 @@
       <c r="C14" s="21" t="s">
         <v>2766</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -39407,11 +39456,11 @@
       <c r="C15" s="21" t="s">
         <v>2764</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -39421,7 +39470,7 @@
       <c r="C16" t="s">
         <v>2273</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -39435,11 +39484,11 @@
       <c r="C17" t="s">
         <v>2293</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -39449,11 +39498,11 @@
       <c r="C18" t="s">
         <v>2703</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -39463,11 +39512,11 @@
       <c r="C19" t="s">
         <v>2701</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -39477,11 +39526,11 @@
       <c r="C20" t="s">
         <v>2697</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -39491,7 +39540,7 @@
       <c r="C21" t="s">
         <v>2691</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -39505,11 +39554,11 @@
       <c r="C22" t="s">
         <v>2311</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -39519,11 +39568,11 @@
       <c r="C23" t="s">
         <v>2685</v>
       </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -39533,11 +39582,11 @@
       <c r="C24" s="21" t="s">
         <v>2762</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -39547,11 +39596,11 @@
       <c r="C25" t="s">
         <v>2321</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -39561,11 +39610,11 @@
       <c r="C26" t="s">
         <v>2323</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -39575,7 +39624,7 @@
       <c r="C27" s="21" t="s">
         <v>2760</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -39589,7 +39638,7 @@
       <c r="C28" s="21" t="s">
         <v>2758</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39603,11 +39652,11 @@
       <c r="C29" t="s">
         <v>2355</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -39617,11 +39666,11 @@
       <c r="C30" t="s">
         <v>2657</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -39631,7 +39680,7 @@
       <c r="C31" t="s">
         <v>2635</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -39645,11 +39694,11 @@
       <c r="C32" s="21" t="s">
         <v>2756</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -39659,7 +39708,7 @@
       <c r="C33" s="21" t="s">
         <v>2754</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -39673,7 +39722,7 @@
       <c r="C34" s="21" t="s">
         <v>2752</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39687,7 +39736,7 @@
       <c r="C35" t="s">
         <v>2413</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39701,7 +39750,7 @@
       <c r="C36" t="s">
         <v>2417</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39715,7 +39764,7 @@
       <c r="C37" s="21" t="s">
         <v>2750</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39729,11 +39778,11 @@
       <c r="C38" s="21" t="s">
         <v>2748</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -39743,7 +39792,7 @@
       <c r="C39" t="s">
         <v>2445</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -39757,7 +39806,7 @@
       <c r="C40" t="s">
         <v>2447</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39771,7 +39820,7 @@
       <c r="C41" s="21" t="s">
         <v>2746</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39785,7 +39834,7 @@
       <c r="C42" t="s">
         <v>2585</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39799,7 +39848,7 @@
       <c r="C43" t="s">
         <v>2472</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39813,7 +39862,7 @@
       <c r="C44" t="s">
         <v>2484</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39827,12 +39876,18 @@
       <c r="C45" t="s">
         <v>2744</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="33" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A4:D45" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="中等"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -39848,7 +39903,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39857,28 +39912,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>3069</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -39904,7 +39959,7 @@
       <c r="C6" t="s">
         <v>2229</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -39918,7 +39973,7 @@
       <c r="C7" t="s">
         <v>3067</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39932,7 +39987,7 @@
       <c r="C8" t="s">
         <v>2741</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39946,7 +40001,7 @@
       <c r="C9" t="s">
         <v>2241</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -39960,7 +40015,7 @@
       <c r="C10" t="s">
         <v>3065</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -39974,7 +40029,7 @@
       <c r="C11" t="s">
         <v>2866</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39988,7 +40043,7 @@
       <c r="C12" t="s">
         <v>2862</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40002,7 +40057,7 @@
       <c r="C13" t="s">
         <v>2263</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40016,7 +40071,7 @@
       <c r="C14" t="s">
         <v>3063</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40030,7 +40085,7 @@
       <c r="C15" t="s">
         <v>3061</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40044,7 +40099,7 @@
       <c r="C16" t="s">
         <v>2764</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40058,7 +40113,7 @@
       <c r="C17" t="s">
         <v>3059</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40072,7 +40127,7 @@
       <c r="C18" t="s">
         <v>2703</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40086,7 +40141,7 @@
       <c r="C19" t="s">
         <v>2701</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40100,7 +40155,7 @@
       <c r="C20" t="s">
         <v>2297</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40114,7 +40169,7 @@
       <c r="C21" t="s">
         <v>2697</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40128,7 +40183,7 @@
       <c r="C22" t="s">
         <v>3057</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40142,7 +40197,7 @@
       <c r="C23" t="s">
         <v>3055</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40156,7 +40211,7 @@
       <c r="C24" t="s">
         <v>2307</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40170,7 +40225,7 @@
       <c r="C25" t="s">
         <v>3053</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40184,7 +40239,7 @@
       <c r="C26" t="s">
         <v>2681</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40198,7 +40253,7 @@
       <c r="C27" t="s">
         <v>2783</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40212,7 +40267,7 @@
       <c r="C28" t="s">
         <v>3051</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40226,7 +40281,7 @@
       <c r="C29" t="s">
         <v>3049</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40240,7 +40295,7 @@
       <c r="C30" t="s">
         <v>3047</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40254,7 +40309,7 @@
       <c r="C31" t="s">
         <v>2902</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40268,7 +40323,7 @@
       <c r="C32" t="s">
         <v>3045</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40282,7 +40337,7 @@
       <c r="C33" t="s">
         <v>2838</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40296,7 +40351,7 @@
       <c r="C34" t="s">
         <v>3043</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40310,7 +40365,7 @@
       <c r="C35" t="s">
         <v>2945</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40324,7 +40379,7 @@
       <c r="C36" t="s">
         <v>3041</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40338,7 +40393,7 @@
       <c r="C37" t="s">
         <v>3039</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40352,7 +40407,7 @@
       <c r="C38" t="s">
         <v>3037</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40366,7 +40421,7 @@
       <c r="C39" t="s">
         <v>3035</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40380,7 +40435,7 @@
       <c r="C40" t="s">
         <v>2645</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40394,7 +40449,7 @@
       <c r="C41" t="s">
         <v>3033</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40408,7 +40463,7 @@
       <c r="C42" t="s">
         <v>2369</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40422,7 +40477,7 @@
       <c r="C43" t="s">
         <v>3031</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40436,7 +40491,7 @@
       <c r="C44" t="s">
         <v>3029</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40450,7 +40505,7 @@
       <c r="C45" t="s">
         <v>2375</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40464,7 +40519,7 @@
       <c r="C46" t="s">
         <v>3027</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40478,7 +40533,7 @@
       <c r="C47" t="s">
         <v>2754</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40492,7 +40547,7 @@
       <c r="C48" t="s">
         <v>3025</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40506,7 +40561,7 @@
       <c r="C49" t="s">
         <v>3023</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40520,7 +40575,7 @@
       <c r="C50" t="s">
         <v>3021</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40534,7 +40589,7 @@
       <c r="C51" t="s">
         <v>3019</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40548,7 +40603,7 @@
       <c r="C52" t="s">
         <v>3017</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40562,7 +40617,7 @@
       <c r="C53" t="s">
         <v>2894</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40576,7 +40631,7 @@
       <c r="C54" t="s">
         <v>3015</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40590,7 +40645,7 @@
       <c r="C55" t="s">
         <v>3013</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40604,7 +40659,7 @@
       <c r="C56" t="s">
         <v>3011</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40618,7 +40673,7 @@
       <c r="C57" t="s">
         <v>3009</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40632,7 +40687,7 @@
       <c r="C58" t="s">
         <v>3007</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40646,7 +40701,7 @@
       <c r="C59" t="s">
         <v>2611</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40660,7 +40715,7 @@
       <c r="C60" t="s">
         <v>2888</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40674,7 +40729,7 @@
       <c r="C61" t="s">
         <v>3005</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40688,7 +40743,7 @@
       <c r="C62" t="s">
         <v>3003</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40702,7 +40757,7 @@
       <c r="C63" t="s">
         <v>2883</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40716,7 +40771,7 @@
       <c r="C64" t="s">
         <v>3001</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40730,7 +40785,7 @@
       <c r="C65" t="s">
         <v>2999</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40744,7 +40799,7 @@
       <c r="C66" t="s">
         <v>2443</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40758,7 +40813,7 @@
       <c r="C67" t="s">
         <v>2997</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40772,7 +40827,7 @@
       <c r="C68" t="s">
         <v>2591</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40786,7 +40841,7 @@
       <c r="C69" t="s">
         <v>2995</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40800,7 +40855,7 @@
       <c r="C70" t="s">
         <v>2459</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40814,7 +40869,7 @@
       <c r="C71" t="s">
         <v>2993</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40828,7 +40883,7 @@
       <c r="C72" t="s">
         <v>2991</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40842,7 +40897,7 @@
       <c r="C73" t="s">
         <v>2585</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40856,7 +40911,7 @@
       <c r="C74" t="s">
         <v>2989</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40870,7 +40925,7 @@
       <c r="C75" t="s">
         <v>2987</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40884,7 +40939,7 @@
       <c r="C76" t="s">
         <v>2985</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40898,7 +40953,7 @@
       <c r="C77" t="s">
         <v>2879</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40912,7 +40967,7 @@
       <c r="C78" t="s">
         <v>2577</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40926,7 +40981,7 @@
       <c r="C79" t="s">
         <v>2983</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -40940,7 +40995,7 @@
       <c r="C80" t="s">
         <v>2981</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40954,7 +41009,7 @@
       <c r="C81" t="s">
         <v>2565</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -40968,7 +41023,7 @@
       <c r="C82" t="s">
         <v>2979</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40982,7 +41037,7 @@
       <c r="C83" t="s">
         <v>2486</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -40996,7 +41051,7 @@
       <c r="C84" t="s">
         <v>2977</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -41010,7 +41065,7 @@
       <c r="C85" t="s">
         <v>2975</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41024,12 +41079,12 @@
       <c r="C86" t="s">
         <v>2973</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="23" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:D5" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A5:D86" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
@@ -41045,7 +41100,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+      <selection activeCell="D5" sqref="D5:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41054,28 +41109,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>2815</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -41101,7 +41156,7 @@
       <c r="C5" t="s">
         <v>2813</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41115,7 +41170,7 @@
       <c r="C6" t="s">
         <v>2811</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -41129,7 +41184,7 @@
       <c r="C7" t="s">
         <v>2809</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -41143,7 +41198,7 @@
       <c r="C8" t="s">
         <v>2807</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41157,7 +41212,7 @@
       <c r="C9" t="s">
         <v>2805</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -41171,7 +41226,7 @@
       <c r="C10" t="s">
         <v>2803</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41185,7 +41240,7 @@
       <c r="C11" t="s">
         <v>2801</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41199,7 +41254,7 @@
       <c r="C12" t="s">
         <v>2799</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -41213,7 +41268,7 @@
       <c r="C13" t="s">
         <v>2768</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41227,7 +41282,7 @@
       <c r="C14" t="s">
         <v>2797</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -41241,7 +41296,7 @@
       <c r="C15" t="s">
         <v>2795</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41255,7 +41310,7 @@
       <c r="C16" t="s">
         <v>2766</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41269,7 +41324,7 @@
       <c r="C17" t="s">
         <v>2793</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -41283,7 +41338,7 @@
       <c r="C18" t="s">
         <v>2791</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41297,7 +41352,7 @@
       <c r="C19" t="s">
         <v>2789</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41311,7 +41366,7 @@
       <c r="C20" t="s">
         <v>2762</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -41325,7 +41380,7 @@
       <c r="C21" t="s">
         <v>2787</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41339,7 +41394,7 @@
       <c r="C22" t="s">
         <v>2785</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -41353,7 +41408,7 @@
       <c r="C23" t="s">
         <v>2760</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -41367,7 +41422,7 @@
       <c r="C24" t="s">
         <v>2783</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41381,7 +41436,7 @@
       <c r="C25" t="s">
         <v>2781</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41395,7 +41450,7 @@
       <c r="C26" t="s">
         <v>2758</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41409,7 +41464,7 @@
       <c r="C27" t="s">
         <v>2779</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -41423,7 +41478,7 @@
       <c r="C28" t="s">
         <v>2756</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41437,7 +41492,7 @@
       <c r="C29" t="s">
         <v>2777</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41451,7 +41506,7 @@
       <c r="C30" t="s">
         <v>2775</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41465,7 +41520,7 @@
       <c r="C31" t="s">
         <v>2773</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41479,12 +41534,12 @@
       <c r="C32" t="s">
         <v>2771</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="33" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A4:D32" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -41497,10 +41552,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2BA2F-892D-4630-855B-347AF86C8A77}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="D5" sqref="D5:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41510,28 +41566,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>3163</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>2553</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>2224</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -41547,7 +41603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -41557,7 +41613,7 @@
       <c r="C5" t="s">
         <v>2739</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41571,11 +41627,11 @@
       <c r="C6" t="s">
         <v>2235</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -41585,11 +41641,11 @@
       <c r="C7" t="s">
         <v>2241</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -41599,11 +41655,11 @@
       <c r="C8" t="s">
         <v>3165</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -41613,11 +41669,11 @@
       <c r="C9" t="s">
         <v>2725</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -41627,11 +41683,11 @@
       <c r="C10" t="s">
         <v>2723</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -41641,11 +41697,11 @@
       <c r="C11" t="s">
         <v>3167</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -41655,7 +41711,7 @@
       <c r="C12" t="s">
         <v>3150</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -41669,7 +41725,7 @@
       <c r="C13" t="s">
         <v>3169</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -41683,11 +41739,11 @@
       <c r="C14" t="s">
         <v>2257</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -41697,11 +41753,11 @@
       <c r="C15" t="s">
         <v>2265</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -41711,11 +41767,11 @@
       <c r="C16" t="s">
         <v>3171</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -41725,11 +41781,11 @@
       <c r="C17" t="s">
         <v>3173</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -41739,11 +41795,11 @@
       <c r="C18" t="s">
         <v>2277</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -41753,11 +41809,11 @@
       <c r="C19" t="s">
         <v>3175</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -41767,7 +41823,7 @@
       <c r="C20" t="s">
         <v>3136</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41781,11 +41837,11 @@
       <c r="C21" t="s">
         <v>3177</v>
       </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -41795,11 +41851,11 @@
       <c r="C22" t="s">
         <v>2970</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -41809,11 +41865,11 @@
       <c r="C23" t="s">
         <v>3179</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -41823,11 +41879,11 @@
       <c r="C24" t="s">
         <v>3181</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -41837,11 +41893,11 @@
       <c r="C25" t="s">
         <v>2705</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -41851,7 +41907,7 @@
       <c r="C26" t="s">
         <v>3183</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41865,11 +41921,11 @@
       <c r="C27" t="s">
         <v>3185</v>
       </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -41879,11 +41935,11 @@
       <c r="C28" t="s">
         <v>2910</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -41893,11 +41949,11 @@
       <c r="C29" t="s">
         <v>3187</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -41907,11 +41963,11 @@
       <c r="C30" t="s">
         <v>3189</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -41921,11 +41977,11 @@
       <c r="C31" t="s">
         <v>2297</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -41935,11 +41991,11 @@
       <c r="C32" t="s">
         <v>3191</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -41949,11 +42005,11 @@
       <c r="C33" t="s">
         <v>3193</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -41963,11 +42019,11 @@
       <c r="C34" t="s">
         <v>3195</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -41977,11 +42033,11 @@
       <c r="C35" t="s">
         <v>3197</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -41991,11 +42047,11 @@
       <c r="C36" t="s">
         <v>2687</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -42005,11 +42061,11 @@
       <c r="C37" t="s">
         <v>2968</v>
       </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -42019,11 +42075,11 @@
       <c r="C38" t="s">
         <v>2876</v>
       </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -42033,11 +42089,11 @@
       <c r="C39" t="s">
         <v>2683</v>
       </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -42047,11 +42103,11 @@
       <c r="C40" t="s">
         <v>3199</v>
       </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -42061,11 +42117,11 @@
       <c r="C41" t="s">
         <v>2325</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -42075,11 +42131,11 @@
       <c r="C42" t="s">
         <v>3201</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -42089,11 +42145,11 @@
       <c r="C43" t="s">
         <v>3096</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -42103,11 +42159,11 @@
       <c r="C44" t="s">
         <v>2331</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -42117,11 +42173,11 @@
       <c r="C45" t="s">
         <v>2675</v>
       </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -42131,11 +42187,11 @@
       <c r="C46" t="s">
         <v>3203</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -42145,11 +42201,11 @@
       <c r="C47" t="s">
         <v>3205</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -42159,11 +42215,11 @@
       <c r="C48" t="s">
         <v>3207</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -42173,11 +42229,11 @@
       <c r="C49" t="s">
         <v>3209</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -42187,11 +42243,11 @@
       <c r="C50" t="s">
         <v>3211</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -42201,11 +42257,11 @@
       <c r="C51" t="s">
         <v>3213</v>
       </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -42215,11 +42271,11 @@
       <c r="C52" t="s">
         <v>2957</v>
       </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -42229,11 +42285,11 @@
       <c r="C53" t="s">
         <v>2339</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -42243,11 +42299,11 @@
       <c r="C54" t="s">
         <v>3215</v>
       </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -42257,11 +42313,11 @@
       <c r="C55" t="s">
         <v>3217</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -42271,11 +42327,11 @@
       <c r="C56" t="s">
         <v>3219</v>
       </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -42285,11 +42341,11 @@
       <c r="C57" t="s">
         <v>2345</v>
       </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -42299,11 +42355,11 @@
       <c r="C58" t="s">
         <v>3221</v>
       </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -42313,11 +42369,11 @@
       <c r="C59" t="s">
         <v>3223</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -42327,11 +42383,11 @@
       <c r="C60" t="s">
         <v>3225</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -42341,11 +42397,11 @@
       <c r="C61" t="s">
         <v>2663</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -42355,11 +42411,11 @@
       <c r="C62" t="s">
         <v>3227</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -42369,11 +42425,11 @@
       <c r="C63" t="s">
         <v>2659</v>
       </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -42383,11 +42439,11 @@
       <c r="C64" t="s">
         <v>3229</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -42397,11 +42453,11 @@
       <c r="C65" t="s">
         <v>3231</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
@@ -42411,11 +42467,11 @@
       <c r="C66" t="s">
         <v>2943</v>
       </c>
-      <c r="D66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -42425,11 +42481,11 @@
       <c r="C67" t="s">
         <v>3233</v>
       </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -42439,11 +42495,11 @@
       <c r="C68" t="s">
         <v>3235</v>
       </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -42453,11 +42509,11 @@
       <c r="C69" t="s">
         <v>3237</v>
       </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
@@ -42467,11 +42523,11 @@
       <c r="C70" t="s">
         <v>3239</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -42481,7 +42537,7 @@
       <c r="C71" t="s">
         <v>3241</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -42495,7 +42551,7 @@
       <c r="C72" t="s">
         <v>3243</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -42509,11 +42565,11 @@
       <c r="C73" t="s">
         <v>2939</v>
       </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -42523,11 +42579,11 @@
       <c r="C74" t="s">
         <v>3245</v>
       </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -42537,11 +42593,11 @@
       <c r="C75" t="s">
         <v>2639</v>
       </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -42551,11 +42607,11 @@
       <c r="C76" t="s">
         <v>2637</v>
       </c>
-      <c r="D76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -42565,11 +42621,11 @@
       <c r="C77" t="s">
         <v>3247</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -42579,11 +42635,11 @@
       <c r="C78" t="s">
         <v>2379</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -42593,11 +42649,11 @@
       <c r="C79" t="s">
         <v>3249</v>
       </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
@@ -42607,11 +42663,11 @@
       <c r="C80" t="s">
         <v>3251</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -42621,11 +42677,11 @@
       <c r="C81" t="s">
         <v>3253</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>78</v>
       </c>
@@ -42635,11 +42691,11 @@
       <c r="C82" t="s">
         <v>3255</v>
       </c>
-      <c r="D82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -42649,11 +42705,11 @@
       <c r="C83" t="s">
         <v>3257</v>
       </c>
-      <c r="D83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -42663,11 +42719,11 @@
       <c r="C84" t="s">
         <v>3259</v>
       </c>
-      <c r="D84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -42677,11 +42733,11 @@
       <c r="C85" t="s">
         <v>3261</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
@@ -42691,11 +42747,11 @@
       <c r="C86" t="s">
         <v>2397</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
@@ -42705,11 +42761,11 @@
       <c r="C87" t="s">
         <v>3144</v>
       </c>
-      <c r="D87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -42719,11 +42775,11 @@
       <c r="C88" t="s">
         <v>3263</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
@@ -42733,11 +42789,11 @@
       <c r="C89" t="s">
         <v>3265</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>86</v>
       </c>
@@ -42747,11 +42803,11 @@
       <c r="C90" t="s">
         <v>3267</v>
       </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>87</v>
       </c>
@@ -42761,11 +42817,11 @@
       <c r="C91" t="s">
         <v>3269</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>88</v>
       </c>
@@ -42775,11 +42831,11 @@
       <c r="C92" t="s">
         <v>3271</v>
       </c>
-      <c r="D92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>89</v>
       </c>
@@ -42789,11 +42845,11 @@
       <c r="C93" t="s">
         <v>3273</v>
       </c>
-      <c r="D93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90</v>
       </c>
@@ -42803,11 +42859,11 @@
       <c r="C94" t="s">
         <v>3275</v>
       </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>91</v>
       </c>
@@ -42817,11 +42873,11 @@
       <c r="C95" t="s">
         <v>3277</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>92</v>
       </c>
@@ -42831,7 +42887,7 @@
       <c r="C96" t="s">
         <v>3279</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -42845,11 +42901,11 @@
       <c r="C97" t="s">
         <v>3281</v>
       </c>
-      <c r="D97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
@@ -42859,11 +42915,11 @@
       <c r="C98" t="s">
         <v>3283</v>
       </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -42873,11 +42929,11 @@
       <c r="C99" t="s">
         <v>3285</v>
       </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
@@ -42887,11 +42943,11 @@
       <c r="C100" t="s">
         <v>3287</v>
       </c>
-      <c r="D100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>97</v>
       </c>
@@ -42901,11 +42957,11 @@
       <c r="C101" t="s">
         <v>3289</v>
       </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>98</v>
       </c>
@@ -42915,11 +42971,11 @@
       <c r="C102" t="s">
         <v>3291</v>
       </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -42929,11 +42985,11 @@
       <c r="C103" t="s">
         <v>3293</v>
       </c>
-      <c r="D103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>100</v>
       </c>
@@ -42943,7 +42999,7 @@
       <c r="C104" t="s">
         <v>3295</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -42957,11 +43013,11 @@
       <c r="C105" t="s">
         <v>3297</v>
       </c>
-      <c r="D105" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>102</v>
       </c>
@@ -42971,11 +43027,11 @@
       <c r="C106" t="s">
         <v>3299</v>
       </c>
-      <c r="D106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>103</v>
       </c>
@@ -42985,11 +43041,11 @@
       <c r="C107" t="s">
         <v>3301</v>
       </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>104</v>
       </c>
@@ -42999,11 +43055,11 @@
       <c r="C108" t="s">
         <v>3303</v>
       </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>105</v>
       </c>
@@ -43013,11 +43069,11 @@
       <c r="C109" t="s">
         <v>3305</v>
       </c>
-      <c r="D109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>106</v>
       </c>
@@ -43027,11 +43083,11 @@
       <c r="C110" t="s">
         <v>3307</v>
       </c>
-      <c r="D110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>107</v>
       </c>
@@ -43041,11 +43097,11 @@
       <c r="C111" t="s">
         <v>3139</v>
       </c>
-      <c r="D111" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>108</v>
       </c>
@@ -43055,11 +43111,11 @@
       <c r="C112" t="s">
         <v>3309</v>
       </c>
-      <c r="D112" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>109</v>
       </c>
@@ -43069,11 +43125,11 @@
       <c r="C113" t="s">
         <v>3311</v>
       </c>
-      <c r="D113" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>110</v>
       </c>
@@ -43087,23 +43143,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>3314</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3315</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3316</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D4" xr:uid="{00EDD5DC-D63C-4FD9-81AD-3C4BC8CD6D26}"/>
+  <autoFilter ref="A4:D117" xr:uid="{00EDD5DC-D63C-4FD9-81AD-3C4BC8CD6D26}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="简单"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBEAD3D-F7C5-4861-A19C-EE3C6CD98C09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53216A42-89D7-482C-87F2-8AAC73BB1C2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="2175" windowWidth="21600" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="735" windowWidth="21600" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
-    <sheet name="程序员面试题金典" sheetId="4" r:id="rId2"/>
-    <sheet name="剑指Offer" sheetId="5" r:id="rId3"/>
+    <sheet name="程序员面试题金典" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="剑指Offer" sheetId="5" state="hidden" r:id="rId3"/>
     <sheet name="数组" sheetId="7" r:id="rId4"/>
     <sheet name="字符串" sheetId="8" r:id="rId5"/>
     <sheet name="双指针" sheetId="9" r:id="rId6"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6203" uniqueCount="3336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6209" uniqueCount="3338">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10067,6 +10067,12 @@
   </si>
   <si>
     <t>2020.7.10</t>
+  </si>
+  <si>
+    <t>2020.7.11</t>
+  </si>
+  <si>
+    <t>2020.7.11(self)</t>
   </si>
 </sst>
 </file>
@@ -10664,8 +10670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="D583" sqref="D583"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:XFD415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15839,7 +15845,9 @@
       <c r="C415" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D415" s="4"/>
+      <c r="D415" s="4" t="s">
+        <v>3336</v>
+      </c>
     </row>
     <row r="416" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="10">
@@ -17269,7 +17277,9 @@
       <c r="C533" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D533" s="4"/>
+      <c r="D533" s="4" t="s">
+        <v>3336</v>
+      </c>
     </row>
     <row r="534" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="10" t="s">
@@ -17683,7 +17693,9 @@
       <c r="C567" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D567" s="4"/>
+      <c r="D567" s="4" t="s">
+        <v>3337</v>
+      </c>
     </row>
     <row r="568" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="10">
@@ -18155,7 +18167,9 @@
       <c r="C606" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D606" s="3"/>
+      <c r="D606" s="3" t="s">
+        <v>3336</v>
+      </c>
     </row>
     <row r="607" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="10">
@@ -18615,7 +18629,9 @@
       <c r="C644" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D644" s="3"/>
+      <c r="D644" s="3" t="s">
+        <v>3337</v>
+      </c>
     </row>
     <row r="645" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="10" t="s">
@@ -18995,7 +19011,9 @@
       <c r="C675" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D675" s="4"/>
+      <c r="D675" s="4" t="s">
+        <v>3337</v>
+      </c>
     </row>
     <row r="676" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="10">
@@ -36336,7 +36354,7 @@
   <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37328,7 +37346,7 @@
       <c r="A91" s="11" t="s">
         <v>2400</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="20" t="s">
         <v>2401</v>
       </c>
       <c r="C91" s="20" t="s">
@@ -37361,7 +37379,7 @@
       <c r="A94" s="11" t="s">
         <v>2406</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="20" t="s">
         <v>2407</v>
       </c>
       <c r="C94" s="20" t="s">
@@ -37405,7 +37423,7 @@
       <c r="A98" s="11" t="s">
         <v>2414</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="20" t="s">
         <v>2415</v>
       </c>
       <c r="C98" s="20" t="s">
@@ -37438,7 +37456,7 @@
       <c r="A101" s="11" t="s">
         <v>2420</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="20" t="s">
         <v>2421</v>
       </c>
       <c r="C101" s="20" t="s">
@@ -37537,7 +37555,7 @@
       <c r="A110" s="11" t="s">
         <v>2438</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="20" t="s">
         <v>2439</v>
       </c>
       <c r="C110" s="20" t="s">
@@ -37570,7 +37588,7 @@
       <c r="A113" s="11" t="s">
         <v>2444</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="20" t="s">
         <v>2445</v>
       </c>
       <c r="C113" s="20" t="s">
@@ -37857,7 +37875,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716E9D98-5F25-4243-8DD4-D016DAD54EF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB53474-6EFC-4BFE-BB08-D198FF028E88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8610" yWindow="1215" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
     <sheet name="程序员面试题金典" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="剑指Offer" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="数组" sheetId="7" r:id="rId4"/>
+    <sheet name="数组" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="字符串" sheetId="8" r:id="rId5"/>
     <sheet name="双指针" sheetId="9" r:id="rId6"/>
     <sheet name="位操作" sheetId="16" r:id="rId7"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6380" uniqueCount="3475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6237" uniqueCount="3351">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10105,385 +10105,13 @@
     <t>#$408</t>
   </si>
   <si>
-    <t>一. 数组</t>
-  </si>
-  <si>
-    <t>题目分类</t>
-  </si>
-  <si>
-    <t>题目编号</t>
-  </si>
-  <si>
-    <t>数组的遍历</t>
-  </si>
-  <si>
-    <t>485、495、414、628</t>
-  </si>
-  <si>
-    <t>统计数组中的元素</t>
-  </si>
-  <si>
-    <t>645、697、448、442、41、274</t>
-  </si>
-  <si>
-    <t>数组的改变、移动</t>
-  </si>
-  <si>
-    <t>453、665、283</t>
-  </si>
-  <si>
-    <t>二维数组及滚动数组</t>
-  </si>
-  <si>
-    <t>118、119、661、598、419</t>
-  </si>
-  <si>
-    <t>数组的旋转</t>
-  </si>
-  <si>
-    <t>189、396</t>
-  </si>
-  <si>
-    <t>特定顺序遍历二维数组</t>
-  </si>
-  <si>
-    <t>54、59、498</t>
-  </si>
-  <si>
-    <t>二维数组变换</t>
-  </si>
-  <si>
-    <t>566、48、73、289</t>
-  </si>
-  <si>
-    <t>前缀和数组</t>
-  </si>
-  <si>
-    <t>303、304、238</t>
-  </si>
-  <si>
-    <t>二. 字符串</t>
-  </si>
-  <si>
-    <t>字符</t>
-  </si>
-  <si>
-    <t>回文串的定义</t>
-  </si>
-  <si>
-    <t>公共前缀</t>
-  </si>
-  <si>
-    <t>单词</t>
-  </si>
-  <si>
-    <t>434、58</t>
-  </si>
-  <si>
-    <t>字符串的反转</t>
-  </si>
-  <si>
-    <t>344、541、557、151</t>
-  </si>
-  <si>
-    <t>字符的统计</t>
-  </si>
-  <si>
-    <t>387、389、383、242、49、451、423、657、551、696、467、535</t>
-  </si>
-  <si>
-    <t>数字与字符串间转换</t>
-  </si>
-  <si>
-    <t>299、412、506、539、553、537、592、640、38、443、8、13、12、273、165、481</t>
-  </si>
-  <si>
-    <t>子序列</t>
-  </si>
-  <si>
-    <t>392、524、521、522</t>
-  </si>
-  <si>
-    <t>高精度运算</t>
-  </si>
-  <si>
-    <t>66、67、415、43、306</t>
-  </si>
-  <si>
-    <t>字符串变换</t>
-  </si>
-  <si>
-    <t>482、6、68</t>
-  </si>
-  <si>
-    <t>字符串匹配</t>
-  </si>
-  <si>
-    <t>28、686、459、214</t>
-  </si>
-  <si>
-    <t>中心拓展法</t>
-  </si>
-  <si>
-    <t>5、647</t>
-  </si>
-  <si>
-    <t>三. 数与位</t>
-  </si>
-  <si>
-    <t>数字的位操作</t>
-  </si>
-  <si>
-    <t>7、9、479、564、231、342、326、504、263、190、191、476、461、477、693、393、172、458、258、319、405、171、168、670、233、357、400</t>
-  </si>
-  <si>
-    <t>简单数学题</t>
-  </si>
-  <si>
-    <t>492、29、507</t>
-  </si>
-  <si>
-    <t>快速幂</t>
-  </si>
-  <si>
-    <t>50、372</t>
-  </si>
-  <si>
-    <t>四. 栈与递归</t>
-  </si>
-  <si>
-    <t>用栈访问最后若干元素</t>
-  </si>
-  <si>
-    <t>682、71、388</t>
-  </si>
-  <si>
-    <t>栈与计算器</t>
-  </si>
-  <si>
-    <t>150、227、224</t>
-  </si>
-  <si>
-    <t>栈与括号匹配</t>
-  </si>
-  <si>
-    <t>20、636、591、32</t>
-  </si>
-  <si>
-    <t>递归</t>
-  </si>
-  <si>
-    <t>385、341、394</t>
-  </si>
-  <si>
-    <t>五. 链表</t>
-  </si>
-  <si>
-    <t>链表的删除</t>
-  </si>
-  <si>
-    <t>203、237、19</t>
-  </si>
-  <si>
-    <t>链表的遍历</t>
-  </si>
-  <si>
-    <t>链表的旋转与反转</t>
-  </si>
-  <si>
-    <t>61、24、206、92、25</t>
-  </si>
-  <si>
-    <t>链表高精度加法</t>
-  </si>
-  <si>
-    <t>2、445</t>
-  </si>
-  <si>
-    <t>链表的合并</t>
-  </si>
-  <si>
-    <t>21、23</t>
-  </si>
-  <si>
-    <t>六. 哈希表</t>
-  </si>
-  <si>
-    <t>哈希表的查找、插入及删除</t>
-  </si>
-  <si>
-    <t>217、633、349、128、202、500、290、532、205、166、466、138</t>
-  </si>
-  <si>
-    <t>哈希表与索引</t>
-  </si>
-  <si>
-    <t>1、167、599、219、220</t>
-  </si>
-  <si>
-    <t>哈希表与统计</t>
-  </si>
-  <si>
-    <t>594、350、554、609、454、18</t>
-  </si>
-  <si>
-    <t>哈希表与前缀和</t>
-  </si>
-  <si>
-    <t>560、523、525</t>
-  </si>
-  <si>
     <t>八. 双指针法</t>
   </si>
   <si>
-    <t>头尾指针</t>
-  </si>
-  <si>
-    <t>345、680、167、15、16、18、11、42</t>
-  </si>
-  <si>
-    <t>同向双指针、滑动窗口</t>
-  </si>
-  <si>
-    <t>27、26、80、83、82、611、187、643、674、209、3、438、567、424、76、30</t>
-  </si>
-  <si>
-    <t>分段双指针</t>
-  </si>
-  <si>
-    <t>86、328、160、88、475</t>
-  </si>
-  <si>
-    <t>快慢指针</t>
-  </si>
-  <si>
-    <t>141、142、143、234、457、287</t>
-  </si>
-  <si>
-    <t>十一. 二分查找</t>
-  </si>
-  <si>
-    <t>二分查找应用(简单)</t>
-  </si>
-  <si>
-    <t>374、35、278、367、69、441</t>
-  </si>
-  <si>
-    <t>二分查找应用(中等)</t>
-  </si>
-  <si>
-    <t>34、540、275、436、300、354、658、162、4</t>
-  </si>
-  <si>
-    <t>二分查找与旋转数组</t>
-  </si>
-  <si>
-    <t>153、154、33、81</t>
-  </si>
-  <si>
-    <t>二分查找与矩阵</t>
-  </si>
-  <si>
-    <t>74、240</t>
-  </si>
-  <si>
-    <t>二分答案法</t>
-  </si>
-  <si>
-    <t>378、668、410、483</t>
-  </si>
-  <si>
-    <t>十二. 二进制运算的应用</t>
-  </si>
-  <si>
-    <t>异或的应用</t>
-  </si>
-  <si>
-    <t>89、136、137、260、268</t>
-  </si>
-  <si>
-    <t>与或非的应用</t>
-  </si>
-  <si>
-    <t>371、318、201</t>
-  </si>
-  <si>
-    <t>十三. 动态规划</t>
-  </si>
-  <si>
-    <t>数组中的动态规划</t>
-  </si>
-  <si>
-    <t>509、70、338、45、55、198、213、650、91、639、552、123、188、309、32、264、313、403</t>
-  </si>
-  <si>
-    <t>子数组、子序列中的动态规划</t>
-  </si>
-  <si>
-    <t>689、413、446、368、416、279</t>
-  </si>
-  <si>
-    <t>背包问题</t>
-  </si>
-  <si>
-    <t>322、518、474、494、377</t>
-  </si>
-  <si>
-    <t>矩阵中的动态规划</t>
-  </si>
-  <si>
-    <t>62、63、64、120、576、688、221、629、174、96、329</t>
-  </si>
-  <si>
-    <t>动态规划与字符串匹配</t>
-  </si>
-  <si>
-    <t>583、72、97、115、516、132、131、139、140、514、10、44</t>
-  </si>
-  <si>
-    <t>状态压缩动态规划</t>
-  </si>
-  <si>
-    <t>464、691、698、638、473</t>
-  </si>
-  <si>
-    <t>区间中的动态规划</t>
-  </si>
-  <si>
-    <t>486、664、375、312、546</t>
-  </si>
-  <si>
-    <t>树形dp</t>
-  </si>
-  <si>
-    <t>337、124</t>
-  </si>
-  <si>
-    <t>数位dp</t>
-  </si>
-  <si>
-    <t>233、600</t>
-  </si>
-  <si>
-    <t>十四. 数据结构</t>
-  </si>
-  <si>
-    <t>数据结构设计——栈与队列</t>
-  </si>
-  <si>
-    <t>225、232、284、622、641、155</t>
-  </si>
-  <si>
-    <t>数据结构设计——哈希表</t>
-  </si>
-  <si>
-    <t>676、355、380、381</t>
-  </si>
-  <si>
-    <t>数据结构设计——哈希与双向链表</t>
-  </si>
-  <si>
-    <t>432、146、460</t>
+    <t>2020.7.13</t>
+  </si>
+  <si>
+    <t>2020.7.13(self)</t>
   </si>
 </sst>
 </file>
@@ -10688,7 +10316,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10792,11 +10420,20 @@
     <xf numFmtId="6" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10805,19 +10442,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10859,6 +10484,496 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>475725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBC89D5-9A59-46E1-9041-1964A3E41693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963025" y="19050"/>
+          <a:ext cx="4200000" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8C2F88-7319-42A7-AD65-02ECE648D464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="76200"/>
+          <a:ext cx="8009524" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1361193</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263E9156-337D-4C2F-828E-F9BE0884772A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="9525"/>
+          <a:ext cx="7057143" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4646923</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A1DB1A-1A50-4469-99FF-9C418B45666B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="85725"/>
+          <a:ext cx="10219048" cy="2695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>36850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542831DB-E738-4CFE-9367-AEF7FA06FD22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="238125"/>
+          <a:ext cx="10000000" cy="1171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33682B4C-0FB8-4194-8545-BBA810AD07CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="38100"/>
+          <a:ext cx="9038095" cy="2580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17895</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32D0DF5-7CC3-400E-8433-2892271A0701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="76200"/>
+          <a:ext cx="9238095" cy="1171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>113483</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260311CD-38E9-4A76-9469-55CB1E0D17F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="47625"/>
+          <a:ext cx="6533333" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>332402</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0829835A-38B0-41D3-B1AC-35F582662F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="104775"/>
+          <a:ext cx="7780952" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28233</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC5C38B-8655-4ED7-A3F3-D594E7EC1349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="142875"/>
+          <a:ext cx="2733333" cy="1390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11126,8 +11241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11140,18 +11255,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="F1" s="28" t="s">
         <v>3312</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>3468</v>
-      </c>
+      <c r="I1" s="43"/>
       <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11167,12 +11280,6 @@
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>3349</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3350</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
@@ -11187,12 +11294,6 @@
       <c r="D3" s="3" t="s">
         <v>2192</v>
       </c>
-      <c r="I3" t="s">
-        <v>3469</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3470</v>
-      </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
@@ -11207,12 +11308,6 @@
       <c r="D4" s="4" t="s">
         <v>2221</v>
       </c>
-      <c r="I4" t="s">
-        <v>3471</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3472</v>
-      </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -11227,12 +11322,6 @@
       <c r="D5" s="3" t="s">
         <v>2538</v>
       </c>
-      <c r="I5" t="s">
-        <v>3473</v>
-      </c>
-      <c r="J5" t="s">
-        <v>3474</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
@@ -11358,7 +11447,9 @@
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>3349</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -11676,7 +11767,9 @@
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>3349</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -13391,7 +13484,7 @@
         <v>5</v>
       </c>
       <c r="D176" s="3"/>
-      <c r="E176" s="40" t="s">
+      <c r="E176" s="42" t="s">
         <v>3304</v>
       </c>
     </row>
@@ -13406,7 +13499,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="4"/>
-      <c r="E177" s="40"/>
+      <c r="E177" s="42"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
@@ -13419,7 +13512,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="3"/>
-      <c r="E178" s="40"/>
+      <c r="E178" s="42"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
@@ -13432,7 +13525,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="4"/>
-      <c r="E179" s="40"/>
+      <c r="E179" s="42"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
@@ -13457,7 +13550,7 @@
         <v>7</v>
       </c>
       <c r="D181" s="4"/>
-      <c r="E181" s="40" t="s">
+      <c r="E181" s="42" t="s">
         <v>3304</v>
       </c>
     </row>
@@ -13472,7 +13565,7 @@
         <v>5</v>
       </c>
       <c r="D182" s="3"/>
-      <c r="E182" s="40"/>
+      <c r="E182" s="42"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
@@ -13485,7 +13578,7 @@
         <v>5</v>
       </c>
       <c r="D183" s="4"/>
-      <c r="E183" s="40"/>
+      <c r="E183" s="42"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
@@ -13498,7 +13591,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="3"/>
-      <c r="E184" s="40"/>
+      <c r="E184" s="42"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
@@ -13511,7 +13604,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="4"/>
-      <c r="E185" s="40"/>
+      <c r="E185" s="42"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
@@ -13524,7 +13617,7 @@
         <v>10</v>
       </c>
       <c r="D186" s="3"/>
-      <c r="E186" s="40"/>
+      <c r="E186" s="42"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
@@ -16344,7 +16437,9 @@
       <c r="C416" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D416" s="3"/>
+      <c r="D416" s="3" t="s">
+        <v>3350</v>
+      </c>
     </row>
     <row r="417" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="10">
@@ -31490,15 +31585,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1522"/>
+  <drawing r:id="rId1523"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2BA2F-892D-4630-855B-347AF86C8A77}">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31508,46 +31604,31 @@
     <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>3148</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
-      <c r="G1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>2550</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
-      <c r="G2" t="s">
-        <v>3349</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>2222</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="G3" t="s">
-        <v>3450</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2223</v>
       </c>
@@ -31560,14 +31641,8 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>3452</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -31580,14 +31655,8 @@
       <c r="D5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
-        <v>3454</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>2</v>
       </c>
@@ -31600,14 +31669,8 @@
       <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>3456</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -31620,14 +31683,8 @@
       <c r="D7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
-        <v>3458</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -31640,14 +31697,8 @@
       <c r="D8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
-        <v>3460</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -31660,14 +31711,8 @@
       <c r="D9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
-        <v>3462</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -31680,14 +31725,8 @@
       <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
-        <v>3464</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -31700,14 +31739,8 @@
       <c r="D11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
-        <v>3466</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -31721,7 +31754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>9</v>
       </c>
@@ -31735,7 +31768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>10</v>
       </c>
@@ -31749,7 +31782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -31763,7 +31796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -33173,6 +33206,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33181,7 +33215,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G1" sqref="G1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33198,9 +33232,7 @@
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
-      <c r="G1" s="43" t="s">
-        <v>3396</v>
-      </c>
+      <c r="G1" s="43"/>
       <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -33210,26 +33242,14 @@
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
-      <c r="G2" t="s">
-        <v>3349</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3350</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>2861</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="G3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3398</v>
-      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -33244,12 +33264,6 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>3399</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3400</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -33264,12 +33278,6 @@
       <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>3401</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3402</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -33283,12 +33291,6 @@
       </c>
       <c r="D6" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3403</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3404</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -33735,12 +33737,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39066FC-A5CF-45A0-B754-257D1B057823}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33774,7 +33776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -33802,7 +33804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -33816,7 +33818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -33830,7 +33832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -33844,7 +33846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -33858,7 +33860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -33873,13 +33875,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D9" xr:uid="{00000000-0009-0000-0000-00000B000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="简单"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D9" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -33890,10 +33886,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763AD0AA-3B57-42E5-A446-1C59E0C93422}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F1" sqref="F1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33903,46 +33899,31 @@
     <col min="7" max="7" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>2963</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
-      <c r="F1" t="s">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>2550</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
-      <c r="F2" t="s">
-        <v>3349</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>2222</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="F3" t="s">
-        <v>3434</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2223</v>
       </c>
@@ -33955,14 +33936,8 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>3436</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -33975,14 +33950,8 @@
       <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>3438</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>2</v>
       </c>
@@ -33995,14 +33964,8 @@
       <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>3440</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>3</v>
       </c>
@@ -34015,14 +33978,8 @@
       <c r="D7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>3442</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -34036,7 +33993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -34050,7 +34007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -34064,7 +34021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -34078,7 +34035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -34092,7 +34049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -34106,7 +34063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -34120,7 +34077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -34134,7 +34091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -34661,12 +34618,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9297348D-86DA-451F-93BD-1403E5127234}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34696,12 +34653,12 @@
       <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -34717,7 +34674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -34731,7 +34688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -34759,7 +34716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -34773,7 +34730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -34787,7 +34744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -34801,7 +34758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -34815,7 +34772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -34829,7 +34786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -34843,7 +34800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -34857,7 +34814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -34871,7 +34828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -34899,7 +34856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -34913,7 +34870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -34941,7 +34898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -34955,7 +34912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -34969,7 +34926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -34983,7 +34940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -34997,7 +34954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -35011,7 +34968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -35040,13 +34997,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D27" xr:uid="{00000000-0009-0000-0000-00000A000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="简单"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:D27" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -35059,7 +35010,6 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A59C3A-532E-49A6-A258-BE69DF77CF7C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35093,7 +35043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -35107,7 +35057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -35135,7 +35085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -35149,7 +35099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -35164,13 +35114,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D7" xr:uid="{00000000-0009-0000-0000-000005000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="简单"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D7" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -35614,28 +35558,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>2906</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -35961,12 +35905,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>1492</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -37341,12 +37285,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>1708</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -38282,10 +38226,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8B07CB-5951-4E4D-9656-CC903CD16628}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38297,28 +38242,28 @@
     <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>2551</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>2224</v>
       </c>
@@ -38328,12 +38273,8 @@
       <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2226</v>
       </c>
@@ -38343,14 +38284,8 @@
       <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>3349</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>2228</v>
       </c>
@@ -38360,14 +38295,8 @@
       <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>3351</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>2230</v>
       </c>
@@ -38377,14 +38306,8 @@
       <c r="C7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
-        <v>3353</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>2232</v>
       </c>
@@ -38394,14 +38317,8 @@
       <c r="C8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>3355</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>2234</v>
       </c>
@@ -38411,14 +38328,8 @@
       <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>3357</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>2236</v>
       </c>
@@ -38428,14 +38339,8 @@
       <c r="C10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
-        <v>3359</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>2238</v>
       </c>
@@ -38445,14 +38350,8 @@
       <c r="C11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>3361</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>2240</v>
       </c>
@@ -38462,14 +38361,8 @@
       <c r="C12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F12" t="s">
-        <v>3363</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>2242</v>
       </c>
@@ -38479,14 +38372,8 @@
       <c r="C13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F13" t="s">
-        <v>3365</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>2244</v>
       </c>
@@ -38497,7 +38384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>2246</v>
       </c>
@@ -38508,7 +38395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>2248</v>
       </c>
@@ -38519,7 +38406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>2250</v>
       </c>
@@ -38530,7 +38417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>2252</v>
       </c>
@@ -38552,7 +38439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>2256</v>
       </c>
@@ -38574,7 +38461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>2260</v>
       </c>
@@ -38585,7 +38472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>2262</v>
       </c>
@@ -38596,7 +38483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>2264</v>
       </c>
@@ -38640,7 +38527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>2272</v>
       </c>
@@ -38651,7 +38538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>2274</v>
       </c>
@@ -38673,7 +38560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>2278</v>
       </c>
@@ -38684,7 +38571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>2280</v>
       </c>
@@ -38695,7 +38582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>2282</v>
       </c>
@@ -38706,7 +38593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>2284</v>
       </c>
@@ -38717,7 +38604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>2286</v>
       </c>
@@ -38728,7 +38615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>2288</v>
       </c>
@@ -38739,7 +38626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>2290</v>
       </c>
@@ -38750,7 +38637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>2292</v>
       </c>
@@ -38761,7 +38648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>2294</v>
       </c>
@@ -38772,7 +38659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>2296</v>
       </c>
@@ -38816,7 +38703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>2304</v>
       </c>
@@ -38838,7 +38725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>2308</v>
       </c>
@@ -38871,7 +38758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>2314</v>
       </c>
@@ -38882,7 +38769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>2316</v>
       </c>
@@ -38915,7 +38802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>2322</v>
       </c>
@@ -38926,7 +38813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>2324</v>
       </c>
@@ -38937,7 +38824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>2326</v>
       </c>
@@ -38948,7 +38835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>2328</v>
       </c>
@@ -38959,7 +38846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>2330</v>
       </c>
@@ -38992,7 +38879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>2336</v>
       </c>
@@ -39014,7 +38901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>2340</v>
       </c>
@@ -39025,7 +38912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>2342</v>
       </c>
@@ -39047,7 +38934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>2346</v>
       </c>
@@ -39058,7 +38945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>2348</v>
       </c>
@@ -39080,7 +38967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>2352</v>
       </c>
@@ -39091,7 +38978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>2354</v>
       </c>
@@ -39124,7 +39011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>2360</v>
       </c>
@@ -39146,7 +39033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>2364</v>
       </c>
@@ -39168,7 +39055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>2368</v>
       </c>
@@ -39179,7 +39066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>2370</v>
       </c>
@@ -39201,7 +39088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>2374</v>
       </c>
@@ -39212,7 +39099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>2376</v>
       </c>
@@ -39223,7 +39110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>2378</v>
       </c>
@@ -39245,7 +39132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>2382</v>
       </c>
@@ -39256,7 +39143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>2384</v>
       </c>
@@ -39278,7 +39165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>2388</v>
       </c>
@@ -39289,7 +39176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>2390</v>
       </c>
@@ -39311,7 +39198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>2394</v>
       </c>
@@ -39322,7 +39209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>2396</v>
       </c>
@@ -39344,7 +39231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>2400</v>
       </c>
@@ -39377,7 +39264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>2406</v>
       </c>
@@ -39388,7 +39275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>2408</v>
       </c>
@@ -39399,7 +39286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>2410</v>
       </c>
@@ -39421,7 +39308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>2414</v>
       </c>
@@ -39432,7 +39319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>2416</v>
       </c>
@@ -39454,7 +39341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>2420</v>
       </c>
@@ -39465,7 +39352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>2422</v>
       </c>
@@ -39476,7 +39363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>2424</v>
       </c>
@@ -39487,7 +39374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>2426</v>
       </c>
@@ -39498,7 +39385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>2428</v>
       </c>
@@ -39509,7 +39396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>2430</v>
       </c>
@@ -39520,7 +39407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>2432</v>
       </c>
@@ -39531,7 +39418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>2434</v>
       </c>
@@ -39553,7 +39440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>2438</v>
       </c>
@@ -39564,7 +39451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>2440</v>
       </c>
@@ -39575,7 +39462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>2442</v>
       </c>
@@ -39586,7 +39473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>2444</v>
       </c>
@@ -39597,7 +39484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>2446</v>
       </c>
@@ -39608,7 +39495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>2448</v>
       </c>
@@ -39619,7 +39506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>2450</v>
       </c>
@@ -39629,8 +39516,10 @@
       <c r="C117" s="27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>2452</v>
       </c>
@@ -39641,7 +39530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>2454</v>
       </c>
@@ -39652,7 +39541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>2456</v>
       </c>
@@ -39663,7 +39552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>2458</v>
       </c>
@@ -39674,7 +39563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>2460</v>
       </c>
@@ -39685,7 +39574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>2462</v>
       </c>
@@ -39696,7 +39585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>2464</v>
       </c>
@@ -39707,7 +39596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
         <v>3313</v>
       </c>
@@ -39717,8 +39606,10 @@
       <c r="C125" s="30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F125"/>
+      <c r="G125"/>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>2467</v>
       </c>
@@ -39728,8 +39619,10 @@
       <c r="C126" s="27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+    </row>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>2469</v>
       </c>
@@ -39740,7 +39633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>2471</v>
       </c>
@@ -39751,7 +39644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>2473</v>
       </c>
@@ -39762,7 +39655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>2475</v>
       </c>
@@ -39773,7 +39666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>2477</v>
       </c>
@@ -39784,7 +39677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>2479</v>
       </c>
@@ -39795,7 +39688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>2481</v>
       </c>
@@ -39806,7 +39699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="29" t="s">
         <v>3314</v>
       </c>
@@ -39816,8 +39709,10 @@
       <c r="C134" s="30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F134"/>
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>2484</v>
       </c>
@@ -39828,7 +39723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>2486</v>
       </c>
@@ -39840,27 +39735,34 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:C136" xr:uid="{225B1092-DA99-4F34-92CC-113F74939B21}"/>
-  <mergeCells count="4">
+  <autoFilter ref="A4:C136" xr:uid="{225B1092-DA99-4F34-92CC-113F74939B21}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="简单"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="3">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4F7005-EA04-453B-90A9-8D52E1CF9BD4}">
-  <dimension ref="A1:H99"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39870,7 +39772,7 @@
     <col min="8" max="8" width="78.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>2736</v>
       </c>
@@ -39878,7 +39780,7 @@
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>2550</v>
       </c>
@@ -39886,15 +39788,15 @@
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2223</v>
       </c>
@@ -39907,12 +39809,8 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>3367</v>
-      </c>
-      <c r="H4" s="43"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -39925,14 +39823,8 @@
       <c r="D5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
-        <v>3349</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -39945,14 +39837,8 @@
       <c r="D6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
-        <v>3368</v>
-      </c>
-      <c r="H6" s="45">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -39965,14 +39851,8 @@
       <c r="D7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
-        <v>3369</v>
-      </c>
-      <c r="H7" s="45">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -39985,54 +39865,36 @@
       <c r="D8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
-        <v>3370</v>
-      </c>
-      <c r="H8" s="45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>2727</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="22" t="s">
         <v>2726</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>3371</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="22" t="s">
         <v>2725</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="22" t="s">
         <v>2724</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>3373</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -40045,14 +39907,8 @@
       <c r="D11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
-        <v>3375</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -40065,14 +39921,8 @@
       <c r="D12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
-        <v>3377</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -40085,14 +39935,8 @@
       <c r="D13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
-        <v>3379</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -40105,14 +39949,8 @@
       <c r="D14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
-        <v>3381</v>
-      </c>
-      <c r="H14" t="s">
-        <v>3382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>11</v>
       </c>
@@ -40125,34 +39963,22 @@
       <c r="D15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
-        <v>3383</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="22" t="s">
         <v>2713</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="22" t="s">
         <v>2712</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G16" t="s">
-        <v>3385</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>13</v>
       </c>
@@ -40165,14 +39991,8 @@
       <c r="D17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G17" t="s">
-        <v>3387</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>14</v>
       </c>
@@ -40186,7 +40006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -40200,7 +40020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -40214,7 +40034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -40228,7 +40048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>18</v>
       </c>
@@ -40242,7 +40062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -40256,7 +40076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -40270,7 +40090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -40284,7 +40104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -40298,7 +40118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -40312,7 +40132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -40326,7 +40146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -40340,7 +40160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>26</v>
       </c>
@@ -40354,7 +40174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -40368,7 +40188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -40396,7 +40216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -40410,7 +40230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -40424,7 +40244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -40438,7 +40258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -40452,7 +40272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -40480,7 +40300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -40494,7 +40314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -40536,7 +40356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -40550,7 +40370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -40564,7 +40384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -40606,7 +40426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -40662,7 +40482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -40676,7 +40496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -40704,7 +40524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -40718,7 +40538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -40774,7 +40594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -40788,7 +40608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -40816,7 +40636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -40830,7 +40650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -40858,7 +40678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -40872,7 +40692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -40886,7 +40706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -40914,7 +40734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -40928,7 +40748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
@@ -40942,7 +40762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -40970,7 +40790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -40984,7 +40804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -40998,7 +40818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -41012,7 +40832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -41026,7 +40846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -41040,7 +40860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
@@ -41054,7 +40874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -41082,7 +40902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -41096,7 +40916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -41110,7 +40930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -41124,7 +40944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
@@ -41138,7 +40958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
@@ -41152,7 +40972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -41166,7 +40986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
@@ -41180,7 +41000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>86</v>
       </c>
@@ -41222,7 +41042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>89</v>
       </c>
@@ -41236,7 +41056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90</v>
       </c>
@@ -41250,7 +41070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>91</v>
       </c>
@@ -41264,7 +41084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>92</v>
       </c>
@@ -41278,7 +41098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
@@ -41292,7 +41112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
@@ -41321,27 +41141,33 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D99" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <mergeCells count="4">
+  <autoFilter ref="A4:D99" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="简单"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8283B1-4B7A-4BF8-A411-C39CFE5A2537}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41351,7 +41177,7 @@
     <col min="7" max="7" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>2763</v>
       </c>
@@ -41360,10 +41186,10 @@
       <c r="D1" s="43"/>
       <c r="E1" s="34"/>
       <c r="F1" t="s">
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>2550</v>
       </c>
@@ -41371,29 +41197,17 @@
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
       <c r="E2" s="34"/>
-      <c r="F2" t="s">
-        <v>3349</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="35"/>
-      <c r="F3" t="s">
-        <v>3425</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2223</v>
       </c>
@@ -41407,14 +41221,8 @@
         <v>2</v>
       </c>
       <c r="E4" s="35"/>
-      <c r="F4" t="s">
-        <v>3427</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -41428,14 +41236,8 @@
         <v>7</v>
       </c>
       <c r="E5" s="35"/>
-      <c r="F5" t="s">
-        <v>3429</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -41449,14 +41251,8 @@
         <v>7</v>
       </c>
       <c r="E6" s="35"/>
-      <c r="F6" t="s">
-        <v>3431</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -41471,7 +41267,7 @@
       </c>
       <c r="E7" s="35"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -41486,7 +41282,7 @@
       </c>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -41501,7 +41297,7 @@
       </c>
       <c r="E9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -41516,7 +41312,7 @@
       </c>
       <c r="E10" s="35"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -41531,7 +41327,7 @@
       </c>
       <c r="E11" s="35"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -41546,7 +41342,7 @@
       </c>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -41561,7 +41357,7 @@
       </c>
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -41576,7 +41372,7 @@
       </c>
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -41591,7 +41387,7 @@
       </c>
       <c r="E15" s="35"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -42053,6 +41849,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -42061,7 +41858,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42078,9 +41875,7 @@
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
-      <c r="G1" s="43" t="s">
-        <v>3389</v>
-      </c>
+      <c r="G1" s="43"/>
       <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -42090,26 +41885,15 @@
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
-      <c r="G2" t="s">
-        <v>3349</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3350</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="G3" t="s">
-        <v>3390</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>3391</v>
-      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -42124,12 +41908,6 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>3392</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3393</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -42144,12 +41922,6 @@
       <c r="D5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
-        <v>3394</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3395</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -42192,9 +41964,7 @@
       <c r="D8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="43" t="s">
-        <v>3444</v>
-      </c>
+      <c r="G8" s="43"/>
       <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -42209,12 +41979,6 @@
       </c>
       <c r="D9" s="32" t="s">
         <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3349</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3350</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -42230,12 +41994,6 @@
       <c r="D10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>3445</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3446</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -42249,12 +42007,6 @@
       </c>
       <c r="D11" s="22" t="s">
         <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3447</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3448</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -42548,15 +42300,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58792F2-8C5B-4D50-BE98-1901DB34862F}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42566,54 +42319,31 @@
     <col min="7" max="7" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>3055</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
-      <c r="F1" t="s">
-        <v>3415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>2550</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
-      <c r="F2" t="s">
-        <v>3349</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>2222</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="F3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>3418</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2223</v>
       </c>
@@ -42626,14 +42356,8 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>3420</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -42646,14 +42370,8 @@
       <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>3422</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -42667,7 +42385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -42681,7 +42399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -42695,7 +42413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -42709,7 +42427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -42723,7 +42441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -42737,7 +42455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -42751,7 +42469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>9</v>
       </c>
@@ -42765,7 +42483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>10</v>
       </c>
@@ -42779,7 +42497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>11</v>
       </c>
@@ -43782,6 +43500,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -43790,56 +43509,41 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>2808</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
-      <c r="F1" t="s">
-        <v>3405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>2550</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
-      <c r="F2" t="s">
-        <v>3349</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="F3" t="s">
-        <v>3406</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>3407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2223</v>
       </c>
@@ -43852,14 +43556,8 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>3408</v>
-      </c>
-      <c r="G4" s="47">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -43872,14 +43570,8 @@
       <c r="D5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>3409</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>2</v>
       </c>
@@ -43892,14 +43584,8 @@
       <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>3411</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>3</v>
       </c>
@@ -43912,14 +43598,8 @@
       <c r="D7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>3413</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -43933,7 +43613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -43947,7 +43627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -43961,7 +43641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -43975,7 +43655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -43989,7 +43669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -44003,7 +43683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -44017,7 +43697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -44031,7 +43711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -44278,5 +43958,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB53474-6EFC-4BFE-BB08-D198FF028E88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB6579-FE00-47F2-95CF-12164CFBC0C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="1215" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6237" uniqueCount="3351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6242" uniqueCount="3353">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10112,6 +10112,12 @@
   </si>
   <si>
     <t>2020.7.13(self)</t>
+  </si>
+  <si>
+    <t>2020.7.14(self)</t>
+  </si>
+  <si>
+    <t>2020.7.14</t>
   </si>
 </sst>
 </file>
@@ -11241,8 +11247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="D416" sqref="D416"/>
+    <sheetView topLeftCell="A645" workbookViewId="0">
+      <selection activeCell="D659" sqref="D659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12021,7 +12027,9 @@
       <c r="C59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>3352</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
@@ -17725,7 +17733,9 @@
       <c r="C522" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D522" s="3"/>
+      <c r="D522" s="3" t="s">
+        <v>3352</v>
+      </c>
     </row>
     <row r="523" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="10">
@@ -17967,7 +17977,9 @@
       <c r="C542" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D542" s="3"/>
+      <c r="D542" s="3" t="s">
+        <v>3351</v>
+      </c>
     </row>
     <row r="543" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="10">
@@ -18089,7 +18101,9 @@
       <c r="C552" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D552" s="3"/>
+      <c r="D552" s="3" t="s">
+        <v>3351</v>
+      </c>
     </row>
     <row r="553" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="10">
@@ -19381,7 +19395,9 @@
       <c r="C658" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D658" s="3"/>
+      <c r="D658" s="3" t="s">
+        <v>3351</v>
+      </c>
     </row>
     <row r="659" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="10">
@@ -39761,8 +39777,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40035,13 +40051,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="22">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="22" t="s">
         <v>2703</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="22" t="s">
         <v>2702</v>
       </c>
       <c r="D21" s="22" t="s">
@@ -40105,13 +40121,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="22">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="22" t="s">
         <v>2693</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="22" t="s">
         <v>2692</v>
       </c>
       <c r="D26" s="22" t="s">
@@ -40175,13 +40191,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="22">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="22" t="s">
         <v>2683</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="22" t="s">
         <v>2682</v>
       </c>
       <c r="D31" s="22" t="s">
@@ -40287,13 +40303,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="22">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="22" t="s">
         <v>2667</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="22" t="s">
         <v>2666</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -40777,13 +40793,13 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="22">
         <v>70</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="22" t="s">
         <v>2599</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="22" t="s">
         <v>2598</v>
       </c>
       <c r="D74" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB6579-FE00-47F2-95CF-12164CFBC0C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A2D489-72A4-461F-9A63-EC238489A338}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12870" yWindow="1995" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6242" uniqueCount="3353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6245" uniqueCount="3354">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10118,6 +10118,9 @@
   </si>
   <si>
     <t>2020.7.14</t>
+  </si>
+  <si>
+    <t>2020.7.15(self)</t>
   </si>
 </sst>
 </file>
@@ -11247,8 +11250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="D659" sqref="D659"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="D347" sqref="D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15585,7 +15588,9 @@
       <c r="C346" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D346" s="3"/>
+      <c r="D346" s="3" t="s">
+        <v>3353</v>
+      </c>
     </row>
     <row r="347" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="10" t="s">
@@ -21197,7 +21202,9 @@
       <c r="C805" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D805" s="4"/>
+      <c r="D805" s="4" t="s">
+        <v>3353</v>
+      </c>
     </row>
     <row r="806" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A806" s="10">
@@ -22701,7 +22708,9 @@
       <c r="C930" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D930" s="3"/>
+      <c r="D930" s="3" t="s">
+        <v>3353</v>
+      </c>
     </row>
     <row r="931" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A931" s="10">
@@ -39777,8 +39786,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40345,13 +40354,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="22">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="22" t="s">
         <v>2661</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="22" t="s">
         <v>2660</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -40359,13 +40368,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="22">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="22" t="s">
         <v>2659</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="22" t="s">
         <v>2658</v>
       </c>
       <c r="D43" s="22" t="s">
@@ -40415,13 +40424,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="22">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="22" t="s">
         <v>2651</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="22" t="s">
         <v>2650</v>
       </c>
       <c r="D47" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A2D489-72A4-461F-9A63-EC238489A338}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A6B78A-00DC-48BE-9FE2-DACB3B5105C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="1995" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="1650" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6245" uniqueCount="3354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6249" uniqueCount="3356">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10121,6 +10121,12 @@
   </si>
   <si>
     <t>2020.7.15(self)</t>
+  </si>
+  <si>
+    <t>2020.7.16(self)</t>
+  </si>
+  <si>
+    <t>2020.7.16</t>
   </si>
 </sst>
 </file>
@@ -11250,8 +11256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="D347" sqref="D347"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="E691" sqref="E691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16058,7 +16064,9 @@
       <c r="C384" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D384" s="3"/>
+      <c r="D384" s="3" t="s">
+        <v>3354</v>
+      </c>
     </row>
     <row r="385" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="10">
@@ -16986,7 +16994,9 @@
       <c r="C460" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D460" s="3"/>
+      <c r="D460" s="3" t="s">
+        <v>3355</v>
+      </c>
     </row>
     <row r="461" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="10">
@@ -19758,7 +19768,9 @@
       <c r="C687" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D687" s="4"/>
+      <c r="D687" s="4" t="s">
+        <v>3355</v>
+      </c>
     </row>
     <row r="688" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="10">
@@ -19878,7 +19890,9 @@
       <c r="C697" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D697" s="4"/>
+      <c r="D697" s="4" t="s">
+        <v>3355</v>
+      </c>
     </row>
     <row r="698" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="10">
@@ -39786,8 +39800,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40438,13 +40452,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="22">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="22" t="s">
         <v>2649</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="22" t="s">
         <v>2648</v>
       </c>
       <c r="D48" s="22" t="s">
@@ -40466,13 +40480,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="22">
         <v>46</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="22" t="s">
         <v>2645</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="22" t="s">
         <v>2644</v>
       </c>
       <c r="D50" s="22" t="s">
@@ -40480,13 +40494,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="22">
         <v>47</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="22" t="s">
         <v>2643</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="22" t="s">
         <v>2642</v>
       </c>
       <c r="D51" s="22" t="s">
@@ -40494,13 +40508,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="22">
         <v>48</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="22" t="s">
         <v>2641</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="22" t="s">
         <v>2640</v>
       </c>
       <c r="D52" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A6B78A-00DC-48BE-9FE2-DACB3B5105C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B26BB1-68B8-4428-87DB-3E28321F0A3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="1650" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10515" yWindow="1605" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6249" uniqueCount="3356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6252" uniqueCount="3358">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10127,6 +10127,12 @@
   </si>
   <si>
     <t>2020.7.16</t>
+  </si>
+  <si>
+    <t>2020.7.17</t>
+  </si>
+  <si>
+    <t>2020.7.17(self)</t>
   </si>
 </sst>
 </file>
@@ -11256,8 +11262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="E691" sqref="E691"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12868,7 +12874,9 @@
       <c r="C126" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>3357</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
@@ -16690,7 +16698,9 @@
       <c r="C435" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D435" s="4"/>
+      <c r="D435" s="4" t="s">
+        <v>3357</v>
+      </c>
     </row>
     <row r="436" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="10">
@@ -16798,7 +16808,9 @@
       <c r="C444" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D444" s="3"/>
+      <c r="D444" s="3" t="s">
+        <v>3356</v>
+      </c>
     </row>
     <row r="445" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="10" t="s">
@@ -39801,7 +39813,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C66"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40550,13 +40562,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="22">
         <v>51</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="22" t="s">
         <v>2635</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="22" t="s">
         <v>2634</v>
       </c>
       <c r="D55" s="22" t="s">
@@ -40592,13 +40604,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="22">
         <v>54</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="22" t="s">
         <v>2629</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="22" t="s">
         <v>2628</v>
       </c>
       <c r="D58" s="22" t="s">
@@ -40606,13 +40618,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="22">
         <v>55</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="22" t="s">
         <v>2627</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="22" t="s">
         <v>2626</v>
       </c>
       <c r="D59" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B26BB1-68B8-4428-87DB-3E28321F0A3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA1C3A-7BA1-4D37-A3E6-548B521C1EDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10515" yWindow="1605" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13320" yWindow="45" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6252" uniqueCount="3358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6256" uniqueCount="3361">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10133,6 +10133,15 @@
   </si>
   <si>
     <t>2020.7.17(self)</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>2020.7.18(self)</t>
+  </si>
+  <si>
+    <t>2020.7.18</t>
   </si>
 </sst>
 </file>
@@ -10142,7 +10151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10222,8 +10231,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10263,8 +10280,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -10329,15 +10351,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10465,9 +10512,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -11262,8 +11312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
+      <selection activeCell="D681" sqref="D681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17748,7 +17798,9 @@
       <c r="C521" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D521" s="4"/>
+      <c r="D521" s="4" t="s">
+        <v>3359</v>
+      </c>
     </row>
     <row r="522" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="10">
@@ -18802,7 +18854,9 @@
       <c r="C607" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D607" s="4"/>
+      <c r="D607" s="4" t="s">
+        <v>3360</v>
+      </c>
     </row>
     <row r="608" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="23" t="s">
@@ -19708,7 +19762,9 @@
       <c r="C681" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D681" s="4"/>
+      <c r="D681" s="4" t="s">
+        <v>3359</v>
+      </c>
     </row>
     <row r="682" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="10" t="s">
@@ -39810,10 +39866,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4F7005-EA04-453B-90A9-8D52E1CF9BD4}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40477,7 +40533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -40491,7 +40547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>46</v>
       </c>
@@ -40505,7 +40561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>47</v>
       </c>
@@ -40519,7 +40575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>48</v>
       </c>
@@ -40533,7 +40589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -40547,7 +40603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -40561,7 +40617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>51</v>
       </c>
@@ -40575,7 +40631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -40589,7 +40645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -40603,7 +40659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>54</v>
       </c>
@@ -40617,7 +40673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>55</v>
       </c>
@@ -40631,21 +40687,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
         <v>56</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="22" t="s">
         <v>2625</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="22" t="s">
         <v>2624</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -40659,7 +40715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -40673,21 +40729,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="47">
         <v>59</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="47" t="s">
         <v>2619</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="47" t="s">
         <v>2618</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="48" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -40716,13 +40775,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="22">
         <v>62</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="22" t="s">
         <v>2613</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="22" t="s">
         <v>2612</v>
       </c>
       <c r="D66" s="22" t="s">
@@ -41204,7 +41263,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C1048576 E63">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F4EFA4-6292-45B1-9CEA-F7DB0387D34C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB8048-7C06-450A-B05C-A79C51A41DB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="1680" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="双指针" sheetId="9" state="hidden" r:id="rId6"/>
     <sheet name="栈" sheetId="11" state="hidden" r:id="rId7"/>
     <sheet name="链表" sheetId="10" state="hidden" r:id="rId8"/>
-    <sheet name="二分搜索" sheetId="14" r:id="rId9"/>
+    <sheet name="二分搜索" sheetId="14" state="hidden" r:id="rId9"/>
     <sheet name="位操作" sheetId="16" r:id="rId10"/>
     <sheet name="动态规划" sheetId="21" r:id="rId11"/>
     <sheet name="排序" sheetId="17" state="hidden" r:id="rId12"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7083" uniqueCount="3629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7088" uniqueCount="3631">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10958,6 +10958,12 @@
   </si>
   <si>
     <t>贪心算法篇-29题(Greedy, 29 problems)</t>
+  </si>
+  <si>
+    <t>2020.7.19</t>
+  </si>
+  <si>
+    <t>2020.7.19(self)</t>
   </si>
 </sst>
 </file>
@@ -11868,15 +11874,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75199</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171271</xdr:rowOff>
+      <xdr:colOff>113299</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11899,7 +11905,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="76200"/>
+          <a:off x="6610350" y="609600"/>
           <a:ext cx="8009524" cy="1428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12275,8 +12281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="D684" sqref="D684"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="D463" sqref="D463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16943,7 +16949,9 @@
       <c r="C372" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D372" s="3"/>
+      <c r="D372" s="3" t="s">
+        <v>3629</v>
+      </c>
     </row>
     <row r="373" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="10">
@@ -17203,7 +17211,9 @@
       <c r="C393" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D393" s="4"/>
+      <c r="D393" s="4" t="s">
+        <v>3630</v>
+      </c>
     </row>
     <row r="394" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="10">
@@ -17803,7 +17813,9 @@
       <c r="C442" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D442" s="3"/>
+      <c r="D442" s="3" t="s">
+        <v>3630</v>
+      </c>
     </row>
     <row r="443" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="10">
@@ -18051,7 +18063,9 @@
       <c r="C462" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D462" s="3"/>
+      <c r="D462" s="3" t="s">
+        <v>3630</v>
+      </c>
     </row>
     <row r="463" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="10">
@@ -18219,7 +18233,9 @@
       <c r="C476" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D476" s="3"/>
+      <c r="D476" s="3" t="s">
+        <v>3629</v>
+      </c>
     </row>
     <row r="477" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="10">
@@ -32675,7 +32691,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32813,13 +32829,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="22">
+        <v>7</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>3091</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="22" t="s">
         <v>3090</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -32827,13 +32843,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="22">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="22" t="s">
         <v>3089</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="22" t="s">
         <v>3088</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -42555,7 +42571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8A570C-E4FF-4B89-B7B6-562260FE56D9}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -48378,7 +48394,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G9"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48637,13 +48653,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="22">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="22" t="s">
         <v>2947</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="22" t="s">
         <v>2946</v>
       </c>
       <c r="D20" s="22" t="s">
@@ -48819,13 +48835,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="22">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="22" t="s">
         <v>2931</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="22" t="s">
         <v>2930</v>
       </c>
       <c r="D33" s="22" t="s">
@@ -48931,13 +48947,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="22">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="22" t="s">
         <v>2921</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="22" t="s">
         <v>2920</v>
       </c>
       <c r="D41" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB8048-7C06-450A-B05C-A79C51A41DB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1449D4B-05B9-47FD-AF34-F2ACA8497C05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1680" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="1110" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7088" uniqueCount="3631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7093" uniqueCount="3631">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -12281,8 +12281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="D463" sqref="D463"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14725,7 +14725,9 @@
       <c r="C191" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="4"/>
+      <c r="D191" s="4" t="s">
+        <v>3629</v>
+      </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10">
@@ -17175,7 +17177,9 @@
       <c r="C390" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D390" s="3"/>
+      <c r="D390" s="3" t="s">
+        <v>3630</v>
+      </c>
     </row>
     <row r="391" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="10">
@@ -17323,7 +17327,9 @@
       <c r="C402" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D402" s="3"/>
+      <c r="D402" s="3" t="s">
+        <v>3629</v>
+      </c>
     </row>
     <row r="403" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="10">
@@ -18247,7 +18253,9 @@
       <c r="C477" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D477" s="4"/>
+      <c r="D477" s="4" t="s">
+        <v>3630</v>
+      </c>
     </row>
     <row r="478" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="10">
@@ -24745,7 +24753,9 @@
       <c r="C1010" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1010" s="3"/>
+      <c r="D1010" s="3" t="s">
+        <v>3630</v>
+      </c>
     </row>
     <row r="1011" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1011" s="10">
@@ -32691,7 +32701,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32871,13 +32881,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="22">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>3087</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="22" t="s">
         <v>3086</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -32885,13 +32895,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="22">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="22" t="s">
         <v>3085</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="22" t="s">
         <v>3084</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -32927,13 +32937,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="22">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="22" t="s">
         <v>3081</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="22" t="s">
         <v>3080</v>
       </c>
       <c r="D18" s="22" t="s">
@@ -32969,13 +32979,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="22">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="22" t="s">
         <v>3022</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="22" t="s">
         <v>3021</v>
       </c>
       <c r="D21" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1449D4B-05B9-47FD-AF34-F2ACA8497C05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE261580-ADB7-4F5B-A32E-C7635E90B60E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1110" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8385" yWindow="645" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7093" uniqueCount="3631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7098" uniqueCount="3633">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10964,6 +10964,12 @@
   </si>
   <si>
     <t>2020.7.19(self)</t>
+  </si>
+  <si>
+    <t>2020.7.20</t>
+  </si>
+  <si>
+    <t>2020.7.20(self)</t>
   </si>
 </sst>
 </file>
@@ -12281,8 +12287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14739,7 +14745,9 @@
       <c r="C192" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="3"/>
+      <c r="D192" s="3" t="s">
+        <v>3632</v>
+      </c>
     </row>
     <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10">
@@ -15237,7 +15245,9 @@
       <c r="C232" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="3"/>
+      <c r="D232" s="3" t="s">
+        <v>3632</v>
+      </c>
     </row>
     <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10">
@@ -16591,7 +16601,9 @@
       <c r="C343" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D343" s="4"/>
+      <c r="D343" s="4" t="s">
+        <v>3632</v>
+      </c>
     </row>
     <row r="344" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="10">
@@ -17377,7 +17389,9 @@
       <c r="C406" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D406" s="3"/>
+      <c r="D406" s="3" t="s">
+        <v>3631</v>
+      </c>
     </row>
     <row r="407" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="10">
@@ -20919,7 +20933,9 @@
       <c r="C694" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D694" s="3"/>
+      <c r="D694" s="3" t="s">
+        <v>3631</v>
+      </c>
     </row>
     <row r="695" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="10" t="s">
@@ -32701,7 +32717,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33021,13 +33037,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="22">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="22" t="s">
         <v>3071</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="22" t="s">
         <v>3070</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -33035,13 +33051,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="22">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="22" t="s">
         <v>3069</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="22" t="s">
         <v>3068</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -33049,13 +33065,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="22">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="22" t="s">
         <v>3067</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="22" t="s">
         <v>3066</v>
       </c>
       <c r="D26" s="22" t="s">
@@ -33077,13 +33093,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="22">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="22" t="s">
         <v>3063</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="22" t="s">
         <v>3062</v>
       </c>
       <c r="D28" s="22" t="s">
@@ -33119,13 +33135,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="22">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="22" t="s">
         <v>3057</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="22" t="s">
         <v>3056</v>
       </c>
       <c r="D31" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE261580-ADB7-4F5B-A32E-C7635E90B60E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF93416-BFF2-4D65-B674-7843DD8D9C38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="645" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="1815" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="栈" sheetId="11" state="hidden" r:id="rId7"/>
     <sheet name="链表" sheetId="10" state="hidden" r:id="rId8"/>
     <sheet name="二分搜索" sheetId="14" state="hidden" r:id="rId9"/>
-    <sheet name="位操作" sheetId="16" r:id="rId10"/>
-    <sheet name="动态规划" sheetId="21" r:id="rId11"/>
-    <sheet name="排序" sheetId="17" state="hidden" r:id="rId12"/>
-    <sheet name="哈希表" sheetId="15" r:id="rId13"/>
+    <sheet name="位操作" sheetId="16" state="hidden" r:id="rId10"/>
+    <sheet name="哈希表" sheetId="15" r:id="rId11"/>
+    <sheet name="动态规划" sheetId="21" r:id="rId12"/>
+    <sheet name="排序" sheetId="17" state="hidden" r:id="rId13"/>
     <sheet name="队列" sheetId="12" r:id="rId14"/>
     <sheet name="分治" sheetId="20" r:id="rId15"/>
     <sheet name="滑动窗口" sheetId="19" r:id="rId16"/>
@@ -44,15 +44,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">位操作!$A$4:$D$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">分治!$A$2:$D$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">剑指Offer!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">动态规划!$A$4:$D$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">动态规划!$A$4:$D$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">双指针!$A$4:$D$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">哈希表!$A$5:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">哈希表!$A$5:$D$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">回溯!$A$3:$D$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">图!$A$3:$D$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">堆!$A$4:$D$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">字符串!$A$4:$D$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">广度优先!$A$3:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">排序!$A$4:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">排序!$A$4:$D$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数组!$A$4:$C$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">栈!$A$4:$D$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">树!$A$3:$D$85</definedName>
@@ -64,12 +64,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">链表!$A$4:$D$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">队列!$A$2:$D$7</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7098" uniqueCount="3633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7101" uniqueCount="3635">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10970,6 +10978,12 @@
   </si>
   <si>
     <t>2020.7.20(self)</t>
+  </si>
+  <si>
+    <t>2020.7.21(self)</t>
+  </si>
+  <si>
+    <t>2020.7.21</t>
   </si>
 </sst>
 </file>
@@ -11438,23 +11452,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>17895</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104629</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>332402</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>123561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32D0DF5-7CC3-400E-8433-2892271A0701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0829835A-38B0-41D3-B1AC-35F582662F09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11470,8 +11484,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477000" y="76200"/>
-          <a:ext cx="9238095" cy="1171429"/>
+          <a:off x="6162675" y="104775"/>
+          <a:ext cx="7780952" cy="2114286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11977,23 +11991,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>332402</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>123561</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17895</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0829835A-38B0-41D3-B1AC-35F582662F09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32D0DF5-7CC3-400E-8433-2892271A0701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12009,8 +12023,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="104775"/>
-          <a:ext cx="7780952" cy="2114286"/>
+          <a:off x="6477000" y="76200"/>
+          <a:ext cx="9238095" cy="1171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12287,8 +12301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A717" workbookViewId="0">
+      <selection activeCell="D721" sqref="D721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16083,7 +16097,9 @@
       <c r="C300" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D300" s="3"/>
+      <c r="D300" s="3" t="s">
+        <v>3633</v>
+      </c>
     </row>
     <row r="301" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10">
@@ -20339,7 +20355,9 @@
       <c r="C646" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D646" s="3"/>
+      <c r="D646" s="3" t="s">
+        <v>3633</v>
+      </c>
     </row>
     <row r="647" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="10">
@@ -21275,7 +21293,9 @@
       <c r="C721" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D721" s="4"/>
+      <c r="D721" s="4" t="s">
+        <v>3634</v>
+      </c>
     </row>
     <row r="722" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="10">
@@ -33170,12 +33190,1219 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58792F2-8C5B-4D50-BE98-1901DB34862F}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3051</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>9</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>11</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>37</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>40</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>42</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>44</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>45</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>47</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>50</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>54</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
+        <v>62</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="31">
+        <v>70</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="31">
+        <v>75</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="31">
+        <v>77</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="31">
+        <v>78</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="31">
+        <v>79</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="31">
+        <v>81</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:D86" xr:uid="{00000000-0009-0000-0000-000008000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="简单"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2BA2F-892D-4630-855B-347AF86C8A77}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+      <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34782,7 +36009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9297348D-86DA-451F-93BD-1403E5127234}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -35165,1213 +36392,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58792F2-8C5B-4D50-BE98-1901DB34862F}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D86"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>3055</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>2222</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2224</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2225</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>1</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>2226</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>2227</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3054</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3053</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2735</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2734</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2239</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3052</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3051</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2860</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2859</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2856</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2855</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2260</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2261</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>9</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>3050</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>3049</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>10</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>3047</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>11</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>2758</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>2757</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3046</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3045</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2697</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2696</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2695</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2694</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2294</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2295</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2691</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2690</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3044</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3043</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3042</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3041</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2304</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3040</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3039</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2675</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2777</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2776</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3038</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3037</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3036</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3035</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3034</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3033</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2895</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2894</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2831</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3029</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2937</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2936</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>31</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3028</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3027</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3026</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3025</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3024</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3023</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3022</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3021</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3020</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3019</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
-        <v>37</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>2366</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>2367</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>38</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3017</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3016</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3015</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
-        <v>40</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>2372</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>2373</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>41</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3014</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3013</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
-        <v>42</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>2748</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>2747</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>43</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3012</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3011</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
-        <v>44</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>3010</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>3009</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>45</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3007</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>46</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3005</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>47</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3004</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3003</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>48</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2887</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2886</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>49</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3002</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3001</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>50</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3000</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2999</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>51</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2997</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>52</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2996</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2995</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>53</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2994</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2993</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
-        <v>54</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>2605</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>2604</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2881</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2880</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>56</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2992</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2991</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>57</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2990</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2989</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>58</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2876</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2875</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>59</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2988</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2987</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>60</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2986</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2985</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>61</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2440</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2441</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
-        <v>62</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>2984</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>2983</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>63</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2585</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2584</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>64</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2982</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2981</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>65</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2456</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2457</v>
-      </c>
-      <c r="D70" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>66</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2980</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2979</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>67</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2977</v>
-      </c>
-      <c r="D72" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>68</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2579</v>
-      </c>
-      <c r="D73" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>69</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2976</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2975</v>
-      </c>
-      <c r="D74" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="31">
-        <v>70</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>3336</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>2974</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>71</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2973</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2972</v>
-      </c>
-      <c r="D76" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>72</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2872</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2871</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>73</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2572</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2571</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>74</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2971</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2970</v>
-      </c>
-      <c r="D79" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="31">
-        <v>75</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>3337</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>2969</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>76</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2562</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2561</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="31">
-        <v>77</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>3338</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>2968</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="31">
-        <v>78</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>3311</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>2483</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="31">
-        <v>79</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>3339</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>2967</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>80</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2966</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2965</v>
-      </c>
-      <c r="D85" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="31">
-        <v>81</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>3340</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>2964</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A5:D86" xr:uid="{00000000-0009-0000-0000-000008000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="简单"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="3">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF93416-BFF2-4D65-B674-7843DD8D9C38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19106CAC-0C2B-4702-9390-915C9FC62BB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="1815" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12930" yWindow="990" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7101" uniqueCount="3635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="3637">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10984,6 +10984,12 @@
   </si>
   <si>
     <t>2020.7.21</t>
+  </si>
+  <si>
+    <t>2020.7.22(self)</t>
+  </si>
+  <si>
+    <t>2020.7.22</t>
   </si>
 </sst>
 </file>
@@ -12301,8 +12307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A717" workbookViewId="0">
-      <selection activeCell="D721" sqref="D721"/>
+    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
+      <selection activeCell="D595" sqref="D595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15989,7 +15995,9 @@
       <c r="C291" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D291" s="4"/>
+      <c r="D291" s="4" t="s">
+        <v>3635</v>
+      </c>
     </row>
     <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="s">
@@ -19501,7 +19509,9 @@
       <c r="C576" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D576" s="3"/>
+      <c r="D576" s="3" t="s">
+        <v>3635</v>
+      </c>
     </row>
     <row r="577" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="10">
@@ -19731,7 +19741,9 @@
       <c r="C595" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D595" s="4"/>
+      <c r="D595" s="4" t="s">
+        <v>3636</v>
+      </c>
     </row>
     <row r="596" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="10">
@@ -33194,8 +33206,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33692,13 +33704,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="22">
         <v>33</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="22" t="s">
         <v>3024</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="22" t="s">
         <v>3023</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -33706,13 +33718,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="22">
         <v>34</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="22" t="s">
         <v>3022</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="22" t="s">
         <v>3021</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -33762,13 +33774,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="22">
         <v>38</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="22" t="s">
         <v>3018</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="22" t="s">
         <v>3017</v>
       </c>
       <c r="D43" s="22" t="s">
@@ -33776,13 +33788,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="22">
         <v>39</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="22" t="s">
         <v>3016</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="22" t="s">
         <v>3015</v>
       </c>
       <c r="D44" s="22" t="s">
@@ -33832,13 +33844,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="22">
         <v>43</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="22" t="s">
         <v>3012</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="22" t="s">
         <v>3011</v>
       </c>
       <c r="D48" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19106CAC-0C2B-4702-9390-915C9FC62BB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E27739-1A5A-4927-817C-86DFD60F4FFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="990" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15990" yWindow="2040" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="3637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7107" uniqueCount="3638">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10990,6 +10990,9 @@
   </si>
   <si>
     <t>2020.7.22</t>
+  </si>
+  <si>
+    <t>2020.7.23</t>
   </si>
 </sst>
 </file>
@@ -12307,8 +12310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
-      <selection activeCell="D595" sqref="D595"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="D448" sqref="D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17933,7 +17936,9 @@
       <c r="C448" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D448" s="3"/>
+      <c r="D448" s="3" t="s">
+        <v>3637</v>
+      </c>
     </row>
     <row r="449" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="10">
@@ -18133,7 +18138,9 @@
       <c r="C464" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D464" s="3"/>
+      <c r="D464" s="3" t="s">
+        <v>3637</v>
+      </c>
     </row>
     <row r="465" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="10">
@@ -18589,7 +18596,9 @@
       <c r="C501" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D501" s="4"/>
+      <c r="D501" s="4" t="s">
+        <v>3637</v>
+      </c>
     </row>
     <row r="502" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="10">
@@ -33207,7 +33216,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A17" sqref="A17:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33410,13 +33419,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="22">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="22" t="s">
         <v>3046</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="22" t="s">
         <v>3045</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -33480,13 +33489,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="22">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="22" t="s">
         <v>3044</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="22" t="s">
         <v>3043</v>
       </c>
       <c r="D22" s="22" t="s">
@@ -33522,13 +33531,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="22">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="22" t="s">
         <v>3040</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="22" t="s">
         <v>3039</v>
       </c>
       <c r="D25" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E27739-1A5A-4927-817C-86DFD60F4FFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B5AF0-1FB1-4DC6-9554-86C294CAEFD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15990" yWindow="2040" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="1785" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7107" uniqueCount="3638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="3640">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10993,6 +10993,12 @@
   </si>
   <si>
     <t>2020.7.23</t>
+  </si>
+  <si>
+    <t>2020.7.24</t>
+  </si>
+  <si>
+    <t>2020.7.24(self)</t>
   </si>
 </sst>
 </file>
@@ -12310,8 +12316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="D448" sqref="D448"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="D410" sqref="D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14932,7 +14938,9 @@
       <c r="C205" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="4"/>
+      <c r="D205" s="4" t="s">
+        <v>3638</v>
+      </c>
     </row>
     <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10">
@@ -17466,7 +17474,9 @@
       <c r="C410" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D410" s="3"/>
+      <c r="D410" s="3" t="s">
+        <v>3639</v>
+      </c>
     </row>
     <row r="411" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="10">
@@ -20936,7 +20946,9 @@
       <c r="C691" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D691" s="4"/>
+      <c r="D691" s="4" t="s">
+        <v>3638</v>
+      </c>
     </row>
     <row r="692" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="10">
@@ -33216,7 +33228,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C25"/>
+      <selection activeCell="A29" sqref="A29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33573,13 +33585,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="22">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="22" t="s">
         <v>3038</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="22" t="s">
         <v>3037</v>
       </c>
       <c r="D28" s="22" t="s">
@@ -33587,13 +33599,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="22">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="22" t="s">
         <v>3036</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="22" t="s">
         <v>3035</v>
       </c>
       <c r="D29" s="22" t="s">
@@ -33601,13 +33613,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="22">
         <v>25</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="22" t="s">
         <v>3034</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="22" t="s">
         <v>3033</v>
       </c>
       <c r="D30" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B5AF0-1FB1-4DC6-9554-86C294CAEFD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC647D54-9297-4C7B-B7DE-2A76FBB3DDCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="1785" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="1305" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="链表" sheetId="10" state="hidden" r:id="rId8"/>
     <sheet name="二分搜索" sheetId="14" state="hidden" r:id="rId9"/>
     <sheet name="位操作" sheetId="16" state="hidden" r:id="rId10"/>
-    <sheet name="哈希表" sheetId="15" r:id="rId11"/>
+    <sheet name="哈希表" sheetId="15" state="hidden" r:id="rId11"/>
     <sheet name="动态规划" sheetId="21" r:id="rId12"/>
     <sheet name="排序" sheetId="17" state="hidden" r:id="rId13"/>
     <sheet name="队列" sheetId="12" r:id="rId14"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="3640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7113" uniqueCount="3641">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10999,6 +10999,9 @@
   </si>
   <si>
     <t>2020.7.24(self)</t>
+  </si>
+  <si>
+    <t>2020.7.25</t>
   </si>
 </sst>
 </file>
@@ -11241,7 +11244,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11353,6 +11356,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="5"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12314,10 +12320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1697"/>
+  <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="D410" sqref="D410"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12330,17 +12336,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="F1" s="28" t="s">
         <v>3309</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -14565,7 +14571,7 @@
         <v>5</v>
       </c>
       <c r="D176" s="3"/>
-      <c r="E176" s="44" t="s">
+      <c r="E176" s="45" t="s">
         <v>3301</v>
       </c>
     </row>
@@ -14580,7 +14586,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="4"/>
-      <c r="E177" s="44"/>
+      <c r="E177" s="45"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
@@ -14593,7 +14599,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="3"/>
-      <c r="E178" s="44"/>
+      <c r="E178" s="45"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
@@ -14606,7 +14612,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="4"/>
-      <c r="E179" s="44"/>
+      <c r="E179" s="45"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
@@ -14631,7 +14637,7 @@
         <v>7</v>
       </c>
       <c r="D181" s="4"/>
-      <c r="E181" s="44" t="s">
+      <c r="E181" s="45" t="s">
         <v>3301</v>
       </c>
     </row>
@@ -14646,7 +14652,7 @@
         <v>5</v>
       </c>
       <c r="D182" s="3"/>
-      <c r="E182" s="44"/>
+      <c r="E182" s="45"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
@@ -14659,7 +14665,7 @@
         <v>5</v>
       </c>
       <c r="D183" s="4"/>
-      <c r="E183" s="44"/>
+      <c r="E183" s="45"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
@@ -14672,7 +14678,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="3"/>
-      <c r="E184" s="44"/>
+      <c r="E184" s="45"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
@@ -14685,7 +14691,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="4"/>
-      <c r="E185" s="44"/>
+      <c r="E185" s="45"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
@@ -14698,7 +14704,7 @@
         <v>10</v>
       </c>
       <c r="D186" s="3"/>
-      <c r="E186" s="44"/>
+      <c r="E186" s="45"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
@@ -14860,7 +14866,9 @@
       <c r="C199" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="4"/>
+      <c r="D199" s="4" t="s">
+        <v>3640</v>
+      </c>
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10">
@@ -16166,7 +16174,9 @@
       <c r="C304" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D304" s="3"/>
+      <c r="D304" s="3" t="s">
+        <v>3640</v>
+      </c>
     </row>
     <row r="305" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10">
@@ -25018,7 +25028,9 @@
       <c r="C1026" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1026" s="3"/>
+      <c r="D1026" s="3" t="s">
+        <v>3640</v>
+      </c>
     </row>
     <row r="1027" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1027" s="10">
@@ -30809,174 +30821,150 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1508" spans="1:6" s="33" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1508" s="38">
+    <row r="1508" spans="1:6" s="43" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1508" s="36">
+        <v>1507</v>
+      </c>
+      <c r="B1508" s="8" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C1508" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1508" s="43" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:6" s="43" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1509" s="36">
+        <v>1508</v>
+      </c>
+      <c r="B1509" s="8" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C1509" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1509" s="43" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" s="43" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1510" s="36">
+        <v>1509</v>
+      </c>
+      <c r="B1510" s="8" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C1510" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" s="43" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1511" s="36">
+        <v>1510</v>
+      </c>
+      <c r="B1511" s="8" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1511" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:6" s="33" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1512" s="38">
         <v>1511</v>
       </c>
-      <c r="B1508" s="8" t="s">
+      <c r="B1512" s="8" t="s">
         <v>3325</v>
       </c>
-      <c r="C1508" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:6" s="33" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1509" s="36">
-        <v>5177</v>
-      </c>
-      <c r="B1509" s="8" t="s">
-        <v>3326</v>
-      </c>
-      <c r="C1509" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1509" s="33" t="s">
-        <v>3317</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:6" s="33" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1510" s="37">
-        <v>5445</v>
-      </c>
-      <c r="B1510" s="8" t="s">
-        <v>3327</v>
-      </c>
-      <c r="C1510" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1510" s="33" t="s">
-        <v>3317</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:6" s="33" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1511" s="36">
-        <v>5446</v>
-      </c>
-      <c r="B1511" s="8" t="s">
-        <v>3328</v>
-      </c>
-      <c r="C1511" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1512" spans="1:6" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1512" s="37">
-        <v>5447</v>
-      </c>
-      <c r="B1512" s="8" t="s">
-        <v>3329</v>
-      </c>
       <c r="C1512" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1512" s="33"/>
-      <c r="E1512" s="33"/>
-      <c r="F1512" s="33"/>
-    </row>
-    <row r="1513" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1513" s="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" s="33" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1513" s="36"/>
       <c r="B1513" s="8"/>
       <c r="C1513" s="3"/>
-      <c r="D1513" s="33"/>
-      <c r="E1513"/>
-      <c r="F1513" s="33"/>
-    </row>
-    <row r="1514" spans="1:6" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1514" s="10"/>
+    </row>
+    <row r="1514" spans="1:6" s="33" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1514" s="36"/>
       <c r="B1514" s="8"/>
       <c r="C1514" s="3"/>
-      <c r="E1514"/>
-    </row>
-    <row r="1515" spans="1:6" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1515" s="10"/>
+    </row>
+    <row r="1515" spans="1:6" s="33" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1515" s="36"/>
       <c r="B1515" s="8"/>
       <c r="C1515" s="3"/>
-      <c r="E1515"/>
-    </row>
-    <row r="1516" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1516" s="10" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B1516" s="7" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C1516" s="3" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="1516" spans="1:6" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1516" s="36"/>
+      <c r="B1516" s="8"/>
+      <c r="C1516" s="3"/>
+      <c r="D1516" s="33"/>
+      <c r="E1516" s="33"/>
       <c r="F1516" s="33"/>
     </row>
     <row r="1517" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1517" s="10" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B1517" s="8" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C1517" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1518" s="10" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B1518" s="7" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C1518" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1519" s="10" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B1519" s="8" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C1519" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A1517" s="10"/>
+      <c r="B1517" s="8"/>
+      <c r="C1517" s="3"/>
+      <c r="D1517" s="33"/>
+      <c r="E1517"/>
+      <c r="F1517" s="33"/>
+    </row>
+    <row r="1518" spans="1:6" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1518" s="10"/>
+      <c r="B1518" s="8"/>
+      <c r="C1518" s="3"/>
+      <c r="E1518"/>
+    </row>
+    <row r="1519" spans="1:6" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1519" s="10"/>
+      <c r="B1519" s="8"/>
+      <c r="C1519" s="3"/>
+      <c r="E1519"/>
     </row>
     <row r="1520" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1520" s="10" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="B1520" s="7" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C1520" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F1520" s="33"/>
     </row>
     <row r="1521" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1521" s="10" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="B1521" s="8" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="C1521" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1522" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1522" s="10" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B1522" s="7" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="C1522" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1523" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1523" s="10" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="B1523" s="8" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="C1523" s="4" t="s">
         <v>10</v>
@@ -30984,21 +30972,21 @@
     </row>
     <row r="1524" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1524" s="10" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="B1524" s="7" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="C1524" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1525" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1525" s="10" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="B1525" s="8" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="C1525" s="4" t="s">
         <v>5</v>
@@ -31006,10 +30994,10 @@
     </row>
     <row r="1526" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1526" s="10" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="B1526" s="7" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="C1526" s="3" t="s">
         <v>7</v>
@@ -31017,10 +31005,10 @@
     </row>
     <row r="1527" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1527" s="10" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="B1527" s="8" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="C1527" s="4" t="s">
         <v>10</v>
@@ -31028,10 +31016,10 @@
     </row>
     <row r="1528" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1528" s="10" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="B1528" s="7" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="C1528" s="3" t="s">
         <v>10</v>
@@ -31039,30 +31027,70 @@
     </row>
     <row r="1529" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1529" s="10" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="B1529" s="8" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="C1529" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1530" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1530" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1530" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C1530" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1531" s="10" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1531" s="8" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C1531" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1532" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1532" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C1532" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1533" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1533" s="8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C1533" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1534" s="10" t="s">
         <v>1490</v>
       </c>
-      <c r="B1530" s="7" t="s">
+      <c r="B1534" s="7" t="s">
         <v>1491</v>
       </c>
-      <c r="C1530" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1532" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1533" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1534" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C1534" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="1535" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1536" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1537" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -31226,6 +31254,10 @@
     <row r="1695" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1696" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1697" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1698" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1699" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1700" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1701" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{5165F1EF-78E9-4966-B538-E9E3BC66CD1B}"/>
   <mergeCells count="4">
@@ -32680,22 +32712,22 @@
     <hyperlink ref="B1444" r:id="rId1442" display="https://leetcode-cn.com/problems/minimum-time-to-collect-all-apples-in-a-tree" xr:uid="{26C99996-EF95-41E0-AC28-7ACC44E27D73}"/>
     <hyperlink ref="B1445" r:id="rId1443" display="https://leetcode-cn.com/problems/number-of-ways-of-cutting-a-pizza" xr:uid="{399F5F11-C4D3-4E4E-B284-B30210CDDC71}"/>
     <hyperlink ref="B1446" r:id="rId1444" display="https://leetcode-cn.com/problems/apples-oranges" xr:uid="{4EA7D115-D121-4BCC-99F9-CD083ECA09C8}"/>
-    <hyperlink ref="B1515" r:id="rId1445" display="https://leetcode-cn.com/problems/guess-numbers" xr:uid="{69087C18-FA9C-40B3-AF17-043A96496574}"/>
-    <hyperlink ref="B1516" r:id="rId1446" display="https://leetcode-cn.com/problems/deep-dark-fraction" xr:uid="{114BD6E4-01F4-4B7F-A39C-5F005CAF496A}"/>
-    <hyperlink ref="B1517" r:id="rId1447" display="https://leetcode-cn.com/problems/programmable-robot" xr:uid="{5AB364F8-5855-443C-BF25-0AAD6261A637}"/>
-    <hyperlink ref="B1518" r:id="rId1448" display="https://leetcode-cn.com/problems/broken-board-dominoes" xr:uid="{F4A53F44-AA5A-483F-9C5B-6D3834B9E37D}"/>
-    <hyperlink ref="B1519" r:id="rId1449" display="https://leetcode-cn.com/problems/coin-bonus" xr:uid="{F83EFE64-1C11-462B-BAED-11146005F3A9}"/>
-    <hyperlink ref="B1520" r:id="rId1450" display="https://leetcode-cn.com/problems/na-ying-bi" xr:uid="{A76A66F5-E848-44C7-B3DA-9E7DD8A8C044}"/>
-    <hyperlink ref="B1521" r:id="rId1451" display="https://leetcode-cn.com/problems/chuan-di-xin-xi" xr:uid="{92733632-EA18-4A8A-8FF7-FF778E2296C5}"/>
-    <hyperlink ref="B1522" r:id="rId1452" display="https://leetcode-cn.com/problems/ju-qing-hong-fa-shi-jian" xr:uid="{180831C5-B17B-47C8-96E5-BD6168FE5F93}"/>
-    <hyperlink ref="B1523" r:id="rId1453" display="https://leetcode-cn.com/problems/zui-xiao-tiao-yue-ci-shu" xr:uid="{43E72EB8-A0E0-4323-A2F1-445E96866D3B}"/>
-    <hyperlink ref="B1524" r:id="rId1454" display="https://leetcode-cn.com/problems/er-cha-shu-ren-wu-diao-du" xr:uid="{362A3653-8A6F-4C30-AC3C-F3F60DB66B09}"/>
-    <hyperlink ref="B1525" r:id="rId1455" display="https://leetcode-cn.com/problems/qi-wang-ge-shu-tong-ji" xr:uid="{9CA6765F-77AE-48E9-96CE-211D96171ADE}"/>
-    <hyperlink ref="B1526" r:id="rId1456" display="https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua" xr:uid="{64E0E543-DA06-49F5-ABA0-93AFBC6AE494}"/>
-    <hyperlink ref="B1527" r:id="rId1457" display="https://leetcode-cn.com/problems/xun-bao" xr:uid="{D7038CDA-E564-465B-9BE5-F87650501858}"/>
-    <hyperlink ref="B1528" r:id="rId1458" display="https://leetcode-cn.com/problems/qie-fen-shu-zu" xr:uid="{9812E229-7AF3-488C-A910-903A3CEB1C27}"/>
-    <hyperlink ref="B1529" r:id="rId1459" display="https://leetcode-cn.com/problems/you-le-yuan-de-mi-gong" xr:uid="{83653B12-D1CB-40CE-85A9-7080941CA862}"/>
-    <hyperlink ref="B1530" r:id="rId1460" display="https://leetcode-cn.com/problems/you-le-yuan-de-you-lan-ji-hua" xr:uid="{FEFCF74B-B5BC-42D7-88BE-EFDE007579B8}"/>
+    <hyperlink ref="B1519" r:id="rId1445" display="https://leetcode-cn.com/problems/guess-numbers" xr:uid="{69087C18-FA9C-40B3-AF17-043A96496574}"/>
+    <hyperlink ref="B1520" r:id="rId1446" display="https://leetcode-cn.com/problems/deep-dark-fraction" xr:uid="{114BD6E4-01F4-4B7F-A39C-5F005CAF496A}"/>
+    <hyperlink ref="B1521" r:id="rId1447" display="https://leetcode-cn.com/problems/programmable-robot" xr:uid="{5AB364F8-5855-443C-BF25-0AAD6261A637}"/>
+    <hyperlink ref="B1522" r:id="rId1448" display="https://leetcode-cn.com/problems/broken-board-dominoes" xr:uid="{F4A53F44-AA5A-483F-9C5B-6D3834B9E37D}"/>
+    <hyperlink ref="B1523" r:id="rId1449" display="https://leetcode-cn.com/problems/coin-bonus" xr:uid="{F83EFE64-1C11-462B-BAED-11146005F3A9}"/>
+    <hyperlink ref="B1524" r:id="rId1450" display="https://leetcode-cn.com/problems/na-ying-bi" xr:uid="{A76A66F5-E848-44C7-B3DA-9E7DD8A8C044}"/>
+    <hyperlink ref="B1525" r:id="rId1451" display="https://leetcode-cn.com/problems/chuan-di-xin-xi" xr:uid="{92733632-EA18-4A8A-8FF7-FF778E2296C5}"/>
+    <hyperlink ref="B1526" r:id="rId1452" display="https://leetcode-cn.com/problems/ju-qing-hong-fa-shi-jian" xr:uid="{180831C5-B17B-47C8-96E5-BD6168FE5F93}"/>
+    <hyperlink ref="B1527" r:id="rId1453" display="https://leetcode-cn.com/problems/zui-xiao-tiao-yue-ci-shu" xr:uid="{43E72EB8-A0E0-4323-A2F1-445E96866D3B}"/>
+    <hyperlink ref="B1528" r:id="rId1454" display="https://leetcode-cn.com/problems/er-cha-shu-ren-wu-diao-du" xr:uid="{362A3653-8A6F-4C30-AC3C-F3F60DB66B09}"/>
+    <hyperlink ref="B1529" r:id="rId1455" display="https://leetcode-cn.com/problems/qi-wang-ge-shu-tong-ji" xr:uid="{9CA6765F-77AE-48E9-96CE-211D96171ADE}"/>
+    <hyperlink ref="B1530" r:id="rId1456" display="https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua" xr:uid="{64E0E543-DA06-49F5-ABA0-93AFBC6AE494}"/>
+    <hyperlink ref="B1531" r:id="rId1457" display="https://leetcode-cn.com/problems/xun-bao" xr:uid="{D7038CDA-E564-465B-9BE5-F87650501858}"/>
+    <hyperlink ref="B1532" r:id="rId1458" display="https://leetcode-cn.com/problems/qie-fen-shu-zu" xr:uid="{9812E229-7AF3-488C-A910-903A3CEB1C27}"/>
+    <hyperlink ref="B1533" r:id="rId1459" display="https://leetcode-cn.com/problems/you-le-yuan-de-mi-gong" xr:uid="{83653B12-D1CB-40CE-85A9-7080941CA862}"/>
+    <hyperlink ref="B1534" r:id="rId1460" display="https://leetcode-cn.com/problems/you-le-yuan-de-you-lan-ji-hua" xr:uid="{FEFCF74B-B5BC-42D7-88BE-EFDE007579B8}"/>
     <hyperlink ref="B1447" r:id="rId1461" display="https://leetcode-cn.com/problems/consecutive-characters" xr:uid="{CF4321A1-6252-461C-9B12-23ED59AABFE8}"/>
     <hyperlink ref="B1448" r:id="rId1462" display="https://leetcode-cn.com/problems/simplified-fractions" xr:uid="{A5D3E664-F486-4799-AA04-2AE2496E698E}"/>
     <hyperlink ref="B1449" r:id="rId1463" display="https://leetcode-cn.com/problems/count-good-nodes-in-binary-tree" xr:uid="{EA7C1C01-25CB-4B93-B7B6-2D71007B3607}"/>
@@ -32748,15 +32780,15 @@
     <hyperlink ref="B1501" r:id="rId1510" display="https://leetcode-cn.com/problems/design-a-file-sharing-system" xr:uid="{802B9D1E-1385-4286-ABE1-2848D1CA5F0D}"/>
     <hyperlink ref="B1502" r:id="rId1511" display="https://leetcode-cn.com/problems/countries-you-can-safely-invest-in" xr:uid="{8EAE359A-2422-4A28-9E32-B28B452962C1}"/>
     <hyperlink ref="B1503" r:id="rId1512" display="https://leetcode-cn.com/problems/can-make-arithmetic-progression-from-sequence" xr:uid="{7AB09436-DDBD-48F6-A70C-50F2B73F6733}"/>
-    <hyperlink ref="B1512" r:id="rId1513" display="https://leetcode-cn.com/problems/stone-game-iv" xr:uid="{97C50B6E-B358-4343-B8CE-A7F5FC37576C}"/>
-    <hyperlink ref="B1511" r:id="rId1514" display="https://leetcode-cn.com/problems/minimum-difference-between-largest-and-smallest-value-in-three-moves" xr:uid="{0FDE4E90-8B8D-4125-835E-A500BF873FAA}"/>
-    <hyperlink ref="B1510" r:id="rId1515" display="https://leetcode-cn.com/problems/range-sum-of-sorted-subarray-sums" xr:uid="{E758AA2C-73D9-41E2-AEF5-5D230605A774}"/>
-    <hyperlink ref="B1509" r:id="rId1516" display="https://leetcode-cn.com/problems/reformat-date" xr:uid="{25B9AC54-E048-40D0-8DB5-EBC8357FC60D}"/>
-    <hyperlink ref="B1508" r:id="rId1517" display="https://leetcode-cn.com/problems/customer-order-frequency" xr:uid="{6065CE1C-D140-4FFB-B327-C04CE1270606}"/>
-    <hyperlink ref="B1507" r:id="rId1518" display="https://leetcode-cn.com/problems/find-root-of-n-ary-tree" xr:uid="{36DAC0AE-2A95-4D0E-825C-AE764535AC79}"/>
-    <hyperlink ref="B1506" r:id="rId1519" display="https://leetcode-cn.com/problems/minimum-possible-integer-after-at-most-k-adjacent-swaps-on-digits" xr:uid="{01994EFE-3146-4948-8AC4-3F5B308A40E9}"/>
-    <hyperlink ref="B1505" r:id="rId1520" display="https://leetcode-cn.com/problems/count-submatrices-with-all-ones" xr:uid="{CBA6C2E8-2DA9-4F4F-8CB4-9B505C3A5F3A}"/>
-    <hyperlink ref="B1504" r:id="rId1521" display="https://leetcode-cn.com/problems/last-moment-before-all-ants-fall-out-of-a-plank" xr:uid="{4E3A19C6-7A3E-4C68-BF94-ED6A3136C824}"/>
+    <hyperlink ref="B1512" r:id="rId1513" display="https://leetcode-cn.com/problems/customer-order-frequency" xr:uid="{6065CE1C-D140-4FFB-B327-C04CE1270606}"/>
+    <hyperlink ref="B1507" r:id="rId1514" display="https://leetcode-cn.com/problems/find-root-of-n-ary-tree" xr:uid="{36DAC0AE-2A95-4D0E-825C-AE764535AC79}"/>
+    <hyperlink ref="B1506" r:id="rId1515" display="https://leetcode-cn.com/problems/minimum-possible-integer-after-at-most-k-adjacent-swaps-on-digits" xr:uid="{01994EFE-3146-4948-8AC4-3F5B308A40E9}"/>
+    <hyperlink ref="B1505" r:id="rId1516" display="https://leetcode-cn.com/problems/count-submatrices-with-all-ones" xr:uid="{CBA6C2E8-2DA9-4F4F-8CB4-9B505C3A5F3A}"/>
+    <hyperlink ref="B1504" r:id="rId1517" display="https://leetcode-cn.com/problems/last-moment-before-all-ants-fall-out-of-a-plank" xr:uid="{4E3A19C6-7A3E-4C68-BF94-ED6A3136C824}"/>
+    <hyperlink ref="B1511" r:id="rId1518" display="https://leetcode-cn.com/problems/stone-game-iv" xr:uid="{BD3EDB8B-E2CC-44BF-AB18-6AB735959321}"/>
+    <hyperlink ref="B1510" r:id="rId1519" display="https://leetcode-cn.com/problems/minimum-difference-between-largest-and-smallest-value-in-three-moves" xr:uid="{11286DED-9CEB-42D7-9AE3-4A23270DBB55}"/>
+    <hyperlink ref="B1509" r:id="rId1520" display="https://leetcode-cn.com/problems/range-sum-of-sorted-subarray-sums" xr:uid="{9E64F7A7-3C1D-4541-B2A2-C23AFFFB38FA}"/>
+    <hyperlink ref="B1508" r:id="rId1521" display="https://leetcode-cn.com/problems/reformat-date" xr:uid="{4E99F704-5FFA-4A83-AE4C-416AA55B0A0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1522"/>
@@ -32781,30 +32813,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3098</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -32876,8 +32908,8 @@
       <c r="D8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -33239,28 +33271,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3055</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -34435,7 +34467,7 @@
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34446,28 +34478,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3148</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -34708,13 +34740,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="22">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="22" t="s">
         <v>3161</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="22" t="s">
         <v>3162</v>
       </c>
       <c r="D21" s="22" t="s">
@@ -34792,13 +34824,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="22">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="22" t="s">
         <v>3169</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="22" t="s">
         <v>3170</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -35422,13 +35454,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="22">
         <v>68</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="22" t="s">
         <v>3227</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="22" t="s">
         <v>3228</v>
       </c>
       <c r="D72" s="22" t="s">
@@ -35436,13 +35468,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="22">
         <v>69</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="22" t="s">
         <v>2931</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="22" t="s">
         <v>2930</v>
       </c>
       <c r="D73" s="22" t="s">
@@ -36057,28 +36089,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3112</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -36442,12 +36474,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>2870</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36557,12 +36589,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3137</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36798,12 +36830,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3128</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36971,28 +37003,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>2906</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -37316,20 +37348,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3358</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>2222</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -37895,20 +37927,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3628</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>2222</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -38366,12 +38398,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>1492</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -39744,20 +39776,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3419</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>2222</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -40953,12 +40985,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3123</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -41097,20 +41129,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3547</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2222</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -42124,20 +42156,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3604</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>2222</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -42660,20 +42692,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>3621</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>2222</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -42886,12 +42918,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>1708</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -43844,25 +43876,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>2551</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -45374,28 +45406,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>2736</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -46783,33 +46815,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>2763</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="34"/>
       <c r="F1" t="s">
         <v>3345</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -47481,30 +47513,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>2862</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>2861</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -48019,28 +48051,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>2808</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -48484,28 +48516,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>2963</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC647D54-9297-4C7B-B7DE-2A76FBB3DDCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F94612D-5CB5-47BA-9331-306CB2056A2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="1305" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7845" yWindow="900" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="二分搜索" sheetId="14" state="hidden" r:id="rId9"/>
     <sheet name="位操作" sheetId="16" state="hidden" r:id="rId10"/>
     <sheet name="哈希表" sheetId="15" state="hidden" r:id="rId11"/>
-    <sheet name="动态规划" sheetId="21" r:id="rId12"/>
+    <sheet name="动态规划" sheetId="21" state="hidden" r:id="rId12"/>
     <sheet name="排序" sheetId="17" state="hidden" r:id="rId13"/>
-    <sheet name="队列" sheetId="12" r:id="rId14"/>
-    <sheet name="分治" sheetId="20" r:id="rId15"/>
-    <sheet name="滑动窗口" sheetId="19" r:id="rId16"/>
-    <sheet name="堆" sheetId="13" r:id="rId17"/>
-    <sheet name="回溯" sheetId="22" r:id="rId18"/>
-    <sheet name="贪心" sheetId="23" r:id="rId19"/>
+    <sheet name="队列" sheetId="12" state="hidden" r:id="rId14"/>
+    <sheet name="分治" sheetId="20" state="hidden" r:id="rId15"/>
+    <sheet name="滑动窗口" sheetId="19" state="hidden" r:id="rId16"/>
+    <sheet name="堆" sheetId="13" state="hidden" r:id="rId17"/>
+    <sheet name="回溯" sheetId="22" state="hidden" r:id="rId18"/>
+    <sheet name="贪心" sheetId="23" state="hidden" r:id="rId19"/>
     <sheet name="树" sheetId="24" r:id="rId20"/>
     <sheet name="递归" sheetId="18" r:id="rId21"/>
     <sheet name="深度优先" sheetId="25" r:id="rId22"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7113" uniqueCount="3641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7116" uniqueCount="3643">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11002,6 +11002,12 @@
   </si>
   <si>
     <t>2020.7.25</t>
+  </si>
+  <si>
+    <t>2020.7.26(self)</t>
+  </si>
+  <si>
+    <t>2020.7.27</t>
   </si>
 </sst>
 </file>
@@ -12322,8 +12328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15224,7 +15230,9 @@
       <c r="C227" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D227" s="4"/>
+      <c r="D227" s="4" t="s">
+        <v>3642</v>
+      </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="10">
@@ -18058,7 +18066,9 @@
       <c r="C456" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D456" s="3"/>
+      <c r="D456" s="3" t="s">
+        <v>3642</v>
+      </c>
     </row>
     <row r="457" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="10">
@@ -22674,7 +22684,9 @@
       <c r="C831" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D831" s="4"/>
+      <c r="D831" s="4" t="s">
+        <v>3641</v>
+      </c>
     </row>
     <row r="832" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A832" s="10">
@@ -36580,7 +36592,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H1504" sqref="H1504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37338,7 +37350,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="H1504" sqref="H1504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37574,13 +37586,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="22">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="22" t="s">
         <v>3087</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="22" t="s">
         <v>3086</v>
       </c>
       <c r="D18" s="22" t="s">
@@ -37918,7 +37930,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38027,13 +38039,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="22" t="s">
         <v>2302</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="22" t="s">
         <v>2303</v>
       </c>
       <c r="D9" s="22" t="s">
@@ -38069,13 +38081,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="22" t="s">
         <v>3397</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="22" t="s">
         <v>3398</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -38083,13 +38095,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="22">
+        <v>10</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>2931</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="22" t="s">
         <v>2930</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -39767,7 +39779,7 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D75"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39848,13 +39860,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="22" t="s">
         <v>3420</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="22" t="s">
         <v>3421</v>
       </c>
       <c r="D7" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F94612D-5CB5-47BA-9331-306CB2056A2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6793EB6-9E39-4AED-8C77-015360A8E71B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="900" windowWidth="28110" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7116" uniqueCount="3643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7117" uniqueCount="3644">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11008,6 +11008,9 @@
   </si>
   <si>
     <t>2020.7.27</t>
+  </si>
+  <si>
+    <t>2020.7.29</t>
   </si>
 </sst>
 </file>
@@ -12328,8 +12331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="D227" sqref="D227"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13658,7 +13661,9 @@
       <c r="C103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>3643</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6793EB6-9E39-4AED-8C77-015360A8E71B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BAB7AA-3A27-421A-A0E1-72F061A1C404}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7117" uniqueCount="3644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7120" uniqueCount="3645">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11011,6 +11011,9 @@
   </si>
   <si>
     <t>2020.7.29</t>
+  </si>
+  <si>
+    <t>2020.7.30</t>
   </si>
 </sst>
 </file>
@@ -12331,8 +12334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13649,7 +13652,9 @@
       <c r="C102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>3644</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
@@ -13687,7 +13692,9 @@
       <c r="C105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="4"/>
+      <c r="D105" s="4" t="s">
+        <v>3644</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
@@ -13783,7 +13790,9 @@
       <c r="C113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="4"/>
+      <c r="D113" s="4" t="s">
+        <v>3644</v>
+      </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
@@ -39783,8 +39792,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39879,13 +39888,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="22">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>3422</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="22" t="s">
         <v>3423</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -39977,13 +39986,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="22" t="s">
         <v>3434</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="22" t="s">
         <v>3435</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -40145,13 +40154,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="22">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="22" t="s">
         <v>3454</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="22" t="s">
         <v>3455</v>
       </c>
       <c r="D27" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BAB7AA-3A27-421A-A0E1-72F061A1C404}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22747861-1A39-42A3-B3FC-B389A9B5C501}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41640" yWindow="585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7120" uniqueCount="3645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7123" uniqueCount="3646">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11014,6 +11014,9 @@
   </si>
   <si>
     <t>2020.7.30</t>
+  </si>
+  <si>
+    <t>2020.7.31</t>
   </si>
 </sst>
 </file>
@@ -12334,8 +12337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
+      <selection activeCell="D891" sqref="D891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13706,7 +13709,9 @@
       <c r="C106" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D106" s="3" t="s">
+        <v>3645</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
@@ -13718,7 +13723,9 @@
       <c r="C107" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="4"/>
+      <c r="D107" s="3" t="s">
+        <v>3645</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
@@ -23410,7 +23417,9 @@
       <c r="C890" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D890" s="3"/>
+      <c r="D890" s="3" t="s">
+        <v>3645</v>
+      </c>
     </row>
     <row r="891" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A891" s="10">
@@ -39792,7 +39801,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:C75"/>
     </sheetView>
   </sheetViews>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22747861-1A39-42A3-B3FC-B389A9B5C501}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF3A100-5697-4D5C-92CE-DCAACC06F5C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41640" yWindow="585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34245" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <sheet name="图" sheetId="27" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode 题目'!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode 题目'!$A$2:$D$1512</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">二分搜索!$A$4:$D$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">位操作!$A$4:$D$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">分治!$A$2:$D$16</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7123" uniqueCount="3646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7128" uniqueCount="3647">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11017,6 +11017,9 @@
   </si>
   <si>
     <t>2020.7.31</t>
+  </si>
+  <si>
+    <t>2020.8.1</t>
   </si>
 </sst>
 </file>
@@ -12337,8 +12340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
-      <selection activeCell="D891" sqref="D891"/>
+    <sheetView tabSelected="1" topLeftCell="A1500" workbookViewId="0">
+      <selection activeCell="D1514" sqref="D1514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13619,7 +13622,9 @@
       <c r="C99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>3646</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
@@ -13847,7 +13852,9 @@
       <c r="C117" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="4"/>
+      <c r="D117" s="4" t="s">
+        <v>3646</v>
+      </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
@@ -13859,7 +13866,9 @@
       <c r="C118" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>3646</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
@@ -15379,7 +15388,9 @@
       <c r="C237" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D237" s="4"/>
+      <c r="D237" s="4" t="s">
+        <v>3646</v>
+      </c>
     </row>
     <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10">
@@ -16129,7 +16140,9 @@
       <c r="C298" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D298" s="3"/>
+      <c r="D298" s="3" t="s">
+        <v>3646</v>
+      </c>
     </row>
     <row r="299" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="10" t="s">
@@ -31294,7 +31307,7 @@
     <row r="1700" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="1701" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:D2" xr:uid="{5165F1EF-78E9-4966-B538-E9E3BC66CD1B}"/>
+  <autoFilter ref="A2:D1512" xr:uid="{5165F1EF-78E9-4966-B538-E9E3BC66CD1B}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E176:E179"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF3A100-5697-4D5C-92CE-DCAACC06F5C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4836932D-57D1-45EB-BBFE-AC66BA2B1C52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34245" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7128" uniqueCount="3647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7134" uniqueCount="3649">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11020,6 +11020,12 @@
   </si>
   <si>
     <t>2020.8.1</t>
+  </si>
+  <si>
+    <t>2020.8.2(self)</t>
+  </si>
+  <si>
+    <t>2020.8.2</t>
   </si>
 </sst>
 </file>
@@ -12340,8 +12346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1500" workbookViewId="0">
-      <selection activeCell="D1514" sqref="D1514"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14582,7 +14588,9 @@
       <c r="C174" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D174" s="3"/>
+      <c r="D174" s="3" t="s">
+        <v>3648</v>
+      </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
@@ -15376,7 +15384,9 @@
       <c r="C236" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D236" s="3"/>
+      <c r="D236" s="3" t="s">
+        <v>3648</v>
+      </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10">
@@ -18038,7 +18048,9 @@
       <c r="C451" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D451" s="4"/>
+      <c r="D451" s="4" t="s">
+        <v>3648</v>
+      </c>
     </row>
     <row r="452" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="10">
@@ -21128,7 +21140,9 @@
       <c r="C701" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D701" s="4"/>
+      <c r="D701" s="4" t="s">
+        <v>3647</v>
+      </c>
     </row>
     <row r="702" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="10">
@@ -21140,7 +21154,9 @@
       <c r="C702" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D702" s="3"/>
+      <c r="D702" s="3" t="s">
+        <v>3648</v>
+      </c>
     </row>
     <row r="703" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="10" t="s">
@@ -21164,7 +21180,9 @@
       <c r="C704" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D704" s="3"/>
+      <c r="D704" s="3" t="s">
+        <v>3648</v>
+      </c>
     </row>
     <row r="705" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="10">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4836932D-57D1-45EB-BBFE-AC66BA2B1C52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAD69C3-492A-4E83-BE15-745432F9267B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7134" uniqueCount="3649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7135" uniqueCount="3650">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11026,6 +11026,9 @@
   </si>
   <si>
     <t>2020.8.2</t>
+  </si>
+  <si>
+    <t>2020.8.4</t>
   </si>
 </sst>
 </file>
@@ -12346,8 +12349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15194,7 +15197,9 @@
       <c r="C221" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D221" s="4"/>
+      <c r="D221" s="4" t="s">
+        <v>3649</v>
+      </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="10">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAD69C3-492A-4E83-BE15-745432F9267B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE77C54-2282-4EA5-9FEF-A1B9C97F1980}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10770" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7135" uniqueCount="3650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7137" uniqueCount="3651">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11029,6 +11029,9 @@
   </si>
   <si>
     <t>2020.8.4</t>
+  </si>
+  <si>
+    <t>2020.8.5</t>
   </si>
 </sst>
 </file>
@@ -12349,8 +12352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="G227" sqref="G227"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13763,7 +13766,9 @@
       <c r="C109" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D109" s="4"/>
+      <c r="D109" s="4" t="s">
+        <v>3650</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
@@ -13787,7 +13792,9 @@
       <c r="C111" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D111" s="4"/>
+      <c r="D111" s="4" t="s">
+        <v>3650</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE77C54-2282-4EA5-9FEF-A1B9C97F1980}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D84E73-FA39-4916-8523-0AAC82FB36C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7137" uniqueCount="3651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7140" uniqueCount="3653">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11032,6 +11032,12 @@
   </si>
   <si>
     <t>2020.8.5</t>
+  </si>
+  <si>
+    <t>2020.8.6</t>
+  </si>
+  <si>
+    <t>2020.8.6(self)</t>
   </si>
 </sst>
 </file>
@@ -12352,8 +12358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
+      <selection activeCell="D590" sqref="D590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17796,7 +17802,9 @@
       <c r="C430" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D430" s="3"/>
+      <c r="D430" s="3" t="s">
+        <v>3651</v>
+      </c>
     </row>
     <row r="431" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="10">
@@ -19778,7 +19786,9 @@
       <c r="C590" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D590" s="3"/>
+      <c r="D590" s="3" t="s">
+        <v>3651</v>
+      </c>
     </row>
     <row r="591" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="10">
@@ -19790,7 +19800,9 @@
       <c r="C591" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D591" s="4"/>
+      <c r="D591" s="4" t="s">
+        <v>3652</v>
+      </c>
     </row>
     <row r="592" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="10">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D84E73-FA39-4916-8523-0AAC82FB36C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F354636-6F89-468B-9FF1-73A9C4C287BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40290" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7140" uniqueCount="3653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7143" uniqueCount="3655">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11038,6 +11038,12 @@
   </si>
   <si>
     <t>2020.8.6(self)</t>
+  </si>
+  <si>
+    <t>2020.8.8</t>
+  </si>
+  <si>
+    <t>2020.8.8(self)</t>
   </si>
 </sst>
 </file>
@@ -11615,7 +11621,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>75352</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>56288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12358,8 +12364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="D590" sqref="D590"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15060,7 +15066,9 @@
       <c r="C209" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D209" s="4"/>
+      <c r="D209" s="4" t="s">
+        <v>3653</v>
+      </c>
     </row>
     <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10">
@@ -19418,7 +19426,9 @@
       <c r="C560" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D560" s="3"/>
+      <c r="D560" s="3" t="s">
+        <v>3654</v>
+      </c>
     </row>
     <row r="561" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="10">
@@ -20874,7 +20884,9 @@
       <c r="C678" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D678" s="3"/>
+      <c r="D678" s="3" t="s">
+        <v>3653</v>
+      </c>
     </row>
     <row r="679" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="10">
@@ -38474,8 +38486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38845,7 +38857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>1550</v>
       </c>
@@ -38889,7 +38901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>1558</v>
       </c>
@@ -39021,7 +39033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>1582</v>
       </c>
@@ -39032,7 +39044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>1584</v>
       </c>
@@ -39109,7 +39121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>1598</v>
       </c>
@@ -39263,7 +39275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>1626</v>
       </c>
@@ -39439,7 +39451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>1658</v>
       </c>
@@ -39450,7 +39462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>1660</v>
       </c>
@@ -39626,18 +39638,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>1692</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>1693</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>1694</v>
       </c>
@@ -39853,11 +39866,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497A7CF-D923-4949-BEAC-471DAE135A77}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C75"/>
+      <selection activeCell="U18" sqref="U18:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39895,7 +39907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -39909,7 +39921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -39923,7 +39935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -40021,7 +40033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -40035,7 +40047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -40077,7 +40089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -40091,7 +40103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -40105,7 +40117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -40119,7 +40131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -40147,7 +40159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -40161,7 +40173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -40203,7 +40215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -40231,7 +40243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -40287,7 +40299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -40343,7 +40355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -40357,7 +40369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -40413,7 +40425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -40427,7 +40439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -40441,7 +40453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -40455,7 +40467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -40483,7 +40495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -40511,7 +40523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -40525,7 +40537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -40539,7 +40551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -40553,7 +40565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -40581,7 +40593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -40595,7 +40607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -40609,7 +40621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -40623,7 +40635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -40637,7 +40649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -40651,7 +40663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -40665,7 +40677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -40693,7 +40705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -40735,7 +40747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -40749,7 +40761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -40763,7 +40775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -40777,7 +40789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -40791,7 +40803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -40805,7 +40817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -40819,7 +40831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -40833,7 +40845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -40847,7 +40859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -40861,7 +40873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -40875,7 +40887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -40903,7 +40915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
@@ -40917,7 +40929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -40931,7 +40943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -40945,7 +40957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
@@ -40959,7 +40971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
@@ -40973,7 +40985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
@@ -40987,7 +40999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
@@ -41001,7 +41013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
@@ -41015,7 +41027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
@@ -41029,7 +41041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
@@ -41044,13 +41056,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D85" xr:uid="{B6425847-D436-4190-B51B-C80676B8E387}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="简单"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:D85" xr:uid="{B6425847-D436-4190-B51B-C80676B8E387}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
@@ -41206,7 +41212,6 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC89084B-F357-4E1C-8BBF-2AB78BDAC7F0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41248,7 +41253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -41290,7 +41295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -41304,7 +41309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -41318,7 +41323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -41332,7 +41337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -41346,7 +41351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -41374,7 +41379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -41388,7 +41393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -41402,7 +41407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -41416,7 +41421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -41430,7 +41435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -41458,7 +41463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -41472,7 +41477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -41486,7 +41491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -41514,7 +41519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -41528,7 +41533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -41556,7 +41561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -41584,7 +41589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -41612,7 +41617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -41626,7 +41631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -41640,7 +41645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -41668,7 +41673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -41682,7 +41687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -41696,7 +41701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -41710,7 +41715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -41724,7 +41729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -41752,7 +41757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -41766,7 +41771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -41780,7 +41785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -41794,7 +41799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -41808,7 +41813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -41822,7 +41827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -41836,7 +41841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -41850,7 +41855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -41864,7 +41869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -41878,7 +41883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -41892,7 +41897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -41906,7 +41911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -41920,7 +41925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -41934,7 +41939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -41948,7 +41953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -41962,7 +41967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -41976,7 +41981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -41990,7 +41995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -42018,7 +42023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -42032,7 +42037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -42046,7 +42051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -42060,7 +42065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -42074,7 +42079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -42088,7 +42093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -42102,7 +42107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -42116,7 +42121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -42130,7 +42135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -42144,7 +42149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -42158,7 +42163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -42172,7 +42177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -42186,7 +42191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -42200,7 +42205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -42215,13 +42220,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D72" xr:uid="{A41B4F0F-42F8-4F5C-A022-96DD48A46CD1}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="简单"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:D72" xr:uid="{A41B4F0F-42F8-4F5C-A022-96DD48A46CD1}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
@@ -42233,7 +42232,6 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592B5F01-9573-4654-9993-4ADDB5DDFAF3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42275,7 +42273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -42317,7 +42315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -42331,7 +42329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -42345,7 +42343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -42359,7 +42357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -42373,7 +42371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -42387,7 +42385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -42415,7 +42413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -42429,7 +42427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -42443,7 +42441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -42457,7 +42455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -42485,7 +42483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -42499,7 +42497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -42513,7 +42511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -42527,7 +42525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -42541,7 +42539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -42555,7 +42553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -42569,7 +42567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -42583,7 +42581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -42597,7 +42595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -42611,7 +42609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -42625,7 +42623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -42639,7 +42637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -42653,7 +42651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -42667,7 +42665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -42681,7 +42679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -42695,7 +42693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -42709,7 +42707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -42723,7 +42721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -42737,7 +42735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -42752,13 +42750,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D37" xr:uid="{8432D01F-4A42-4DC3-85E1-937C8244447E}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="简单"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:D37" xr:uid="{8432D01F-4A42-4DC3-85E1-937C8244447E}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
@@ -42773,7 +42765,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F354636-6F89-468B-9FF1-73A9C4C287BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915864CA-1FCB-4832-A773-EE0166EC1F24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40290" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11505" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7143" uniqueCount="3655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7145" uniqueCount="3655">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -12364,8 +12364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="G224" sqref="G224"/>
+    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
+      <selection activeCell="F647" sqref="F647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15106,7 +15106,9 @@
       <c r="C212" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>3653</v>
+      </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10">
@@ -20524,7 +20526,9 @@
       <c r="C649" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D649" s="4"/>
+      <c r="D649" s="4" t="s">
+        <v>3653</v>
+      </c>
     </row>
     <row r="650" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="10">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915864CA-1FCB-4832-A773-EE0166EC1F24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1500757-0097-4F96-A5D6-6955F28B673B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11310" yWindow="3450" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7145" uniqueCount="3655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7148" uniqueCount="3656">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11044,6 +11044,9 @@
   </si>
   <si>
     <t>2020.8.8(self)</t>
+  </si>
+  <si>
+    <t>2020.8.9</t>
   </si>
 </sst>
 </file>
@@ -12364,8 +12367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="F647" sqref="F647"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15120,7 +15123,9 @@
       <c r="C213" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D213" s="4"/>
+      <c r="D213" s="4" t="s">
+        <v>3655</v>
+      </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="10">
@@ -16654,7 +16659,9 @@
       <c r="C337" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D337" s="4"/>
+      <c r="D337" s="4" t="s">
+        <v>3655</v>
+      </c>
     </row>
     <row r="338" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="10">
@@ -17716,7 +17723,9 @@
       <c r="C422" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D422" s="3"/>
+      <c r="D422" s="3" t="s">
+        <v>3655</v>
+      </c>
     </row>
     <row r="423" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="10" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA4C59A-4767-4995-97B0-E06DC5ABB151}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B14C929-0BD5-4FED-ADE8-5488FACB0390}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3345" windowWidth="27375" windowHeight="11385" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11835" yWindow="420" windowWidth="27375" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7125" uniqueCount="3655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7128" uniqueCount="3656">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10505,9 +10505,6 @@
     <t>Balanced Binary Tree</t>
   </si>
   <si>
-    <t>#776</t>
-  </si>
-  <si>
     <t>Split BST</t>
   </si>
   <si>
@@ -11043,6 +11040,12 @@
   </si>
   <si>
     <t>2020.8.10</t>
+  </si>
+  <si>
+    <t>#$776</t>
+  </si>
+  <si>
+    <t>2020.8.11(self)</t>
   </si>
 </sst>
 </file>
@@ -12357,8 +12360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView topLeftCell="A613" workbookViewId="0">
-      <selection activeCell="D618" sqref="D618"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13640,7 +13643,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13678,7 +13681,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13692,7 +13695,7 @@
         <v>7</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13718,7 +13721,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13732,7 +13735,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13746,7 +13749,7 @@
         <v>7</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13759,7 +13762,9 @@
       <c r="C108" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>3655</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
@@ -13772,7 +13777,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13798,7 +13803,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13811,7 +13816,9 @@
       <c r="C112" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="3"/>
+      <c r="D112" s="3" t="s">
+        <v>3655</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
@@ -13824,7 +13831,7 @@
         <v>5</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13874,7 +13881,7 @@
         <v>7</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13888,7 +13895,7 @@
         <v>7</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14604,7 +14611,7 @@
         <v>7</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14826,7 +14833,7 @@
         <v>5</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14840,7 +14847,7 @@
         <v>5</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14926,7 +14933,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15006,7 +15013,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15060,7 +15067,7 @@
         <v>7</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15100,7 +15107,7 @@
         <v>7</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15114,7 +15121,7 @@
         <v>10</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15216,7 +15223,7 @@
         <v>7</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15292,7 +15299,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15354,7 +15361,7 @@
         <v>5</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15408,7 +15415,7 @@
         <v>5</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15422,7 +15429,7 @@
         <v>7</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16088,7 +16095,7 @@
         <v>5</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16174,7 +16181,7 @@
         <v>10</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16200,7 +16207,7 @@
         <v>5</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16250,7 +16257,7 @@
         <v>5</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16650,7 +16657,7 @@
         <v>10</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16724,7 +16731,7 @@
         <v>5</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17086,7 +17093,7 @@
         <v>5</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17312,7 +17319,7 @@
         <v>5</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17350,7 +17357,7 @@
         <v>5</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17462,7 +17469,7 @@
         <v>5</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17512,7 +17519,7 @@
         <v>5</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17562,7 +17569,7 @@
         <v>5</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17714,7 +17721,7 @@
         <v>7</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17812,7 +17819,7 @@
         <v>7</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17962,7 +17969,7 @@
         <v>5</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18038,7 +18045,7 @@
         <v>5</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18078,7 +18085,7 @@
         <v>7</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18142,7 +18149,7 @@
         <v>5</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18218,7 +18225,7 @@
         <v>5</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18244,7 +18251,7 @@
         <v>5</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,7 +18397,7 @@
         <v>5</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18404,7 +18411,7 @@
         <v>5</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18702,7 +18709,7 @@
         <v>5</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19428,7 +19435,7 @@
         <v>5</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19626,7 +19633,7 @@
         <v>5</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19798,7 +19805,7 @@
         <v>5</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="591" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19812,7 +19819,7 @@
         <v>5</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19862,7 +19869,7 @@
         <v>5</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20146,7 +20153,7 @@
         <v>5</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="619" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20391,7 +20398,9 @@
       <c r="C638" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D638" s="3"/>
+      <c r="D638" s="3" t="s">
+        <v>3655</v>
+      </c>
     </row>
     <row r="639" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="10">
@@ -20490,7 +20499,7 @@
         <v>5</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20528,7 +20537,7 @@
         <v>7</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="650" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20890,7 +20899,7 @@
         <v>7</v>
       </c>
       <c r="D678" s="3" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="679" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21054,7 +21063,7 @@
         <v>5</v>
       </c>
       <c r="D691" s="4" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="692" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21092,7 +21101,7 @@
         <v>5</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="695" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21182,7 +21191,7 @@
         <v>5</v>
       </c>
       <c r="D701" s="4" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="702" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21196,7 +21205,7 @@
         <v>7</v>
       </c>
       <c r="D702" s="3" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="703" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21222,7 +21231,7 @@
         <v>5</v>
       </c>
       <c r="D704" s="3" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="705" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21440,7 +21449,7 @@
         <v>5</v>
       </c>
       <c r="D721" s="4" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="722" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22778,7 +22787,7 @@
         <v>5</v>
       </c>
       <c r="D831" s="4" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="832" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23490,7 +23499,7 @@
         <v>7</v>
       </c>
       <c r="D890" s="3" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="891" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24940,7 +24949,7 @@
         <v>5</v>
       </c>
       <c r="D1010" s="3" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1011" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25136,7 +25145,7 @@
         <v>5</v>
       </c>
       <c r="D1026" s="3" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1027" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37924,7 +37933,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -39748,8 +39757,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39794,13 +39803,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="22" t="s">
         <v>2860</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="22" t="s">
         <v>2859</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -39878,13 +39887,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="22" t="s">
         <v>3427</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="22" t="s">
         <v>3428</v>
       </c>
       <c r="D10" s="22" t="s">
@@ -39920,13 +39929,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="22">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="22" t="s">
         <v>2284</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="22" t="s">
         <v>2285</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -40032,13 +40041,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="22">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="22" t="s">
         <v>3445</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="22" t="s">
         <v>3446</v>
       </c>
       <c r="D21" s="32" t="s">
@@ -40046,13 +40055,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="22" t="s">
         <v>2848</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="22" t="s">
         <v>2847</v>
       </c>
       <c r="D22" s="32" t="s">
@@ -40116,13 +40125,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="22">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="22" t="s">
         <v>2840</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="22" t="s">
         <v>2839</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -40186,13 +40195,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="22">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="22" t="s">
         <v>3461</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="22" t="s">
         <v>3462</v>
       </c>
       <c r="D32" s="22" t="s">
@@ -40200,13 +40209,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="22">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="22" t="s">
         <v>3463</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="22" t="s">
         <v>3464</v>
       </c>
       <c r="D33" s="22" t="s">
@@ -40228,13 +40237,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="22">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="22" t="s">
         <v>2838</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="22" t="s">
         <v>2837</v>
       </c>
       <c r="D35" s="32" t="s">
@@ -40298,14 +40307,14 @@
       </c>
     </row>
     <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="31">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="31" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>3475</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3476</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>7</v>
@@ -40316,10 +40325,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C41" t="s">
         <v>3477</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3478</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>10</v>
@@ -40330,10 +40339,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C42" t="s">
         <v>3479</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3480</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>7</v>
@@ -40358,10 +40367,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C44" t="s">
         <v>3481</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3482</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>5</v>
@@ -40372,10 +40381,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C45" t="s">
         <v>3483</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3484</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>7</v>
@@ -40386,10 +40395,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="22" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>3485</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>3486</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>5</v>
@@ -40400,10 +40409,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C47" t="s">
         <v>3487</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3488</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>7</v>
@@ -40414,10 +40423,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C48" t="s">
         <v>3489</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3490</v>
       </c>
       <c r="D48" s="21" t="s">
         <v>10</v>
@@ -40428,10 +40437,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C49" t="s">
         <v>3491</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3492</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>7</v>
@@ -40442,10 +40451,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C50" t="s">
         <v>3493</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3494</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>7</v>
@@ -40470,10 +40479,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C52" t="s">
         <v>3495</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3496</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>7</v>
@@ -40484,10 +40493,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C53" t="s">
         <v>3497</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3498</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>7</v>
@@ -40540,10 +40549,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C57" t="s">
         <v>3499</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3500</v>
       </c>
       <c r="D57" s="32" t="s">
         <v>7</v>
@@ -40554,10 +40563,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C58" t="s">
         <v>3501</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3502</v>
       </c>
       <c r="D58" s="32" t="s">
         <v>7</v>
@@ -40568,10 +40577,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C59" t="s">
         <v>3503</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3504</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>5</v>
@@ -40582,10 +40591,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C60" t="s">
         <v>3505</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3506</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>7</v>
@@ -40596,10 +40605,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C61" t="s">
         <v>3507</v>
-      </c>
-      <c r="C61" t="s">
-        <v>3508</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>5</v>
@@ -40610,10 +40619,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C62" t="s">
         <v>3509</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3510</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>5</v>
@@ -40624,10 +40633,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C63" t="s">
         <v>3511</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3512</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>7</v>
@@ -40638,10 +40647,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C64" t="s">
         <v>3513</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3514</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>7</v>
@@ -40652,10 +40661,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C65" t="s">
         <v>3515</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3516</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>10</v>
@@ -40666,10 +40675,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C66" t="s">
         <v>3517</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3518</v>
       </c>
       <c r="D66" s="32" t="s">
         <v>7</v>
@@ -40680,10 +40689,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C67" t="s">
         <v>3519</v>
-      </c>
-      <c r="C67" t="s">
-        <v>3520</v>
       </c>
       <c r="D67" s="32" t="s">
         <v>7</v>
@@ -40694,10 +40703,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C68" t="s">
         <v>3521</v>
-      </c>
-      <c r="C68" t="s">
-        <v>3522</v>
       </c>
       <c r="D68" s="32" t="s">
         <v>7</v>
@@ -40722,10 +40731,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C70" t="s">
         <v>3523</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3524</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>7</v>
@@ -40736,10 +40745,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C71" t="s">
         <v>3525</v>
-      </c>
-      <c r="C71" t="s">
-        <v>3526</v>
       </c>
       <c r="D71" s="32" t="s">
         <v>7</v>
@@ -40750,10 +40759,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C72" t="s">
         <v>3527</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3528</v>
       </c>
       <c r="D72" s="32" t="s">
         <v>7</v>
@@ -40764,10 +40773,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C73" t="s">
         <v>3529</v>
-      </c>
-      <c r="C73" t="s">
-        <v>3530</v>
       </c>
       <c r="D73" s="32" t="s">
         <v>7</v>
@@ -40792,10 +40801,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C75" t="s">
         <v>3531</v>
-      </c>
-      <c r="C75" t="s">
-        <v>3532</v>
       </c>
       <c r="D75" s="32" t="s">
         <v>7</v>
@@ -40820,10 +40829,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C77" t="s">
         <v>3533</v>
-      </c>
-      <c r="C77" t="s">
-        <v>3534</v>
       </c>
       <c r="D77" s="32" t="s">
         <v>7</v>
@@ -40834,10 +40843,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C78" t="s">
         <v>3535</v>
-      </c>
-      <c r="C78" t="s">
-        <v>3536</v>
       </c>
       <c r="D78" s="32" t="s">
         <v>7</v>
@@ -40862,10 +40871,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C80" t="s">
         <v>3537</v>
-      </c>
-      <c r="C80" t="s">
-        <v>3538</v>
       </c>
       <c r="D80" s="32" t="s">
         <v>7</v>
@@ -40876,10 +40885,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C81" t="s">
         <v>3539</v>
-      </c>
-      <c r="C81" t="s">
-        <v>3540</v>
       </c>
       <c r="D81" s="32" t="s">
         <v>7</v>
@@ -40904,10 +40913,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C83" t="s">
         <v>3541</v>
-      </c>
-      <c r="C83" t="s">
-        <v>3542</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>7</v>
@@ -40918,10 +40927,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C84" t="s">
         <v>3543</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3544</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>7</v>
@@ -41102,7 +41111,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -41127,10 +41136,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C3" t="s">
         <v>3546</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3547</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>10</v>
@@ -41225,10 +41234,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C10" t="s">
         <v>3548</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3549</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>10</v>
@@ -41267,10 +41276,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C13" t="s">
         <v>3550</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3551</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>7</v>
@@ -41295,10 +41304,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>3551</v>
+      </c>
+      <c r="C15" t="s">
         <v>3552</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3553</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>7</v>
@@ -41309,10 +41318,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C16" t="s">
         <v>3554</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3555</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>7</v>
@@ -41337,10 +41346,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C18" t="s">
         <v>3556</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3557</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>10</v>
@@ -41435,10 +41444,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C25" t="s">
         <v>3558</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3559</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>7</v>
@@ -41463,10 +41472,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C27" t="s">
         <v>3560</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3561</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>7</v>
@@ -41491,10 +41500,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C29" t="s">
         <v>3562</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3563</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>10</v>
@@ -41505,10 +41514,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C30" t="s">
         <v>3564</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3565</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>7</v>
@@ -41547,10 +41556,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C33" t="s">
         <v>3477</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3478</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>10</v>
@@ -41561,10 +41570,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C34" t="s">
         <v>3479</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3480</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>7</v>
@@ -41575,10 +41584,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C35" t="s">
         <v>3566</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3567</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>7</v>
@@ -41589,10 +41598,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C36" t="s">
         <v>3487</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3488</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>7</v>
@@ -41603,10 +41612,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C37" t="s">
         <v>3568</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3569</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>7</v>
@@ -41617,10 +41626,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C38" t="s">
         <v>3570</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3571</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>5</v>
@@ -41631,10 +41640,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C39" t="s">
         <v>3493</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3494</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>7</v>
@@ -41645,10 +41654,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C40" t="s">
         <v>3572</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3573</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>7</v>
@@ -41659,10 +41668,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C41" t="s">
         <v>3497</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3498</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>7</v>
@@ -41701,10 +41710,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>3573</v>
+      </c>
+      <c r="C44" t="s">
         <v>3574</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3575</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>7</v>
@@ -41715,10 +41724,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C45" t="s">
         <v>3576</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3577</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>7</v>
@@ -41729,10 +41738,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C46" t="s">
         <v>3578</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3579</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>7</v>
@@ -41757,10 +41766,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C48" t="s">
         <v>3499</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3500</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>7</v>
@@ -41771,10 +41780,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C49" t="s">
         <v>3505</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3506</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>7</v>
@@ -41785,10 +41794,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C50" t="s">
         <v>3580</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3581</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>7</v>
@@ -41799,10 +41808,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C51" t="s">
         <v>3582</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3583</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>7</v>
@@ -41841,10 +41850,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C54" t="s">
         <v>3515</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3516</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>10</v>
@@ -41869,10 +41878,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C56" t="s">
         <v>3584</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3585</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>7</v>
@@ -41883,10 +41892,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>3585</v>
+      </c>
+      <c r="C57" t="s">
         <v>3586</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3587</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>5</v>
@@ -41897,10 +41906,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C58" t="s">
         <v>3519</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3520</v>
       </c>
       <c r="D58" s="32" t="s">
         <v>7</v>
@@ -41925,10 +41934,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C60" t="s">
         <v>3588</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3589</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>7</v>
@@ -41939,10 +41948,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C61" t="s">
         <v>3590</v>
-      </c>
-      <c r="C61" t="s">
-        <v>3591</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>7</v>
@@ -41953,10 +41962,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C62" t="s">
         <v>3527</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3528</v>
       </c>
       <c r="D62" s="32" t="s">
         <v>7</v>
@@ -41981,10 +41990,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C64" t="s">
         <v>3592</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3593</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>7</v>
@@ -41995,10 +42004,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C65" t="s">
         <v>3594</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3595</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>10</v>
@@ -42009,10 +42018,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C66" t="s">
         <v>3596</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3597</v>
       </c>
       <c r="D66" s="32" t="s">
         <v>7</v>
@@ -42023,10 +42032,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>3597</v>
+      </c>
+      <c r="C67" t="s">
         <v>3598</v>
-      </c>
-      <c r="C67" t="s">
-        <v>3599</v>
       </c>
       <c r="D67" s="32" t="s">
         <v>7</v>
@@ -42051,10 +42060,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C69" t="s">
         <v>3539</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3540</v>
       </c>
       <c r="D69" s="32" t="s">
         <v>7</v>
@@ -42065,10 +42074,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C70" t="s">
         <v>3600</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3601</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>7</v>
@@ -42113,7 +42122,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -42194,10 +42203,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C7" t="s">
         <v>3550</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3551</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>7</v>
@@ -42222,10 +42231,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C9" t="s">
         <v>3554</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3555</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>7</v>
@@ -42236,10 +42245,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C10" t="s">
         <v>3556</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3557</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>10</v>
@@ -42278,10 +42287,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C13" t="s">
         <v>3558</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3559</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>7</v>
@@ -42292,10 +42301,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C14" t="s">
         <v>3560</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3561</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>7</v>
@@ -42306,10 +42315,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C15" t="s">
         <v>3603</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3604</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>10</v>
@@ -42320,10 +42329,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>3604</v>
+      </c>
+      <c r="C16" t="s">
         <v>3605</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3606</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>7</v>
@@ -42348,10 +42357,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C18" t="s">
         <v>3564</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3565</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>7</v>
@@ -42376,10 +42385,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C20" t="s">
         <v>3487</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3488</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>7</v>
@@ -42390,10 +42399,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C21" t="s">
         <v>3493</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3494</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>7</v>
@@ -42404,10 +42413,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C22" t="s">
         <v>3607</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3608</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>7</v>
@@ -42418,10 +42427,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>3573</v>
+      </c>
+      <c r="C23" t="s">
         <v>3574</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3575</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>7</v>
@@ -42432,10 +42441,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C24" t="s">
         <v>3578</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3579</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>7</v>
@@ -42446,10 +42455,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C25" t="s">
         <v>3609</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3610</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>10</v>
@@ -42460,10 +42469,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C26" t="s">
         <v>3611</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3612</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>7</v>
@@ -42488,10 +42497,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C28" t="s">
         <v>3582</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3583</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>7</v>
@@ -42502,10 +42511,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C29" t="s">
         <v>3613</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3614</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>10</v>
@@ -42516,10 +42525,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C30" t="s">
         <v>3588</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3589</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>7</v>
@@ -42530,10 +42539,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C31" t="s">
         <v>3615</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3616</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>7</v>
@@ -42544,10 +42553,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C32" t="s">
         <v>3590</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3591</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>7</v>
@@ -42558,10 +42567,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>3616</v>
+      </c>
+      <c r="C33" t="s">
         <v>3617</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3618</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>10</v>
@@ -42572,10 +42581,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C34" t="s">
         <v>3592</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3593</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>7</v>
@@ -42586,10 +42595,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C35" t="s">
         <v>3594</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3595</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>10</v>
@@ -42600,10 +42609,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C36" t="s">
         <v>3596</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3597</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>7</v>
@@ -42634,7 +42643,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -42659,10 +42668,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C3" t="s">
         <v>3620</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3621</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>7</v>
@@ -42673,10 +42682,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C4" t="s">
         <v>3558</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3559</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>7</v>
@@ -42687,10 +42696,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C5" t="s">
         <v>3560</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3561</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>7</v>
@@ -42701,10 +42710,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C6" t="s">
         <v>3566</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3567</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>7</v>
@@ -42715,10 +42724,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C7" t="s">
         <v>3483</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3484</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>7</v>
@@ -42729,10 +42738,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C8" t="s">
         <v>3611</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3612</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>7</v>
@@ -42743,10 +42752,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C9" t="s">
         <v>3582</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3583</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>7</v>
@@ -42757,10 +42766,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C10" t="s">
         <v>3515</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3516</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>10</v>
@@ -42771,10 +42780,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C11" t="s">
         <v>3622</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3623</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>10</v>
@@ -42785,10 +42794,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C12" t="s">
         <v>3624</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3625</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>7</v>
@@ -42799,10 +42808,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C13" t="s">
         <v>3592</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3593</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>7</v>
@@ -42813,10 +42822,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C14" t="s">
         <v>3596</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3597</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>7</v>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B14C929-0BD5-4FED-ADE8-5488FACB0390}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974D867B-E389-48E1-86A1-F9FBCE4DD92C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="420" windowWidth="27375" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11985" yWindow="1485" windowWidth="27375" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7128" uniqueCount="3656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7131" uniqueCount="3657">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11046,6 +11046,9 @@
   </si>
   <si>
     <t>2020.8.11(self)</t>
+  </si>
+  <si>
+    <t>2020.8.12</t>
   </si>
 </sst>
 </file>
@@ -11617,7 +11620,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>75352</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>37238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12360,8 +12363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A662" workbookViewId="0">
+      <selection activeCell="D689" sqref="D689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13988,7 +13991,9 @@
       <c r="C125" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="4"/>
+      <c r="D125" s="4" t="s">
+        <v>3656</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
@@ -19238,7 +19243,9 @@
       <c r="C544" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D544" s="3"/>
+      <c r="D544" s="3" t="s">
+        <v>3656</v>
+      </c>
     </row>
     <row r="545" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="10" t="s">
@@ -21026,7 +21033,9 @@
       <c r="C688" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D688" s="3"/>
+      <c r="D688" s="3" t="s">
+        <v>3656</v>
+      </c>
     </row>
     <row r="689" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="10">
@@ -37922,7 +37931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DEB519-3A6E-48A8-ADDA-BF63988ECB00}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -39754,11 +39763,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497A7CF-D923-4949-BEAC-471DAE135A77}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C32"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39788,7 +39796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -39802,7 +39810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -39816,7 +39824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -39901,20 +39909,20 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="22" t="s">
         <v>3429</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="22" t="s">
         <v>3430</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -39928,7 +39936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -39957,20 +39965,20 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="22">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="22" t="s">
         <v>3119</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="22" t="s">
         <v>3118</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -39984,7 +39992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -39998,7 +40006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -40012,7 +40020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -40040,7 +40048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -40054,7 +40062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -40096,14 +40104,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="22" t="s">
         <v>3451</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="22" t="s">
         <v>3452</v>
       </c>
       <c r="D25" s="21" t="s">
@@ -40124,7 +40132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -40180,7 +40188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -40236,7 +40244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -40250,7 +40258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -40306,7 +40314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>38</v>
       </c>
@@ -40320,7 +40328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -40334,7 +40342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -40348,7 +40356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -40376,7 +40384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -40404,7 +40412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -40418,7 +40426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -40432,7 +40440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -40446,7 +40454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -40474,7 +40482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -40488,7 +40496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -40502,7 +40510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -40516,7 +40524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -40530,7 +40538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -40544,7 +40552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -40558,7 +40566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -40586,7 +40594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -40628,7 +40636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -40642,7 +40650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -40656,7 +40664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -40670,7 +40678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -40684,7 +40692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -40698,7 +40706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -40712,7 +40720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -40726,7 +40734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -40740,7 +40748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -40754,7 +40762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -40768,7 +40776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -40796,7 +40804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -40810,7 +40818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -40824,7 +40832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -40838,7 +40846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -40852,7 +40860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -40866,7 +40874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -40880,7 +40888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -40894,7 +40902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -40908,7 +40916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -40922,7 +40930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -40937,13 +40945,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D84" xr:uid="{B6425847-D436-4190-B51B-C80676B8E387}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="简单"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D84" xr:uid="{B6425847-D436-4190-B51B-C80676B8E387}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974D867B-E389-48E1-86A1-F9FBCE4DD92C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD99B6B-8732-49BB-8699-D530A2E758C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="1485" windowWidth="27375" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38370" yWindow="795" windowWidth="27375" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7131" uniqueCount="3657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7134" uniqueCount="3658">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11049,6 +11049,9 @@
   </si>
   <si>
     <t>2020.8.12</t>
+  </si>
+  <si>
+    <t>2020.8.13</t>
   </si>
 </sst>
 </file>
@@ -11563,6 +11566,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561142</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6239F199-DB2A-49BB-92FC-80892C9DA51F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="190500"/>
+          <a:ext cx="6666667" cy="2438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -11608,7 +11660,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11657,27 +11709,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>580190</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>18262</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8687</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A986D28-8764-478D-8DC6-8396BE90278D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE31EA5-D403-4921-962F-522F9FF06DD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11693,8 +11745,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6076950" y="200025"/>
-          <a:ext cx="6676190" cy="6304762"/>
+          <a:off x="6086475" y="190500"/>
+          <a:ext cx="6704762" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>18212</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C00021-A69D-46CE-85F2-295C0E0F6256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="180975"/>
+          <a:ext cx="6704762" cy="628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>18212</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF58C2B-4701-417B-BE67-43422CA50C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="209550"/>
+          <a:ext cx="6704762" cy="1371429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12363,8 +12513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A662" workbookViewId="0">
-      <selection activeCell="D689" sqref="D689"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="D439" sqref="D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13847,7 +13997,9 @@
       <c r="C114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>3657</v>
+      </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
@@ -15693,7 +15845,9 @@
       <c r="C258" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D258" s="3"/>
+      <c r="D258" s="3" t="s">
+        <v>3657</v>
+      </c>
     </row>
     <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="10">
@@ -17925,7 +18079,9 @@
       <c r="C438" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D438" s="3"/>
+      <c r="D438" s="3" t="s">
+        <v>3657</v>
+      </c>
     </row>
     <row r="439" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="10">
@@ -37368,7 +37524,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37924,6 +38080,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -37931,7 +38088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DEB519-3A6E-48A8-ADDA-BF63988ECB00}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -39765,8 +39922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497A7CF-D923-4949-BEAC-471DAE135A77}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40035,13 +40192,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="22">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="22" t="s">
         <v>3443</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="22" t="s">
         <v>3444</v>
       </c>
       <c r="D20" s="22" t="s">
@@ -40231,13 +40388,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="22">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="22" t="s">
         <v>3465</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="22" t="s">
         <v>3466</v>
       </c>
       <c r="D34" s="22" t="s">
@@ -40497,13 +40654,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="22">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="22" t="s">
         <v>3496</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="22" t="s">
         <v>3497</v>
       </c>
       <c r="D53" s="32" t="s">
@@ -40960,7 +41117,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41103,7 +41260,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42106,6 +42263,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -42114,7 +42272,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42627,6 +42785,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD99B6B-8732-49BB-8699-D530A2E758C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839A5FD-0AE6-47E7-8F8F-291FA2CD0A8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38370" yWindow="795" windowWidth="27375" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7134" uniqueCount="3658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7137" uniqueCount="3659">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11052,6 +11052,9 @@
   </si>
   <si>
     <t>2020.8.13</t>
+  </si>
+  <si>
+    <t>2020.8.14</t>
   </si>
 </sst>
 </file>
@@ -12513,8 +12516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="D439" sqref="D439"/>
+    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
+      <selection activeCell="D539" sqref="D539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19335,7 +19338,9 @@
       <c r="C539" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D539" s="4"/>
+      <c r="D539" s="4" t="s">
+        <v>3658</v>
+      </c>
     </row>
     <row r="540" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="10">
@@ -20963,7 +20968,9 @@
       <c r="C670" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D670" s="3"/>
+      <c r="D670" s="3" t="s">
+        <v>3658</v>
+      </c>
     </row>
     <row r="671" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="10">
@@ -25467,7 +25474,9 @@
       <c r="C1039" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1039" s="4"/>
+      <c r="D1039" s="4" t="s">
+        <v>3658</v>
+      </c>
     </row>
     <row r="1040" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1040" s="10">
@@ -39922,8 +39931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497A7CF-D923-4949-BEAC-471DAE135A77}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40234,13 +40243,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="22">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="22" t="s">
         <v>3447</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="22" t="s">
         <v>3448</v>
       </c>
       <c r="D23" s="22" t="s">
@@ -40248,13 +40257,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="22">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="22" t="s">
         <v>3449</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="22" t="s">
         <v>3450</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -41260,7 +41269,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42272,7 +42281,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E22" sqref="E22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42794,7 +42803,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839A5FD-0AE6-47E7-8F8F-291FA2CD0A8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81020030-AE03-459C-8801-07C4BC2BBF49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9990" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7137" uniqueCount="3659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7142" uniqueCount="3660">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10835,9 +10835,6 @@
     <t>Number of Closed Islands</t>
   </si>
   <si>
-    <t>#339</t>
-  </si>
-  <si>
     <t>Nested List Weight Sum</t>
   </si>
   <si>
@@ -11055,6 +11052,12 @@
   </si>
   <si>
     <t>2020.8.14</t>
+  </si>
+  <si>
+    <t>#$339</t>
+  </si>
+  <si>
+    <t>2020.8.15(self)</t>
   </si>
 </sst>
 </file>
@@ -11675,7 +11678,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>75352</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>37238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11766,13 +11769,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>18212</xdr:colOff>
+      <xdr:colOff>8687</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>47546</xdr:rowOff>
     </xdr:to>
@@ -11797,7 +11800,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="180975"/>
+          <a:off x="6086475" y="180975"/>
           <a:ext cx="6704762" cy="628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12516,8 +12519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
-      <selection activeCell="D539" sqref="D539"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="G496" sqref="G496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13799,7 +13802,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13824,7 +13827,9 @@
       <c r="C101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101" s="4" t="s">
+        <v>3659</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
@@ -13837,7 +13842,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13851,7 +13856,7 @@
         <v>7</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13877,7 +13882,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13891,7 +13896,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13905,7 +13910,7 @@
         <v>7</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13919,7 +13924,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13933,7 +13938,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13959,7 +13964,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13973,7 +13978,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13987,7 +13992,7 @@
         <v>5</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14001,7 +14006,7 @@
         <v>7</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14039,7 +14044,7 @@
         <v>7</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14053,7 +14058,7 @@
         <v>7</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14147,7 +14152,7 @@
         <v>10</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14771,7 +14776,7 @@
         <v>7</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14993,7 +14998,7 @@
         <v>5</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15007,7 +15012,7 @@
         <v>5</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15093,7 +15098,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15173,7 +15178,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15227,7 +15232,7 @@
         <v>7</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15267,7 +15272,7 @@
         <v>7</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15281,7 +15286,7 @@
         <v>10</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15383,7 +15388,7 @@
         <v>7</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15459,7 +15464,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15521,7 +15526,7 @@
         <v>5</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15575,7 +15580,7 @@
         <v>5</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15589,7 +15594,7 @@
         <v>7</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15849,7 +15854,7 @@
         <v>5</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16257,7 +16262,7 @@
         <v>5</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16343,7 +16348,7 @@
         <v>10</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16369,7 +16374,7 @@
         <v>5</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16419,7 +16424,7 @@
         <v>5</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16819,7 +16824,7 @@
         <v>10</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16893,7 +16898,7 @@
         <v>5</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17255,7 +17260,7 @@
         <v>5</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17481,7 +17486,7 @@
         <v>5</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17519,7 +17524,7 @@
         <v>5</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17631,7 +17636,7 @@
         <v>5</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17681,7 +17686,7 @@
         <v>5</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17731,7 +17736,7 @@
         <v>5</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17883,7 +17888,7 @@
         <v>7</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17981,7 +17986,7 @@
         <v>7</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18083,7 +18088,7 @@
         <v>5</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18133,7 +18138,7 @@
         <v>5</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18209,7 +18214,7 @@
         <v>5</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18249,7 +18254,7 @@
         <v>7</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18313,7 +18318,7 @@
         <v>5</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18389,7 +18394,7 @@
         <v>5</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18415,7 +18420,7 @@
         <v>5</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18561,7 +18566,7 @@
         <v>5</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18575,7 +18580,7 @@
         <v>5</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18873,7 +18878,7 @@
         <v>5</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18886,7 +18891,9 @@
       <c r="C502" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D502" s="3"/>
+      <c r="D502" s="3" t="s">
+        <v>3659</v>
+      </c>
     </row>
     <row r="503" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="10">
@@ -19240,7 +19247,9 @@
       <c r="C531" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D531" s="4"/>
+      <c r="D531" s="4" t="s">
+        <v>3659</v>
+      </c>
     </row>
     <row r="532" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="10" t="s">
@@ -19339,7 +19348,7 @@
         <v>5</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19405,7 +19414,7 @@
         <v>5</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="545" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19603,7 +19612,7 @@
         <v>5</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19801,7 +19810,7 @@
         <v>5</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19973,7 +19982,7 @@
         <v>5</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="591" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19987,7 +19996,7 @@
         <v>5</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20037,7 +20046,7 @@
         <v>5</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20321,7 +20330,7 @@
         <v>5</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="619" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20567,7 +20576,7 @@
         <v>5</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="639" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20667,7 +20676,7 @@
         <v>5</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20705,7 +20714,7 @@
         <v>7</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="650" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20768,7 +20777,9 @@
       <c r="C654" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D654" s="3"/>
+      <c r="D654" s="3" t="s">
+        <v>3659</v>
+      </c>
     </row>
     <row r="655" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="10">
@@ -20969,7 +20980,7 @@
         <v>5</v>
       </c>
       <c r="D670" s="3" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="671" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21069,7 +21080,7 @@
         <v>7</v>
       </c>
       <c r="D678" s="3" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="679" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21197,7 +21208,7 @@
         <v>5</v>
       </c>
       <c r="D688" s="3" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="689" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21235,7 +21246,7 @@
         <v>5</v>
       </c>
       <c r="D691" s="4" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="692" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21273,7 +21284,7 @@
         <v>5</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="695" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21363,7 +21374,7 @@
         <v>5</v>
       </c>
       <c r="D701" s="4" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="702" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21377,7 +21388,7 @@
         <v>7</v>
       </c>
       <c r="D702" s="3" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="703" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21403,7 +21414,7 @@
         <v>5</v>
       </c>
       <c r="D704" s="3" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="705" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21621,7 +21632,7 @@
         <v>5</v>
       </c>
       <c r="D721" s="4" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="722" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22392,7 +22403,9 @@
       <c r="C784" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D784" s="3"/>
+      <c r="D784" s="3" t="s">
+        <v>3659</v>
+      </c>
     </row>
     <row r="785" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A785" s="10">
@@ -22959,7 +22972,7 @@
         <v>5</v>
       </c>
       <c r="D831" s="4" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="832" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23671,7 +23684,7 @@
         <v>7</v>
       </c>
       <c r="D890" s="3" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="891" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25121,7 +25134,7 @@
         <v>5</v>
       </c>
       <c r="D1010" s="3" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1011" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25317,7 +25330,7 @@
         <v>5</v>
       </c>
       <c r="D1026" s="3" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1027" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25475,7 +25488,7 @@
         <v>7</v>
       </c>
       <c r="D1039" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1040" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38108,7 +38121,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -39929,10 +39942,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497A7CF-D923-4949-BEAC-471DAE135A77}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39962,7 +39976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -39976,7 +39990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -39990,7 +40004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -40088,7 +40102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -40102,7 +40116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -40144,7 +40158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -40158,7 +40172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -40172,7 +40186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -40186,7 +40200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -40214,7 +40228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -40228,7 +40242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -40270,7 +40284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>23</v>
       </c>
@@ -40298,7 +40312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -40313,13 +40327,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="22">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="22" t="s">
         <v>3455</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="22" t="s">
         <v>3456</v>
       </c>
       <c r="D28" s="22" t="s">
@@ -40327,13 +40341,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="22">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="22" t="s">
         <v>3457</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="22" t="s">
         <v>3458</v>
       </c>
       <c r="D29" s="22" t="s">
@@ -40341,20 +40355,20 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="22">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="22" t="s">
         <v>3459</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="22" t="s">
         <v>3460</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -40410,7 +40424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -40424,7 +40438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -40439,13 +40453,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="22">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="22" t="s">
         <v>3469</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="22" t="s">
         <v>3470</v>
       </c>
       <c r="D37" s="22" t="s">
@@ -40480,12 +40494,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>38</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>3475</v>
@@ -40494,7 +40508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -40508,7 +40522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -40522,7 +40536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -40550,7 +40564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -40578,7 +40592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -40592,7 +40606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -40606,7 +40620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -40620,7 +40634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -40648,7 +40662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -40662,7 +40676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>51</v>
       </c>
@@ -40676,7 +40690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -40690,7 +40704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -40704,7 +40718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -40718,7 +40732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -40732,7 +40746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -40747,20 +40761,20 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="22">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="22" t="s">
         <v>3502</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="22" t="s">
         <v>3503</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -40802,7 +40816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -40816,7 +40830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -40830,7 +40844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -40844,7 +40858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -40858,7 +40872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -40872,7 +40886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -40886,7 +40900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -40900,7 +40914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -40914,7 +40928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -40928,7 +40942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -40942,7 +40956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -40970,7 +40984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -40984,7 +40998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -40998,7 +41012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -41012,7 +41026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -41026,7 +41040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -41040,7 +41054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -41054,7 +41068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -41068,7 +41082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -41082,7 +41096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -41096,7 +41110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -41111,7 +41125,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D84" xr:uid="{B6425847-D436-4190-B51B-C80676B8E387}"/>
+  <autoFilter ref="A2:D84" xr:uid="{B6425847-D436-4190-B51B-C80676B8E387}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="简单"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -41126,7 +41146,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41269,7 +41289,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41314,13 +41334,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="22" t="s">
         <v>3421</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="22" t="s">
         <v>3422</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -41328,13 +41348,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="22" t="s">
         <v>3423</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="22" t="s">
         <v>3424</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -41412,13 +41432,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="22" t="s">
         <v>3433</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="22" t="s">
         <v>3434</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -41496,13 +41516,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="22">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="22" t="s">
         <v>3443</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="22" t="s">
         <v>3444</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -41552,13 +41572,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="22">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="22" t="s">
         <v>3453</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="22" t="s">
         <v>3454</v>
       </c>
       <c r="D21" s="22" t="s">
@@ -41594,13 +41614,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="22">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="22" t="s">
         <v>3035</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="22" t="s">
         <v>3034</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -41650,13 +41670,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="22">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="22" t="s">
         <v>3461</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="22" t="s">
         <v>3462</v>
       </c>
       <c r="D28" s="22" t="s">
@@ -41706,13 +41726,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="22">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="22" t="s">
         <v>3473</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="22" t="s">
         <v>3474</v>
       </c>
       <c r="D32" s="22" t="s">
@@ -41790,13 +41810,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="22">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="22" t="s">
         <v>3569</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="22" t="s">
         <v>3570</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -42056,14 +42076,14 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="31">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="31" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C57" s="31" t="s">
         <v>3585</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3586</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>5</v>
@@ -42102,10 +42122,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C60" t="s">
         <v>3587</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3588</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>7</v>
@@ -42116,10 +42136,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C61" t="s">
         <v>3589</v>
-      </c>
-      <c r="C61" t="s">
-        <v>3590</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>7</v>
@@ -42158,10 +42178,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C64" t="s">
         <v>3591</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3592</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>7</v>
@@ -42172,10 +42192,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C65" t="s">
         <v>3593</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3594</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>10</v>
@@ -42186,10 +42206,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C66" t="s">
         <v>3595</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3596</v>
       </c>
       <c r="D66" s="32" t="s">
         <v>7</v>
@@ -42200,10 +42220,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C67" t="s">
         <v>3597</v>
-      </c>
-      <c r="C67" t="s">
-        <v>3598</v>
       </c>
       <c r="D67" s="32" t="s">
         <v>7</v>
@@ -42242,10 +42262,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>3598</v>
+      </c>
+      <c r="C70" t="s">
         <v>3599</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3600</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>7</v>
@@ -42281,7 +42301,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:I22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42291,7 +42311,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -42326,13 +42346,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="22" t="s">
         <v>3427</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="22" t="s">
         <v>3428</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -42340,13 +42360,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="22" t="s">
         <v>3433</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="22" t="s">
         <v>3434</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -42438,13 +42458,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>3035</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="22" t="s">
         <v>3034</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -42484,10 +42504,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C15" t="s">
         <v>3602</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3603</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>10</v>
@@ -42498,23 +42518,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C16" t="s">
         <v>3604</v>
       </c>
-      <c r="C16" t="s">
-        <v>3605</v>
-      </c>
       <c r="D16" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="22">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="22" t="s">
         <v>3461</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="22" t="s">
         <v>3462</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -42582,10 +42602,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C22" t="s">
         <v>3606</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3607</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>7</v>
@@ -42624,10 +42644,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C25" t="s">
         <v>3608</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3609</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>10</v>
@@ -42638,10 +42658,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C26" t="s">
         <v>3610</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3611</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>7</v>
@@ -42680,10 +42700,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C29" t="s">
         <v>3612</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3613</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>10</v>
@@ -42694,10 +42714,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C30" t="s">
         <v>3587</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3588</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>7</v>
@@ -42708,10 +42728,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>3613</v>
+      </c>
+      <c r="C31" t="s">
         <v>3614</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3615</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>7</v>
@@ -42722,10 +42742,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C32" t="s">
         <v>3589</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3590</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>7</v>
@@ -42736,10 +42756,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>3615</v>
+      </c>
+      <c r="C33" t="s">
         <v>3616</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3617</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>10</v>
@@ -42750,10 +42770,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C34" t="s">
         <v>3591</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3592</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>7</v>
@@ -42764,10 +42784,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C35" t="s">
         <v>3593</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3594</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>10</v>
@@ -42778,10 +42798,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C36" t="s">
         <v>3595</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3596</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>7</v>
@@ -42803,7 +42823,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42813,7 +42833,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -42838,10 +42858,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C3" t="s">
         <v>3619</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3620</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>7</v>
@@ -42908,10 +42928,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C8" t="s">
         <v>3610</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3611</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>7</v>
@@ -42950,10 +42970,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C11" t="s">
         <v>3621</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3622</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>10</v>
@@ -42964,10 +42984,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C12" t="s">
         <v>3623</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3624</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>7</v>
@@ -42978,10 +42998,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C13" t="s">
         <v>3591</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3592</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>7</v>
@@ -42992,10 +43012,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C14" t="s">
         <v>3595</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3596</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>7</v>
@@ -43972,8 +43992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8B07CB-5951-4E4D-9656-CC903CD16628}">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81020030-AE03-459C-8801-07C4BC2BBF49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E752801-D705-4C5C-A994-F19160589802}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12345" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7142" uniqueCount="3660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7146" uniqueCount="3661">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11058,6 +11058,9 @@
   </si>
   <si>
     <t>2020.8.15(self)</t>
+  </si>
+  <si>
+    <t>2020.8.15</t>
   </si>
 </sst>
 </file>
@@ -12519,8 +12522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="G496" sqref="G496"/>
+    <sheetView tabSelected="1" topLeftCell="A664" workbookViewId="0">
+      <selection activeCell="D673" sqref="D673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17673,7 +17676,9 @@
       <c r="C405" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D405" s="4"/>
+      <c r="D405" s="4" t="s">
+        <v>3659</v>
+      </c>
     </row>
     <row r="406" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="10">
@@ -19663,7 +19668,9 @@
       <c r="C564" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D564" s="3"/>
+      <c r="D564" s="3" t="s">
+        <v>3660</v>
+      </c>
     </row>
     <row r="565" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="10">
@@ -19773,7 +19780,9 @@
       <c r="C573" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D573" s="4"/>
+      <c r="D573" s="4" t="s">
+        <v>3660</v>
+      </c>
     </row>
     <row r="574" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="10" t="s">
@@ -21005,7 +21014,9 @@
       <c r="C672" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D672" s="3"/>
+      <c r="D672" s="3" t="s">
+        <v>3659</v>
+      </c>
     </row>
     <row r="673" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="10">
@@ -39945,8 +39956,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40467,13 +40478,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="22">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="22" t="s">
         <v>3471</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="22" t="s">
         <v>3472</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -40551,13 +40562,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="22">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="22" t="s">
         <v>3480</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="22" t="s">
         <v>3481</v>
       </c>
       <c r="D44" s="22" t="s">
@@ -40789,13 +40800,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="22">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="22" t="s">
         <v>3506</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="22" t="s">
         <v>3507</v>
       </c>
       <c r="D61" s="22" t="s">
@@ -40803,13 +40814,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="22">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="22" t="s">
         <v>3508</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="22" t="s">
         <v>3509</v>
       </c>
       <c r="D62" s="22" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009983AB-EBAF-47E4-8BFC-7E1C973B8B5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CB3FC6-4C94-43BC-A876-40CB874E025F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15780" yWindow="3720" windowWidth="11520" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7127" uniqueCount="3661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="3662">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11061,6 +11061,9 @@
   </si>
   <si>
     <t>2020.8.16</t>
+  </si>
+  <si>
+    <t>2020.8.17</t>
   </si>
 </sst>
 </file>
@@ -11415,6 +11418,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11428,15 +11440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12531,8 +12534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12545,17 +12548,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="F1" s="28" t="s">
         <v>3308</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -13791,7 +13794,9 @@
       <c r="C97" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>3661</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
@@ -14033,7 +14038,9 @@
       <c r="C115" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="4"/>
+      <c r="D115" s="4" t="s">
+        <v>3661</v>
+      </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
@@ -14816,7 +14823,7 @@
         <v>5</v>
       </c>
       <c r="D176" s="3"/>
-      <c r="E176" s="44" t="s">
+      <c r="E176" s="47" t="s">
         <v>3300</v>
       </c>
     </row>
@@ -14831,7 +14838,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="4"/>
-      <c r="E177" s="44"/>
+      <c r="E177" s="47"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
@@ -14844,7 +14851,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="3"/>
-      <c r="E178" s="44"/>
+      <c r="E178" s="47"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
@@ -14857,7 +14864,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="4"/>
-      <c r="E179" s="44"/>
+      <c r="E179" s="47"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
@@ -14882,7 +14889,7 @@
         <v>7</v>
       </c>
       <c r="D181" s="4"/>
-      <c r="E181" s="44" t="s">
+      <c r="E181" s="47" t="s">
         <v>3300</v>
       </c>
     </row>
@@ -14897,7 +14904,7 @@
         <v>5</v>
       </c>
       <c r="D182" s="3"/>
-      <c r="E182" s="44"/>
+      <c r="E182" s="47"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
@@ -14910,7 +14917,7 @@
         <v>5</v>
       </c>
       <c r="D183" s="4"/>
-      <c r="E183" s="44"/>
+      <c r="E183" s="47"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
@@ -14923,7 +14930,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="3"/>
-      <c r="E184" s="44"/>
+      <c r="E184" s="47"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
@@ -14936,7 +14943,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="4"/>
-      <c r="E185" s="44"/>
+      <c r="E185" s="47"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
@@ -14949,7 +14956,7 @@
         <v>10</v>
       </c>
       <c r="D186" s="3"/>
-      <c r="E186" s="44"/>
+      <c r="E186" s="47"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
@@ -20811,7 +20818,9 @@
       <c r="C655" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D655" s="4"/>
+      <c r="D655" s="4" t="s">
+        <v>3661</v>
+      </c>
     </row>
     <row r="656" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="10">
@@ -33138,14 +33147,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3097</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33201,8 +33210,8 @@
       <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -33487,12 +33496,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3054</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -34423,12 +34432,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3147</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -35678,20 +35687,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3111</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -35983,12 +35992,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>2869</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36084,12 +36093,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3136</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36281,12 +36290,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3127</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36425,20 +36434,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>2905</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -36717,12 +36726,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3356</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -37167,12 +37176,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3623</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -37533,12 +37542,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>1492</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -38901,8 +38910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497A7CF-D923-4949-BEAC-471DAE135A77}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38911,12 +38920,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3417</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -38952,7 +38961,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="22" t="s">
         <v>3150</v>
       </c>
       <c r="B5" t="s">
@@ -39029,7 +39038,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="22" t="s">
         <v>3430</v>
       </c>
       <c r="B12" t="s">
@@ -39073,7 +39082,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="22" t="s">
         <v>3434</v>
       </c>
       <c r="B16" t="s">
@@ -39856,12 +39865,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3543</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40658,12 +40667,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3599</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -41076,12 +41085,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3122</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -41195,12 +41204,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>3616</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -41373,12 +41382,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>1708</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -42323,38 +42332,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="54.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>2551</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>2550</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="50" t="s">
         <v>2222</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>2224</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="44" t="s">
         <v>2225</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -42365,7 +42374,7 @@
       <c r="A5" s="20" t="s">
         <v>2226</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>2227</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -42376,7 +42385,7 @@
       <c r="A6" s="20" t="s">
         <v>2228</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>2229</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -42387,7 +42396,7 @@
       <c r="A7" s="20" t="s">
         <v>2230</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>2231</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -42398,7 +42407,7 @@
       <c r="A8" s="20" t="s">
         <v>2232</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="43" t="s">
         <v>2233</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -42409,7 +42418,7 @@
       <c r="A9" s="20" t="s">
         <v>2234</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="43" t="s">
         <v>2235</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -42420,7 +42429,7 @@
       <c r="A10" s="20" t="s">
         <v>2236</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="43" t="s">
         <v>2237</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -42431,7 +42440,7 @@
       <c r="A11" s="20" t="s">
         <v>2238</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="43" t="s">
         <v>2239</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -42442,7 +42451,7 @@
       <c r="A12" s="20" t="s">
         <v>2240</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="43" t="s">
         <v>2241</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -42453,7 +42462,7 @@
       <c r="A13" s="20" t="s">
         <v>2242</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="43" t="s">
         <v>2243</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -42464,7 +42473,7 @@
       <c r="A14" s="20" t="s">
         <v>2244</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="43" t="s">
         <v>2245</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -42475,7 +42484,7 @@
       <c r="A15" s="20" t="s">
         <v>2246</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="43" t="s">
         <v>2247</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -42486,7 +42495,7 @@
       <c r="A16" s="11" t="s">
         <v>2248</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="44" t="s">
         <v>2249</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -42497,7 +42506,7 @@
       <c r="A17" s="11" t="s">
         <v>2250</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="44" t="s">
         <v>2251</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -42508,7 +42517,7 @@
       <c r="A18" s="11" t="s">
         <v>2252</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="44" t="s">
         <v>2253</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -42519,7 +42528,7 @@
       <c r="A19" s="20" t="s">
         <v>2254</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="43" t="s">
         <v>2255</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -42530,7 +42539,7 @@
       <c r="A20" s="11" t="s">
         <v>2256</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="44" t="s">
         <v>2257</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -42541,7 +42550,7 @@
       <c r="A21" s="20" t="s">
         <v>2258</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="43" t="s">
         <v>2259</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -42552,7 +42561,7 @@
       <c r="A22" s="11" t="s">
         <v>2260</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="44" t="s">
         <v>2261</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -42563,7 +42572,7 @@
       <c r="A23" s="11" t="s">
         <v>2262</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="44" t="s">
         <v>2263</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -42574,7 +42583,7 @@
       <c r="A24" s="11" t="s">
         <v>2264</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="44" t="s">
         <v>2265</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -42585,7 +42594,7 @@
       <c r="A25" s="20" t="s">
         <v>2266</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="43" t="s">
         <v>2267</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -42596,7 +42605,7 @@
       <c r="A26" s="20" t="s">
         <v>2268</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="43" t="s">
         <v>2269</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -42607,7 +42616,7 @@
       <c r="A27" s="20" t="s">
         <v>2270</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="43" t="s">
         <v>2271</v>
       </c>
       <c r="C27" s="20" t="s">
@@ -42618,7 +42627,7 @@
       <c r="A28" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="44" t="s">
         <v>2273</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -42629,7 +42638,7 @@
       <c r="A29" s="11" t="s">
         <v>2274</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="44" t="s">
         <v>2275</v>
       </c>
       <c r="C29" s="27" t="s">
@@ -42640,7 +42649,7 @@
       <c r="A30" s="20" t="s">
         <v>2276</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="43" t="s">
         <v>2277</v>
       </c>
       <c r="C30" s="20" t="s">
@@ -42651,7 +42660,7 @@
       <c r="A31" s="11" t="s">
         <v>2278</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="44" t="s">
         <v>2279</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -42662,7 +42671,7 @@
       <c r="A32" s="11" t="s">
         <v>2280</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="44" t="s">
         <v>2281</v>
       </c>
       <c r="C32" s="27" t="s">
@@ -42673,7 +42682,7 @@
       <c r="A33" s="11" t="s">
         <v>2282</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="44" t="s">
         <v>2283</v>
       </c>
       <c r="C33" s="27" t="s">
@@ -42684,7 +42693,7 @@
       <c r="A34" s="11" t="s">
         <v>2284</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="44" t="s">
         <v>2285</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -42695,7 +42704,7 @@
       <c r="A35" s="11" t="s">
         <v>2286</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="44" t="s">
         <v>2287</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -42706,7 +42715,7 @@
       <c r="A36" s="11" t="s">
         <v>2288</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="44" t="s">
         <v>2289</v>
       </c>
       <c r="C36" s="26" t="s">
@@ -42717,7 +42726,7 @@
       <c r="A37" s="11" t="s">
         <v>2290</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="44" t="s">
         <v>2291</v>
       </c>
       <c r="C37" s="27" t="s">
@@ -42728,7 +42737,7 @@
       <c r="A38" s="11" t="s">
         <v>2292</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="44" t="s">
         <v>2293</v>
       </c>
       <c r="C38" s="27" t="s">
@@ -42739,7 +42748,7 @@
       <c r="A39" s="11" t="s">
         <v>2294</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="44" t="s">
         <v>2295</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -42750,7 +42759,7 @@
       <c r="A40" s="11" t="s">
         <v>2296</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="44" t="s">
         <v>2297</v>
       </c>
       <c r="C40" s="27" t="s">
@@ -42761,7 +42770,7 @@
       <c r="A41" s="20" t="s">
         <v>2298</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="43" t="s">
         <v>2299</v>
       </c>
       <c r="C41" s="20" t="s">
@@ -42772,7 +42781,7 @@
       <c r="A42" s="20" t="s">
         <v>2300</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="43" t="s">
         <v>2301</v>
       </c>
       <c r="C42" s="20" t="s">
@@ -42783,7 +42792,7 @@
       <c r="A43" s="20" t="s">
         <v>2302</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="43" t="s">
         <v>2303</v>
       </c>
       <c r="C43" s="20" t="s">
@@ -42794,7 +42803,7 @@
       <c r="A44" s="11" t="s">
         <v>2304</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="44" t="s">
         <v>2305</v>
       </c>
       <c r="C44" s="27" t="s">
@@ -42805,7 +42814,7 @@
       <c r="A45" s="20" t="s">
         <v>2306</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="43" t="s">
         <v>2307</v>
       </c>
       <c r="C45" s="20" t="s">
@@ -42816,7 +42825,7 @@
       <c r="A46" s="11" t="s">
         <v>2308</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="44" t="s">
         <v>2309</v>
       </c>
       <c r="C46" s="27" t="s">
@@ -42827,7 +42836,7 @@
       <c r="A47" s="20" t="s">
         <v>2310</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="43" t="s">
         <v>2311</v>
       </c>
       <c r="C47" s="20" t="s">
@@ -42838,7 +42847,7 @@
       <c r="A48" s="20" t="s">
         <v>2312</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="43" t="s">
         <v>2313</v>
       </c>
       <c r="C48" s="20" t="s">
@@ -42849,7 +42858,7 @@
       <c r="A49" s="11" t="s">
         <v>2314</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="44" t="s">
         <v>2315</v>
       </c>
       <c r="C49" s="27" t="s">
@@ -42860,7 +42869,7 @@
       <c r="A50" s="11" t="s">
         <v>2316</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="44" t="s">
         <v>2317</v>
       </c>
       <c r="C50" s="27" t="s">
@@ -42871,7 +42880,7 @@
       <c r="A51" s="20" t="s">
         <v>2318</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="43" t="s">
         <v>2319</v>
       </c>
       <c r="C51" s="20" t="s">
@@ -42882,7 +42891,7 @@
       <c r="A52" s="20" t="s">
         <v>2320</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="43" t="s">
         <v>2321</v>
       </c>
       <c r="C52" s="20" t="s">
@@ -42893,7 +42902,7 @@
       <c r="A53" s="11" t="s">
         <v>2322</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="44" t="s">
         <v>2323</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -42904,7 +42913,7 @@
       <c r="A54" s="11" t="s">
         <v>2324</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="44" t="s">
         <v>2325</v>
       </c>
       <c r="C54" s="27" t="s">
@@ -42915,7 +42924,7 @@
       <c r="A55" s="11" t="s">
         <v>2326</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="44" t="s">
         <v>2327</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -42926,7 +42935,7 @@
       <c r="A56" s="11" t="s">
         <v>2328</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="44" t="s">
         <v>2329</v>
       </c>
       <c r="C56" s="26" t="s">
@@ -42937,7 +42946,7 @@
       <c r="A57" s="11" t="s">
         <v>2330</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="44" t="s">
         <v>2331</v>
       </c>
       <c r="C57" s="27" t="s">
@@ -42948,7 +42957,7 @@
       <c r="A58" s="20" t="s">
         <v>2332</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="43" t="s">
         <v>2333</v>
       </c>
       <c r="C58" s="20" t="s">
@@ -42959,7 +42968,7 @@
       <c r="A59" s="20" t="s">
         <v>2334</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="43" t="s">
         <v>2335</v>
       </c>
       <c r="C59" s="20" t="s">
@@ -42970,7 +42979,7 @@
       <c r="A60" s="11" t="s">
         <v>2336</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="44" t="s">
         <v>2337</v>
       </c>
       <c r="C60" s="27" t="s">
@@ -42981,7 +42990,7 @@
       <c r="A61" s="20" t="s">
         <v>2338</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="43" t="s">
         <v>2339</v>
       </c>
       <c r="C61" s="20" t="s">
@@ -42992,7 +43001,7 @@
       <c r="A62" s="11" t="s">
         <v>2340</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="44" t="s">
         <v>2341</v>
       </c>
       <c r="C62" s="27" t="s">
@@ -43003,7 +43012,7 @@
       <c r="A63" s="11" t="s">
         <v>2342</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="44" t="s">
         <v>2343</v>
       </c>
       <c r="C63" s="26" t="s">
@@ -43014,7 +43023,7 @@
       <c r="A64" s="20" t="s">
         <v>2344</v>
       </c>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="43" t="s">
         <v>2345</v>
       </c>
       <c r="C64" s="20" t="s">
@@ -43025,7 +43034,7 @@
       <c r="A65" s="11" t="s">
         <v>2346</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="44" t="s">
         <v>2347</v>
       </c>
       <c r="C65" s="27" t="s">
@@ -43036,7 +43045,7 @@
       <c r="A66" s="20" t="s">
         <v>2348</v>
       </c>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="43" t="s">
         <v>2349</v>
       </c>
       <c r="C66" s="26" t="s">
@@ -43047,7 +43056,7 @@
       <c r="A67" s="20" t="s">
         <v>2350</v>
       </c>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="43" t="s">
         <v>2351</v>
       </c>
       <c r="C67" s="20" t="s">
@@ -43058,7 +43067,7 @@
       <c r="A68" s="11" t="s">
         <v>2352</v>
       </c>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="44" t="s">
         <v>2353</v>
       </c>
       <c r="C68" s="27" t="s">
@@ -43069,7 +43078,7 @@
       <c r="A69" s="11" t="s">
         <v>2354</v>
       </c>
-      <c r="B69" s="49" t="s">
+      <c r="B69" s="44" t="s">
         <v>2355</v>
       </c>
       <c r="C69" s="26" t="s">
@@ -43080,7 +43089,7 @@
       <c r="A70" s="20" t="s">
         <v>2356</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="43" t="s">
         <v>2357</v>
       </c>
       <c r="C70" s="20" t="s">
@@ -43091,7 +43100,7 @@
       <c r="A71" s="20" t="s">
         <v>2358</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="43" t="s">
         <v>2359</v>
       </c>
       <c r="C71" s="20" t="s">
@@ -43102,7 +43111,7 @@
       <c r="A72" s="11" t="s">
         <v>2360</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="44" t="s">
         <v>2361</v>
       </c>
       <c r="C72" s="27" t="s">
@@ -43113,7 +43122,7 @@
       <c r="A73" s="20" t="s">
         <v>2362</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="43" t="s">
         <v>2363</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -43124,7 +43133,7 @@
       <c r="A74" s="11" t="s">
         <v>2364</v>
       </c>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="44" t="s">
         <v>2365</v>
       </c>
       <c r="C74" s="27" t="s">
@@ -43135,7 +43144,7 @@
       <c r="A75" s="20" t="s">
         <v>2366</v>
       </c>
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="43" t="s">
         <v>2367</v>
       </c>
       <c r="C75" s="20" t="s">
@@ -43146,7 +43155,7 @@
       <c r="A76" s="11" t="s">
         <v>2368</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="44" t="s">
         <v>2369</v>
       </c>
       <c r="C76" s="27" t="s">
@@ -43157,7 +43166,7 @@
       <c r="A77" s="11" t="s">
         <v>2370</v>
       </c>
-      <c r="B77" s="49" t="s">
+      <c r="B77" s="44" t="s">
         <v>2371</v>
       </c>
       <c r="C77" s="27" t="s">
@@ -43168,7 +43177,7 @@
       <c r="A78" s="20" t="s">
         <v>2372</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="43" t="s">
         <v>2373</v>
       </c>
       <c r="C78" s="20" t="s">
@@ -43179,7 +43188,7 @@
       <c r="A79" s="11" t="s">
         <v>2374</v>
       </c>
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="44" t="s">
         <v>2375</v>
       </c>
       <c r="C79" s="27" t="s">
@@ -43190,7 +43199,7 @@
       <c r="A80" s="11" t="s">
         <v>2376</v>
       </c>
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="44" t="s">
         <v>2377</v>
       </c>
       <c r="C80" s="27" t="s">
@@ -43201,7 +43210,7 @@
       <c r="A81" s="11" t="s">
         <v>2378</v>
       </c>
-      <c r="B81" s="49" t="s">
+      <c r="B81" s="44" t="s">
         <v>2379</v>
       </c>
       <c r="C81" s="27" t="s">
@@ -43212,7 +43221,7 @@
       <c r="A82" s="20" t="s">
         <v>2380</v>
       </c>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="43" t="s">
         <v>2381</v>
       </c>
       <c r="C82" s="20" t="s">
@@ -43223,7 +43232,7 @@
       <c r="A83" s="11" t="s">
         <v>2382</v>
       </c>
-      <c r="B83" s="49" t="s">
+      <c r="B83" s="44" t="s">
         <v>2383</v>
       </c>
       <c r="C83" s="27" t="s">
@@ -43234,7 +43243,7 @@
       <c r="A84" s="11" t="s">
         <v>2384</v>
       </c>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="44" t="s">
         <v>2385</v>
       </c>
       <c r="C84" s="27" t="s">
@@ -43245,7 +43254,7 @@
       <c r="A85" s="20" t="s">
         <v>2386</v>
       </c>
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="43" t="s">
         <v>2387</v>
       </c>
       <c r="C85" s="20" t="s">
@@ -43256,7 +43265,7 @@
       <c r="A86" s="11" t="s">
         <v>2388</v>
       </c>
-      <c r="B86" s="49" t="s">
+      <c r="B86" s="44" t="s">
         <v>2389</v>
       </c>
       <c r="C86" s="27" t="s">
@@ -43267,7 +43276,7 @@
       <c r="A87" s="11" t="s">
         <v>2390</v>
       </c>
-      <c r="B87" s="49" t="s">
+      <c r="B87" s="44" t="s">
         <v>2391</v>
       </c>
       <c r="C87" s="27" t="s">
@@ -43278,7 +43287,7 @@
       <c r="A88" s="20" t="s">
         <v>2392</v>
       </c>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="43" t="s">
         <v>2393</v>
       </c>
       <c r="C88" s="20" t="s">
@@ -43289,7 +43298,7 @@
       <c r="A89" s="11" t="s">
         <v>2394</v>
       </c>
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="44" t="s">
         <v>2395</v>
       </c>
       <c r="C89" s="27" t="s">
@@ -43300,7 +43309,7 @@
       <c r="A90" s="11" t="s">
         <v>2396</v>
       </c>
-      <c r="B90" s="49" t="s">
+      <c r="B90" s="44" t="s">
         <v>2397</v>
       </c>
       <c r="C90" s="27" t="s">
@@ -43311,7 +43320,7 @@
       <c r="A91" s="20" t="s">
         <v>2398</v>
       </c>
-      <c r="B91" s="48" t="s">
+      <c r="B91" s="43" t="s">
         <v>2399</v>
       </c>
       <c r="C91" s="20" t="s">
@@ -43322,7 +43331,7 @@
       <c r="A92" s="11" t="s">
         <v>2400</v>
       </c>
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="44" t="s">
         <v>2401</v>
       </c>
       <c r="C92" s="27" t="s">
@@ -43333,7 +43342,7 @@
       <c r="A93" s="20" t="s">
         <v>2402</v>
       </c>
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="43" t="s">
         <v>2403</v>
       </c>
       <c r="C93" s="20" t="s">
@@ -43344,7 +43353,7 @@
       <c r="A94" s="20" t="s">
         <v>2404</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="43" t="s">
         <v>2405</v>
       </c>
       <c r="C94" s="20" t="s">
@@ -43355,7 +43364,7 @@
       <c r="A95" s="11" t="s">
         <v>2406</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="44" t="s">
         <v>2407</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -43366,7 +43375,7 @@
       <c r="A96" s="11" t="s">
         <v>2408</v>
       </c>
-      <c r="B96" s="49" t="s">
+      <c r="B96" s="44" t="s">
         <v>2409</v>
       </c>
       <c r="C96" s="27" t="s">
@@ -43377,7 +43386,7 @@
       <c r="A97" s="11" t="s">
         <v>2410</v>
       </c>
-      <c r="B97" s="49" t="s">
+      <c r="B97" s="44" t="s">
         <v>2411</v>
       </c>
       <c r="C97" s="27" t="s">
@@ -43388,7 +43397,7 @@
       <c r="A98" s="20" t="s">
         <v>2412</v>
       </c>
-      <c r="B98" s="48" t="s">
+      <c r="B98" s="43" t="s">
         <v>2413</v>
       </c>
       <c r="C98" s="20" t="s">
@@ -43399,7 +43408,7 @@
       <c r="A99" s="11" t="s">
         <v>2414</v>
       </c>
-      <c r="B99" s="49" t="s">
+      <c r="B99" s="44" t="s">
         <v>2415</v>
       </c>
       <c r="C99" s="27" t="s">
@@ -43410,7 +43419,7 @@
       <c r="A100" s="11" t="s">
         <v>2416</v>
       </c>
-      <c r="B100" s="49" t="s">
+      <c r="B100" s="44" t="s">
         <v>2417</v>
       </c>
       <c r="C100" s="27" t="s">
@@ -43421,7 +43430,7 @@
       <c r="A101" s="20" t="s">
         <v>2418</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="43" t="s">
         <v>2419</v>
       </c>
       <c r="C101" s="20" t="s">
@@ -43432,7 +43441,7 @@
       <c r="A102" s="11" t="s">
         <v>2420</v>
       </c>
-      <c r="B102" s="49" t="s">
+      <c r="B102" s="44" t="s">
         <v>2421</v>
       </c>
       <c r="C102" s="26" t="s">
@@ -43443,7 +43452,7 @@
       <c r="A103" s="11" t="s">
         <v>2422</v>
       </c>
-      <c r="B103" s="49" t="s">
+      <c r="B103" s="44" t="s">
         <v>2423</v>
       </c>
       <c r="C103" s="27" t="s">
@@ -43454,7 +43463,7 @@
       <c r="A104" s="11" t="s">
         <v>2424</v>
       </c>
-      <c r="B104" s="49" t="s">
+      <c r="B104" s="44" t="s">
         <v>2425</v>
       </c>
       <c r="C104" s="27" t="s">
@@ -43465,7 +43474,7 @@
       <c r="A105" s="11" t="s">
         <v>2426</v>
       </c>
-      <c r="B105" s="49" t="s">
+      <c r="B105" s="44" t="s">
         <v>2427</v>
       </c>
       <c r="C105" s="26" t="s">
@@ -43476,7 +43485,7 @@
       <c r="A106" s="11" t="s">
         <v>2428</v>
       </c>
-      <c r="B106" s="49" t="s">
+      <c r="B106" s="44" t="s">
         <v>2429</v>
       </c>
       <c r="C106" s="26" t="s">
@@ -43487,7 +43496,7 @@
       <c r="A107" s="11" t="s">
         <v>2430</v>
       </c>
-      <c r="B107" s="49" t="s">
+      <c r="B107" s="44" t="s">
         <v>2431</v>
       </c>
       <c r="C107" s="27" t="s">
@@ -43498,7 +43507,7 @@
       <c r="A108" s="11" t="s">
         <v>2432</v>
       </c>
-      <c r="B108" s="49" t="s">
+      <c r="B108" s="44" t="s">
         <v>2433</v>
       </c>
       <c r="C108" s="27" t="s">
@@ -43509,7 +43518,7 @@
       <c r="A109" s="11" t="s">
         <v>2434</v>
       </c>
-      <c r="B109" s="49" t="s">
+      <c r="B109" s="44" t="s">
         <v>2435</v>
       </c>
       <c r="C109" s="26" t="s">
@@ -43520,7 +43529,7 @@
       <c r="A110" s="20" t="s">
         <v>2436</v>
       </c>
-      <c r="B110" s="48" t="s">
+      <c r="B110" s="43" t="s">
         <v>2437</v>
       </c>
       <c r="C110" s="20" t="s">
@@ -43531,7 +43540,7 @@
       <c r="A111" s="11" t="s">
         <v>2438</v>
       </c>
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="44" t="s">
         <v>2439</v>
       </c>
       <c r="C111" s="27" t="s">
@@ -43542,7 +43551,7 @@
       <c r="A112" s="11" t="s">
         <v>2440</v>
       </c>
-      <c r="B112" s="49" t="s">
+      <c r="B112" s="44" t="s">
         <v>2441</v>
       </c>
       <c r="C112" s="26" t="s">
@@ -43553,7 +43562,7 @@
       <c r="A113" s="20" t="s">
         <v>2442</v>
       </c>
-      <c r="B113" s="48" t="s">
+      <c r="B113" s="43" t="s">
         <v>2443</v>
       </c>
       <c r="C113" s="20" t="s">
@@ -43564,7 +43573,7 @@
       <c r="A114" s="11" t="s">
         <v>2444</v>
       </c>
-      <c r="B114" s="49" t="s">
+      <c r="B114" s="44" t="s">
         <v>2445</v>
       </c>
       <c r="C114" s="27" t="s">
@@ -43575,7 +43584,7 @@
       <c r="A115" s="11" t="s">
         <v>2446</v>
       </c>
-      <c r="B115" s="49" t="s">
+      <c r="B115" s="44" t="s">
         <v>2447</v>
       </c>
       <c r="C115" s="27" t="s">
@@ -43586,7 +43595,7 @@
       <c r="A116" s="11" t="s">
         <v>2448</v>
       </c>
-      <c r="B116" s="49" t="s">
+      <c r="B116" s="44" t="s">
         <v>2449</v>
       </c>
       <c r="C116" s="27" t="s">
@@ -43597,7 +43606,7 @@
       <c r="A117" s="11" t="s">
         <v>2450</v>
       </c>
-      <c r="B117" s="49" t="s">
+      <c r="B117" s="44" t="s">
         <v>2451</v>
       </c>
       <c r="C117" s="27" t="s">
@@ -43610,7 +43619,7 @@
       <c r="A118" s="20" t="s">
         <v>2452</v>
       </c>
-      <c r="B118" s="48" t="s">
+      <c r="B118" s="43" t="s">
         <v>2453</v>
       </c>
       <c r="C118" s="20" t="s">
@@ -43621,7 +43630,7 @@
       <c r="A119" s="20" t="s">
         <v>2454</v>
       </c>
-      <c r="B119" s="48" t="s">
+      <c r="B119" s="43" t="s">
         <v>2455</v>
       </c>
       <c r="C119" s="20" t="s">
@@ -43632,7 +43641,7 @@
       <c r="A120" s="11" t="s">
         <v>2456</v>
       </c>
-      <c r="B120" s="49" t="s">
+      <c r="B120" s="44" t="s">
         <v>2457</v>
       </c>
       <c r="C120" s="27" t="s">
@@ -43643,7 +43652,7 @@
       <c r="A121" s="11" t="s">
         <v>2458</v>
       </c>
-      <c r="B121" s="49" t="s">
+      <c r="B121" s="44" t="s">
         <v>2459</v>
       </c>
       <c r="C121" s="27" t="s">
@@ -43654,7 +43663,7 @@
       <c r="A122" s="11" t="s">
         <v>2460</v>
       </c>
-      <c r="B122" s="49" t="s">
+      <c r="B122" s="44" t="s">
         <v>2461</v>
       </c>
       <c r="C122" s="27" t="s">
@@ -43665,7 +43674,7 @@
       <c r="A123" s="11" t="s">
         <v>2462</v>
       </c>
-      <c r="B123" s="49" t="s">
+      <c r="B123" s="44" t="s">
         <v>2463</v>
       </c>
       <c r="C123" s="27" t="s">
@@ -43676,7 +43685,7 @@
       <c r="A124" s="11" t="s">
         <v>2464</v>
       </c>
-      <c r="B124" s="49" t="s">
+      <c r="B124" s="44" t="s">
         <v>2465</v>
       </c>
       <c r="C124" s="27" t="s">
@@ -43687,7 +43696,7 @@
       <c r="A125" s="29" t="s">
         <v>3309</v>
       </c>
-      <c r="B125" s="50" t="s">
+      <c r="B125" s="45" t="s">
         <v>2466</v>
       </c>
       <c r="C125" s="30" t="s">
@@ -43700,7 +43709,7 @@
       <c r="A126" s="11" t="s">
         <v>2467</v>
       </c>
-      <c r="B126" s="49" t="s">
+      <c r="B126" s="44" t="s">
         <v>2468</v>
       </c>
       <c r="C126" s="27" t="s">
@@ -43713,7 +43722,7 @@
       <c r="A127" s="11" t="s">
         <v>2469</v>
       </c>
-      <c r="B127" s="49" t="s">
+      <c r="B127" s="44" t="s">
         <v>2470</v>
       </c>
       <c r="C127" s="27" t="s">
@@ -43724,7 +43733,7 @@
       <c r="A128" s="11" t="s">
         <v>2471</v>
       </c>
-      <c r="B128" s="49" t="s">
+      <c r="B128" s="44" t="s">
         <v>2472</v>
       </c>
       <c r="C128" s="26" t="s">
@@ -43735,7 +43744,7 @@
       <c r="A129" s="11" t="s">
         <v>2473</v>
       </c>
-      <c r="B129" s="49" t="s">
+      <c r="B129" s="44" t="s">
         <v>2474</v>
       </c>
       <c r="C129" s="27" t="s">
@@ -43746,7 +43755,7 @@
       <c r="A130" s="11" t="s">
         <v>2475</v>
       </c>
-      <c r="B130" s="49" t="s">
+      <c r="B130" s="44" t="s">
         <v>2476</v>
       </c>
       <c r="C130" s="27" t="s">
@@ -43757,7 +43766,7 @@
       <c r="A131" s="11" t="s">
         <v>2477</v>
       </c>
-      <c r="B131" s="49" t="s">
+      <c r="B131" s="44" t="s">
         <v>2478</v>
       </c>
       <c r="C131" s="27" t="s">
@@ -43768,7 +43777,7 @@
       <c r="A132" s="20" t="s">
         <v>2479</v>
       </c>
-      <c r="B132" s="48" t="s">
+      <c r="B132" s="43" t="s">
         <v>2480</v>
       </c>
       <c r="C132" s="20" t="s">
@@ -43779,7 +43788,7 @@
       <c r="A133" s="11" t="s">
         <v>2481</v>
       </c>
-      <c r="B133" s="49" t="s">
+      <c r="B133" s="44" t="s">
         <v>2482</v>
       </c>
       <c r="C133" s="27" t="s">
@@ -43790,7 +43799,7 @@
       <c r="A134" s="29" t="s">
         <v>3310</v>
       </c>
-      <c r="B134" s="50" t="s">
+      <c r="B134" s="45" t="s">
         <v>2483</v>
       </c>
       <c r="C134" s="30" t="s">
@@ -43803,7 +43812,7 @@
       <c r="A135" s="11" t="s">
         <v>2484</v>
       </c>
-      <c r="B135" s="49" t="s">
+      <c r="B135" s="44" t="s">
         <v>2485</v>
       </c>
       <c r="C135" s="27" t="s">
@@ -43814,7 +43823,7 @@
       <c r="A136" s="20" t="s">
         <v>2486</v>
       </c>
-      <c r="B136" s="48" t="s">
+      <c r="B136" s="43" t="s">
         <v>2487</v>
       </c>
       <c r="C136" s="20" t="s">
@@ -43854,12 +43863,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>2736</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44949,12 +44958,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>2763</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="34"/>
       <c r="F1" t="s">
         <v>3344</v>
@@ -45495,14 +45504,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>2861</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -45907,12 +45916,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>2808</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -46319,12 +46328,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>2962</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CB3FC6-4C94-43BC-A876-40CB874E025F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED560E0-4576-405B-99D9-7F8EC3F4C7DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15780" yWindow="3720" windowWidth="11520" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15285" yWindow="855" windowWidth="11520" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="3662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7133" uniqueCount="3663">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -11064,6 +11064,9 @@
   </si>
   <si>
     <t>2020.8.17</t>
+  </si>
+  <si>
+    <t>2020.8.19</t>
   </si>
 </sst>
 </file>
@@ -12534,8 +12537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="B632" workbookViewId="0">
+      <selection activeCell="D656" sqref="D656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15132,7 +15135,9 @@
       <c r="C200" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D200" s="3"/>
+      <c r="D200" s="3" t="s">
+        <v>3662</v>
+      </c>
     </row>
     <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10">
@@ -18264,7 +18269,9 @@
       <c r="C450" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D450" s="3"/>
+      <c r="D450" s="3" t="s">
+        <v>3662</v>
+      </c>
     </row>
     <row r="451" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="10">
@@ -20832,7 +20839,9 @@
       <c r="C656" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D656" s="3"/>
+      <c r="D656" s="3" t="s">
+        <v>3662</v>
+      </c>
     </row>
     <row r="657" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="10" t="s">
@@ -38910,8 +38919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497A7CF-D923-4949-BEAC-471DAE135A77}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39093,7 +39102,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="22" t="s">
         <v>3436</v>
       </c>
       <c r="B17" t="s">
@@ -39104,7 +39113,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="22" t="s">
         <v>3438</v>
       </c>
       <c r="B18" t="s">
@@ -39115,7 +39124,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="22" t="s">
         <v>3440</v>
       </c>
       <c r="B19" t="s">
@@ -39856,7 +39865,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40657,8 +40666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592B5F01-9573-4654-9993-4ADDB5DDFAF3}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LeetCode 题目.xlsx
+++ b/LeetCode 题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG82730HK-Data\fuyao\Desktop\cpp\FLY\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7263CF-9535-4BF9-BFF5-0571C6275480}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6874141F-7C21-4F1F-844F-53D20E926A56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13245" yWindow="735" windowWidth="13395" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode 题目" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6939" uniqueCount="3464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6945" uniqueCount="3465">
   <si>
     <t>LeetCode 题目</t>
   </si>
@@ -10470,6 +10470,9 @@
   </si>
   <si>
     <t>2020.8.23(self)</t>
+  </si>
+  <si>
+    <t>2020.8.25</t>
   </si>
 </sst>
 </file>
@@ -11905,8 +11908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlforma